--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -109,10 +109,10 @@
     <t>NK Tekstilac Ravnice</t>
   </si>
   <si>
-    <t>Lucko</t>
+    <t>NK Bistra</t>
   </si>
   <si>
-    <t>NK Bistra</t>
+    <t>Lucko</t>
   </si>
   <si>
     <t>RNK Split</t>
@@ -175,10 +175,10 @@
     <t>NK Tresnjevka</t>
   </si>
   <si>
-    <t>NK Maksimir</t>
+    <t>NK Ponikve</t>
   </si>
   <si>
-    <t>NK Ponikve</t>
+    <t>NK Maksimir</t>
   </si>
   <si>
     <t>NK Krizevci</t>
@@ -950,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6353811</v>
+        <v>6353810</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -965,55 +965,55 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>98</v>
       </c>
       <c r="K4">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="N4">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -1022,16 +1022,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1039,7 +1039,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6353810</v>
+        <v>6353811</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1054,55 +1054,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>98</v>
       </c>
       <c r="K5">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N5">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="O5">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="Q5">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -1111,16 +1111,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1677,7 +1677,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1855,7 +1855,7 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -2030,7 +2030,7 @@
         <v>45014.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
         <v>52</v>
@@ -2211,7 +2211,7 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -3098,7 +3098,7 @@
         <v>45028.5</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>39</v>
@@ -3721,7 +3721,7 @@
         <v>45039.5</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -4599,7 +4599,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6612703</v>
+        <v>6612704</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4611,76 +4611,76 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K45">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="L45">
         <v>4</v>
       </c>
       <c r="M45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N45">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O45">
         <v>4</v>
       </c>
       <c r="P45">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q45">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4688,7 +4688,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6612704</v>
+        <v>6612703</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4700,76 +4700,76 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
         <v>0</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
       <c r="J46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K46">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="L46">
         <v>4</v>
       </c>
       <c r="M46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O46">
         <v>4</v>
       </c>
       <c r="P46">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q46">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R46">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S46">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA46">
+        <v>-1</v>
+      </c>
+      <c r="AB46">
+        <v>-1</v>
+      </c>
+      <c r="AC46">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB46">
-        <v>-1</v>
-      </c>
-      <c r="AC46">
-        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4881,7 +4881,7 @@
         <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -5133,7 +5133,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6642561</v>
+        <v>6642562</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5148,73 +5148,73 @@
         <v>53</v>
       </c>
       <c r="G51" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K51">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M51">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N51">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O51">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
         <v>3</v>
       </c>
       <c r="U51">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5222,7 +5222,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6642562</v>
+        <v>6642561</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5237,73 +5237,73 @@
         <v>54</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K52">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N52">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
         <v>3</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X52">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC52">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -6023,7 +6023,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7126860</v>
+        <v>7126858</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6035,76 +6035,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K61">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L61">
         <v>3.4</v>
       </c>
       <c r="M61">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N61">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="O61">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P61">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6112,7 +6112,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7126859</v>
+        <v>7126860</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -6124,10 +6124,10 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G62" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6139,61 +6139,61 @@
         <v>99</v>
       </c>
       <c r="K62">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M62">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N62">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P62">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T62">
         <v>3</v>
       </c>
       <c r="U62">
+        <v>1.95</v>
+      </c>
+      <c r="V62">
         <v>1.85</v>
       </c>
-      <c r="V62">
-        <v>1.95</v>
-      </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6201,7 +6201,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7126858</v>
+        <v>7126859</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6213,76 +6213,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K63">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="L63">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="N63">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="O63">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P63">
+        <v>5</v>
+      </c>
+      <c r="Q63">
+        <v>-1</v>
+      </c>
+      <c r="R63">
         <v>1.8</v>
       </c>
-      <c r="Q63">
-        <v>0.5</v>
-      </c>
-      <c r="R63">
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
+        <v>3</v>
+      </c>
+      <c r="U63">
+        <v>1.85</v>
+      </c>
+      <c r="V63">
         <v>1.95</v>
       </c>
-      <c r="S63">
-        <v>1.85</v>
-      </c>
-      <c r="T63">
-        <v>2.75</v>
-      </c>
-      <c r="U63">
-        <v>1.9</v>
-      </c>
-      <c r="V63">
-        <v>1.9</v>
-      </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6302,7 +6302,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
         <v>66</v>
@@ -6391,7 +6391,7 @@
         <v>45171.51041666666</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>39</v>
@@ -6646,7 +6646,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7183190</v>
+        <v>7183189</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6658,76 +6658,76 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K68">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L68">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M68">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O68">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P68">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6735,7 +6735,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7183189</v>
+        <v>7183190</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6747,76 +6747,76 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K69">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L69">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
+        <v>3.75</v>
+      </c>
+      <c r="N69">
+        <v>1.727</v>
+      </c>
+      <c r="O69">
+        <v>3.75</v>
+      </c>
+      <c r="P69">
+        <v>3.75</v>
+      </c>
+      <c r="Q69">
+        <v>-0.75</v>
+      </c>
+      <c r="R69">
+        <v>1.975</v>
+      </c>
+      <c r="S69">
+        <v>1.825</v>
+      </c>
+      <c r="T69">
         <v>3</v>
       </c>
-      <c r="N69">
-        <v>2.1</v>
-      </c>
-      <c r="O69">
-        <v>3.3</v>
-      </c>
-      <c r="P69">
-        <v>3</v>
-      </c>
-      <c r="Q69">
-        <v>-0.25</v>
-      </c>
-      <c r="R69">
-        <v>1.9</v>
-      </c>
-      <c r="S69">
-        <v>1.9</v>
-      </c>
-      <c r="T69">
+      <c r="U69">
+        <v>1.95</v>
+      </c>
+      <c r="V69">
+        <v>1.85</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
         <v>2.75</v>
       </c>
-      <c r="U69">
-        <v>1.925</v>
-      </c>
-      <c r="V69">
-        <v>1.775</v>
-      </c>
-      <c r="W69">
-        <v>-1</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
       <c r="Y69">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC69">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7002,7 +7002,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7188990</v>
+        <v>7188989</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7014,13 +7014,13 @@
         <v>45179.5</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -7029,41 +7029,41 @@
         <v>97</v>
       </c>
       <c r="K72">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L72">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M72">
+        <v>2.4</v>
+      </c>
+      <c r="N72">
+        <v>2.5</v>
+      </c>
+      <c r="O72">
+        <v>3.4</v>
+      </c>
+      <c r="P72">
+        <v>2.4</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
+        <v>1.85</v>
+      </c>
+      <c r="T72">
         <v>3</v>
       </c>
-      <c r="N72">
-        <v>2.1</v>
-      </c>
-      <c r="O72">
-        <v>3.5</v>
-      </c>
-      <c r="P72">
-        <v>3</v>
-      </c>
-      <c r="Q72">
-        <v>-0.25</v>
-      </c>
-      <c r="R72">
-        <v>1.875</v>
-      </c>
-      <c r="S72">
-        <v>1.925</v>
-      </c>
-      <c r="T72">
-        <v>2.75</v>
-      </c>
       <c r="U72">
+        <v>1.975</v>
+      </c>
+      <c r="V72">
         <v>1.825</v>
       </c>
-      <c r="V72">
-        <v>1.975</v>
-      </c>
       <c r="W72">
         <v>-1</v>
       </c>
@@ -7071,19 +7071,19 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7091,7 +7091,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7188989</v>
+        <v>7188990</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7103,13 +7103,13 @@
         <v>45179.5</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>2</v>
@@ -7118,41 +7118,41 @@
         <v>97</v>
       </c>
       <c r="K73">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L73">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M73">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O73">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
+        <v>1.825</v>
+      </c>
+      <c r="V73">
         <v>1.975</v>
       </c>
-      <c r="V73">
-        <v>1.825</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
@@ -7160,19 +7160,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7192,7 +7192,7 @@
         <v>45179.5</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>87</v>
@@ -7370,7 +7370,7 @@
         <v>45182.5</v>
       </c>
       <c r="F76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G76" t="s">
         <v>36</v>
@@ -7459,7 +7459,7 @@
         <v>45182.5</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
         <v>88</v>
@@ -7729,7 +7729,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7907,7 +7907,7 @@
         <v>59</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7981,7 +7981,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7250138</v>
+        <v>7250137</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7993,76 +7993,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F83" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K83">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L83">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M83">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N83">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O83">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P83">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8070,7 +8070,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7250137</v>
+        <v>7250138</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8082,76 +8082,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K84">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M84">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N84">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O84">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P84">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y84">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC84">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8337,7 +8337,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7291472</v>
+        <v>7291473</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8349,13 +8349,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F87" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -8364,43 +8364,43 @@
         <v>98</v>
       </c>
       <c r="K87">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L87">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M87">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N87">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P87">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U87">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8409,13 +8409,13 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8426,7 +8426,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7291473</v>
+        <v>7291472</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8438,13 +8438,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G88" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -8453,43 +8453,43 @@
         <v>98</v>
       </c>
       <c r="K88">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L88">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M88">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N88">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="O88">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q88">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S88">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T88">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W88">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8498,13 +8498,13 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8797,7 +8797,7 @@
         <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -9061,7 +9061,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G95" t="s">
         <v>42</v>
@@ -10218,7 +10218,7 @@
         <v>45228.4375</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>88</v>
@@ -10930,7 +10930,7 @@
         <v>45248.375</v>
       </c>
       <c r="F116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G116" t="s">
         <v>87</v>
@@ -11185,7 +11185,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7493773</v>
+        <v>7493774</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11197,61 +11197,61 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>99</v>
       </c>
       <c r="K119">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L119">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M119">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N119">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="O119">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P119">
-        <v>9</v>
+        <v>5.75</v>
       </c>
       <c r="Q119">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R119">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T119">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Y119">
         <v>-1</v>
@@ -11260,13 +11260,13 @@
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB119">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11274,7 +11274,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7493772</v>
+        <v>7493773</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11286,76 +11286,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G120" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K120">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M120">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="N120">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O120">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P120">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Q120">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U120">
+        <v>1.95</v>
+      </c>
+      <c r="V120">
         <v>1.85</v>
       </c>
-      <c r="V120">
-        <v>1.95</v>
-      </c>
       <c r="W120">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
+        <v>-1</v>
+      </c>
+      <c r="AA120">
+        <v>0.95</v>
+      </c>
+      <c r="AB120">
+        <v>0.475</v>
+      </c>
+      <c r="AC120">
         <v>-0.5</v>
-      </c>
-      <c r="AA120">
-        <v>0.45</v>
-      </c>
-      <c r="AB120">
-        <v>0</v>
-      </c>
-      <c r="AC120">
-        <v>-0</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11363,7 +11363,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7493774</v>
+        <v>7493772</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11375,76 +11375,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K121">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L121">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M121">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N121">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O121">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P121">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q121">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R121">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S121">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U121">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X121">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA121">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC121">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11556,7 +11556,7 @@
         <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -12357,7 +12357,7 @@
         <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12443,10 +12443,10 @@
         <v>45256.40625</v>
       </c>
       <c r="F133" t="s">
+        <v>31</v>
+      </c>
+      <c r="G133" t="s">
         <v>32</v>
-      </c>
-      <c r="G133" t="s">
-        <v>31</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12532,7 +12532,7 @@
         <v>45262.39583333334</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
         <v>96</v>

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -109,10 +109,10 @@
     <t>NK Tekstilac Ravnice</t>
   </si>
   <si>
-    <t>NK Bistra</t>
+    <t>Lucko</t>
   </si>
   <si>
-    <t>Lucko</t>
+    <t>NK Bistra</t>
   </si>
   <si>
     <t>RNK Split</t>
@@ -124,13 +124,13 @@
     <t>NK Junak</t>
   </si>
   <si>
-    <t>Sava Strmec</t>
+    <t>NK Bedem Ivankovo</t>
   </si>
   <si>
     <t>NK Granicar Zupanja</t>
   </si>
   <si>
-    <t>NK Bedem Ivankovo</t>
+    <t>Sava Strmec</t>
   </si>
   <si>
     <t>NK Naftas Hask</t>
@@ -175,10 +175,10 @@
     <t>NK Tresnjevka</t>
   </si>
   <si>
-    <t>NK Ponikve</t>
+    <t>NK Maksimir</t>
   </si>
   <si>
-    <t>NK Maksimir</t>
+    <t>NK Ponikve</t>
   </si>
   <si>
     <t>NK Krizevci</t>
@@ -229,10 +229,10 @@
     <t>NK Mladost Petrinja</t>
   </si>
   <si>
-    <t>NK Vrbovec</t>
+    <t>Sloga Nova Gradiska</t>
   </si>
   <si>
-    <t>Sloga Nova Gradiska</t>
+    <t>NK Vrbovec</t>
   </si>
   <si>
     <t>NK Svacic</t>
@@ -950,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6353810</v>
+        <v>6353811</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -965,55 +965,55 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>98</v>
       </c>
       <c r="K4">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="O4">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W4">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -1022,16 +1022,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1039,7 +1039,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6353811</v>
+        <v>6353810</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1054,55 +1054,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>98</v>
       </c>
       <c r="K5">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="N5">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -1111,16 +1111,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1395,7 +1395,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6419351</v>
+        <v>6419352</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1410,70 +1410,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9">
+        <v>1.666</v>
+      </c>
+      <c r="L9">
+        <v>3.75</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>1.666</v>
+      </c>
+      <c r="O9">
+        <v>3.75</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>-0.75</v>
+      </c>
+      <c r="R9">
+        <v>1.9</v>
+      </c>
+      <c r="S9">
+        <v>1.9</v>
+      </c>
+      <c r="T9">
         <v>3</v>
       </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9">
-        <v>2.75</v>
-      </c>
-      <c r="L9">
-        <v>3.25</v>
-      </c>
-      <c r="M9">
-        <v>2.25</v>
-      </c>
-      <c r="N9">
-        <v>2.75</v>
-      </c>
-      <c r="O9">
-        <v>3.25</v>
-      </c>
-      <c r="P9">
-        <v>2.25</v>
-      </c>
-      <c r="Q9">
-        <v>0.25</v>
-      </c>
-      <c r="R9">
-        <v>1.775</v>
-      </c>
-      <c r="S9">
-        <v>2.025</v>
-      </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
       <c r="U9">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA9">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1573,7 +1573,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6419352</v>
+        <v>6419351</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1588,70 +1588,70 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
         <v>4</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K11">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="L11">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N11">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="O11">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P11">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S11">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z11">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB11">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC11">
         <v>-1</v>
@@ -1677,7 +1677,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1855,7 +1855,7 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -2030,7 +2030,7 @@
         <v>45014.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
         <v>52</v>
@@ -2211,7 +2211,7 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2552,7 +2552,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6474641</v>
+        <v>6474643</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2564,76 +2564,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
         <v>71</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="O22">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P22">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U22">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2641,7 +2641,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6474643</v>
+        <v>6474641</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2653,76 +2653,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
         <v>72</v>
       </c>
       <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>3.5</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <v>3.5</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>0.25</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <v>1.875</v>
+      </c>
+      <c r="V23">
+        <v>1.925</v>
+      </c>
+      <c r="W23">
+        <v>2</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>99</v>
-      </c>
-      <c r="K23">
-        <v>1.2</v>
-      </c>
-      <c r="L23">
-        <v>6</v>
-      </c>
-      <c r="M23">
-        <v>9</v>
-      </c>
-      <c r="N23">
-        <v>1.142</v>
-      </c>
-      <c r="O23">
-        <v>6.5</v>
-      </c>
-      <c r="P23">
-        <v>12</v>
-      </c>
-      <c r="Q23">
-        <v>-2.25</v>
-      </c>
-      <c r="R23">
-        <v>1.925</v>
-      </c>
-      <c r="S23">
-        <v>1.875</v>
-      </c>
-      <c r="T23">
-        <v>3.25</v>
-      </c>
-      <c r="U23">
-        <v>1.9</v>
-      </c>
-      <c r="V23">
-        <v>1.9</v>
-      </c>
-      <c r="W23">
-        <v>-1</v>
-      </c>
-      <c r="X23">
-        <v>5.5</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
-      <c r="Z23">
-        <v>-1</v>
-      </c>
       <c r="AA23">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2742,7 +2742,7 @@
         <v>45021.47916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
         <v>70</v>
@@ -3098,7 +3098,7 @@
         <v>45028.5</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
         <v>39</v>
@@ -3365,7 +3365,7 @@
         <v>45032.47916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
         <v>75</v>
@@ -3457,7 +3457,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>6</v>
@@ -3546,7 +3546,7 @@
         <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>45039.5</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -3899,7 +3899,7 @@
         <v>45039.5</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
         <v>76</v>
@@ -4599,7 +4599,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6612704</v>
+        <v>6612703</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4611,76 +4611,76 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
         <v>0</v>
       </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
       <c r="J45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K45">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="L45">
         <v>4</v>
       </c>
       <c r="M45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O45">
         <v>4</v>
       </c>
       <c r="P45">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA45">
+        <v>-1</v>
+      </c>
+      <c r="AB45">
+        <v>-1</v>
+      </c>
+      <c r="AC45">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB45">
-        <v>-1</v>
-      </c>
-      <c r="AC45">
-        <v>0.95</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4688,7 +4688,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6612703</v>
+        <v>6612704</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4700,76 +4700,76 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K46">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="L46">
         <v>4</v>
       </c>
       <c r="M46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O46">
         <v>4</v>
       </c>
       <c r="P46">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q46">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4789,7 +4789,7 @@
         <v>45053.52083333334</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
         <v>80</v>
@@ -4881,7 +4881,7 @@
         <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -5133,7 +5133,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6642562</v>
+        <v>6642561</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5148,73 +5148,73 @@
         <v>53</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K51">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N51">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
         <v>3</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X51">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5222,7 +5222,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6642561</v>
+        <v>6642562</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5237,73 +5237,73 @@
         <v>54</v>
       </c>
       <c r="G52" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K52">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M52">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N52">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O52">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P52">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
         <v>3</v>
       </c>
       <c r="U52">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5679,7 +5679,7 @@
         <v>45079.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
         <v>81</v>
@@ -6023,7 +6023,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7126858</v>
+        <v>7126860</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6035,76 +6035,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K61">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L61">
         <v>3.4</v>
       </c>
       <c r="M61">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N61">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="O61">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P61">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q61">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R61">
+        <v>1.975</v>
+      </c>
+      <c r="S61">
+        <v>1.725</v>
+      </c>
+      <c r="T61">
+        <v>3</v>
+      </c>
+      <c r="U61">
         <v>1.95</v>
       </c>
-      <c r="S61">
+      <c r="V61">
         <v>1.85</v>
       </c>
-      <c r="T61">
-        <v>2.75</v>
-      </c>
-      <c r="U61">
-        <v>1.9</v>
-      </c>
-      <c r="V61">
-        <v>1.9</v>
-      </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y61">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA61">
+        <v>-0</v>
+      </c>
+      <c r="AB61">
+        <v>-1</v>
+      </c>
+      <c r="AC61">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB61">
-        <v>-1</v>
-      </c>
-      <c r="AC61">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6112,7 +6112,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7126860</v>
+        <v>7126859</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -6124,10 +6124,10 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F62" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6139,61 +6139,61 @@
         <v>99</v>
       </c>
       <c r="K62">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M62">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N62">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P62">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S62">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T62">
         <v>3</v>
       </c>
       <c r="U62">
+        <v>1.85</v>
+      </c>
+      <c r="V62">
         <v>1.95</v>
       </c>
-      <c r="V62">
-        <v>1.85</v>
-      </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6201,7 +6201,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7126859</v>
+        <v>7126858</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6213,76 +6213,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K63">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M63">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N63">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P63">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6302,7 +6302,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
         <v>66</v>
@@ -6391,7 +6391,7 @@
         <v>45171.51041666666</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>39</v>
@@ -6483,7 +6483,7 @@
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6569,7 +6569,7 @@
         <v>45172.5</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
         <v>57</v>
@@ -6646,7 +6646,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7183189</v>
+        <v>7183190</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6658,76 +6658,76 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K68">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L68">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
+        <v>3.75</v>
+      </c>
+      <c r="N68">
+        <v>1.727</v>
+      </c>
+      <c r="O68">
+        <v>3.75</v>
+      </c>
+      <c r="P68">
+        <v>3.75</v>
+      </c>
+      <c r="Q68">
+        <v>-0.75</v>
+      </c>
+      <c r="R68">
+        <v>1.975</v>
+      </c>
+      <c r="S68">
+        <v>1.825</v>
+      </c>
+      <c r="T68">
         <v>3</v>
       </c>
-      <c r="N68">
-        <v>2.1</v>
-      </c>
-      <c r="O68">
-        <v>3.3</v>
-      </c>
-      <c r="P68">
-        <v>3</v>
-      </c>
-      <c r="Q68">
-        <v>-0.25</v>
-      </c>
-      <c r="R68">
-        <v>1.9</v>
-      </c>
-      <c r="S68">
-        <v>1.9</v>
-      </c>
-      <c r="T68">
+      <c r="U68">
+        <v>1.95</v>
+      </c>
+      <c r="V68">
+        <v>1.85</v>
+      </c>
+      <c r="W68">
+        <v>-1</v>
+      </c>
+      <c r="X68">
         <v>2.75</v>
       </c>
-      <c r="U68">
-        <v>1.925</v>
-      </c>
-      <c r="V68">
-        <v>1.775</v>
-      </c>
-      <c r="W68">
-        <v>-1</v>
-      </c>
-      <c r="X68">
-        <v>-1</v>
-      </c>
       <c r="Y68">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC68">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6735,7 +6735,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7183190</v>
+        <v>7183189</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6747,76 +6747,76 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K69">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L69">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M69">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O69">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P69">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB69">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7002,7 +7002,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7188989</v>
+        <v>7188990</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7014,13 +7014,13 @@
         <v>45179.5</v>
       </c>
       <c r="F72" t="s">
+        <v>37</v>
+      </c>
+      <c r="G72" t="s">
         <v>36</v>
       </c>
-      <c r="G72" t="s">
-        <v>66</v>
-      </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -7029,41 +7029,41 @@
         <v>97</v>
       </c>
       <c r="K72">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L72">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M72">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P72">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S72">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
+        <v>1.825</v>
+      </c>
+      <c r="V72">
         <v>1.975</v>
       </c>
-      <c r="V72">
-        <v>1.825</v>
-      </c>
       <c r="W72">
         <v>-1</v>
       </c>
@@ -7071,19 +7071,19 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7091,7 +7091,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7188990</v>
+        <v>7188989</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7103,13 +7103,13 @@
         <v>45179.5</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>2</v>
@@ -7118,41 +7118,41 @@
         <v>97</v>
       </c>
       <c r="K73">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L73">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
+        <v>2.4</v>
+      </c>
+      <c r="N73">
+        <v>2.5</v>
+      </c>
+      <c r="O73">
+        <v>3.4</v>
+      </c>
+      <c r="P73">
+        <v>2.4</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>1.95</v>
+      </c>
+      <c r="S73">
+        <v>1.85</v>
+      </c>
+      <c r="T73">
         <v>3</v>
       </c>
-      <c r="N73">
-        <v>2.1</v>
-      </c>
-      <c r="O73">
-        <v>3.5</v>
-      </c>
-      <c r="P73">
-        <v>3</v>
-      </c>
-      <c r="Q73">
-        <v>-0.25</v>
-      </c>
-      <c r="R73">
-        <v>1.875</v>
-      </c>
-      <c r="S73">
-        <v>1.925</v>
-      </c>
-      <c r="T73">
-        <v>2.75</v>
-      </c>
       <c r="U73">
+        <v>1.975</v>
+      </c>
+      <c r="V73">
         <v>1.825</v>
       </c>
-      <c r="V73">
-        <v>1.975</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
@@ -7160,19 +7160,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC73">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7192,7 +7192,7 @@
         <v>45179.5</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>87</v>
@@ -7370,10 +7370,10 @@
         <v>45182.5</v>
       </c>
       <c r="F76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H76">
         <v>6</v>
@@ -7459,7 +7459,7 @@
         <v>45182.5</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
         <v>88</v>
@@ -7729,7 +7729,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7907,7 +7907,7 @@
         <v>59</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7981,7 +7981,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7250137</v>
+        <v>7250138</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7993,76 +7993,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G83" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K83">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M83">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N83">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O83">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U83">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y83">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC83">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8070,7 +8070,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7250138</v>
+        <v>7250137</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8082,76 +8082,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L84">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M84">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N84">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O84">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P84">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8260,7 +8260,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>85</v>
@@ -8337,7 +8337,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7291473</v>
+        <v>7291472</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8349,13 +8349,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F87" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G87" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -8364,43 +8364,43 @@
         <v>98</v>
       </c>
       <c r="K87">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L87">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M87">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N87">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="O87">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q87">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T87">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8409,13 +8409,13 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8426,7 +8426,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7291472</v>
+        <v>7291473</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8438,13 +8438,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -8453,43 +8453,43 @@
         <v>98</v>
       </c>
       <c r="K88">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L88">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M88">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N88">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P88">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U88">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8498,13 +8498,13 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8794,10 +8794,10 @@
         <v>45207.46875</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -9061,7 +9061,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G95" t="s">
         <v>42</v>
@@ -9328,7 +9328,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
         <v>84</v>
@@ -9420,7 +9420,7 @@
         <v>44</v>
       </c>
       <c r="G99" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -10218,7 +10218,7 @@
         <v>45228.4375</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
         <v>88</v>
@@ -10930,7 +10930,7 @@
         <v>45248.375</v>
       </c>
       <c r="F116" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G116" t="s">
         <v>87</v>
@@ -11185,7 +11185,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7493774</v>
+        <v>7493773</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11197,61 +11197,61 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G119" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
         <v>99</v>
       </c>
       <c r="K119">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L119">
+        <v>6</v>
+      </c>
+      <c r="M119">
+        <v>9</v>
+      </c>
+      <c r="N119">
+        <v>1.2</v>
+      </c>
+      <c r="O119">
+        <v>6</v>
+      </c>
+      <c r="P119">
+        <v>9</v>
+      </c>
+      <c r="Q119">
+        <v>-2</v>
+      </c>
+      <c r="R119">
+        <v>1.85</v>
+      </c>
+      <c r="S119">
+        <v>1.95</v>
+      </c>
+      <c r="T119">
         <v>3.75</v>
       </c>
-      <c r="M119">
-        <v>4</v>
-      </c>
-      <c r="N119">
-        <v>1.45</v>
-      </c>
-      <c r="O119">
-        <v>3.8</v>
-      </c>
-      <c r="P119">
-        <v>5.75</v>
-      </c>
-      <c r="Q119">
-        <v>-1</v>
-      </c>
-      <c r="R119">
-        <v>1.825</v>
-      </c>
-      <c r="S119">
-        <v>1.975</v>
-      </c>
-      <c r="T119">
-        <v>2.75</v>
-      </c>
       <c r="U119">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V119">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Y119">
         <v>-1</v>
@@ -11260,13 +11260,13 @@
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC119">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11274,7 +11274,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7493773</v>
+        <v>7493772</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11286,76 +11286,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K120">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="L120">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="N120">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O120">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P120">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Q120">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R120">
+        <v>1.9</v>
+      </c>
+      <c r="S120">
+        <v>1.9</v>
+      </c>
+      <c r="T120">
+        <v>3</v>
+      </c>
+      <c r="U120">
         <v>1.85</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.95</v>
       </c>
-      <c r="T120">
-        <v>3.75</v>
-      </c>
-      <c r="U120">
-        <v>1.95</v>
-      </c>
-      <c r="V120">
-        <v>1.85</v>
-      </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X120">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA120">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB120">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC120">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11363,7 +11363,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7493772</v>
+        <v>7493774</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11375,76 +11375,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K121">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L121">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M121">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N121">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O121">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P121">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q121">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R121">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T121">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W121">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11556,7 +11556,7 @@
         <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -12354,10 +12354,10 @@
         <v>45256.40625</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12443,10 +12443,10 @@
         <v>45256.40625</v>
       </c>
       <c r="F133" t="s">
+        <v>32</v>
+      </c>
+      <c r="G133" t="s">
         <v>31</v>
-      </c>
-      <c r="G133" t="s">
-        <v>32</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12532,7 +12532,7 @@
         <v>45262.39583333334</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
         <v>96</v>

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -160,13 +160,13 @@
     <t>NK Koprivnica</t>
   </si>
   <si>
-    <t>NK Primorac Biograd</t>
+    <t>NK Uljanik</t>
   </si>
   <si>
     <t>NK Darda</t>
   </si>
   <si>
-    <t>NK Uljanik</t>
+    <t>NK Primorac Biograd</t>
   </si>
   <si>
     <t>NK Zadar</t>
@@ -175,10 +175,10 @@
     <t>NK Tresnjevka</t>
   </si>
   <si>
-    <t>NK Maksimir</t>
+    <t>NK Ponikve</t>
   </si>
   <si>
-    <t>NK Ponikve</t>
+    <t>NK Maksimir</t>
   </si>
   <si>
     <t>NK Krizevci</t>
@@ -208,10 +208,10 @@
     <t>NK Medulin</t>
   </si>
   <si>
-    <t>NK Gosk Kastel Gomilica</t>
+    <t>NK Croatia Dakovo</t>
   </si>
   <si>
-    <t>NK Croatia Dakovo</t>
+    <t>NK Gosk Kastel Gomilica</t>
   </si>
   <si>
     <t>NK Vrapce</t>
@@ -1054,7 +1054,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1143,7 +1143,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2196,7 +2196,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6474092</v>
+        <v>6474091</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2208,10 +2208,10 @@
         <v>45017.47916666666</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2223,40 +2223,40 @@
         <v>97</v>
       </c>
       <c r="K18">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N18">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="O18">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T18">
         <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2265,16 +2265,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
+        <v>0.5</v>
+      </c>
+      <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
+        <v>0.875</v>
+      </c>
+      <c r="AB18">
         <v>0.8</v>
-      </c>
-      <c r="Z18">
-        <v>-1</v>
-      </c>
-      <c r="AA18">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB18">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6474091</v>
+        <v>6474092</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2297,10 +2297,10 @@
         <v>45017.47916666666</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2312,40 +2312,40 @@
         <v>97</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="N19">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2354,16 +2354,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2389,7 +2389,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2478,7 +2478,7 @@
         <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -4065,7 +4065,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6584079</v>
+        <v>6587217</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4080,73 +4080,73 @@
         <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K39">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="N39">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="Q39">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R39">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S39">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z39">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB39">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4258,7 +4258,7 @@
         <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4332,7 +4332,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6587217</v>
+        <v>6584079</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4347,73 +4347,73 @@
         <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
         <v>1</v>
       </c>
-      <c r="I42">
-        <v>4</v>
-      </c>
       <c r="J42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K42">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="N42">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P42">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S42">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA42">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4510,7 +4510,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6615716</v>
+        <v>6612704</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4522,40 +4522,40 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="H44">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K44">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L44">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N44">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="O44">
         <v>4</v>
       </c>
       <c r="P44">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q44">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
         <v>1.825</v>
@@ -4567,31 +4567,31 @@
         <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V44">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4599,7 +4599,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6612703</v>
+        <v>6615716</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4611,58 +4611,58 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>98</v>
       </c>
       <c r="K45">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N45">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O45">
         <v>4</v>
       </c>
       <c r="P45">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q45">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4671,16 +4671,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
+        <v>0.825</v>
+      </c>
+      <c r="AA45">
+        <v>-1</v>
+      </c>
+      <c r="AB45">
         <v>0.8</v>
       </c>
-      <c r="AA45">
-        <v>-1</v>
-      </c>
-      <c r="AB45">
-        <v>-1</v>
-      </c>
       <c r="AC45">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4688,7 +4688,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6612704</v>
+        <v>6612703</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4700,76 +4700,76 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
         <v>0</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
       <c r="J46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K46">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="L46">
         <v>4</v>
       </c>
       <c r="M46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O46">
         <v>4</v>
       </c>
       <c r="P46">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q46">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R46">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S46">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA46">
+        <v>-1</v>
+      </c>
+      <c r="AB46">
+        <v>-1</v>
+      </c>
+      <c r="AC46">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB46">
-        <v>-1</v>
-      </c>
-      <c r="AC46">
-        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4881,7 +4881,7 @@
         <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -5133,7 +5133,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6642561</v>
+        <v>6642562</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5148,73 +5148,73 @@
         <v>53</v>
       </c>
       <c r="G51" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K51">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M51">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N51">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O51">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
         <v>3</v>
       </c>
       <c r="U51">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5222,7 +5222,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6642562</v>
+        <v>6642561</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5237,73 +5237,73 @@
         <v>54</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K52">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N52">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
         <v>3</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X52">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC52">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -6023,7 +6023,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7126860</v>
+        <v>7126859</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6035,10 +6035,10 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6050,61 +6050,61 @@
         <v>99</v>
       </c>
       <c r="K61">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L61">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M61">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N61">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O61">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P61">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T61">
         <v>3</v>
       </c>
       <c r="U61">
+        <v>1.85</v>
+      </c>
+      <c r="V61">
         <v>1.95</v>
       </c>
-      <c r="V61">
-        <v>1.85</v>
-      </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6112,7 +6112,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7126859</v>
+        <v>7126858</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -6124,76 +6124,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K62">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M62">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N62">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P62">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R62">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6201,7 +6201,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7126858</v>
+        <v>7126857</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6213,76 +6213,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I63">
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K63">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L63">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M63">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N63">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="O63">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P63">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S63">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
         <v>2.75</v>
       </c>
       <c r="U63">
+        <v>1.825</v>
+      </c>
+      <c r="V63">
+        <v>1.975</v>
+      </c>
+      <c r="W63">
         <v>1.9</v>
       </c>
-      <c r="V63">
-        <v>1.9</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6290,7 +6290,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7126857</v>
+        <v>7126860</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6302,76 +6302,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="G64" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>99</v>
+      </c>
+      <c r="K64">
+        <v>2.5</v>
+      </c>
+      <c r="L64">
+        <v>3.4</v>
+      </c>
+      <c r="M64">
+        <v>2.4</v>
+      </c>
+      <c r="N64">
+        <v>2.625</v>
+      </c>
+      <c r="O64">
+        <v>3.4</v>
+      </c>
+      <c r="P64">
+        <v>2.3</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>1.975</v>
+      </c>
+      <c r="S64">
+        <v>1.725</v>
+      </c>
+      <c r="T64">
         <v>3</v>
       </c>
-      <c r="I64">
-        <v>2</v>
-      </c>
-      <c r="J64" t="s">
-        <v>98</v>
-      </c>
-      <c r="K64">
-        <v>2.875</v>
-      </c>
-      <c r="L64">
-        <v>3.5</v>
-      </c>
-      <c r="M64">
-        <v>2.1</v>
-      </c>
-      <c r="N64">
-        <v>2.9</v>
-      </c>
-      <c r="O64">
-        <v>3.5</v>
-      </c>
-      <c r="P64">
-        <v>2.1</v>
-      </c>
-      <c r="Q64">
-        <v>0.25</v>
-      </c>
-      <c r="R64">
-        <v>1.925</v>
-      </c>
-      <c r="S64">
-        <v>1.875</v>
-      </c>
-      <c r="T64">
-        <v>2.75</v>
-      </c>
       <c r="U64">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V64">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W64">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6646,7 +6646,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7183190</v>
+        <v>7183191</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6658,76 +6658,76 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="G68" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K68">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L68">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M68">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N68">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O68">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P68">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB68">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6735,7 +6735,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7183189</v>
+        <v>7183190</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6747,76 +6747,76 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K69">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L69">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
+        <v>3.75</v>
+      </c>
+      <c r="N69">
+        <v>1.727</v>
+      </c>
+      <c r="O69">
+        <v>3.75</v>
+      </c>
+      <c r="P69">
+        <v>3.75</v>
+      </c>
+      <c r="Q69">
+        <v>-0.75</v>
+      </c>
+      <c r="R69">
+        <v>1.975</v>
+      </c>
+      <c r="S69">
+        <v>1.825</v>
+      </c>
+      <c r="T69">
         <v>3</v>
       </c>
-      <c r="N69">
-        <v>2.1</v>
-      </c>
-      <c r="O69">
-        <v>3.3</v>
-      </c>
-      <c r="P69">
-        <v>3</v>
-      </c>
-      <c r="Q69">
-        <v>-0.25</v>
-      </c>
-      <c r="R69">
-        <v>1.9</v>
-      </c>
-      <c r="S69">
-        <v>1.9</v>
-      </c>
-      <c r="T69">
+      <c r="U69">
+        <v>1.95</v>
+      </c>
+      <c r="V69">
+        <v>1.85</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
         <v>2.75</v>
       </c>
-      <c r="U69">
-        <v>1.925</v>
-      </c>
-      <c r="V69">
-        <v>1.775</v>
-      </c>
-      <c r="W69">
-        <v>-1</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
       <c r="Y69">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC69">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6824,7 +6824,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7183191</v>
+        <v>7183189</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6836,55 +6836,55 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F70" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
         <v>1</v>
-      </c>
-      <c r="I70">
-        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>97</v>
       </c>
       <c r="K70">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M70">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P70">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q70">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S70">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T70">
         <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6893,19 +6893,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB70">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7091,7 +7091,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7188989</v>
+        <v>7188987</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7103,56 +7103,56 @@
         <v>45179.5</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
         <v>1</v>
-      </c>
-      <c r="I73">
-        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>97</v>
       </c>
       <c r="K73">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L73">
         <v>3.4</v>
       </c>
       <c r="M73">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="N73">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O73">
         <v>3.4</v>
       </c>
       <c r="P73">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R73">
+        <v>1.85</v>
+      </c>
+      <c r="S73">
         <v>1.95</v>
-      </c>
-      <c r="S73">
-        <v>1.85</v>
       </c>
       <c r="T73">
         <v>3</v>
       </c>
       <c r="U73">
+        <v>1.825</v>
+      </c>
+      <c r="V73">
         <v>1.975</v>
       </c>
-      <c r="V73">
-        <v>1.825</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
@@ -7160,19 +7160,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.4</v>
+        <v>0.909</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7180,7 +7180,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7188987</v>
+        <v>7188989</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7192,56 +7192,56 @@
         <v>45179.5</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>97</v>
       </c>
       <c r="K74">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="L74">
         <v>3.4</v>
       </c>
       <c r="M74">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="N74">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O74">
         <v>3.4</v>
       </c>
       <c r="P74">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="Q74">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R74">
+        <v>1.95</v>
+      </c>
+      <c r="S74">
         <v>1.85</v>
-      </c>
-      <c r="S74">
-        <v>1.95</v>
       </c>
       <c r="T74">
         <v>3</v>
       </c>
       <c r="U74">
+        <v>1.975</v>
+      </c>
+      <c r="V74">
         <v>1.825</v>
       </c>
-      <c r="V74">
-        <v>1.975</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7249,19 +7249,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.909</v>
+        <v>1.4</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7370,7 +7370,7 @@
         <v>45182.5</v>
       </c>
       <c r="F76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G76" t="s">
         <v>38</v>
@@ -7729,7 +7729,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -8438,7 +8438,7 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G88" t="s">
         <v>70</v>
@@ -8871,7 +8871,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7337011</v>
+        <v>7337013</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8883,76 +8883,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K93">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L93">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N93">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O93">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q93">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V93">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB93">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8960,7 +8960,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7337013</v>
+        <v>7337011</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8972,76 +8972,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G94" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K94">
+        <v>1.4</v>
+      </c>
+      <c r="L94">
+        <v>4.75</v>
+      </c>
+      <c r="M94">
+        <v>5.25</v>
+      </c>
+      <c r="N94">
+        <v>1.4</v>
+      </c>
+      <c r="O94">
+        <v>4.75</v>
+      </c>
+      <c r="P94">
+        <v>5.25</v>
+      </c>
+      <c r="Q94">
+        <v>-1.25</v>
+      </c>
+      <c r="R94">
+        <v>1.9</v>
+      </c>
+      <c r="S94">
+        <v>1.9</v>
+      </c>
+      <c r="T94">
         <v>2.75</v>
       </c>
-      <c r="L94">
-        <v>3.4</v>
-      </c>
-      <c r="M94">
-        <v>2.2</v>
-      </c>
-      <c r="N94">
-        <v>2.75</v>
-      </c>
-      <c r="O94">
-        <v>3.4</v>
-      </c>
-      <c r="P94">
-        <v>2.2</v>
-      </c>
-      <c r="Q94">
-        <v>0.25</v>
-      </c>
-      <c r="R94">
-        <v>1.8</v>
-      </c>
-      <c r="S94">
-        <v>2</v>
-      </c>
-      <c r="T94">
-        <v>3</v>
-      </c>
       <c r="U94">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X94">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC94">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9049,7 +9049,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7337010</v>
+        <v>7337008</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -9061,76 +9061,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H95">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K95">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N95">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O95">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q95">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z95">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB95">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9138,7 +9138,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7337008</v>
+        <v>7337010</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9150,76 +9150,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H96">
+        <v>5</v>
+      </c>
+      <c r="I96">
         <v>0</v>
       </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
       <c r="J96" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K96">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M96">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N96">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O96">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P96">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q96">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R96">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S96">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T96">
         <v>3</v>
       </c>
       <c r="U96">
+        <v>1.75</v>
+      </c>
+      <c r="V96">
         <v>1.95</v>
       </c>
-      <c r="V96">
-        <v>1.85</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9595,7 +9595,7 @@
         <v>45220.4375</v>
       </c>
       <c r="F101" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G101" t="s">
         <v>89</v>
@@ -9951,7 +9951,7 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G105" t="s">
         <v>34</v>
@@ -10399,7 +10399,7 @@
         <v>60</v>
       </c>
       <c r="G110" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10930,7 +10930,7 @@
         <v>45248.375</v>
       </c>
       <c r="F116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G116" t="s">
         <v>87</v>
@@ -11108,7 +11108,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G118" t="s">
         <v>94</v>
@@ -11185,7 +11185,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7493773</v>
+        <v>7493775</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11197,76 +11197,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K119">
-        <v>1.2</v>
+        <v>1.727</v>
       </c>
       <c r="L119">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M119">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="N119">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="O119">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P119">
-        <v>9</v>
+        <v>5.25</v>
       </c>
       <c r="Q119">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R119">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T119">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X119">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA119">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AC119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11274,7 +11274,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7493772</v>
+        <v>7493774</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11286,76 +11286,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K120">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M120">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N120">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O120">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q120">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W120">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11363,7 +11363,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7493774</v>
+        <v>7493773</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11375,61 +11375,61 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G121" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
         <v>99</v>
       </c>
       <c r="K121">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L121">
+        <v>6</v>
+      </c>
+      <c r="M121">
+        <v>9</v>
+      </c>
+      <c r="N121">
+        <v>1.2</v>
+      </c>
+      <c r="O121">
+        <v>6</v>
+      </c>
+      <c r="P121">
+        <v>9</v>
+      </c>
+      <c r="Q121">
+        <v>-2</v>
+      </c>
+      <c r="R121">
+        <v>1.85</v>
+      </c>
+      <c r="S121">
+        <v>1.95</v>
+      </c>
+      <c r="T121">
         <v>3.75</v>
       </c>
-      <c r="M121">
-        <v>4</v>
-      </c>
-      <c r="N121">
-        <v>1.45</v>
-      </c>
-      <c r="O121">
-        <v>3.8</v>
-      </c>
-      <c r="P121">
-        <v>5.75</v>
-      </c>
-      <c r="Q121">
-        <v>-1</v>
-      </c>
-      <c r="R121">
-        <v>1.825</v>
-      </c>
-      <c r="S121">
-        <v>1.975</v>
-      </c>
-      <c r="T121">
-        <v>2.75</v>
-      </c>
       <c r="U121">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Y121">
         <v>-1</v>
@@ -11438,13 +11438,13 @@
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC121">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11452,7 +11452,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7493775</v>
+        <v>7493772</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11464,13 +11464,13 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F122" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -11479,43 +11479,43 @@
         <v>98</v>
       </c>
       <c r="K122">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L122">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M122">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N122">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O122">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P122">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q122">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R122">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U122">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V122">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W122">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11524,16 +11524,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB122">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11541,7 +11541,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7493776</v>
+        <v>7493771</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11553,13 +11553,13 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -11568,43 +11568,43 @@
         <v>98</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L123">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N123">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O123">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P123">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S123">
         <v>1.975</v>
       </c>
       <c r="T123">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W123">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11613,16 +11613,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11630,7 +11630,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7493771</v>
+        <v>7493776</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11642,13 +11642,13 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -11657,43 +11657,43 @@
         <v>98</v>
       </c>
       <c r="K124">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L124">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M124">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N124">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O124">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P124">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S124">
         <v>1.975</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11702,16 +11702,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11808,7 +11808,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7517623</v>
+        <v>7520493</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11820,43 +11820,43 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F126" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G126" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="H126">
         <v>2</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J126" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K126">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="L126">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="M126">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="N126">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O126">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="P126">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R126">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S126">
         <v>1.95</v>
@@ -11865,31 +11865,31 @@
         <v>3</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V126">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W126">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z126">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC126">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11909,7 +11909,7 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G127" t="s">
         <v>84</v>
@@ -11986,7 +11986,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7520493</v>
+        <v>7517623</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11998,43 +11998,43 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F128" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G128" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H128">
         <v>2</v>
       </c>
       <c r="I128">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K128">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L128">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="M128">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="N128">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O128">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="P128">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q128">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S128">
         <v>1.95</v>
@@ -12043,31 +12043,31 @@
         <v>3</v>
       </c>
       <c r="U128">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V128">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA128">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12164,7 +12164,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7519482</v>
+        <v>7519480</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12176,76 +12176,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H130">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K130">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L130">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M130">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N130">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P130">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
+        <v>3</v>
+      </c>
+      <c r="U130">
+        <v>1.9</v>
+      </c>
+      <c r="V130">
+        <v>1.9</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
         <v>2.5</v>
       </c>
-      <c r="U130">
-        <v>1.85</v>
-      </c>
-      <c r="V130">
-        <v>1.95</v>
-      </c>
-      <c r="W130">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X130">
-        <v>-1</v>
-      </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12253,7 +12253,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7519480</v>
+        <v>7519482</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12265,76 +12265,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G131" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K131">
+        <v>1.909</v>
+      </c>
+      <c r="L131">
+        <v>3.4</v>
+      </c>
+      <c r="M131">
+        <v>3.4</v>
+      </c>
+      <c r="N131">
+        <v>1.727</v>
+      </c>
+      <c r="O131">
+        <v>3.6</v>
+      </c>
+      <c r="P131">
+        <v>4.333</v>
+      </c>
+      <c r="Q131">
+        <v>-0.75</v>
+      </c>
+      <c r="R131">
+        <v>1.95</v>
+      </c>
+      <c r="S131">
+        <v>1.85</v>
+      </c>
+      <c r="T131">
         <v>2.5</v>
       </c>
-      <c r="L131">
-        <v>3.5</v>
-      </c>
-      <c r="M131">
-        <v>2.375</v>
-      </c>
-      <c r="N131">
-        <v>2.5</v>
-      </c>
-      <c r="O131">
-        <v>3.5</v>
-      </c>
-      <c r="P131">
-        <v>2.375</v>
-      </c>
-      <c r="Q131">
-        <v>0</v>
-      </c>
-      <c r="R131">
-        <v>1.975</v>
-      </c>
-      <c r="S131">
-        <v>1.825</v>
-      </c>
-      <c r="T131">
-        <v>3</v>
-      </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X131">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA131">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12357,7 +12357,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H132">
         <v>0</v>

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -109,10 +109,10 @@
     <t>NK Tekstilac Ravnice</t>
   </si>
   <si>
-    <t>Lucko</t>
+    <t>NK Bistra</t>
   </si>
   <si>
-    <t>NK Bistra</t>
+    <t>Lucko</t>
   </si>
   <si>
     <t>RNK Split</t>
@@ -124,19 +124,19 @@
     <t>NK Junak</t>
   </si>
   <si>
-    <t>NK Bedem Ivankovo</t>
+    <t>NK Granicar Zupanja</t>
   </si>
   <si>
-    <t>NK Granicar Zupanja</t>
+    <t>NK Bedem Ivankovo</t>
   </si>
   <si>
     <t>Sava Strmec</t>
   </si>
   <si>
-    <t>NK Naftas Hask</t>
+    <t>NK Pomorac</t>
   </si>
   <si>
-    <t>NK Pomorac</t>
+    <t>NK Naftas Hask</t>
   </si>
   <si>
     <t>Karlovac</t>
@@ -172,10 +172,10 @@
     <t>NK Zadar</t>
   </si>
   <si>
-    <t>NK Tresnjevka</t>
+    <t>NK Ponikve</t>
   </si>
   <si>
-    <t>NK Ponikve</t>
+    <t>NK Tresnjevka</t>
   </si>
   <si>
     <t>NK Maksimir</t>
@@ -208,10 +208,10 @@
     <t>NK Medulin</t>
   </si>
   <si>
-    <t>NK Croatia Dakovo</t>
+    <t>NK Gosk Kastel Gomilica</t>
   </si>
   <si>
-    <t>NK Gosk Kastel Gomilica</t>
+    <t>NK Croatia Dakovo</t>
   </si>
   <si>
     <t>NK Vrapce</t>
@@ -229,10 +229,10 @@
     <t>NK Mladost Petrinja</t>
   </si>
   <si>
-    <t>Sloga Nova Gradiska</t>
+    <t>NK Vrbovec</t>
   </si>
   <si>
-    <t>NK Vrbovec</t>
+    <t>Sloga Nova Gradiska</t>
   </si>
   <si>
     <t>NK Svacic</t>
@@ -950,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6353811</v>
+        <v>6353810</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -965,55 +965,55 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>98</v>
       </c>
       <c r="K4">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="N4">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -1022,16 +1022,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1039,7 +1039,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6353810</v>
+        <v>6353811</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1054,55 +1054,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>98</v>
       </c>
       <c r="K5">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N5">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="O5">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="Q5">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -1111,16 +1111,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1395,7 +1395,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6419352</v>
+        <v>6419353</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1410,43 +1410,43 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>98</v>
       </c>
       <c r="K9">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="N9">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="O9">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P9">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
         <v>3</v>
@@ -1458,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="W9">
-        <v>0.6659999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1467,16 +1467,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1484,7 +1484,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6419353</v>
+        <v>6419352</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1499,43 +1499,43 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>98</v>
       </c>
       <c r="K10">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="O10">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P10">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="Q10">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T10">
         <v>3</v>
@@ -1547,7 +1547,7 @@
         <v>2</v>
       </c>
       <c r="W10">
-        <v>0.2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1556,16 +1556,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1662,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6442864</v>
+        <v>6442865</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1677,37 +1677,37 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K12">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="L12">
+        <v>3.4</v>
+      </c>
+      <c r="M12">
+        <v>2.875</v>
+      </c>
+      <c r="N12">
+        <v>1.909</v>
+      </c>
+      <c r="O12">
         <v>3.5</v>
       </c>
-      <c r="M12">
-        <v>1.95</v>
-      </c>
-      <c r="N12">
-        <v>2.5</v>
-      </c>
-      <c r="O12">
-        <v>3.4</v>
-      </c>
       <c r="P12">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
         <v>1.975</v>
@@ -1716,34 +1716,34 @@
         <v>1.825</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1751,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6442865</v>
+        <v>6442864</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1766,37 +1766,37 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13">
+        <v>3.2</v>
+      </c>
+      <c r="L13">
+        <v>3.5</v>
+      </c>
+      <c r="M13">
+        <v>1.95</v>
+      </c>
+      <c r="N13">
+        <v>2.5</v>
+      </c>
+      <c r="O13">
+        <v>3.4</v>
+      </c>
+      <c r="P13">
+        <v>2.375</v>
+      </c>
+      <c r="Q13">
         <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13">
-        <v>2.1</v>
-      </c>
-      <c r="L13">
-        <v>3.4</v>
-      </c>
-      <c r="M13">
-        <v>2.875</v>
-      </c>
-      <c r="N13">
-        <v>1.909</v>
-      </c>
-      <c r="O13">
-        <v>3.5</v>
-      </c>
-      <c r="P13">
-        <v>3.3</v>
-      </c>
-      <c r="Q13">
-        <v>-0.5</v>
       </c>
       <c r="R13">
         <v>1.975</v>
@@ -1805,34 +1805,34 @@
         <v>1.825</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1855,7 +1855,7 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -2030,10 +2030,10 @@
         <v>45014.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2196,7 +2196,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6474091</v>
+        <v>6474092</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2208,10 +2208,10 @@
         <v>45017.47916666666</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2223,40 +2223,40 @@
         <v>97</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M18">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="N18">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P18">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
         <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2265,16 +2265,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB18">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6474092</v>
+        <v>6474091</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2297,10 +2297,10 @@
         <v>45017.47916666666</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2312,40 +2312,40 @@
         <v>97</v>
       </c>
       <c r="K19">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N19">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2354,16 +2354,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
+        <v>0.5</v>
+      </c>
+      <c r="Z19">
+        <v>-1</v>
+      </c>
+      <c r="AA19">
+        <v>0.875</v>
+      </c>
+      <c r="AB19">
         <v>0.8</v>
-      </c>
-      <c r="Z19">
-        <v>-1</v>
-      </c>
-      <c r="AA19">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB19">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2463,7 +2463,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6474644</v>
+        <v>6474641</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2475,76 +2475,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K21">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L21">
+        <v>3.5</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
         <v>3</v>
       </c>
-      <c r="M21">
-        <v>2.625</v>
-      </c>
-      <c r="N21">
-        <v>2.5</v>
-      </c>
       <c r="O21">
+        <v>3.5</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>0.25</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>1.8</v>
+      </c>
+      <c r="T21">
         <v>3</v>
       </c>
-      <c r="P21">
-        <v>2.625</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>1.85</v>
-      </c>
-      <c r="S21">
-        <v>1.95</v>
-      </c>
-      <c r="T21">
-        <v>2.5</v>
-      </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X21">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2564,10 +2564,10 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2641,7 +2641,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6474641</v>
+        <v>6474644</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2653,76 +2653,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23">
+        <v>2.5</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>2.625</v>
+      </c>
+      <c r="N23">
+        <v>2.5</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <v>2.625</v>
+      </c>
+      <c r="Q23">
         <v>0</v>
       </c>
-      <c r="J23" t="s">
-        <v>98</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>3.5</v>
-      </c>
-      <c r="M23">
-        <v>2</v>
-      </c>
-      <c r="N23">
-        <v>3</v>
-      </c>
-      <c r="O23">
-        <v>3.5</v>
-      </c>
-      <c r="P23">
-        <v>2</v>
-      </c>
-      <c r="Q23">
-        <v>0.25</v>
-      </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC23">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -3098,10 +3098,10 @@
         <v>45028.5</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3187,7 +3187,7 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
         <v>30</v>
@@ -3454,10 +3454,10 @@
         <v>45032.5</v>
       </c>
       <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
         <v>37</v>
-      </c>
-      <c r="G32" t="s">
-        <v>36</v>
       </c>
       <c r="H32">
         <v>6</v>
@@ -3721,7 +3721,7 @@
         <v>45039.5</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -3899,7 +3899,7 @@
         <v>45039.5</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
         <v>76</v>
@@ -4154,7 +4154,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6584080</v>
+        <v>6584081</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4166,76 +4166,76 @@
         <v>45045.5</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40" t="s">
+        <v>99</v>
+      </c>
+      <c r="K40">
+        <v>2.375</v>
+      </c>
+      <c r="L40">
+        <v>3.4</v>
+      </c>
+      <c r="M40">
+        <v>2.5</v>
+      </c>
+      <c r="N40">
+        <v>2.375</v>
+      </c>
+      <c r="O40">
+        <v>3.4</v>
+      </c>
+      <c r="P40">
+        <v>2.5</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>1.85</v>
+      </c>
+      <c r="S40">
+        <v>1.95</v>
+      </c>
+      <c r="T40">
+        <v>3</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <v>1.8</v>
+      </c>
+      <c r="W40">
+        <v>-1</v>
+      </c>
+      <c r="X40">
+        <v>2.4</v>
+      </c>
+      <c r="Y40">
+        <v>-1</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>-0</v>
+      </c>
+      <c r="AB40">
         <v>1</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40" t="s">
-        <v>98</v>
-      </c>
-      <c r="K40">
-        <v>3.6</v>
-      </c>
-      <c r="L40">
-        <v>3.5</v>
-      </c>
-      <c r="M40">
-        <v>1.8</v>
-      </c>
-      <c r="N40">
-        <v>3.6</v>
-      </c>
-      <c r="O40">
-        <v>3.5</v>
-      </c>
-      <c r="P40">
-        <v>1.8</v>
-      </c>
-      <c r="Q40">
-        <v>0.5</v>
-      </c>
-      <c r="R40">
-        <v>1.95</v>
-      </c>
-      <c r="S40">
-        <v>1.85</v>
-      </c>
-      <c r="T40">
-        <v>2.75</v>
-      </c>
-      <c r="U40">
-        <v>1.8</v>
-      </c>
-      <c r="V40">
-        <v>2</v>
-      </c>
-      <c r="W40">
-        <v>2.6</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
-      <c r="Y40">
-        <v>-1</v>
-      </c>
-      <c r="Z40">
-        <v>0.95</v>
-      </c>
-      <c r="AA40">
-        <v>-1</v>
-      </c>
-      <c r="AB40">
-        <v>-1</v>
-      </c>
       <c r="AC40">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4243,7 +4243,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6584081</v>
+        <v>6584080</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4255,76 +4255,76 @@
         <v>45045.5</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K41">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="L41">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M41">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="N41">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P41">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R41">
+        <v>1.95</v>
+      </c>
+      <c r="S41">
         <v>1.85</v>
       </c>
-      <c r="S41">
-        <v>1.95</v>
-      </c>
       <c r="T41">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X41">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
+        <v>-1</v>
+      </c>
+      <c r="AC41">
         <v>1</v>
-      </c>
-      <c r="AC41">
-        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4510,7 +4510,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6612704</v>
+        <v>6615716</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4522,40 +4522,40 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K44">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N44">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="O44">
         <v>4</v>
       </c>
       <c r="P44">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R44">
         <v>1.825</v>
@@ -4567,31 +4567,31 @@
         <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4599,7 +4599,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6615716</v>
+        <v>6612704</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4611,40 +4611,40 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="H45">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K45">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L45">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N45">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="O45">
         <v>4</v>
       </c>
       <c r="P45">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q45">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
         <v>1.825</v>
@@ -4656,31 +4656,31 @@
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4789,7 +4789,7 @@
         <v>45053.52083333334</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
         <v>80</v>
@@ -4881,7 +4881,7 @@
         <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4955,7 +4955,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6642564</v>
+        <v>6642562</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4967,76 +4967,76 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G49" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K49">
-        <v>1.222</v>
+        <v>1.6</v>
       </c>
       <c r="L49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M49">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="N49">
-        <v>1.222</v>
+        <v>1.6</v>
       </c>
       <c r="O49">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q49">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R49">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S49">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U49">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB49">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5056,10 +5056,10 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -5133,7 +5133,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6642562</v>
+        <v>6642564</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5145,76 +5145,76 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F51" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K51">
-        <v>1.6</v>
+        <v>1.222</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M51">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="N51">
-        <v>1.6</v>
+        <v>1.222</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P51">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X51">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5679,7 +5679,7 @@
         <v>45079.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
         <v>81</v>
@@ -5768,7 +5768,7 @@
         <v>45080.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
         <v>82</v>
@@ -6023,7 +6023,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7126859</v>
+        <v>7126857</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6035,76 +6035,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K61">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M61">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="N61">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P61">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T61">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V61">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X61">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC61">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6112,7 +6112,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7126858</v>
+        <v>7126860</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -6124,76 +6124,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K62">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L62">
         <v>3.4</v>
       </c>
       <c r="M62">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N62">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="O62">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P62">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q62">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R62">
+        <v>1.975</v>
+      </c>
+      <c r="S62">
+        <v>1.725</v>
+      </c>
+      <c r="T62">
+        <v>3</v>
+      </c>
+      <c r="U62">
         <v>1.95</v>
       </c>
-      <c r="S62">
+      <c r="V62">
         <v>1.85</v>
       </c>
-      <c r="T62">
-        <v>2.75</v>
-      </c>
-      <c r="U62">
-        <v>1.9</v>
-      </c>
-      <c r="V62">
-        <v>1.9</v>
-      </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y62">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA62">
+        <v>-0</v>
+      </c>
+      <c r="AB62">
+        <v>-1</v>
+      </c>
+      <c r="AC62">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB62">
-        <v>-1</v>
-      </c>
-      <c r="AC62">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6201,7 +6201,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7126857</v>
+        <v>7126858</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6213,76 +6213,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F63" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63" t="s">
         <v>32</v>
       </c>
-      <c r="G63" t="s">
-        <v>66</v>
-      </c>
       <c r="H63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K63">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L63">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M63">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N63">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P63">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q63">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
         <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z63">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6290,7 +6290,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7126860</v>
+        <v>7126859</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6302,10 +6302,10 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F64" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6317,61 +6317,61 @@
         <v>99</v>
       </c>
       <c r="K64">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L64">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N64">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O64">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P64">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S64">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T64">
         <v>3</v>
       </c>
       <c r="U64">
+        <v>1.85</v>
+      </c>
+      <c r="V64">
         <v>1.95</v>
       </c>
-      <c r="V64">
-        <v>1.85</v>
-      </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6391,10 +6391,10 @@
         <v>45171.51041666666</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6569,7 +6569,7 @@
         <v>45172.5</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
         <v>57</v>
@@ -7002,7 +7002,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7188990</v>
+        <v>7188987</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7014,49 +7014,49 @@
         <v>45179.5</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
         <v>97</v>
       </c>
       <c r="K72">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L72">
+        <v>3.4</v>
+      </c>
+      <c r="M72">
+        <v>1.909</v>
+      </c>
+      <c r="N72">
         <v>3.5</v>
       </c>
-      <c r="M72">
+      <c r="O72">
+        <v>3.4</v>
+      </c>
+      <c r="P72">
+        <v>1.909</v>
+      </c>
+      <c r="Q72">
+        <v>0.5</v>
+      </c>
+      <c r="R72">
+        <v>1.85</v>
+      </c>
+      <c r="S72">
+        <v>1.95</v>
+      </c>
+      <c r="T72">
         <v>3</v>
-      </c>
-      <c r="N72">
-        <v>2.1</v>
-      </c>
-      <c r="O72">
-        <v>3.5</v>
-      </c>
-      <c r="P72">
-        <v>3</v>
-      </c>
-      <c r="Q72">
-        <v>-0.25</v>
-      </c>
-      <c r="R72">
-        <v>1.875</v>
-      </c>
-      <c r="S72">
-        <v>1.925</v>
-      </c>
-      <c r="T72">
-        <v>2.75</v>
       </c>
       <c r="U72">
         <v>1.825</v>
@@ -7071,13 +7071,13 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB72">
         <v>-1</v>
@@ -7091,7 +7091,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7188987</v>
+        <v>7188990</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7103,49 +7103,49 @@
         <v>45179.5</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>97</v>
       </c>
       <c r="K73">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L73">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M73">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N73">
+        <v>2.1</v>
+      </c>
+      <c r="O73">
         <v>3.5</v>
       </c>
-      <c r="O73">
-        <v>3.4</v>
-      </c>
       <c r="P73">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q73">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
         <v>1.825</v>
@@ -7160,13 +7160,13 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -7459,7 +7459,7 @@
         <v>45182.5</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
         <v>88</v>
@@ -7726,7 +7726,7 @@
         <v>45188.48958333334</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G80" t="s">
         <v>54</v>
@@ -7907,7 +7907,7 @@
         <v>59</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7981,7 +7981,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7250138</v>
+        <v>7250137</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7993,76 +7993,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F83" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K83">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L83">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M83">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N83">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O83">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P83">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8070,7 +8070,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7250137</v>
+        <v>7250138</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8082,76 +8082,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K84">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M84">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N84">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O84">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P84">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y84">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC84">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8260,7 +8260,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
         <v>85</v>
@@ -8515,7 +8515,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7305881</v>
+        <v>7305882</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8527,76 +8527,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G89" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89" t="s">
+        <v>97</v>
+      </c>
+      <c r="K89">
+        <v>3.6</v>
+      </c>
+      <c r="L89">
         <v>4</v>
       </c>
-      <c r="I89">
-        <v>2</v>
-      </c>
-      <c r="J89" t="s">
-        <v>98</v>
-      </c>
-      <c r="K89">
-        <v>1.363</v>
-      </c>
-      <c r="L89">
-        <v>4.75</v>
-      </c>
       <c r="M89">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="N89">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O89">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R89">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T89">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W89">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z89">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB89">
+        <v>-1</v>
+      </c>
+      <c r="AC89">
         <v>1</v>
-      </c>
-      <c r="AC89">
-        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8604,7 +8604,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7305882</v>
+        <v>7305881</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8616,76 +8616,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F90" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G90" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I90">
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K90">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M90">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="N90">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P90">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="Q90">
+        <v>-1.25</v>
+      </c>
+      <c r="R90">
+        <v>1.75</v>
+      </c>
+      <c r="S90">
+        <v>1.95</v>
+      </c>
+      <c r="T90">
+        <v>3</v>
+      </c>
+      <c r="U90">
+        <v>2</v>
+      </c>
+      <c r="V90">
+        <v>1.8</v>
+      </c>
+      <c r="W90">
+        <v>0.363</v>
+      </c>
+      <c r="X90">
+        <v>-1</v>
+      </c>
+      <c r="Y90">
+        <v>-1</v>
+      </c>
+      <c r="Z90">
         <v>0.75</v>
       </c>
-      <c r="R90">
-        <v>1.825</v>
-      </c>
-      <c r="S90">
-        <v>1.975</v>
-      </c>
-      <c r="T90">
-        <v>2.75</v>
-      </c>
-      <c r="U90">
-        <v>1.8</v>
-      </c>
-      <c r="V90">
-        <v>2</v>
-      </c>
-      <c r="W90">
-        <v>-1</v>
-      </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
-      <c r="Y90">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z90">
-        <v>-1</v>
-      </c>
       <c r="AA90">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC90">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8797,7 +8797,7 @@
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8871,7 +8871,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7337013</v>
+        <v>7337011</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8883,76 +8883,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G93" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K93">
+        <v>1.4</v>
+      </c>
+      <c r="L93">
+        <v>4.75</v>
+      </c>
+      <c r="M93">
+        <v>5.25</v>
+      </c>
+      <c r="N93">
+        <v>1.4</v>
+      </c>
+      <c r="O93">
+        <v>4.75</v>
+      </c>
+      <c r="P93">
+        <v>5.25</v>
+      </c>
+      <c r="Q93">
+        <v>-1.25</v>
+      </c>
+      <c r="R93">
+        <v>1.9</v>
+      </c>
+      <c r="S93">
+        <v>1.9</v>
+      </c>
+      <c r="T93">
         <v>2.75</v>
       </c>
-      <c r="L93">
-        <v>3.4</v>
-      </c>
-      <c r="M93">
-        <v>2.2</v>
-      </c>
-      <c r="N93">
-        <v>2.75</v>
-      </c>
-      <c r="O93">
-        <v>3.4</v>
-      </c>
-      <c r="P93">
-        <v>2.2</v>
-      </c>
-      <c r="Q93">
-        <v>0.25</v>
-      </c>
-      <c r="R93">
-        <v>1.8</v>
-      </c>
-      <c r="S93">
-        <v>2</v>
-      </c>
-      <c r="T93">
-        <v>3</v>
-      </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X93">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8960,7 +8960,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7337011</v>
+        <v>7337013</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8972,76 +8972,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K94">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L94">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M94">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N94">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O94">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q94">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V94">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W94">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9227,7 +9227,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7343497</v>
+        <v>7343496</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9239,10 +9239,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -9254,43 +9254,43 @@
         <v>98</v>
       </c>
       <c r="K97">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M97">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N97">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S97">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T97">
         <v>3</v>
       </c>
       <c r="U97">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9299,7 +9299,7 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA97">
         <v>-1</v>
@@ -9316,7 +9316,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7343496</v>
+        <v>7343497</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9328,10 +9328,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G98" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9343,43 +9343,43 @@
         <v>98</v>
       </c>
       <c r="K98">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N98">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T98">
         <v>3</v>
       </c>
       <c r="U98">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9388,7 +9388,7 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA98">
         <v>-1</v>
@@ -9420,7 +9420,7 @@
         <v>44</v>
       </c>
       <c r="G99" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -10132,7 +10132,7 @@
         <v>57</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H107">
         <v>3</v>
@@ -10218,7 +10218,7 @@
         <v>45228.4375</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>88</v>
@@ -10399,7 +10399,7 @@
         <v>60</v>
       </c>
       <c r="G110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
         <v>81</v>
@@ -10562,7 +10562,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7460854</v>
+        <v>7460852</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10574,76 +10574,76 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K112">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="L112">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="N112">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O112">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="Q112">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R112">
+        <v>1.8</v>
+      </c>
+      <c r="S112">
+        <v>2</v>
+      </c>
+      <c r="T112">
+        <v>2.75</v>
+      </c>
+      <c r="U112">
         <v>1.95</v>
       </c>
-      <c r="S112">
+      <c r="V112">
         <v>1.85</v>
       </c>
-      <c r="T112">
-        <v>3</v>
-      </c>
-      <c r="U112">
-        <v>1.775</v>
-      </c>
-      <c r="V112">
-        <v>2.025</v>
-      </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y112">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AA112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC112">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10651,7 +10651,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7460852</v>
+        <v>7460854</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10663,76 +10663,76 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K113">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="L113">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M113">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="N113">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O113">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P113">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="Q113">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R113">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T113">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V113">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z113">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB113">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11289,7 +11289,7 @@
         <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11363,7 +11363,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7493773</v>
+        <v>7493772</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11375,76 +11375,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="H121">
         <v>2</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K121">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="L121">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M121">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="N121">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O121">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P121">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Q121">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R121">
+        <v>1.9</v>
+      </c>
+      <c r="S121">
+        <v>1.9</v>
+      </c>
+      <c r="T121">
+        <v>3</v>
+      </c>
+      <c r="U121">
         <v>1.85</v>
       </c>
-      <c r="S121">
+      <c r="V121">
         <v>1.95</v>
       </c>
-      <c r="T121">
-        <v>3.75</v>
-      </c>
-      <c r="U121">
-        <v>1.95</v>
-      </c>
-      <c r="V121">
-        <v>1.85</v>
-      </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X121">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA121">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB121">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC121">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11452,7 +11452,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7493772</v>
+        <v>7493773</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11464,76 +11464,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G122" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="H122">
         <v>2</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K122">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="L122">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M122">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="N122">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O122">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P122">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Q122">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U122">
+        <v>1.95</v>
+      </c>
+      <c r="V122">
         <v>1.85</v>
       </c>
-      <c r="V122">
-        <v>1.95</v>
-      </c>
       <c r="W122">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
+        <v>-1</v>
+      </c>
+      <c r="AA122">
+        <v>0.95</v>
+      </c>
+      <c r="AB122">
+        <v>0.475</v>
+      </c>
+      <c r="AC122">
         <v>-0.5</v>
-      </c>
-      <c r="AA122">
-        <v>0.45</v>
-      </c>
-      <c r="AB122">
-        <v>0</v>
-      </c>
-      <c r="AC122">
-        <v>-0</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11553,7 +11553,7 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G123" t="s">
         <v>62</v>
@@ -11645,7 +11645,7 @@
         <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11808,7 +11808,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7520493</v>
+        <v>7517623</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11820,43 +11820,43 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F126" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G126" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H126">
         <v>2</v>
       </c>
       <c r="I126">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K126">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L126">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="M126">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="N126">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O126">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="P126">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q126">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S126">
         <v>1.95</v>
@@ -11865,31 +11865,31 @@
         <v>3</v>
       </c>
       <c r="U126">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V126">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA126">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11897,7 +11897,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7517624</v>
+        <v>7520493</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11909,55 +11909,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F127" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G127" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J127" t="s">
         <v>97</v>
       </c>
       <c r="K127">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="L127">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="M127">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N127">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O127">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="P127">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q127">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R127">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S127">
         <v>1.95</v>
       </c>
       <c r="T127">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U127">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11966,7 +11966,7 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>4.25</v>
+        <v>0.95</v>
       </c>
       <c r="Z127">
         <v>-1</v>
@@ -11975,7 +11975,7 @@
         <v>0.95</v>
       </c>
       <c r="AB127">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11986,7 +11986,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7517623</v>
+        <v>7517624</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -12001,37 +12001,37 @@
         <v>65</v>
       </c>
       <c r="G128" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J128" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K128">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L128">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="M128">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N128">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O128">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="P128">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R128">
         <v>1.85</v>
@@ -12040,34 +12040,34 @@
         <v>1.95</v>
       </c>
       <c r="T128">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U128">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z128">
+        <v>-1</v>
+      </c>
+      <c r="AA128">
+        <v>0.95</v>
+      </c>
+      <c r="AB128">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA128">
-        <v>-1</v>
-      </c>
-      <c r="AB128">
-        <v>-1</v>
-      </c>
       <c r="AC128">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12164,7 +12164,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7519480</v>
+        <v>7519482</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12176,76 +12176,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G130" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K130">
+        <v>1.909</v>
+      </c>
+      <c r="L130">
+        <v>3.4</v>
+      </c>
+      <c r="M130">
+        <v>3.4</v>
+      </c>
+      <c r="N130">
+        <v>1.727</v>
+      </c>
+      <c r="O130">
+        <v>3.6</v>
+      </c>
+      <c r="P130">
+        <v>4.333</v>
+      </c>
+      <c r="Q130">
+        <v>-0.75</v>
+      </c>
+      <c r="R130">
+        <v>1.95</v>
+      </c>
+      <c r="S130">
+        <v>1.85</v>
+      </c>
+      <c r="T130">
         <v>2.5</v>
       </c>
-      <c r="L130">
-        <v>3.5</v>
-      </c>
-      <c r="M130">
-        <v>2.375</v>
-      </c>
-      <c r="N130">
-        <v>2.5</v>
-      </c>
-      <c r="O130">
-        <v>3.5</v>
-      </c>
-      <c r="P130">
-        <v>2.375</v>
-      </c>
-      <c r="Q130">
-        <v>0</v>
-      </c>
-      <c r="R130">
-        <v>1.975</v>
-      </c>
-      <c r="S130">
-        <v>1.825</v>
-      </c>
-      <c r="T130">
-        <v>3</v>
-      </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X130">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA130">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12253,7 +12253,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7519482</v>
+        <v>7519480</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12265,76 +12265,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H131">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K131">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L131">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N131">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O131">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
+        <v>3</v>
+      </c>
+      <c r="U131">
+        <v>1.9</v>
+      </c>
+      <c r="V131">
+        <v>1.9</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
         <v>2.5</v>
       </c>
-      <c r="U131">
-        <v>1.85</v>
-      </c>
-      <c r="V131">
-        <v>1.95</v>
-      </c>
-      <c r="W131">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12357,7 +12357,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12443,10 +12443,10 @@
         <v>45256.40625</v>
       </c>
       <c r="F133" t="s">
+        <v>31</v>
+      </c>
+      <c r="G133" t="s">
         <v>32</v>
-      </c>
-      <c r="G133" t="s">
-        <v>31</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12532,7 +12532,7 @@
         <v>45262.39583333334</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
         <v>96</v>

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -109,34 +109,34 @@
     <t>NK Tekstilac Ravnice</t>
   </si>
   <si>
+    <t>Lucko</t>
+  </si>
+  <si>
     <t>NK Bistra</t>
   </si>
   <si>
-    <t>Lucko</t>
+    <t>NK Vodice</t>
   </si>
   <si>
     <t>RNK Split</t>
   </si>
   <si>
-    <t>NK Vodice</t>
+    <t>NK Junak</t>
   </si>
   <si>
-    <t>NK Junak</t>
+    <t>Sava Strmec</t>
+  </si>
+  <si>
+    <t>NK Bedem Ivankovo</t>
   </si>
   <si>
     <t>NK Granicar Zupanja</t>
   </si>
   <si>
-    <t>NK Bedem Ivankovo</t>
-  </si>
-  <si>
-    <t>Sava Strmec</t>
+    <t>NK Naftas Hask</t>
   </si>
   <si>
     <t>NK Pomorac</t>
-  </si>
-  <si>
-    <t>NK Naftas Hask</t>
   </si>
   <si>
     <t>Karlovac</t>
@@ -160,13 +160,13 @@
     <t>NK Koprivnica</t>
   </si>
   <si>
-    <t>NK Uljanik</t>
+    <t>NK Primorac Biograd</t>
   </si>
   <si>
     <t>NK Darda</t>
   </si>
   <si>
-    <t>NK Primorac Biograd</t>
+    <t>NK Uljanik</t>
   </si>
   <si>
     <t>NK Zadar</t>
@@ -175,10 +175,10 @@
     <t>NK Ponikve</t>
   </si>
   <si>
-    <t>NK Tresnjevka</t>
+    <t>NK Maksimir</t>
   </si>
   <si>
-    <t>NK Maksimir</t>
+    <t>NK Tresnjevka</t>
   </si>
   <si>
     <t>NK Krizevci</t>
@@ -208,10 +208,10 @@
     <t>NK Medulin</t>
   </si>
   <si>
-    <t>NK Gosk Kastel Gomilica</t>
+    <t>NK Croatia Dakovo</t>
   </si>
   <si>
-    <t>NK Croatia Dakovo</t>
+    <t>NK Gosk Kastel Gomilica</t>
   </si>
   <si>
     <t>NK Vrapce</t>
@@ -277,10 +277,10 @@
     <t>NK Nask Nasice</t>
   </si>
   <si>
-    <t>NK Zagorec Krapina</t>
+    <t>NK Tondach</t>
   </si>
   <si>
-    <t>NK Tondach</t>
+    <t>NK Zagorec Krapina</t>
   </si>
   <si>
     <t>NK Kraljevica</t>
@@ -950,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6353810</v>
+        <v>6353811</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -965,55 +965,55 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>98</v>
       </c>
       <c r="K4">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="O4">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W4">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -1022,16 +1022,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1039,7 +1039,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6353811</v>
+        <v>6353810</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1054,55 +1054,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>98</v>
       </c>
       <c r="K5">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="N5">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -1111,16 +1111,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1128,7 +1128,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6385055</v>
+        <v>6381215</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1143,73 +1143,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L6">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N6">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P6">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X6">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA6">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1217,7 +1217,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6381215</v>
+        <v>6385055</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1232,73 +1232,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K7">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N7">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q7">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1395,7 +1395,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6419353</v>
+        <v>6419351</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1410,73 +1410,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K9">
-        <v>1.2</v>
+        <v>2.75</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M9">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="N9">
-        <v>1.2</v>
+        <v>2.75</v>
       </c>
       <c r="O9">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P9">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q9">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1573,7 +1573,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6419351</v>
+        <v>6419353</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1588,73 +1588,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K11">
-        <v>2.75</v>
+        <v>1.2</v>
       </c>
       <c r="L11">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M11">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="N11">
-        <v>2.75</v>
+        <v>1.2</v>
       </c>
       <c r="O11">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="P11">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R11">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA11">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1662,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6442865</v>
+        <v>6442864</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1677,37 +1677,37 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12">
+        <v>3.2</v>
+      </c>
+      <c r="L12">
+        <v>3.5</v>
+      </c>
+      <c r="M12">
+        <v>1.95</v>
+      </c>
+      <c r="N12">
+        <v>2.5</v>
+      </c>
+      <c r="O12">
+        <v>3.4</v>
+      </c>
+      <c r="P12">
+        <v>2.375</v>
+      </c>
+      <c r="Q12">
         <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>98</v>
-      </c>
-      <c r="K12">
-        <v>2.1</v>
-      </c>
-      <c r="L12">
-        <v>3.4</v>
-      </c>
-      <c r="M12">
-        <v>2.875</v>
-      </c>
-      <c r="N12">
-        <v>1.909</v>
-      </c>
-      <c r="O12">
-        <v>3.5</v>
-      </c>
-      <c r="P12">
-        <v>3.3</v>
-      </c>
-      <c r="Q12">
-        <v>-0.5</v>
       </c>
       <c r="R12">
         <v>1.975</v>
@@ -1716,34 +1716,34 @@
         <v>1.825</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z12">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1751,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6442864</v>
+        <v>6442865</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1766,37 +1766,37 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K13">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="L13">
+        <v>3.4</v>
+      </c>
+      <c r="M13">
+        <v>2.875</v>
+      </c>
+      <c r="N13">
+        <v>1.909</v>
+      </c>
+      <c r="O13">
         <v>3.5</v>
       </c>
-      <c r="M13">
-        <v>1.95</v>
-      </c>
-      <c r="N13">
-        <v>2.5</v>
-      </c>
-      <c r="O13">
-        <v>3.4</v>
-      </c>
       <c r="P13">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
         <v>1.975</v>
@@ -1805,34 +1805,34 @@
         <v>1.825</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1855,7 +1855,7 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1941,7 +1941,7 @@
         <v>45011.47916666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -2030,10 +2030,10 @@
         <v>45014.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2196,7 +2196,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6474092</v>
+        <v>6474091</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2208,10 +2208,10 @@
         <v>45017.47916666666</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2223,40 +2223,40 @@
         <v>97</v>
       </c>
       <c r="K18">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N18">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="O18">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T18">
         <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2265,16 +2265,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
+        <v>0.5</v>
+      </c>
+      <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
+        <v>0.875</v>
+      </c>
+      <c r="AB18">
         <v>0.8</v>
-      </c>
-      <c r="Z18">
-        <v>-1</v>
-      </c>
-      <c r="AA18">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB18">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6474091</v>
+        <v>6474092</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2297,10 +2297,10 @@
         <v>45017.47916666666</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2312,40 +2312,40 @@
         <v>97</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="N19">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2354,16 +2354,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2389,7 +2389,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2475,7 +2475,7 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>71</v>
@@ -2564,7 +2564,7 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
         <v>72</v>
@@ -2656,7 +2656,7 @@
         <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2742,7 +2742,7 @@
         <v>45021.47916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
         <v>70</v>
@@ -3009,7 +3009,7 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
         <v>74</v>
@@ -3098,10 +3098,10 @@
         <v>45028.5</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3187,7 +3187,7 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
         <v>30</v>
@@ -3365,7 +3365,7 @@
         <v>45032.47916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
         <v>75</v>
@@ -3454,7 +3454,7 @@
         <v>45032.5</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
@@ -3546,7 +3546,7 @@
         <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>45039.5</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -4065,7 +4065,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6587217</v>
+        <v>6584079</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4080,73 +4080,73 @@
         <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
         <v>1</v>
       </c>
-      <c r="I39">
-        <v>4</v>
-      </c>
       <c r="J39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K39">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="N39">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R39">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA39">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4154,7 +4154,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6584081</v>
+        <v>6584080</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4166,76 +4166,76 @@
         <v>45045.5</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K40">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M40">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="N40">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P40">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R40">
+        <v>1.95</v>
+      </c>
+      <c r="S40">
         <v>1.85</v>
       </c>
-      <c r="S40">
-        <v>1.95</v>
-      </c>
       <c r="T40">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V40">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X40">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
+        <v>-1</v>
+      </c>
+      <c r="AC40">
         <v>1</v>
-      </c>
-      <c r="AC40">
-        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4243,7 +4243,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6584080</v>
+        <v>6584081</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4255,76 +4255,76 @@
         <v>45045.5</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>99</v>
+      </c>
+      <c r="K41">
+        <v>2.375</v>
+      </c>
+      <c r="L41">
+        <v>3.4</v>
+      </c>
+      <c r="M41">
+        <v>2.5</v>
+      </c>
+      <c r="N41">
+        <v>2.375</v>
+      </c>
+      <c r="O41">
+        <v>3.4</v>
+      </c>
+      <c r="P41">
+        <v>2.5</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>1.85</v>
+      </c>
+      <c r="S41">
+        <v>1.95</v>
+      </c>
+      <c r="T41">
+        <v>3</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
+      <c r="V41">
+        <v>1.8</v>
+      </c>
+      <c r="W41">
+        <v>-1</v>
+      </c>
+      <c r="X41">
+        <v>2.4</v>
+      </c>
+      <c r="Y41">
+        <v>-1</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>-0</v>
+      </c>
+      <c r="AB41">
         <v>1</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41" t="s">
-        <v>98</v>
-      </c>
-      <c r="K41">
-        <v>3.6</v>
-      </c>
-      <c r="L41">
-        <v>3.5</v>
-      </c>
-      <c r="M41">
-        <v>1.8</v>
-      </c>
-      <c r="N41">
-        <v>3.6</v>
-      </c>
-      <c r="O41">
-        <v>3.5</v>
-      </c>
-      <c r="P41">
-        <v>1.8</v>
-      </c>
-      <c r="Q41">
-        <v>0.5</v>
-      </c>
-      <c r="R41">
-        <v>1.95</v>
-      </c>
-      <c r="S41">
-        <v>1.85</v>
-      </c>
-      <c r="T41">
-        <v>2.75</v>
-      </c>
-      <c r="U41">
-        <v>1.8</v>
-      </c>
-      <c r="V41">
-        <v>2</v>
-      </c>
-      <c r="W41">
-        <v>2.6</v>
-      </c>
-      <c r="X41">
-        <v>-1</v>
-      </c>
-      <c r="Y41">
-        <v>-1</v>
-      </c>
-      <c r="Z41">
-        <v>0.95</v>
-      </c>
-      <c r="AA41">
-        <v>-1</v>
-      </c>
-      <c r="AB41">
-        <v>-1</v>
-      </c>
       <c r="AC41">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4332,7 +4332,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6584079</v>
+        <v>6587217</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4347,73 +4347,73 @@
         <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K42">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L42">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="N42">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O42">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P42">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="Q42">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R42">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S42">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T42">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W42">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z42">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB42">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4510,7 +4510,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6615716</v>
+        <v>6612703</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4522,58 +4522,58 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H44">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>98</v>
       </c>
       <c r="K44">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L44">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N44">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O44">
         <v>4</v>
       </c>
       <c r="P44">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q44">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T44">
         <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V44">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W44">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4582,16 +4582,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4599,7 +4599,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6612704</v>
+        <v>6615716</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4611,40 +4611,40 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" t="s">
         <v>33</v>
       </c>
-      <c r="G45" t="s">
-        <v>79</v>
-      </c>
       <c r="H45">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K45">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N45">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="O45">
         <v>4</v>
       </c>
       <c r="P45">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R45">
         <v>1.825</v>
@@ -4656,31 +4656,31 @@
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA45">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4688,7 +4688,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6612703</v>
+        <v>6612704</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4700,76 +4700,76 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K46">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="L46">
         <v>4</v>
       </c>
       <c r="M46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O46">
         <v>4</v>
       </c>
       <c r="P46">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q46">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5044,7 +5044,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6642563</v>
+        <v>6642561</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5059,73 +5059,73 @@
         <v>53</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K50">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N50">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q50">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5145,7 +5145,7 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
         <v>63</v>
@@ -5222,7 +5222,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6642561</v>
+        <v>6642563</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5237,73 +5237,73 @@
         <v>54</v>
       </c>
       <c r="G52" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K52">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M52">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N52">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O52">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P52">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
         <v>3</v>
       </c>
       <c r="U52">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W52">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5768,7 +5768,7 @@
         <v>45080.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
         <v>82</v>
@@ -6035,7 +6035,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>66</v>
@@ -6112,7 +6112,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7126860</v>
+        <v>7126859</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -6124,10 +6124,10 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F62" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6139,61 +6139,61 @@
         <v>99</v>
       </c>
       <c r="K62">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M62">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N62">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P62">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S62">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T62">
         <v>3</v>
       </c>
       <c r="U62">
+        <v>1.85</v>
+      </c>
+      <c r="V62">
         <v>1.95</v>
       </c>
-      <c r="V62">
-        <v>1.85</v>
-      </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6213,10 +6213,10 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6290,7 +6290,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7126859</v>
+        <v>7126860</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6302,10 +6302,10 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G64" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6317,61 +6317,61 @@
         <v>99</v>
       </c>
       <c r="K64">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N64">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q64">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T64">
         <v>3</v>
       </c>
       <c r="U64">
+        <v>1.95</v>
+      </c>
+      <c r="V64">
         <v>1.85</v>
       </c>
-      <c r="V64">
-        <v>1.95</v>
-      </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA64">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6391,10 +6391,10 @@
         <v>45171.51041666666</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6483,7 +6483,7 @@
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6646,7 +6646,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7183191</v>
+        <v>7183189</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6658,55 +6658,55 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
         <v>1</v>
-      </c>
-      <c r="I68">
-        <v>2</v>
       </c>
       <c r="J68" t="s">
         <v>97</v>
       </c>
       <c r="K68">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M68">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P68">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q68">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
         <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6715,19 +6715,19 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6735,7 +6735,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7183190</v>
+        <v>7183191</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6747,76 +6747,76 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="G69" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K69">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L69">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N69">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O69">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB69">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6824,7 +6824,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7183189</v>
+        <v>7183190</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6839,73 +6839,73 @@
         <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K70">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L70">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M70">
+        <v>3.75</v>
+      </c>
+      <c r="N70">
+        <v>1.727</v>
+      </c>
+      <c r="O70">
+        <v>3.75</v>
+      </c>
+      <c r="P70">
+        <v>3.75</v>
+      </c>
+      <c r="Q70">
+        <v>-0.75</v>
+      </c>
+      <c r="R70">
+        <v>1.975</v>
+      </c>
+      <c r="S70">
+        <v>1.825</v>
+      </c>
+      <c r="T70">
         <v>3</v>
       </c>
-      <c r="N70">
-        <v>2.1</v>
-      </c>
-      <c r="O70">
-        <v>3.3</v>
-      </c>
-      <c r="P70">
-        <v>3</v>
-      </c>
-      <c r="Q70">
-        <v>-0.25</v>
-      </c>
-      <c r="R70">
-        <v>1.9</v>
-      </c>
-      <c r="S70">
-        <v>1.9</v>
-      </c>
-      <c r="T70">
+      <c r="U70">
+        <v>1.95</v>
+      </c>
+      <c r="V70">
+        <v>1.85</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
         <v>2.75</v>
       </c>
-      <c r="U70">
-        <v>1.925</v>
-      </c>
-      <c r="V70">
-        <v>1.775</v>
-      </c>
-      <c r="W70">
-        <v>-1</v>
-      </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
       <c r="Y70">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC70">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7002,7 +7002,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7188987</v>
+        <v>7188989</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7014,56 +7014,56 @@
         <v>45179.5</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
         <v>97</v>
       </c>
       <c r="K72">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="L72">
         <v>3.4</v>
       </c>
       <c r="M72">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="N72">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O72">
         <v>3.4</v>
       </c>
       <c r="P72">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="Q72">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
         <v>1.85</v>
-      </c>
-      <c r="S72">
-        <v>1.95</v>
       </c>
       <c r="T72">
         <v>3</v>
       </c>
       <c r="U72">
+        <v>1.975</v>
+      </c>
+      <c r="V72">
         <v>1.825</v>
       </c>
-      <c r="V72">
-        <v>1.975</v>
-      </c>
       <c r="W72">
         <v>-1</v>
       </c>
@@ -7071,19 +7071,19 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.909</v>
+        <v>1.4</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7091,7 +7091,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7188990</v>
+        <v>7188988</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7103,46 +7103,46 @@
         <v>45179.5</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
         <v>97</v>
       </c>
       <c r="K73">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L73">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N73">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P73">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S73">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T73">
         <v>2.75</v>
@@ -7160,19 +7160,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7180,7 +7180,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7188989</v>
+        <v>7188990</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7195,10 +7195,10 @@
         <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>2</v>
@@ -7207,41 +7207,41 @@
         <v>97</v>
       </c>
       <c r="K74">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M74">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
+        <v>1.825</v>
+      </c>
+      <c r="V74">
         <v>1.975</v>
       </c>
-      <c r="V74">
-        <v>1.825</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7249,19 +7249,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7269,7 +7269,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7188988</v>
+        <v>7188987</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7281,49 +7281,49 @@
         <v>45179.5</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
         <v>88</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
         <v>97</v>
       </c>
       <c r="K75">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L75">
         <v>3.4</v>
       </c>
       <c r="M75">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="N75">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O75">
         <v>3.4</v>
       </c>
       <c r="P75">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R75">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U75">
         <v>1.825</v>
@@ -7338,19 +7338,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2.4</v>
+        <v>0.909</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7370,10 +7370,10 @@
         <v>45182.5</v>
       </c>
       <c r="F76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>6</v>
@@ -7447,7 +7447,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7202436</v>
+        <v>7202435</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7459,46 +7459,46 @@
         <v>45182.5</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>98</v>
       </c>
       <c r="K77">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M77">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N77">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O77">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P77">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T77">
         <v>2.75</v>
@@ -7510,7 +7510,7 @@
         <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.5329999999999999</v>
+        <v>1</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7519,16 +7519,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="AA77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7536,7 +7536,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7202435</v>
+        <v>7202436</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7548,46 +7548,46 @@
         <v>45182.5</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H78">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>98</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M78">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N78">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P78">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R78">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T78">
         <v>2.75</v>
@@ -7599,7 +7599,7 @@
         <v>1.975</v>
       </c>
       <c r="W78">
-        <v>1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7608,16 +7608,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8</v>
+        <v>0.35</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB78">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7637,7 +7637,7 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
         <v>43</v>
@@ -7726,10 +7726,10 @@
         <v>45188.48958333334</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7907,7 +7907,7 @@
         <v>59</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7981,7 +7981,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7250137</v>
+        <v>7250138</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7993,76 +7993,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K83">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M83">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N83">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O83">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U83">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y83">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC83">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8070,7 +8070,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7250138</v>
+        <v>7250137</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8082,76 +8082,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L84">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M84">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N84">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O84">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P84">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8352,7 +8352,7 @@
         <v>59</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -8438,7 +8438,7 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G88" t="s">
         <v>70</v>
@@ -8515,7 +8515,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7305882</v>
+        <v>7305881</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8527,76 +8527,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G89" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I89">
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K89">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M89">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="N89">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P89">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="Q89">
+        <v>-1.25</v>
+      </c>
+      <c r="R89">
+        <v>1.75</v>
+      </c>
+      <c r="S89">
+        <v>1.95</v>
+      </c>
+      <c r="T89">
+        <v>3</v>
+      </c>
+      <c r="U89">
+        <v>2</v>
+      </c>
+      <c r="V89">
+        <v>1.8</v>
+      </c>
+      <c r="W89">
+        <v>0.363</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
+        <v>-1</v>
+      </c>
+      <c r="Z89">
         <v>0.75</v>
       </c>
-      <c r="R89">
-        <v>1.825</v>
-      </c>
-      <c r="S89">
-        <v>1.975</v>
-      </c>
-      <c r="T89">
-        <v>2.75</v>
-      </c>
-      <c r="U89">
-        <v>1.8</v>
-      </c>
-      <c r="V89">
-        <v>2</v>
-      </c>
-      <c r="W89">
-        <v>-1</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
-      <c r="Y89">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z89">
-        <v>-1</v>
-      </c>
       <c r="AA89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC89">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8604,7 +8604,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7305881</v>
+        <v>7305882</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8616,76 +8616,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F90" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G90" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90" t="s">
+        <v>97</v>
+      </c>
+      <c r="K90">
+        <v>3.6</v>
+      </c>
+      <c r="L90">
         <v>4</v>
       </c>
-      <c r="I90">
-        <v>2</v>
-      </c>
-      <c r="J90" t="s">
-        <v>98</v>
-      </c>
-      <c r="K90">
-        <v>1.363</v>
-      </c>
-      <c r="L90">
-        <v>4.75</v>
-      </c>
       <c r="M90">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="N90">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O90">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P90">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R90">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W90">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z90">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>1</v>
-      </c>
-      <c r="AC90">
-        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8794,10 +8794,10 @@
         <v>45207.46875</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8972,10 +8972,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -9049,7 +9049,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7337008</v>
+        <v>7337010</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -9061,76 +9061,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H95">
+        <v>5</v>
+      </c>
+      <c r="I95">
         <v>0</v>
       </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
       <c r="J95" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K95">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M95">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N95">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P95">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q95">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R95">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S95">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
+        <v>1.75</v>
+      </c>
+      <c r="V95">
         <v>1.95</v>
       </c>
-      <c r="V95">
-        <v>1.85</v>
-      </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9138,7 +9138,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7337010</v>
+        <v>7337008</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9150,76 +9150,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H96">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K96">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N96">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O96">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P96">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q96">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R96">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S96">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T96">
         <v>3</v>
       </c>
       <c r="U96">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W96">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z96">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB96">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9227,7 +9227,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7343496</v>
+        <v>7343497</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9239,10 +9239,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G97" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -9254,43 +9254,43 @@
         <v>98</v>
       </c>
       <c r="K97">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L97">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N97">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P97">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T97">
         <v>3</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W97">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9299,7 +9299,7 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA97">
         <v>-1</v>
@@ -9316,7 +9316,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7343497</v>
+        <v>7343496</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9328,10 +9328,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9343,43 +9343,43 @@
         <v>98</v>
       </c>
       <c r="K98">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M98">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T98">
         <v>3</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9388,7 +9388,7 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA98">
         <v>-1</v>
@@ -9405,7 +9405,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7366817</v>
+        <v>7366818</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9417,76 +9417,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>98</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L99">
+        <v>3.75</v>
+      </c>
+      <c r="M99">
         <v>3.4</v>
       </c>
-      <c r="M99">
-        <v>3.1</v>
-      </c>
       <c r="N99">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O99">
+        <v>3.75</v>
+      </c>
+      <c r="P99">
         <v>3.4</v>
       </c>
-      <c r="P99">
-        <v>3.1</v>
-      </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S99">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
         <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W99">
+        <v>0.8</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA99">
+        <v>-1</v>
+      </c>
+      <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
         <v>1</v>
-      </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
-      <c r="Z99">
-        <v>0.8</v>
-      </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
-      <c r="AB99">
-        <v>0.925</v>
-      </c>
-      <c r="AC99">
-        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9494,7 +9494,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7366818</v>
+        <v>7366817</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9506,76 +9506,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100">
         <v>1</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>98</v>
       </c>
       <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <v>3.4</v>
+      </c>
+      <c r="M100">
+        <v>3.1</v>
+      </c>
+      <c r="N100">
+        <v>2</v>
+      </c>
+      <c r="O100">
+        <v>3.4</v>
+      </c>
+      <c r="P100">
+        <v>3.1</v>
+      </c>
+      <c r="Q100">
+        <v>-0.25</v>
+      </c>
+      <c r="R100">
         <v>1.8</v>
       </c>
-      <c r="L100">
-        <v>3.75</v>
-      </c>
-      <c r="M100">
-        <v>3.4</v>
-      </c>
-      <c r="N100">
-        <v>1.8</v>
-      </c>
-      <c r="O100">
-        <v>3.75</v>
-      </c>
-      <c r="P100">
-        <v>3.4</v>
-      </c>
-      <c r="Q100">
-        <v>-0.5</v>
-      </c>
-      <c r="R100">
-        <v>1.85</v>
-      </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W100">
+        <v>1</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
         <v>0.8</v>
       </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
-      <c r="Y100">
-        <v>-1</v>
-      </c>
-      <c r="Z100">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9595,7 +9595,7 @@
         <v>45220.4375</v>
       </c>
       <c r="F101" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G101" t="s">
         <v>89</v>
@@ -9687,7 +9687,7 @@
         <v>42</v>
       </c>
       <c r="G102" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9776,7 +9776,7 @@
         <v>59</v>
       </c>
       <c r="G103" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H103">
         <v>4</v>
@@ -9865,7 +9865,7 @@
         <v>58</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H104">
         <v>5</v>
@@ -9951,10 +9951,10 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -10040,7 +10040,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
         <v>90</v>
@@ -10132,7 +10132,7 @@
         <v>57</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H107">
         <v>3</v>
@@ -10218,10 +10218,10 @@
         <v>45228.4375</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10399,7 +10399,7 @@
         <v>60</v>
       </c>
       <c r="G110" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
         <v>81</v>
@@ -10562,7 +10562,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7460852</v>
+        <v>7460854</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10577,73 +10577,73 @@
         <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K112">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="L112">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M112">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="N112">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O112">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P112">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="Q112">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R112">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T112">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V112">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z112">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10651,7 +10651,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7460854</v>
+        <v>7460852</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10666,73 +10666,73 @@
         <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K113">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="L113">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M113">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="N113">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O113">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P113">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="Q113">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R113">
+        <v>1.8</v>
+      </c>
+      <c r="S113">
+        <v>2</v>
+      </c>
+      <c r="T113">
+        <v>2.75</v>
+      </c>
+      <c r="U113">
         <v>1.95</v>
       </c>
-      <c r="S113">
+      <c r="V113">
         <v>1.85</v>
       </c>
-      <c r="T113">
-        <v>3</v>
-      </c>
-      <c r="U113">
-        <v>1.775</v>
-      </c>
-      <c r="V113">
-        <v>2.025</v>
-      </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y113">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AA113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10930,10 +10930,10 @@
         <v>45248.375</v>
       </c>
       <c r="F116" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G116" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -11108,7 +11108,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G118" t="s">
         <v>94</v>
@@ -11185,7 +11185,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7493775</v>
+        <v>7493774</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11197,76 +11197,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K119">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="L119">
         <v>3.75</v>
       </c>
       <c r="M119">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N119">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O119">
         <v>3.8</v>
       </c>
       <c r="P119">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q119">
         <v>-1</v>
       </c>
       <c r="R119">
+        <v>1.825</v>
+      </c>
+      <c r="S119">
+        <v>1.975</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
         <v>1.925</v>
       </c>
-      <c r="S119">
+      <c r="V119">
         <v>1.875</v>
       </c>
-      <c r="T119">
-        <v>2.5</v>
-      </c>
-      <c r="U119">
-        <v>1.875</v>
-      </c>
-      <c r="V119">
-        <v>1.925</v>
-      </c>
       <c r="W119">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB119">
+        <v>-1</v>
+      </c>
+      <c r="AC119">
         <v>0.875</v>
-      </c>
-      <c r="AC119">
-        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11274,7 +11274,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7493774</v>
+        <v>7493775</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11286,76 +11286,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="G120" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K120">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L120">
         <v>3.75</v>
       </c>
       <c r="M120">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N120">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O120">
         <v>3.8</v>
       </c>
       <c r="P120">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q120">
         <v>-1</v>
       </c>
       <c r="R120">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S120">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
+        <v>1.875</v>
+      </c>
+      <c r="V120">
         <v>1.925</v>
       </c>
-      <c r="V120">
-        <v>1.875</v>
-      </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X120">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC120">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11363,7 +11363,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7493772</v>
+        <v>7493773</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11375,76 +11375,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G121" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="H121">
         <v>2</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K121">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="L121">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M121">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="N121">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O121">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P121">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Q121">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R121">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T121">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U121">
+        <v>1.95</v>
+      </c>
+      <c r="V121">
         <v>1.85</v>
       </c>
-      <c r="V121">
-        <v>1.95</v>
-      </c>
       <c r="W121">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
+        <v>-1</v>
+      </c>
+      <c r="AA121">
+        <v>0.95</v>
+      </c>
+      <c r="AB121">
+        <v>0.475</v>
+      </c>
+      <c r="AC121">
         <v>-0.5</v>
-      </c>
-      <c r="AA121">
-        <v>0.45</v>
-      </c>
-      <c r="AB121">
-        <v>0</v>
-      </c>
-      <c r="AC121">
-        <v>-0</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11452,7 +11452,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7493773</v>
+        <v>7493772</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11464,76 +11464,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F122" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="H122">
         <v>2</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K122">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="L122">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M122">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="N122">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O122">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P122">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Q122">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R122">
+        <v>1.9</v>
+      </c>
+      <c r="S122">
+        <v>1.9</v>
+      </c>
+      <c r="T122">
+        <v>3</v>
+      </c>
+      <c r="U122">
         <v>1.85</v>
       </c>
-      <c r="S122">
+      <c r="V122">
         <v>1.95</v>
       </c>
-      <c r="T122">
-        <v>3.75</v>
-      </c>
-      <c r="U122">
-        <v>1.95</v>
-      </c>
-      <c r="V122">
-        <v>1.85</v>
-      </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X122">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA122">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB122">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC122">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11553,7 +11553,7 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G123" t="s">
         <v>62</v>
@@ -11645,7 +11645,7 @@
         <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11808,7 +11808,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7517623</v>
+        <v>7520493</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11820,43 +11820,43 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F126" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G126" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="H126">
         <v>2</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J126" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K126">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="L126">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="M126">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="N126">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O126">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="P126">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R126">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S126">
         <v>1.95</v>
@@ -11865,31 +11865,31 @@
         <v>3</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V126">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W126">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z126">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC126">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11897,7 +11897,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7520493</v>
+        <v>7517624</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11909,55 +11909,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F127" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G127" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J127" t="s">
         <v>97</v>
       </c>
       <c r="K127">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="L127">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="M127">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N127">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O127">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="P127">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="Q127">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R127">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S127">
         <v>1.95</v>
       </c>
       <c r="T127">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U127">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V127">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11966,7 +11966,7 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.95</v>
+        <v>4.25</v>
       </c>
       <c r="Z127">
         <v>-1</v>
@@ -11975,7 +11975,7 @@
         <v>0.95</v>
       </c>
       <c r="AB127">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11986,7 +11986,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7517624</v>
+        <v>7517623</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -12001,37 +12001,37 @@
         <v>65</v>
       </c>
       <c r="G128" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K128">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L128">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="M128">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N128">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O128">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="P128">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q128">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
         <v>1.85</v>
@@ -12040,34 +12040,34 @@
         <v>1.95</v>
       </c>
       <c r="T128">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA128">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12087,7 +12087,7 @@
         <v>45255.40277777778</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
         <v>61</v>
@@ -12164,7 +12164,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7519482</v>
+        <v>7519480</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12176,76 +12176,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H130">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K130">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L130">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M130">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N130">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P130">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
+        <v>3</v>
+      </c>
+      <c r="U130">
+        <v>1.9</v>
+      </c>
+      <c r="V130">
+        <v>1.9</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
         <v>2.5</v>
       </c>
-      <c r="U130">
-        <v>1.85</v>
-      </c>
-      <c r="V130">
-        <v>1.95</v>
-      </c>
-      <c r="W130">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X130">
-        <v>-1</v>
-      </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12253,7 +12253,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7519480</v>
+        <v>7519482</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12265,76 +12265,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G131" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K131">
+        <v>1.909</v>
+      </c>
+      <c r="L131">
+        <v>3.4</v>
+      </c>
+      <c r="M131">
+        <v>3.4</v>
+      </c>
+      <c r="N131">
+        <v>1.727</v>
+      </c>
+      <c r="O131">
+        <v>3.6</v>
+      </c>
+      <c r="P131">
+        <v>4.333</v>
+      </c>
+      <c r="Q131">
+        <v>-0.75</v>
+      </c>
+      <c r="R131">
+        <v>1.95</v>
+      </c>
+      <c r="S131">
+        <v>1.85</v>
+      </c>
+      <c r="T131">
         <v>2.5</v>
       </c>
-      <c r="L131">
-        <v>3.5</v>
-      </c>
-      <c r="M131">
-        <v>2.375</v>
-      </c>
-      <c r="N131">
-        <v>2.5</v>
-      </c>
-      <c r="O131">
-        <v>3.5</v>
-      </c>
-      <c r="P131">
-        <v>2.375</v>
-      </c>
-      <c r="Q131">
-        <v>0</v>
-      </c>
-      <c r="R131">
-        <v>1.975</v>
-      </c>
-      <c r="S131">
-        <v>1.825</v>
-      </c>
-      <c r="T131">
-        <v>3</v>
-      </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X131">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA131">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12354,7 +12354,7 @@
         <v>45256.40625</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
         <v>52</v>
@@ -12443,10 +12443,10 @@
         <v>45256.40625</v>
       </c>
       <c r="F133" t="s">
+        <v>32</v>
+      </c>
+      <c r="G133" t="s">
         <v>31</v>
-      </c>
-      <c r="G133" t="s">
-        <v>32</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12532,7 +12532,7 @@
         <v>45262.39583333334</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
         <v>96</v>

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -115,28 +115,28 @@
     <t>NK Bistra</t>
   </si>
   <si>
-    <t>NK Vodice</t>
+    <t>RNK Split</t>
   </si>
   <si>
-    <t>RNK Split</t>
+    <t>NK Vodice</t>
   </si>
   <si>
     <t>NK Junak</t>
   </si>
   <si>
-    <t>Sava Strmec</t>
+    <t>NK Granicar Zupanja</t>
   </si>
   <si>
     <t>NK Bedem Ivankovo</t>
   </si>
   <si>
-    <t>NK Granicar Zupanja</t>
+    <t>Sava Strmec</t>
+  </si>
+  <si>
+    <t>NK Pomorac</t>
   </si>
   <si>
     <t>NK Naftas Hask</t>
-  </si>
-  <si>
-    <t>NK Pomorac</t>
   </si>
   <si>
     <t>Karlovac</t>
@@ -160,25 +160,25 @@
     <t>NK Koprivnica</t>
   </si>
   <si>
-    <t>NK Primorac Biograd</t>
+    <t>NK Uljanik</t>
   </si>
   <si>
     <t>NK Darda</t>
   </si>
   <si>
-    <t>NK Uljanik</t>
+    <t>NK Primorac Biograd</t>
   </si>
   <si>
     <t>NK Zadar</t>
-  </si>
-  <si>
-    <t>NK Ponikve</t>
   </si>
   <si>
     <t>NK Maksimir</t>
   </si>
   <si>
     <t>NK Tresnjevka</t>
+  </si>
+  <si>
+    <t>NK Ponikve</t>
   </si>
   <si>
     <t>NK Krizevci</t>
@@ -208,10 +208,10 @@
     <t>NK Medulin</t>
   </si>
   <si>
-    <t>NK Croatia Dakovo</t>
+    <t>NK Gosk Kastel Gomilica</t>
   </si>
   <si>
-    <t>NK Gosk Kastel Gomilica</t>
+    <t>NK Croatia Dakovo</t>
   </si>
   <si>
     <t>NK Vrapce</t>
@@ -235,10 +235,10 @@
     <t>Sloga Nova Gradiska</t>
   </si>
   <si>
-    <t>NK Svacic</t>
+    <t>NK Neretva</t>
   </si>
   <si>
-    <t>NK Neretva</t>
+    <t>NK Svacic</t>
   </si>
   <si>
     <t>HNK Segesta</t>
@@ -1054,7 +1054,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1128,7 +1128,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6381215</v>
+        <v>6385055</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1143,73 +1143,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K6">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N6">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O6">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q6">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1217,7 +1217,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6385055</v>
+        <v>6381215</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1232,73 +1232,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K7">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L7">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N7">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P7">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X7">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA7">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1395,7 +1395,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6419351</v>
+        <v>6419353</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1410,73 +1410,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K9">
-        <v>2.75</v>
+        <v>1.2</v>
       </c>
       <c r="L9">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="N9">
-        <v>2.75</v>
+        <v>1.2</v>
       </c>
       <c r="O9">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="P9">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R9">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1573,7 +1573,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6419353</v>
+        <v>6419351</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1588,73 +1588,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K11">
-        <v>1.2</v>
+        <v>2.75</v>
       </c>
       <c r="L11">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M11">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="N11">
-        <v>1.2</v>
+        <v>2.75</v>
       </c>
       <c r="O11">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P11">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q11">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z11">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1662,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6442864</v>
+        <v>6442865</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1677,37 +1677,37 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K12">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="L12">
+        <v>3.4</v>
+      </c>
+      <c r="M12">
+        <v>2.875</v>
+      </c>
+      <c r="N12">
+        <v>1.909</v>
+      </c>
+      <c r="O12">
         <v>3.5</v>
       </c>
-      <c r="M12">
-        <v>1.95</v>
-      </c>
-      <c r="N12">
-        <v>2.5</v>
-      </c>
-      <c r="O12">
-        <v>3.4</v>
-      </c>
       <c r="P12">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
         <v>1.975</v>
@@ -1716,34 +1716,34 @@
         <v>1.825</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1751,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6442865</v>
+        <v>6442864</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1766,37 +1766,37 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13">
+        <v>3.2</v>
+      </c>
+      <c r="L13">
+        <v>3.5</v>
+      </c>
+      <c r="M13">
+        <v>1.95</v>
+      </c>
+      <c r="N13">
+        <v>2.5</v>
+      </c>
+      <c r="O13">
+        <v>3.4</v>
+      </c>
+      <c r="P13">
+        <v>2.375</v>
+      </c>
+      <c r="Q13">
         <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13">
-        <v>2.1</v>
-      </c>
-      <c r="L13">
-        <v>3.4</v>
-      </c>
-      <c r="M13">
-        <v>2.875</v>
-      </c>
-      <c r="N13">
-        <v>1.909</v>
-      </c>
-      <c r="O13">
-        <v>3.5</v>
-      </c>
-      <c r="P13">
-        <v>3.3</v>
-      </c>
-      <c r="Q13">
-        <v>-0.5</v>
       </c>
       <c r="R13">
         <v>1.975</v>
@@ -1805,34 +1805,34 @@
         <v>1.825</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1941,7 +1941,7 @@
         <v>45011.47916666666</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -2033,7 +2033,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2196,7 +2196,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6474091</v>
+        <v>6474092</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2208,10 +2208,10 @@
         <v>45017.47916666666</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2223,40 +2223,40 @@
         <v>97</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M18">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="N18">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P18">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
         <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2265,16 +2265,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB18">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6474092</v>
+        <v>6474091</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2297,10 +2297,10 @@
         <v>45017.47916666666</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2312,40 +2312,40 @@
         <v>97</v>
       </c>
       <c r="K19">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N19">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2354,16 +2354,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
+        <v>0.5</v>
+      </c>
+      <c r="Z19">
+        <v>-1</v>
+      </c>
+      <c r="AA19">
+        <v>0.875</v>
+      </c>
+      <c r="AB19">
         <v>0.8</v>
-      </c>
-      <c r="Z19">
-        <v>-1</v>
-      </c>
-      <c r="AA19">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB19">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2389,7 +2389,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2475,7 +2475,7 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
         <v>71</v>
@@ -2552,7 +2552,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6474643</v>
+        <v>6474644</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2564,76 +2564,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
         <v>99</v>
       </c>
       <c r="K22">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="L22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="N22">
-        <v>1.142</v>
+        <v>2.5</v>
       </c>
       <c r="O22">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P22">
-        <v>12</v>
+        <v>2.625</v>
       </c>
       <c r="Q22">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2641,7 +2641,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6474644</v>
+        <v>6474643</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2653,76 +2653,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>99</v>
       </c>
       <c r="K23">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M23">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="N23">
-        <v>2.5</v>
+        <v>1.142</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P23">
-        <v>2.625</v>
+        <v>12</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2742,7 +2742,7 @@
         <v>45021.47916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
         <v>70</v>
@@ -2908,7 +2908,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6498265</v>
+        <v>6498264</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2920,76 +2920,76 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
         <v>73</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K26">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M26">
         <v>3.4</v>
       </c>
       <c r="N26">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O26">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P26">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>1.8</v>
+      </c>
+      <c r="T26">
+        <v>2.5</v>
+      </c>
+      <c r="U26">
         <v>1.9</v>
       </c>
-      <c r="S26">
+      <c r="V26">
         <v>1.9</v>
       </c>
-      <c r="T26">
-        <v>3</v>
-      </c>
-      <c r="U26">
-        <v>1.75</v>
-      </c>
-      <c r="V26">
-        <v>1.95</v>
-      </c>
       <c r="W26">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z26">
+        <v>-1</v>
+      </c>
+      <c r="AA26">
+        <v>0.8</v>
+      </c>
+      <c r="AB26">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA26">
-        <v>-1</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
       <c r="AC26">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2997,7 +2997,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6498264</v>
+        <v>6498265</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -3009,76 +3009,76 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s">
         <v>74</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K27">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L27">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
         <v>3.4</v>
       </c>
       <c r="N27">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O27">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3101,7 +3101,7 @@
         <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3187,7 +3187,7 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
         <v>30</v>
@@ -3365,7 +3365,7 @@
         <v>45032.47916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
         <v>75</v>
@@ -3454,7 +3454,7 @@
         <v>45032.5</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
@@ -3546,7 +3546,7 @@
         <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6557197</v>
+        <v>6557198</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3721,55 +3721,55 @@
         <v>45039.5</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
         <v>97</v>
       </c>
       <c r="K35">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M35">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="N35">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P35">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S35">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
         <v>-1</v>
@@ -3778,19 +3778,19 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3798,7 +3798,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6557198</v>
+        <v>6557197</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3810,76 +3810,76 @@
         <v>45039.5</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
         <v>97</v>
       </c>
       <c r="K36">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M36">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="N36">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P36">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
+        <v>1.875</v>
+      </c>
+      <c r="V36">
+        <v>1.925</v>
+      </c>
+      <c r="W36">
+        <v>-1</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
         <v>1.9</v>
       </c>
-      <c r="V36">
-        <v>1.9</v>
-      </c>
-      <c r="W36">
-        <v>-1</v>
-      </c>
-      <c r="X36">
-        <v>-1</v>
-      </c>
-      <c r="Y36">
-        <v>1.6</v>
-      </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4065,7 +4065,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6584079</v>
+        <v>6587217</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4080,73 +4080,73 @@
         <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K39">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="N39">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="Q39">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R39">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S39">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z39">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB39">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4154,7 +4154,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6584080</v>
+        <v>6584081</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4166,76 +4166,76 @@
         <v>45045.5</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40" t="s">
+        <v>99</v>
+      </c>
+      <c r="K40">
+        <v>2.375</v>
+      </c>
+      <c r="L40">
+        <v>3.4</v>
+      </c>
+      <c r="M40">
+        <v>2.5</v>
+      </c>
+      <c r="N40">
+        <v>2.375</v>
+      </c>
+      <c r="O40">
+        <v>3.4</v>
+      </c>
+      <c r="P40">
+        <v>2.5</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>1.85</v>
+      </c>
+      <c r="S40">
+        <v>1.95</v>
+      </c>
+      <c r="T40">
+        <v>3</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <v>1.8</v>
+      </c>
+      <c r="W40">
+        <v>-1</v>
+      </c>
+      <c r="X40">
+        <v>2.4</v>
+      </c>
+      <c r="Y40">
+        <v>-1</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>-0</v>
+      </c>
+      <c r="AB40">
         <v>1</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40" t="s">
-        <v>98</v>
-      </c>
-      <c r="K40">
-        <v>3.6</v>
-      </c>
-      <c r="L40">
-        <v>3.5</v>
-      </c>
-      <c r="M40">
-        <v>1.8</v>
-      </c>
-      <c r="N40">
-        <v>3.6</v>
-      </c>
-      <c r="O40">
-        <v>3.5</v>
-      </c>
-      <c r="P40">
-        <v>1.8</v>
-      </c>
-      <c r="Q40">
-        <v>0.5</v>
-      </c>
-      <c r="R40">
-        <v>1.95</v>
-      </c>
-      <c r="S40">
-        <v>1.85</v>
-      </c>
-      <c r="T40">
-        <v>2.75</v>
-      </c>
-      <c r="U40">
-        <v>1.8</v>
-      </c>
-      <c r="V40">
-        <v>2</v>
-      </c>
-      <c r="W40">
-        <v>2.6</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
-      <c r="Y40">
-        <v>-1</v>
-      </c>
-      <c r="Z40">
-        <v>0.95</v>
-      </c>
-      <c r="AA40">
-        <v>-1</v>
-      </c>
-      <c r="AB40">
-        <v>-1</v>
-      </c>
       <c r="AC40">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4243,7 +4243,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6584081</v>
+        <v>6584079</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4255,76 +4255,76 @@
         <v>45045.5</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K41">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="L41">
         <v>3.4</v>
       </c>
       <c r="M41">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="N41">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O41">
         <v>3.4</v>
       </c>
       <c r="P41">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R41">
+        <v>1.825</v>
+      </c>
+      <c r="S41">
+        <v>1.975</v>
+      </c>
+      <c r="T41">
+        <v>2.75</v>
+      </c>
+      <c r="U41">
+        <v>1.95</v>
+      </c>
+      <c r="V41">
         <v>1.85</v>
       </c>
-      <c r="S41">
-        <v>1.95</v>
-      </c>
-      <c r="T41">
-        <v>3</v>
-      </c>
-      <c r="U41">
-        <v>2</v>
-      </c>
-      <c r="V41">
-        <v>1.8</v>
-      </c>
       <c r="W41">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X41">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4332,7 +4332,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6587217</v>
+        <v>6584080</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4344,76 +4344,76 @@
         <v>45045.5</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K42">
-        <v>1.444</v>
+        <v>3.6</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M42">
-        <v>5.75</v>
+        <v>1.8</v>
       </c>
       <c r="N42">
-        <v>1.444</v>
+        <v>3.6</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P42">
-        <v>5.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S42">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA42">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4510,7 +4510,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6612703</v>
+        <v>6615716</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4522,58 +4522,58 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>98</v>
       </c>
       <c r="K44">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N44">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O44">
         <v>4</v>
       </c>
       <c r="P44">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q44">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R44">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
         <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V44">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W44">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4582,16 +4582,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
+        <v>0.825</v>
+      </c>
+      <c r="AA44">
+        <v>-1</v>
+      </c>
+      <c r="AB44">
         <v>0.8</v>
       </c>
-      <c r="AA44">
-        <v>-1</v>
-      </c>
-      <c r="AB44">
-        <v>-1</v>
-      </c>
       <c r="AC44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4599,7 +4599,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6615716</v>
+        <v>6612704</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4611,40 +4611,40 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="H45">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K45">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L45">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N45">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="O45">
         <v>4</v>
       </c>
       <c r="P45">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q45">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
         <v>1.825</v>
@@ -4656,31 +4656,31 @@
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4688,7 +4688,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6612704</v>
+        <v>6612703</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4700,76 +4700,76 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
         <v>0</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
       <c r="J46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K46">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="L46">
         <v>4</v>
       </c>
       <c r="M46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O46">
         <v>4</v>
       </c>
       <c r="P46">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q46">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R46">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S46">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA46">
+        <v>-1</v>
+      </c>
+      <c r="AB46">
+        <v>-1</v>
+      </c>
+      <c r="AC46">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB46">
-        <v>-1</v>
-      </c>
-      <c r="AC46">
-        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4881,7 +4881,7 @@
         <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4955,7 +4955,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6642562</v>
+        <v>6642561</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4970,73 +4970,73 @@
         <v>52</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K49">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N49">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q49">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S49">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V49">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X49">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC49">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5044,7 +5044,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6642561</v>
+        <v>6642563</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5059,73 +5059,73 @@
         <v>53</v>
       </c>
       <c r="G50" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K50">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N50">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R50">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S50">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z50">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC50">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5145,7 +5145,7 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
         <v>63</v>
@@ -5222,7 +5222,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6642563</v>
+        <v>6642562</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5237,16 +5237,16 @@
         <v>54</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K52">
         <v>1.6</v>
@@ -5279,19 +5279,19 @@
         <v>3</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y52">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
         <v>-1</v>
@@ -5300,10 +5300,10 @@
         <v>0.95</v>
       </c>
       <c r="AB52">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5768,7 +5768,7 @@
         <v>45080.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
         <v>82</v>
@@ -6124,7 +6124,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
         <v>85</v>
@@ -6201,7 +6201,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7126858</v>
+        <v>7126860</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6213,76 +6213,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K63">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L63">
         <v>3.4</v>
       </c>
       <c r="M63">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N63">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="O63">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R63">
+        <v>1.975</v>
+      </c>
+      <c r="S63">
+        <v>1.725</v>
+      </c>
+      <c r="T63">
+        <v>3</v>
+      </c>
+      <c r="U63">
         <v>1.95</v>
       </c>
-      <c r="S63">
+      <c r="V63">
         <v>1.85</v>
       </c>
-      <c r="T63">
-        <v>2.75</v>
-      </c>
-      <c r="U63">
-        <v>1.9</v>
-      </c>
-      <c r="V63">
-        <v>1.9</v>
-      </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA63">
+        <v>-0</v>
+      </c>
+      <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB63">
-        <v>-1</v>
-      </c>
-      <c r="AC63">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6290,7 +6290,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7126860</v>
+        <v>7126858</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6302,76 +6302,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F64" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K64">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L64">
         <v>3.4</v>
       </c>
       <c r="M64">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N64">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="O64">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P64">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R64">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S64">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T64">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V64">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6394,7 +6394,7 @@
         <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6483,7 +6483,7 @@
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6646,7 +6646,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7183189</v>
+        <v>7183190</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6661,73 +6661,73 @@
         <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K68">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L68">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
+        <v>3.75</v>
+      </c>
+      <c r="N68">
+        <v>1.727</v>
+      </c>
+      <c r="O68">
+        <v>3.75</v>
+      </c>
+      <c r="P68">
+        <v>3.75</v>
+      </c>
+      <c r="Q68">
+        <v>-0.75</v>
+      </c>
+      <c r="R68">
+        <v>1.975</v>
+      </c>
+      <c r="S68">
+        <v>1.825</v>
+      </c>
+      <c r="T68">
         <v>3</v>
       </c>
-      <c r="N68">
-        <v>2.1</v>
-      </c>
-      <c r="O68">
-        <v>3.3</v>
-      </c>
-      <c r="P68">
-        <v>3</v>
-      </c>
-      <c r="Q68">
-        <v>-0.25</v>
-      </c>
-      <c r="R68">
-        <v>1.9</v>
-      </c>
-      <c r="S68">
-        <v>1.9</v>
-      </c>
-      <c r="T68">
+      <c r="U68">
+        <v>1.95</v>
+      </c>
+      <c r="V68">
+        <v>1.85</v>
+      </c>
+      <c r="W68">
+        <v>-1</v>
+      </c>
+      <c r="X68">
         <v>2.75</v>
       </c>
-      <c r="U68">
-        <v>1.925</v>
-      </c>
-      <c r="V68">
-        <v>1.775</v>
-      </c>
-      <c r="W68">
-        <v>-1</v>
-      </c>
-      <c r="X68">
-        <v>-1</v>
-      </c>
       <c r="Y68">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC68">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6735,7 +6735,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7183191</v>
+        <v>7183189</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6747,55 +6747,55 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
         <v>1</v>
-      </c>
-      <c r="I69">
-        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>97</v>
       </c>
       <c r="K69">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L69">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M69">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O69">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P69">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q69">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T69">
         <v>2.75</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6804,19 +6804,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB69">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6824,7 +6824,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7183190</v>
+        <v>7183191</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6836,76 +6836,76 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G70" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K70">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L70">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N70">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O70">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q70">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R70">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S70">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB70">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7014,7 +7014,7 @@
         <v>45179.5</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
         <v>66</v>
@@ -7091,7 +7091,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7188988</v>
+        <v>7188990</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7103,46 +7103,46 @@
         <v>45179.5</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>97</v>
       </c>
       <c r="K73">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L73">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O73">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
         <v>2.75</v>
@@ -7160,19 +7160,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7180,7 +7180,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7188990</v>
+        <v>7188988</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7192,46 +7192,46 @@
         <v>45179.5</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J74" t="s">
         <v>97</v>
       </c>
       <c r="K74">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L74">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N74">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T74">
         <v>2.75</v>
@@ -7249,19 +7249,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7358,7 +7358,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7202437</v>
+        <v>7202436</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7370,58 +7370,58 @@
         <v>45182.5</v>
       </c>
       <c r="F76" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H76">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
         <v>98</v>
       </c>
       <c r="K76">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L76">
+        <v>3.75</v>
+      </c>
+      <c r="M76">
         <v>4.333</v>
       </c>
-      <c r="M76">
-        <v>6</v>
-      </c>
       <c r="N76">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="O76">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q76">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S76">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>0.3999999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7430,16 +7430,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.8500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB76">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7536,7 +7536,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7202436</v>
+        <v>7202437</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7548,58 +7548,58 @@
         <v>45182.5</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G78" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>98</v>
       </c>
       <c r="K78">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L78">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M78">
+        <v>6</v>
+      </c>
+      <c r="N78">
+        <v>1.4</v>
+      </c>
+      <c r="O78">
         <v>4.333</v>
       </c>
-      <c r="N78">
-        <v>1.533</v>
-      </c>
-      <c r="O78">
-        <v>4</v>
-      </c>
       <c r="P78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R78">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W78">
-        <v>0.5329999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7608,16 +7608,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.35</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7637,7 +7637,7 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
         <v>43</v>
@@ -7726,10 +7726,10 @@
         <v>45188.48958333334</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -8082,10 +8082,10 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -8352,7 +8352,7 @@
         <v>59</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -8438,7 +8438,7 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G88" t="s">
         <v>70</v>
@@ -8515,7 +8515,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7305881</v>
+        <v>7305882</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8527,76 +8527,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G89" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89" t="s">
+        <v>97</v>
+      </c>
+      <c r="K89">
+        <v>3.6</v>
+      </c>
+      <c r="L89">
         <v>4</v>
       </c>
-      <c r="I89">
-        <v>2</v>
-      </c>
-      <c r="J89" t="s">
-        <v>98</v>
-      </c>
-      <c r="K89">
-        <v>1.363</v>
-      </c>
-      <c r="L89">
-        <v>4.75</v>
-      </c>
       <c r="M89">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="N89">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O89">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R89">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T89">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W89">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z89">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB89">
+        <v>-1</v>
+      </c>
+      <c r="AC89">
         <v>1</v>
-      </c>
-      <c r="AC89">
-        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8604,7 +8604,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7305882</v>
+        <v>7305881</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8616,76 +8616,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F90" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G90" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I90">
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K90">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M90">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="N90">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P90">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="Q90">
+        <v>-1.25</v>
+      </c>
+      <c r="R90">
+        <v>1.75</v>
+      </c>
+      <c r="S90">
+        <v>1.95</v>
+      </c>
+      <c r="T90">
+        <v>3</v>
+      </c>
+      <c r="U90">
+        <v>2</v>
+      </c>
+      <c r="V90">
+        <v>1.8</v>
+      </c>
+      <c r="W90">
+        <v>0.363</v>
+      </c>
+      <c r="X90">
+        <v>-1</v>
+      </c>
+      <c r="Y90">
+        <v>-1</v>
+      </c>
+      <c r="Z90">
         <v>0.75</v>
       </c>
-      <c r="R90">
-        <v>1.825</v>
-      </c>
-      <c r="S90">
-        <v>1.975</v>
-      </c>
-      <c r="T90">
-        <v>2.75</v>
-      </c>
-      <c r="U90">
-        <v>1.8</v>
-      </c>
-      <c r="V90">
-        <v>2</v>
-      </c>
-      <c r="W90">
-        <v>-1</v>
-      </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
-      <c r="Y90">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z90">
-        <v>-1</v>
-      </c>
       <c r="AA90">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC90">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8794,7 +8794,7 @@
         <v>45207.46875</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
         <v>32</v>
@@ -8972,10 +8972,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -9049,7 +9049,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7337010</v>
+        <v>7337008</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -9061,76 +9061,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H95">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K95">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N95">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O95">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q95">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z95">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB95">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9138,7 +9138,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7337008</v>
+        <v>7337010</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9150,76 +9150,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H96">
+        <v>5</v>
+      </c>
+      <c r="I96">
         <v>0</v>
       </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
       <c r="J96" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K96">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M96">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N96">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O96">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P96">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q96">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R96">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S96">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T96">
         <v>3</v>
       </c>
       <c r="U96">
+        <v>1.75</v>
+      </c>
+      <c r="V96">
         <v>1.95</v>
       </c>
-      <c r="V96">
-        <v>1.85</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9227,7 +9227,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7343497</v>
+        <v>7343496</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9239,10 +9239,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -9254,43 +9254,43 @@
         <v>98</v>
       </c>
       <c r="K97">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M97">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N97">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S97">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T97">
         <v>3</v>
       </c>
       <c r="U97">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9299,7 +9299,7 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA97">
         <v>-1</v>
@@ -9316,7 +9316,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7343496</v>
+        <v>7343497</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9328,10 +9328,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G98" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9343,43 +9343,43 @@
         <v>98</v>
       </c>
       <c r="K98">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N98">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T98">
         <v>3</v>
       </c>
       <c r="U98">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9388,7 +9388,7 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA98">
         <v>-1</v>
@@ -9595,7 +9595,7 @@
         <v>45220.4375</v>
       </c>
       <c r="F101" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G101" t="s">
         <v>89</v>
@@ -9865,7 +9865,7 @@
         <v>58</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>5</v>
@@ -9951,10 +9951,10 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -10040,7 +10040,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
         <v>90</v>
@@ -10132,7 +10132,7 @@
         <v>57</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H107">
         <v>3</v>
@@ -10399,7 +10399,7 @@
         <v>60</v>
       </c>
       <c r="G110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
         <v>81</v>
@@ -10574,7 +10574,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
         <v>51</v>
@@ -10663,7 +10663,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
         <v>91</v>
@@ -10930,7 +10930,7 @@
         <v>45248.375</v>
       </c>
       <c r="F116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G116" t="s">
         <v>88</v>
@@ -11108,7 +11108,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G118" t="s">
         <v>94</v>
@@ -11185,7 +11185,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7493774</v>
+        <v>7493773</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11197,61 +11197,61 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G119" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
         <v>99</v>
       </c>
       <c r="K119">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L119">
+        <v>6</v>
+      </c>
+      <c r="M119">
+        <v>9</v>
+      </c>
+      <c r="N119">
+        <v>1.2</v>
+      </c>
+      <c r="O119">
+        <v>6</v>
+      </c>
+      <c r="P119">
+        <v>9</v>
+      </c>
+      <c r="Q119">
+        <v>-2</v>
+      </c>
+      <c r="R119">
+        <v>1.85</v>
+      </c>
+      <c r="S119">
+        <v>1.95</v>
+      </c>
+      <c r="T119">
         <v>3.75</v>
       </c>
-      <c r="M119">
-        <v>4</v>
-      </c>
-      <c r="N119">
-        <v>1.45</v>
-      </c>
-      <c r="O119">
-        <v>3.8</v>
-      </c>
-      <c r="P119">
-        <v>5.75</v>
-      </c>
-      <c r="Q119">
-        <v>-1</v>
-      </c>
-      <c r="R119">
-        <v>1.825</v>
-      </c>
-      <c r="S119">
-        <v>1.975</v>
-      </c>
-      <c r="T119">
-        <v>2.75</v>
-      </c>
       <c r="U119">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V119">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Y119">
         <v>-1</v>
@@ -11260,13 +11260,13 @@
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC119">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11274,7 +11274,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7493775</v>
+        <v>7493772</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11286,13 +11286,13 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -11301,43 +11301,43 @@
         <v>98</v>
       </c>
       <c r="K120">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L120">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N120">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P120">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q120">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U120">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11346,16 +11346,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB120">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11363,7 +11363,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7493773</v>
+        <v>7493774</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11375,61 +11375,61 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
         <v>99</v>
       </c>
       <c r="K121">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L121">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M121">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N121">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="O121">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P121">
-        <v>9</v>
+        <v>5.75</v>
       </c>
       <c r="Q121">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R121">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S121">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T121">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Y121">
         <v>-1</v>
@@ -11438,13 +11438,13 @@
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB121">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11452,7 +11452,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7493772</v>
+        <v>7493775</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11464,13 +11464,13 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="G122" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -11479,43 +11479,43 @@
         <v>98</v>
       </c>
       <c r="K122">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L122">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M122">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N122">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O122">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P122">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q122">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V122">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W122">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11524,16 +11524,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA122">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC122">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11553,7 +11553,7 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G123" t="s">
         <v>62</v>
@@ -11808,7 +11808,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7520493</v>
+        <v>7517623</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11820,43 +11820,43 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F126" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G126" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H126">
         <v>2</v>
       </c>
       <c r="I126">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K126">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L126">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="M126">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="N126">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O126">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="P126">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q126">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S126">
         <v>1.95</v>
@@ -11865,31 +11865,31 @@
         <v>3</v>
       </c>
       <c r="U126">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V126">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA126">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11897,7 +11897,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7517624</v>
+        <v>7520493</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11909,55 +11909,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F127" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G127" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J127" t="s">
         <v>97</v>
       </c>
       <c r="K127">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="L127">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="M127">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N127">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O127">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="P127">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q127">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R127">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S127">
         <v>1.95</v>
       </c>
       <c r="T127">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U127">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11966,7 +11966,7 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>4.25</v>
+        <v>0.95</v>
       </c>
       <c r="Z127">
         <v>-1</v>
@@ -11975,7 +11975,7 @@
         <v>0.95</v>
       </c>
       <c r="AB127">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11986,7 +11986,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7517623</v>
+        <v>7517624</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -12001,37 +12001,37 @@
         <v>65</v>
       </c>
       <c r="G128" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J128" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K128">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L128">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="M128">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N128">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O128">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="P128">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R128">
         <v>1.85</v>
@@ -12040,34 +12040,34 @@
         <v>1.95</v>
       </c>
       <c r="T128">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U128">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z128">
+        <v>-1</v>
+      </c>
+      <c r="AA128">
+        <v>0.95</v>
+      </c>
+      <c r="AB128">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA128">
-        <v>-1</v>
-      </c>
-      <c r="AB128">
-        <v>-1</v>
-      </c>
       <c r="AC128">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12087,7 +12087,7 @@
         <v>45255.40277777778</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
         <v>61</v>
@@ -12176,7 +12176,7 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
         <v>44</v>
@@ -12342,7 +12342,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7519479</v>
+        <v>7519478</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12354,55 +12354,55 @@
         <v>45256.40625</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
         <v>97</v>
       </c>
       <c r="K132">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M132">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N132">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q132">
         <v>0.25</v>
       </c>
       <c r="R132">
+        <v>2</v>
+      </c>
+      <c r="S132">
         <v>1.8</v>
       </c>
-      <c r="S132">
-        <v>2</v>
-      </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12411,19 +12411,19 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12431,7 +12431,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7519478</v>
+        <v>7519479</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12443,55 +12443,55 @@
         <v>45256.40625</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
         <v>1</v>
-      </c>
-      <c r="I133">
-        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>97</v>
       </c>
       <c r="K133">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N133">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q133">
         <v>0.25</v>
       </c>
       <c r="R133">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S133">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12500,19 +12500,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
+        <v>1.2</v>
+      </c>
+      <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
         <v>1</v>
       </c>
-      <c r="Z133">
-        <v>-1</v>
-      </c>
-      <c r="AA133">
-        <v>0.8</v>
-      </c>
       <c r="AB133">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:29">

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -124,19 +124,19 @@
     <t>NK Junak</t>
   </si>
   <si>
-    <t>NK Granicar Zupanja</t>
-  </si>
-  <si>
     <t>NK Bedem Ivankovo</t>
   </si>
   <si>
     <t>Sava Strmec</t>
   </si>
   <si>
-    <t>NK Pomorac</t>
+    <t>NK Granicar Zupanja</t>
   </si>
   <si>
     <t>NK Naftas Hask</t>
+  </si>
+  <si>
+    <t>NK Pomorac</t>
   </si>
   <si>
     <t>Karlovac</t>
@@ -172,10 +172,10 @@
     <t>NK Zadar</t>
   </si>
   <si>
-    <t>NK Maksimir</t>
+    <t>NK Tresnjevka</t>
   </si>
   <si>
-    <t>NK Tresnjevka</t>
+    <t>NK Maksimir</t>
   </si>
   <si>
     <t>NK Ponikve</t>
@@ -208,10 +208,10 @@
     <t>NK Medulin</t>
   </si>
   <si>
-    <t>NK Gosk Kastel Gomilica</t>
+    <t>NK Croatia Dakovo</t>
   </si>
   <si>
-    <t>NK Croatia Dakovo</t>
+    <t>NK Gosk Kastel Gomilica</t>
   </si>
   <si>
     <t>NK Vrapce</t>
@@ -235,10 +235,10 @@
     <t>Sloga Nova Gradiska</t>
   </si>
   <si>
-    <t>NK Neretva</t>
+    <t>NK Svacic</t>
   </si>
   <si>
-    <t>NK Svacic</t>
+    <t>NK Neretva</t>
   </si>
   <si>
     <t>HNK Segesta</t>
@@ -277,10 +277,10 @@
     <t>NK Nask Nasice</t>
   </si>
   <si>
-    <t>NK Tondach</t>
+    <t>NK Zagorec Krapina</t>
   </si>
   <si>
-    <t>NK Zagorec Krapina</t>
+    <t>NK Tondach</t>
   </si>
   <si>
     <t>NK Kraljevica</t>
@@ -1054,7 +1054,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1395,7 +1395,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6419353</v>
+        <v>6419352</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1410,43 +1410,43 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>98</v>
       </c>
       <c r="K9">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="N9">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="O9">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="Q9">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
         <v>3</v>
@@ -1458,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="W9">
-        <v>0.2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1467,16 +1467,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1484,7 +1484,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6419352</v>
+        <v>6419351</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1499,70 +1499,70 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
         <v>4</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K10">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="L10">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N10">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="O10">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P10">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q10">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S10">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W10">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB10">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1573,7 +1573,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6419351</v>
+        <v>6419353</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1588,73 +1588,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K11">
-        <v>2.75</v>
+        <v>1.2</v>
       </c>
       <c r="L11">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M11">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="N11">
-        <v>2.75</v>
+        <v>1.2</v>
       </c>
       <c r="O11">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="P11">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R11">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA11">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1662,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6442865</v>
+        <v>6442864</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1677,37 +1677,37 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12">
+        <v>3.2</v>
+      </c>
+      <c r="L12">
+        <v>3.5</v>
+      </c>
+      <c r="M12">
+        <v>1.95</v>
+      </c>
+      <c r="N12">
+        <v>2.5</v>
+      </c>
+      <c r="O12">
+        <v>3.4</v>
+      </c>
+      <c r="P12">
+        <v>2.375</v>
+      </c>
+      <c r="Q12">
         <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>98</v>
-      </c>
-      <c r="K12">
-        <v>2.1</v>
-      </c>
-      <c r="L12">
-        <v>3.4</v>
-      </c>
-      <c r="M12">
-        <v>2.875</v>
-      </c>
-      <c r="N12">
-        <v>1.909</v>
-      </c>
-      <c r="O12">
-        <v>3.5</v>
-      </c>
-      <c r="P12">
-        <v>3.3</v>
-      </c>
-      <c r="Q12">
-        <v>-0.5</v>
       </c>
       <c r="R12">
         <v>1.975</v>
@@ -1716,34 +1716,34 @@
         <v>1.825</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z12">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1751,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6442864</v>
+        <v>6442865</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1766,37 +1766,37 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K13">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="L13">
+        <v>3.4</v>
+      </c>
+      <c r="M13">
+        <v>2.875</v>
+      </c>
+      <c r="N13">
+        <v>1.909</v>
+      </c>
+      <c r="O13">
         <v>3.5</v>
       </c>
-      <c r="M13">
-        <v>1.95</v>
-      </c>
-      <c r="N13">
-        <v>2.5</v>
-      </c>
-      <c r="O13">
-        <v>3.4</v>
-      </c>
       <c r="P13">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
         <v>1.975</v>
@@ -1805,34 +1805,34 @@
         <v>1.825</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2033,7 +2033,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2196,7 +2196,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6474092</v>
+        <v>6474091</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2208,10 +2208,10 @@
         <v>45017.47916666666</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2223,40 +2223,40 @@
         <v>97</v>
       </c>
       <c r="K18">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N18">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="O18">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T18">
         <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2265,16 +2265,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
+        <v>0.5</v>
+      </c>
+      <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
+        <v>0.875</v>
+      </c>
+      <c r="AB18">
         <v>0.8</v>
-      </c>
-      <c r="Z18">
-        <v>-1</v>
-      </c>
-      <c r="AA18">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB18">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6474091</v>
+        <v>6474092</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2297,10 +2297,10 @@
         <v>45017.47916666666</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2312,40 +2312,40 @@
         <v>97</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="N19">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2354,16 +2354,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2389,7 +2389,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2475,7 +2475,7 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
         <v>71</v>
@@ -2567,7 +2567,7 @@
         <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2653,7 +2653,7 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
         <v>72</v>
@@ -2742,7 +2742,7 @@
         <v>45021.47916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
         <v>70</v>
@@ -2908,7 +2908,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6498264</v>
+        <v>6498265</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2920,76 +2920,76 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
         <v>73</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K26">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L26">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
         <v>3.4</v>
       </c>
       <c r="N26">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O26">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P26">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2997,7 +2997,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6498265</v>
+        <v>6498264</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -3009,76 +3009,76 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
         <v>74</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K27">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M27">
         <v>3.4</v>
       </c>
       <c r="N27">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P27">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>1.8</v>
+      </c>
+      <c r="T27">
+        <v>2.5</v>
+      </c>
+      <c r="U27">
         <v>1.9</v>
       </c>
-      <c r="S27">
+      <c r="V27">
         <v>1.9</v>
       </c>
-      <c r="T27">
-        <v>3</v>
-      </c>
-      <c r="U27">
-        <v>1.75</v>
-      </c>
-      <c r="V27">
-        <v>1.95</v>
-      </c>
       <c r="W27">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z27">
+        <v>-1</v>
+      </c>
+      <c r="AA27">
+        <v>0.8</v>
+      </c>
+      <c r="AB27">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA27">
-        <v>-1</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
       <c r="AC27">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3101,7 +3101,7 @@
         <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3187,7 +3187,7 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
         <v>30</v>
@@ -3365,7 +3365,7 @@
         <v>45032.47916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
         <v>75</v>
@@ -3454,10 +3454,10 @@
         <v>45032.5</v>
       </c>
       <c r="F32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" t="s">
         <v>36</v>
-      </c>
-      <c r="G32" t="s">
-        <v>37</v>
       </c>
       <c r="H32">
         <v>6</v>
@@ -3546,7 +3546,7 @@
         <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6557198</v>
+        <v>6557199</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3721,76 +3721,76 @@
         <v>45039.5</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
         <v>0</v>
       </c>
-      <c r="I35">
-        <v>2</v>
-      </c>
       <c r="J35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K35">
         <v>2.5</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M35">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N35">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O35">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P35">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA35">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC35">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3798,7 +3798,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6557197</v>
+        <v>6557198</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3810,55 +3810,55 @@
         <v>45039.5</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
         <v>97</v>
       </c>
       <c r="K36">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L36">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="N36">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P36">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S36">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3867,19 +3867,19 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3887,7 +3887,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6557199</v>
+        <v>6557197</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3899,76 +3899,76 @@
         <v>45039.5</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
         <v>3</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
       <c r="J37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K37">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L37">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M37">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N37">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O37">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P37">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q37">
         <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S37">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
+        <v>1.875</v>
+      </c>
+      <c r="V37">
         <v>1.925</v>
       </c>
-      <c r="V37">
-        <v>1.875</v>
-      </c>
       <c r="W37">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z37">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB37">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4169,7 +4169,7 @@
         <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4243,7 +4243,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6584079</v>
+        <v>6584080</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4255,58 +4255,58 @@
         <v>45045.5</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
         <v>98</v>
       </c>
       <c r="K41">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L41">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M41">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N41">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P41">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="Q41">
         <v>0.5</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4315,16 +4315,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4332,7 +4332,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6584080</v>
+        <v>6584079</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4344,58 +4344,58 @@
         <v>45045.5</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
         <v>1</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
       </c>
       <c r="J42" t="s">
         <v>98</v>
       </c>
       <c r="K42">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L42">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N42">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O42">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P42">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q42">
         <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T42">
         <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4404,16 +4404,16 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4510,7 +4510,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6615716</v>
+        <v>6612704</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4522,40 +4522,40 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="H44">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K44">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L44">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N44">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="O44">
         <v>4</v>
       </c>
       <c r="P44">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q44">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
         <v>1.825</v>
@@ -4567,31 +4567,31 @@
         <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V44">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4599,7 +4599,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6612704</v>
+        <v>6615716</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4611,40 +4611,40 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K45">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N45">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="O45">
         <v>4</v>
       </c>
       <c r="P45">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R45">
         <v>1.825</v>
@@ -4656,31 +4656,31 @@
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA45">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4789,7 +4789,7 @@
         <v>45053.52083333334</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
         <v>80</v>
@@ -4955,7 +4955,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6642561</v>
+        <v>6642563</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4970,73 +4970,73 @@
         <v>52</v>
       </c>
       <c r="G49" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K49">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M49">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N49">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O49">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R49">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S49">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W49">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z49">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC49">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5044,7 +5044,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6642563</v>
+        <v>6642561</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5059,73 +5059,73 @@
         <v>53</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K50">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N50">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q50">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5133,7 +5133,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6642564</v>
+        <v>6642562</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5145,76 +5145,76 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G51" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K51">
-        <v>1.222</v>
+        <v>1.6</v>
       </c>
       <c r="L51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M51">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="N51">
-        <v>1.222</v>
+        <v>1.6</v>
       </c>
       <c r="O51">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R51">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5222,7 +5222,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6642562</v>
+        <v>6642564</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5234,76 +5234,76 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K52">
-        <v>1.6</v>
+        <v>1.222</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M52">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="N52">
-        <v>1.6</v>
+        <v>1.222</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P52">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R52">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X52">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5679,7 +5679,7 @@
         <v>45079.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
         <v>81</v>
@@ -5768,7 +5768,7 @@
         <v>45080.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
         <v>82</v>
@@ -6023,7 +6023,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7126857</v>
+        <v>7126859</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6035,76 +6035,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>99</v>
+      </c>
+      <c r="K61">
+        <v>1.5</v>
+      </c>
+      <c r="L61">
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>5</v>
+      </c>
+      <c r="N61">
+        <v>1.5</v>
+      </c>
+      <c r="O61">
+        <v>4</v>
+      </c>
+      <c r="P61">
+        <v>5</v>
+      </c>
+      <c r="Q61">
+        <v>-1</v>
+      </c>
+      <c r="R61">
+        <v>1.8</v>
+      </c>
+      <c r="S61">
+        <v>2</v>
+      </c>
+      <c r="T61">
         <v>3</v>
       </c>
-      <c r="I61">
-        <v>2</v>
-      </c>
-      <c r="J61" t="s">
-        <v>98</v>
-      </c>
-      <c r="K61">
-        <v>2.875</v>
-      </c>
-      <c r="L61">
-        <v>3.5</v>
-      </c>
-      <c r="M61">
-        <v>2.1</v>
-      </c>
-      <c r="N61">
-        <v>2.9</v>
-      </c>
-      <c r="O61">
-        <v>3.5</v>
-      </c>
-      <c r="P61">
-        <v>2.1</v>
-      </c>
-      <c r="Q61">
-        <v>0.25</v>
-      </c>
-      <c r="R61">
-        <v>1.925</v>
-      </c>
-      <c r="S61">
-        <v>1.875</v>
-      </c>
-      <c r="T61">
-        <v>2.75</v>
-      </c>
       <c r="U61">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V61">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W61">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB61">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6112,7 +6112,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7126859</v>
+        <v>7126857</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -6124,76 +6124,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K62">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M62">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="N62">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T62">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X62">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6302,7 +6302,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
         <v>31</v>
@@ -6394,7 +6394,7 @@
         <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6483,7 +6483,7 @@
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6569,7 +6569,7 @@
         <v>45172.5</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
         <v>57</v>
@@ -6646,7 +6646,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7183190</v>
+        <v>7183189</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6658,76 +6658,76 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K68">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L68">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M68">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O68">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P68">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6735,7 +6735,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7183189</v>
+        <v>7183190</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6747,76 +6747,76 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K69">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L69">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
+        <v>3.75</v>
+      </c>
+      <c r="N69">
+        <v>1.727</v>
+      </c>
+      <c r="O69">
+        <v>3.75</v>
+      </c>
+      <c r="P69">
+        <v>3.75</v>
+      </c>
+      <c r="Q69">
+        <v>-0.75</v>
+      </c>
+      <c r="R69">
+        <v>1.975</v>
+      </c>
+      <c r="S69">
+        <v>1.825</v>
+      </c>
+      <c r="T69">
         <v>3</v>
       </c>
-      <c r="N69">
-        <v>2.1</v>
-      </c>
-      <c r="O69">
-        <v>3.3</v>
-      </c>
-      <c r="P69">
-        <v>3</v>
-      </c>
-      <c r="Q69">
-        <v>-0.25</v>
-      </c>
-      <c r="R69">
-        <v>1.9</v>
-      </c>
-      <c r="S69">
-        <v>1.9</v>
-      </c>
-      <c r="T69">
+      <c r="U69">
+        <v>1.95</v>
+      </c>
+      <c r="V69">
+        <v>1.85</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
         <v>2.75</v>
       </c>
-      <c r="U69">
-        <v>1.925</v>
-      </c>
-      <c r="V69">
-        <v>1.775</v>
-      </c>
-      <c r="W69">
-        <v>-1</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
       <c r="Y69">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC69">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7002,7 +7002,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7188989</v>
+        <v>7188987</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7014,56 +7014,56 @@
         <v>45179.5</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
         <v>1</v>
-      </c>
-      <c r="I72">
-        <v>2</v>
       </c>
       <c r="J72" t="s">
         <v>97</v>
       </c>
       <c r="K72">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L72">
         <v>3.4</v>
       </c>
       <c r="M72">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="N72">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O72">
         <v>3.4</v>
       </c>
       <c r="P72">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R72">
+        <v>1.85</v>
+      </c>
+      <c r="S72">
         <v>1.95</v>
-      </c>
-      <c r="S72">
-        <v>1.85</v>
       </c>
       <c r="T72">
         <v>3</v>
       </c>
       <c r="U72">
+        <v>1.825</v>
+      </c>
+      <c r="V72">
         <v>1.975</v>
       </c>
-      <c r="V72">
-        <v>1.825</v>
-      </c>
       <c r="W72">
         <v>-1</v>
       </c>
@@ -7071,19 +7071,19 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.4</v>
+        <v>0.909</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7091,7 +7091,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7188990</v>
+        <v>7188989</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7103,13 +7103,13 @@
         <v>45179.5</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>2</v>
@@ -7118,41 +7118,41 @@
         <v>97</v>
       </c>
       <c r="K73">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L73">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
+        <v>2.4</v>
+      </c>
+      <c r="N73">
+        <v>2.5</v>
+      </c>
+      <c r="O73">
+        <v>3.4</v>
+      </c>
+      <c r="P73">
+        <v>2.4</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>1.95</v>
+      </c>
+      <c r="S73">
+        <v>1.85</v>
+      </c>
+      <c r="T73">
         <v>3</v>
       </c>
-      <c r="N73">
-        <v>2.1</v>
-      </c>
-      <c r="O73">
-        <v>3.5</v>
-      </c>
-      <c r="P73">
-        <v>3</v>
-      </c>
-      <c r="Q73">
-        <v>-0.25</v>
-      </c>
-      <c r="R73">
-        <v>1.875</v>
-      </c>
-      <c r="S73">
-        <v>1.925</v>
-      </c>
-      <c r="T73">
-        <v>2.75</v>
-      </c>
       <c r="U73">
+        <v>1.975</v>
+      </c>
+      <c r="V73">
         <v>1.825</v>
       </c>
-      <c r="V73">
-        <v>1.975</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
@@ -7160,19 +7160,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC73">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7180,7 +7180,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7188988</v>
+        <v>7188990</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7192,46 +7192,46 @@
         <v>45179.5</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>97</v>
       </c>
       <c r="K74">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M74">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
         <v>2.75</v>
@@ -7249,19 +7249,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7269,7 +7269,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7188987</v>
+        <v>7188988</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7281,49 +7281,49 @@
         <v>45179.5</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s">
         <v>88</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J75" t="s">
         <v>97</v>
       </c>
       <c r="K75">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="L75">
         <v>3.4</v>
       </c>
       <c r="M75">
+        <v>3.4</v>
+      </c>
+      <c r="N75">
         <v>1.909</v>
-      </c>
-      <c r="N75">
-        <v>3.5</v>
       </c>
       <c r="O75">
         <v>3.4</v>
       </c>
       <c r="P75">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="Q75">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
         <v>1.825</v>
@@ -7338,19 +7338,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.909</v>
+        <v>2.4</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7358,7 +7358,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7202436</v>
+        <v>7202437</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7370,58 +7370,58 @@
         <v>45182.5</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G76" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
         <v>98</v>
       </c>
       <c r="K76">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L76">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M76">
+        <v>6</v>
+      </c>
+      <c r="N76">
+        <v>1.4</v>
+      </c>
+      <c r="O76">
         <v>4.333</v>
       </c>
-      <c r="N76">
-        <v>1.533</v>
-      </c>
-      <c r="O76">
-        <v>4</v>
-      </c>
       <c r="P76">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R76">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S76">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W76">
-        <v>0.5329999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7430,16 +7430,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.35</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7447,7 +7447,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7202435</v>
+        <v>7202436</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7459,46 +7459,46 @@
         <v>45182.5</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="H77">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
         <v>98</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M77">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N77">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O77">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P77">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T77">
         <v>2.75</v>
@@ -7510,7 +7510,7 @@
         <v>1.975</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7519,16 +7519,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.8</v>
+        <v>0.35</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB77">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7536,7 +7536,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7202437</v>
+        <v>7202435</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7548,10 +7548,10 @@
         <v>45182.5</v>
       </c>
       <c r="F78" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="H78">
         <v>6</v>
@@ -7563,43 +7563,43 @@
         <v>98</v>
       </c>
       <c r="K78">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L78">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N78">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O78">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q78">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W78">
-        <v>0.3999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7608,13 +7608,13 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7726,10 +7726,10 @@
         <v>45188.48958333334</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7981,7 +7981,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7250138</v>
+        <v>7250137</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7993,76 +7993,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F83" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K83">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L83">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M83">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N83">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O83">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P83">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8070,7 +8070,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7250137</v>
+        <v>7250138</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8082,76 +8082,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G84" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K84">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M84">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N84">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O84">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P84">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y84">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC84">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8260,7 +8260,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>85</v>
@@ -8352,7 +8352,7 @@
         <v>59</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -8438,7 +8438,7 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G88" t="s">
         <v>70</v>
@@ -8515,7 +8515,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7305882</v>
+        <v>7305881</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8527,76 +8527,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G89" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I89">
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K89">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M89">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="N89">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P89">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="Q89">
+        <v>-1.25</v>
+      </c>
+      <c r="R89">
+        <v>1.75</v>
+      </c>
+      <c r="S89">
+        <v>1.95</v>
+      </c>
+      <c r="T89">
+        <v>3</v>
+      </c>
+      <c r="U89">
+        <v>2</v>
+      </c>
+      <c r="V89">
+        <v>1.8</v>
+      </c>
+      <c r="W89">
+        <v>0.363</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
+        <v>-1</v>
+      </c>
+      <c r="Z89">
         <v>0.75</v>
       </c>
-      <c r="R89">
-        <v>1.825</v>
-      </c>
-      <c r="S89">
-        <v>1.975</v>
-      </c>
-      <c r="T89">
-        <v>2.75</v>
-      </c>
-      <c r="U89">
-        <v>1.8</v>
-      </c>
-      <c r="V89">
-        <v>2</v>
-      </c>
-      <c r="W89">
-        <v>-1</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
-      <c r="Y89">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z89">
-        <v>-1</v>
-      </c>
       <c r="AA89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC89">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8604,7 +8604,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7305881</v>
+        <v>7305882</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8616,76 +8616,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F90" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G90" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90" t="s">
+        <v>97</v>
+      </c>
+      <c r="K90">
+        <v>3.6</v>
+      </c>
+      <c r="L90">
         <v>4</v>
       </c>
-      <c r="I90">
-        <v>2</v>
-      </c>
-      <c r="J90" t="s">
-        <v>98</v>
-      </c>
-      <c r="K90">
-        <v>1.363</v>
-      </c>
-      <c r="L90">
-        <v>4.75</v>
-      </c>
       <c r="M90">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="N90">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O90">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P90">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R90">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W90">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z90">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>1</v>
-      </c>
-      <c r="AC90">
-        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8794,7 +8794,7 @@
         <v>45207.46875</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
         <v>32</v>
@@ -8871,7 +8871,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7337011</v>
+        <v>7337013</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8883,76 +8883,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K93">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L93">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N93">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O93">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q93">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V93">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB93">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8960,7 +8960,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7337013</v>
+        <v>7337011</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8972,76 +8972,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G94" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K94">
+        <v>1.4</v>
+      </c>
+      <c r="L94">
+        <v>4.75</v>
+      </c>
+      <c r="M94">
+        <v>5.25</v>
+      </c>
+      <c r="N94">
+        <v>1.4</v>
+      </c>
+      <c r="O94">
+        <v>4.75</v>
+      </c>
+      <c r="P94">
+        <v>5.25</v>
+      </c>
+      <c r="Q94">
+        <v>-1.25</v>
+      </c>
+      <c r="R94">
+        <v>1.9</v>
+      </c>
+      <c r="S94">
+        <v>1.9</v>
+      </c>
+      <c r="T94">
         <v>2.75</v>
       </c>
-      <c r="L94">
-        <v>3.4</v>
-      </c>
-      <c r="M94">
-        <v>2.2</v>
-      </c>
-      <c r="N94">
-        <v>2.75</v>
-      </c>
-      <c r="O94">
-        <v>3.4</v>
-      </c>
-      <c r="P94">
-        <v>2.2</v>
-      </c>
-      <c r="Q94">
-        <v>0.25</v>
-      </c>
-      <c r="R94">
-        <v>1.8</v>
-      </c>
-      <c r="S94">
-        <v>2</v>
-      </c>
-      <c r="T94">
-        <v>3</v>
-      </c>
       <c r="U94">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X94">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC94">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9150,7 +9150,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G96" t="s">
         <v>42</v>
@@ -9227,7 +9227,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7343496</v>
+        <v>7343497</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9239,10 +9239,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G97" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -9254,43 +9254,43 @@
         <v>98</v>
       </c>
       <c r="K97">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L97">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N97">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P97">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T97">
         <v>3</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W97">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9299,7 +9299,7 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA97">
         <v>-1</v>
@@ -9316,7 +9316,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7343497</v>
+        <v>7343496</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9328,10 +9328,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9343,43 +9343,43 @@
         <v>98</v>
       </c>
       <c r="K98">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M98">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T98">
         <v>3</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9388,7 +9388,7 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA98">
         <v>-1</v>
@@ -9405,7 +9405,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7366818</v>
+        <v>7366817</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9417,76 +9417,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99">
         <v>1</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>98</v>
       </c>
       <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>3.4</v>
+      </c>
+      <c r="M99">
+        <v>3.1</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99">
+        <v>3.4</v>
+      </c>
+      <c r="P99">
+        <v>3.1</v>
+      </c>
+      <c r="Q99">
+        <v>-0.25</v>
+      </c>
+      <c r="R99">
         <v>1.8</v>
       </c>
-      <c r="L99">
-        <v>3.75</v>
-      </c>
-      <c r="M99">
-        <v>3.4</v>
-      </c>
-      <c r="N99">
-        <v>1.8</v>
-      </c>
-      <c r="O99">
-        <v>3.75</v>
-      </c>
-      <c r="P99">
-        <v>3.4</v>
-      </c>
-      <c r="Q99">
-        <v>-0.5</v>
-      </c>
-      <c r="R99">
-        <v>1.85</v>
-      </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T99">
         <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W99">
+        <v>1</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
         <v>0.8</v>
       </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
-      <c r="Z99">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC99">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9494,7 +9494,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7366817</v>
+        <v>7366818</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9506,76 +9506,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>98</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L100">
+        <v>3.75</v>
+      </c>
+      <c r="M100">
         <v>3.4</v>
       </c>
-      <c r="M100">
-        <v>3.1</v>
-      </c>
       <c r="N100">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O100">
+        <v>3.75</v>
+      </c>
+      <c r="P100">
         <v>3.4</v>
       </c>
-      <c r="P100">
-        <v>3.1</v>
-      </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W100">
+        <v>0.8</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA100">
+        <v>-1</v>
+      </c>
+      <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>1</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
-      <c r="Y100">
-        <v>-1</v>
-      </c>
-      <c r="Z100">
-        <v>0.8</v>
-      </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
-      <c r="AB100">
-        <v>0.925</v>
-      </c>
-      <c r="AC100">
-        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9687,7 +9687,7 @@
         <v>42</v>
       </c>
       <c r="G102" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9776,7 +9776,7 @@
         <v>59</v>
       </c>
       <c r="G103" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H103">
         <v>4</v>
@@ -10132,7 +10132,7 @@
         <v>57</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H107">
         <v>3</v>
@@ -10221,7 +10221,7 @@
         <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10399,7 +10399,7 @@
         <v>60</v>
       </c>
       <c r="G110" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
         <v>81</v>
@@ -10930,10 +10930,10 @@
         <v>45248.375</v>
       </c>
       <c r="F116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G116" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -11185,7 +11185,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7493773</v>
+        <v>7493775</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11197,76 +11197,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K119">
-        <v>1.2</v>
+        <v>1.727</v>
       </c>
       <c r="L119">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M119">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="N119">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="O119">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P119">
-        <v>9</v>
+        <v>5.25</v>
       </c>
       <c r="Q119">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R119">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T119">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X119">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA119">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AC119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11274,7 +11274,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7493772</v>
+        <v>7493774</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11286,76 +11286,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K120">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M120">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N120">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O120">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q120">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W120">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11363,7 +11363,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7493774</v>
+        <v>7493773</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11375,61 +11375,61 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G121" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
         <v>99</v>
       </c>
       <c r="K121">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L121">
+        <v>6</v>
+      </c>
+      <c r="M121">
+        <v>9</v>
+      </c>
+      <c r="N121">
+        <v>1.2</v>
+      </c>
+      <c r="O121">
+        <v>6</v>
+      </c>
+      <c r="P121">
+        <v>9</v>
+      </c>
+      <c r="Q121">
+        <v>-2</v>
+      </c>
+      <c r="R121">
+        <v>1.85</v>
+      </c>
+      <c r="S121">
+        <v>1.95</v>
+      </c>
+      <c r="T121">
         <v>3.75</v>
       </c>
-      <c r="M121">
-        <v>4</v>
-      </c>
-      <c r="N121">
-        <v>1.45</v>
-      </c>
-      <c r="O121">
-        <v>3.8</v>
-      </c>
-      <c r="P121">
-        <v>5.75</v>
-      </c>
-      <c r="Q121">
-        <v>-1</v>
-      </c>
-      <c r="R121">
-        <v>1.825</v>
-      </c>
-      <c r="S121">
-        <v>1.975</v>
-      </c>
-      <c r="T121">
-        <v>2.75</v>
-      </c>
       <c r="U121">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Y121">
         <v>-1</v>
@@ -11438,13 +11438,13 @@
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC121">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11452,7 +11452,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7493775</v>
+        <v>7493772</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11464,13 +11464,13 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F122" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -11479,43 +11479,43 @@
         <v>98</v>
       </c>
       <c r="K122">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L122">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M122">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N122">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O122">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P122">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q122">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R122">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U122">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V122">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W122">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11524,16 +11524,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB122">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11553,7 +11553,7 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G123" t="s">
         <v>62</v>
@@ -11808,7 +11808,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7517623</v>
+        <v>7517624</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11823,37 +11823,37 @@
         <v>64</v>
       </c>
       <c r="G126" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J126" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K126">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L126">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="M126">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N126">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O126">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="P126">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R126">
         <v>1.85</v>
@@ -11862,34 +11862,34 @@
         <v>1.95</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V126">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W126">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z126">
+        <v>-1</v>
+      </c>
+      <c r="AA126">
+        <v>0.95</v>
+      </c>
+      <c r="AB126">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA126">
-        <v>-1</v>
-      </c>
-      <c r="AB126">
-        <v>-1</v>
-      </c>
       <c r="AC126">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11897,7 +11897,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7520493</v>
+        <v>7517623</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11909,43 +11909,43 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F127" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G127" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H127">
         <v>2</v>
       </c>
       <c r="I127">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K127">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L127">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="M127">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="N127">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O127">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="P127">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q127">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S127">
         <v>1.95</v>
@@ -11954,31 +11954,31 @@
         <v>3</v>
       </c>
       <c r="U127">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V127">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA127">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11986,7 +11986,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7517624</v>
+        <v>7520493</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11998,55 +11998,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F128" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G128" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J128" t="s">
         <v>97</v>
       </c>
       <c r="K128">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="L128">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="M128">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N128">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O128">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="P128">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q128">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R128">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S128">
         <v>1.95</v>
       </c>
       <c r="T128">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -12055,7 +12055,7 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>4.25</v>
+        <v>0.95</v>
       </c>
       <c r="Z128">
         <v>-1</v>
@@ -12064,7 +12064,7 @@
         <v>0.95</v>
       </c>
       <c r="AB128">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -12176,7 +12176,7 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G130" t="s">
         <v>44</v>
@@ -12342,7 +12342,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7519478</v>
+        <v>7519479</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12354,55 +12354,55 @@
         <v>45256.40625</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
         <v>1</v>
-      </c>
-      <c r="I132">
-        <v>2</v>
       </c>
       <c r="J132" t="s">
         <v>97</v>
       </c>
       <c r="K132">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L132">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N132">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O132">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q132">
         <v>0.25</v>
       </c>
       <c r="R132">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S132">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12411,19 +12411,19 @@
         <v>-1</v>
       </c>
       <c r="Y132">
+        <v>1.2</v>
+      </c>
+      <c r="Z132">
+        <v>-1</v>
+      </c>
+      <c r="AA132">
         <v>1</v>
       </c>
-      <c r="Z132">
-        <v>-1</v>
-      </c>
-      <c r="AA132">
-        <v>0.8</v>
-      </c>
       <c r="AB132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12431,7 +12431,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7519479</v>
+        <v>7519478</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12443,55 +12443,55 @@
         <v>45256.40625</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>97</v>
       </c>
       <c r="K133">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N133">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P133">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q133">
         <v>0.25</v>
       </c>
       <c r="R133">
+        <v>2</v>
+      </c>
+      <c r="S133">
         <v>1.8</v>
       </c>
-      <c r="S133">
-        <v>2</v>
-      </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12500,19 +12500,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC133">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -124,13 +124,13 @@
     <t>NK Junak</t>
   </si>
   <si>
+    <t>NK Granicar Zupanja</t>
+  </si>
+  <si>
     <t>NK Bedem Ivankovo</t>
   </si>
   <si>
     <t>Sava Strmec</t>
-  </si>
-  <si>
-    <t>NK Granicar Zupanja</t>
   </si>
   <si>
     <t>NK Naftas Hask</t>
@@ -160,25 +160,25 @@
     <t>NK Koprivnica</t>
   </si>
   <si>
+    <t>NK Primorac Biograd</t>
+  </si>
+  <si>
     <t>NK Uljanik</t>
   </si>
   <si>
     <t>NK Darda</t>
   </si>
   <si>
-    <t>NK Primorac Biograd</t>
+    <t>NK Zadar</t>
   </si>
   <si>
-    <t>NK Zadar</t>
+    <t>NK Ponikve</t>
   </si>
   <si>
     <t>NK Tresnjevka</t>
   </si>
   <si>
     <t>NK Maksimir</t>
-  </si>
-  <si>
-    <t>NK Ponikve</t>
   </si>
   <si>
     <t>NK Krizevci</t>
@@ -229,16 +229,16 @@
     <t>NK Mladost Petrinja</t>
   </si>
   <si>
+    <t>Sloga Nova Gradiska</t>
+  </si>
+  <si>
     <t>NK Vrbovec</t>
   </si>
   <si>
-    <t>Sloga Nova Gradiska</t>
+    <t>NK Neretva</t>
   </si>
   <si>
     <t>NK Svacic</t>
-  </si>
-  <si>
-    <t>NK Neretva</t>
   </si>
   <si>
     <t>HNK Segesta</t>
@@ -277,10 +277,10 @@
     <t>NK Nask Nasice</t>
   </si>
   <si>
-    <t>NK Zagorec Krapina</t>
+    <t>NK Tondach</t>
   </si>
   <si>
-    <t>NK Tondach</t>
+    <t>NK Zagorec Krapina</t>
   </si>
   <si>
     <t>NK Kraljevica</t>
@@ -1054,7 +1054,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1143,7 +1143,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1395,7 +1395,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6419352</v>
+        <v>6419353</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1410,43 +1410,43 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>98</v>
       </c>
       <c r="K9">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="N9">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="O9">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P9">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
         <v>3</v>
@@ -1458,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="W9">
-        <v>0.6659999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1467,16 +1467,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1484,7 +1484,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6419351</v>
+        <v>6419352</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1499,70 +1499,70 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10">
+        <v>1.666</v>
+      </c>
+      <c r="L10">
+        <v>3.75</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>1.666</v>
+      </c>
+      <c r="O10">
+        <v>3.75</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>-0.75</v>
+      </c>
+      <c r="R10">
+        <v>1.9</v>
+      </c>
+      <c r="S10">
+        <v>1.9</v>
+      </c>
+      <c r="T10">
         <v>3</v>
       </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10">
-        <v>2.75</v>
-      </c>
-      <c r="L10">
-        <v>3.25</v>
-      </c>
-      <c r="M10">
-        <v>2.25</v>
-      </c>
-      <c r="N10">
-        <v>2.75</v>
-      </c>
-      <c r="O10">
-        <v>3.25</v>
-      </c>
-      <c r="P10">
-        <v>2.25</v>
-      </c>
-      <c r="Q10">
-        <v>0.25</v>
-      </c>
-      <c r="R10">
-        <v>1.775</v>
-      </c>
-      <c r="S10">
-        <v>2.025</v>
-      </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
       <c r="U10">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V10">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA10">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1573,7 +1573,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6419353</v>
+        <v>6419351</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1588,73 +1588,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K11">
-        <v>1.2</v>
+        <v>2.75</v>
       </c>
       <c r="L11">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M11">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="N11">
-        <v>1.2</v>
+        <v>2.75</v>
       </c>
       <c r="O11">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P11">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q11">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z11">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -2033,7 +2033,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2389,7 +2389,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2463,7 +2463,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6474641</v>
+        <v>6474643</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2475,76 +2475,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>71</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P21">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U21">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2552,7 +2552,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6474644</v>
+        <v>6474641</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2564,76 +2564,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K22">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L22">
+        <v>3.5</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
         <v>3</v>
       </c>
-      <c r="M22">
-        <v>2.625</v>
-      </c>
-      <c r="N22">
-        <v>2.5</v>
-      </c>
       <c r="O22">
+        <v>3.5</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>0.25</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
         <v>3</v>
       </c>
-      <c r="P22">
-        <v>2.625</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>1.85</v>
-      </c>
-      <c r="S22">
-        <v>1.95</v>
-      </c>
-      <c r="T22">
-        <v>2.5</v>
-      </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2641,7 +2641,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6474643</v>
+        <v>6474644</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2653,76 +2653,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
         <v>99</v>
       </c>
       <c r="K23">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="L23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="N23">
-        <v>1.142</v>
+        <v>2.5</v>
       </c>
       <c r="O23">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P23">
-        <v>12</v>
+        <v>2.625</v>
       </c>
       <c r="Q23">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2742,7 +2742,7 @@
         <v>45021.47916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
         <v>70</v>
@@ -2908,7 +2908,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6498265</v>
+        <v>6498264</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2920,76 +2920,76 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
         <v>73</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K26">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M26">
         <v>3.4</v>
       </c>
       <c r="N26">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O26">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P26">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>1.8</v>
+      </c>
+      <c r="T26">
+        <v>2.5</v>
+      </c>
+      <c r="U26">
         <v>1.9</v>
       </c>
-      <c r="S26">
+      <c r="V26">
         <v>1.9</v>
       </c>
-      <c r="T26">
-        <v>3</v>
-      </c>
-      <c r="U26">
-        <v>1.75</v>
-      </c>
-      <c r="V26">
-        <v>1.95</v>
-      </c>
       <c r="W26">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z26">
+        <v>-1</v>
+      </c>
+      <c r="AA26">
+        <v>0.8</v>
+      </c>
+      <c r="AB26">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA26">
-        <v>-1</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
       <c r="AC26">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2997,7 +2997,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6498264</v>
+        <v>6498265</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -3009,76 +3009,76 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s">
         <v>74</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K27">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L27">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
         <v>3.4</v>
       </c>
       <c r="N27">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O27">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3365,7 +3365,7 @@
         <v>45032.47916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
         <v>75</v>
@@ -3454,10 +3454,10 @@
         <v>45032.5</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H32">
         <v>6</v>
@@ -3546,7 +3546,7 @@
         <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6557199</v>
+        <v>6557197</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3721,76 +3721,76 @@
         <v>45039.5</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
         <v>3</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
       <c r="J35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K35">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L35">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N35">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O35">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q35">
         <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S35">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
         <v>2.75</v>
       </c>
       <c r="U35">
+        <v>1.875</v>
+      </c>
+      <c r="V35">
         <v>1.925</v>
       </c>
-      <c r="V35">
-        <v>1.875</v>
-      </c>
       <c r="W35">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z35">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB35">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3887,7 +3887,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6557197</v>
+        <v>6557199</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3899,76 +3899,76 @@
         <v>45039.5</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K37">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L37">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M37">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N37">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O37">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P37">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Q37">
         <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S37">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
+        <v>1.925</v>
+      </c>
+      <c r="V37">
         <v>1.875</v>
       </c>
-      <c r="V37">
-        <v>1.925</v>
-      </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA37">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4065,7 +4065,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6587217</v>
+        <v>6584079</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4080,73 +4080,73 @@
         <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
         <v>1</v>
       </c>
-      <c r="I39">
-        <v>4</v>
-      </c>
       <c r="J39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K39">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="N39">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R39">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA39">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4154,7 +4154,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6584081</v>
+        <v>6584080</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4166,76 +4166,76 @@
         <v>45045.5</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K40">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M40">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="N40">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P40">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R40">
+        <v>1.95</v>
+      </c>
+      <c r="S40">
         <v>1.85</v>
       </c>
-      <c r="S40">
-        <v>1.95</v>
-      </c>
       <c r="T40">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V40">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X40">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
+        <v>-1</v>
+      </c>
+      <c r="AC40">
         <v>1</v>
-      </c>
-      <c r="AC40">
-        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4243,7 +4243,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6584080</v>
+        <v>6587217</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4255,76 +4255,76 @@
         <v>45045.5</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K41">
-        <v>3.6</v>
+        <v>1.444</v>
       </c>
       <c r="L41">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>1.8</v>
+        <v>5.75</v>
       </c>
       <c r="N41">
-        <v>3.6</v>
+        <v>1.444</v>
       </c>
       <c r="O41">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>1.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q41">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S41">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T41">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U41">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W41">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC41">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4332,7 +4332,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6584079</v>
+        <v>6584081</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4347,73 +4347,73 @@
         <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K42">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="L42">
         <v>3.4</v>
       </c>
       <c r="M42">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N42">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O42">
         <v>3.4</v>
       </c>
       <c r="P42">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="Q42">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S42">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
+        <v>-1</v>
+      </c>
+      <c r="X42">
         <v>2.4</v>
       </c>
-      <c r="X42">
-        <v>-1</v>
-      </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB42">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AC42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4510,7 +4510,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6612704</v>
+        <v>6615716</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4522,40 +4522,40 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K44">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N44">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="O44">
         <v>4</v>
       </c>
       <c r="P44">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R44">
         <v>1.825</v>
@@ -4567,31 +4567,31 @@
         <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4599,7 +4599,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6615716</v>
+        <v>6612703</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4611,58 +4611,58 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H45">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>98</v>
       </c>
       <c r="K45">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L45">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N45">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O45">
         <v>4</v>
       </c>
       <c r="P45">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q45">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4671,16 +4671,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4688,7 +4688,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6612703</v>
+        <v>6612704</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4700,76 +4700,76 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K46">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="L46">
         <v>4</v>
       </c>
       <c r="M46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O46">
         <v>4</v>
       </c>
       <c r="P46">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q46">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4789,7 +4789,7 @@
         <v>45053.52083333334</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
         <v>80</v>
@@ -4881,7 +4881,7 @@
         <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4955,7 +4955,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6642563</v>
+        <v>6642562</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4970,16 +4970,16 @@
         <v>52</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K49">
         <v>1.6</v>
@@ -5012,19 +5012,19 @@
         <v>3</v>
       </c>
       <c r="U49">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y49">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
         <v>-1</v>
@@ -5033,10 +5033,10 @@
         <v>0.95</v>
       </c>
       <c r="AB49">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5044,7 +5044,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6642561</v>
+        <v>6642563</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5059,73 +5059,73 @@
         <v>53</v>
       </c>
       <c r="G50" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K50">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N50">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R50">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S50">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z50">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC50">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5133,7 +5133,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6642562</v>
+        <v>6642564</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5145,76 +5145,76 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F51" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K51">
-        <v>1.6</v>
+        <v>1.222</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M51">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="N51">
-        <v>1.6</v>
+        <v>1.222</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P51">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X51">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5222,7 +5222,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6642564</v>
+        <v>6642561</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5234,58 +5234,58 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>98</v>
       </c>
       <c r="K52">
-        <v>1.222</v>
+        <v>1.909</v>
       </c>
       <c r="L52">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="N52">
-        <v>1.222</v>
+        <v>2.2</v>
       </c>
       <c r="O52">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q52">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W52">
-        <v>0.222</v>
+        <v>1.2</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5294,16 +5294,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5679,7 +5679,7 @@
         <v>45079.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
         <v>81</v>
@@ -5768,7 +5768,7 @@
         <v>45080.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
         <v>82</v>
@@ -6035,7 +6035,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
         <v>85</v>
@@ -6112,7 +6112,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7126857</v>
+        <v>7126858</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -6124,76 +6124,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K62">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L62">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M62">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N62">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="O62">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P62">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q62">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R62">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
         <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB62">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6201,7 +6201,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7126860</v>
+        <v>7126857</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6213,76 +6213,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F63" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K63">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L63">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M63">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="N63">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="O63">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P63">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
+        <v>1.925</v>
+      </c>
+      <c r="S63">
+        <v>1.875</v>
+      </c>
+      <c r="T63">
+        <v>2.75</v>
+      </c>
+      <c r="U63">
+        <v>1.825</v>
+      </c>
+      <c r="V63">
         <v>1.975</v>
       </c>
-      <c r="S63">
-        <v>1.725</v>
-      </c>
-      <c r="T63">
-        <v>3</v>
-      </c>
-      <c r="U63">
-        <v>1.95</v>
-      </c>
-      <c r="V63">
-        <v>1.85</v>
-      </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X63">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA63">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6290,7 +6290,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7126858</v>
+        <v>7126860</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6302,76 +6302,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K64">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L64">
         <v>3.4</v>
       </c>
       <c r="M64">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N64">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="O64">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q64">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R64">
+        <v>1.975</v>
+      </c>
+      <c r="S64">
+        <v>1.725</v>
+      </c>
+      <c r="T64">
+        <v>3</v>
+      </c>
+      <c r="U64">
         <v>1.95</v>
       </c>
-      <c r="S64">
+      <c r="V64">
         <v>1.85</v>
       </c>
-      <c r="T64">
-        <v>2.75</v>
-      </c>
-      <c r="U64">
-        <v>1.9</v>
-      </c>
-      <c r="V64">
-        <v>1.9</v>
-      </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y64">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA64">
+        <v>-0</v>
+      </c>
+      <c r="AB64">
+        <v>-1</v>
+      </c>
+      <c r="AC64">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB64">
-        <v>-1</v>
-      </c>
-      <c r="AC64">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6483,7 +6483,7 @@
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6569,7 +6569,7 @@
         <v>45172.5</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
         <v>57</v>
@@ -6646,7 +6646,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7183189</v>
+        <v>7183191</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6658,55 +6658,55 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
         <v>97</v>
       </c>
       <c r="K68">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L68">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N68">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O68">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P68">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T68">
         <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6715,19 +6715,19 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC68">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6824,7 +6824,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7183191</v>
+        <v>7183189</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6836,55 +6836,55 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F70" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
         <v>1</v>
-      </c>
-      <c r="I70">
-        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>97</v>
       </c>
       <c r="K70">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M70">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P70">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q70">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S70">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T70">
         <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6893,19 +6893,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB70">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7002,7 +7002,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7188987</v>
+        <v>7188989</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7014,56 +7014,56 @@
         <v>45179.5</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
         <v>97</v>
       </c>
       <c r="K72">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="L72">
         <v>3.4</v>
       </c>
       <c r="M72">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="N72">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O72">
         <v>3.4</v>
       </c>
       <c r="P72">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="Q72">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
         <v>1.85</v>
-      </c>
-      <c r="S72">
-        <v>1.95</v>
       </c>
       <c r="T72">
         <v>3</v>
       </c>
       <c r="U72">
+        <v>1.975</v>
+      </c>
+      <c r="V72">
         <v>1.825</v>
       </c>
-      <c r="V72">
-        <v>1.975</v>
-      </c>
       <c r="W72">
         <v>-1</v>
       </c>
@@ -7071,19 +7071,19 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.909</v>
+        <v>1.4</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7091,7 +7091,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7188989</v>
+        <v>7188988</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7103,76 +7103,76 @@
         <v>45179.5</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
         <v>97</v>
       </c>
       <c r="K73">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L73">
         <v>3.4</v>
       </c>
       <c r="M73">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N73">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O73">
         <v>3.4</v>
       </c>
       <c r="P73">
+        <v>3.4</v>
+      </c>
+      <c r="Q73">
+        <v>-0.5</v>
+      </c>
+      <c r="R73">
+        <v>1.975</v>
+      </c>
+      <c r="S73">
+        <v>1.825</v>
+      </c>
+      <c r="T73">
+        <v>2.75</v>
+      </c>
+      <c r="U73">
+        <v>1.825</v>
+      </c>
+      <c r="V73">
+        <v>1.975</v>
+      </c>
+      <c r="W73">
+        <v>-1</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
         <v>2.4</v>
       </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>1.95</v>
-      </c>
-      <c r="S73">
-        <v>1.85</v>
-      </c>
-      <c r="T73">
-        <v>3</v>
-      </c>
-      <c r="U73">
-        <v>1.975</v>
-      </c>
-      <c r="V73">
-        <v>1.825</v>
-      </c>
-      <c r="W73">
-        <v>-1</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>1.4</v>
-      </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC73">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7180,7 +7180,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7188990</v>
+        <v>7188987</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7192,49 +7192,49 @@
         <v>45179.5</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>97</v>
       </c>
       <c r="K74">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L74">
+        <v>3.4</v>
+      </c>
+      <c r="M74">
+        <v>1.909</v>
+      </c>
+      <c r="N74">
         <v>3.5</v>
       </c>
-      <c r="M74">
+      <c r="O74">
+        <v>3.4</v>
+      </c>
+      <c r="P74">
+        <v>1.909</v>
+      </c>
+      <c r="Q74">
+        <v>0.5</v>
+      </c>
+      <c r="R74">
+        <v>1.85</v>
+      </c>
+      <c r="S74">
+        <v>1.95</v>
+      </c>
+      <c r="T74">
         <v>3</v>
-      </c>
-      <c r="N74">
-        <v>2.1</v>
-      </c>
-      <c r="O74">
-        <v>3.5</v>
-      </c>
-      <c r="P74">
-        <v>3</v>
-      </c>
-      <c r="Q74">
-        <v>-0.25</v>
-      </c>
-      <c r="R74">
-        <v>1.875</v>
-      </c>
-      <c r="S74">
-        <v>1.925</v>
-      </c>
-      <c r="T74">
-        <v>2.75</v>
       </c>
       <c r="U74">
         <v>1.825</v>
@@ -7249,13 +7249,13 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB74">
         <v>-1</v>
@@ -7269,7 +7269,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7188988</v>
+        <v>7188990</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7281,46 +7281,46 @@
         <v>45179.5</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>97</v>
       </c>
       <c r="K75">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M75">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N75">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
         <v>2.75</v>
@@ -7338,19 +7338,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7370,10 +7370,10 @@
         <v>45182.5</v>
       </c>
       <c r="F76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H76">
         <v>6</v>
@@ -7447,7 +7447,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7202436</v>
+        <v>7202435</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7459,46 +7459,46 @@
         <v>45182.5</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>98</v>
       </c>
       <c r="K77">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M77">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N77">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O77">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P77">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T77">
         <v>2.75</v>
@@ -7510,7 +7510,7 @@
         <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.5329999999999999</v>
+        <v>1</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7519,16 +7519,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="AA77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7536,7 +7536,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7202435</v>
+        <v>7202436</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7548,46 +7548,46 @@
         <v>45182.5</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H78">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>98</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M78">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N78">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P78">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R78">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T78">
         <v>2.75</v>
@@ -7599,7 +7599,7 @@
         <v>1.975</v>
       </c>
       <c r="W78">
-        <v>1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7608,16 +7608,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8</v>
+        <v>0.35</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB78">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7729,7 +7729,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7981,7 +7981,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7250137</v>
+        <v>7250138</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7993,76 +7993,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="G83" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K83">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M83">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N83">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O83">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U83">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y83">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC83">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8070,7 +8070,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7250138</v>
+        <v>7250137</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8082,76 +8082,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L84">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M84">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N84">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O84">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P84">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8260,7 +8260,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
         <v>85</v>
@@ -8352,7 +8352,7 @@
         <v>59</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -8438,7 +8438,7 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G88" t="s">
         <v>70</v>
@@ -8515,7 +8515,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7305881</v>
+        <v>7305882</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8527,76 +8527,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G89" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89" t="s">
+        <v>97</v>
+      </c>
+      <c r="K89">
+        <v>3.6</v>
+      </c>
+      <c r="L89">
         <v>4</v>
       </c>
-      <c r="I89">
-        <v>2</v>
-      </c>
-      <c r="J89" t="s">
-        <v>98</v>
-      </c>
-      <c r="K89">
-        <v>1.363</v>
-      </c>
-      <c r="L89">
-        <v>4.75</v>
-      </c>
       <c r="M89">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="N89">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O89">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R89">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T89">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W89">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z89">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB89">
+        <v>-1</v>
+      </c>
+      <c r="AC89">
         <v>1</v>
-      </c>
-      <c r="AC89">
-        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8604,7 +8604,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7305882</v>
+        <v>7305881</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8616,76 +8616,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F90" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G90" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I90">
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K90">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M90">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="N90">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P90">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="Q90">
+        <v>-1.25</v>
+      </c>
+      <c r="R90">
+        <v>1.75</v>
+      </c>
+      <c r="S90">
+        <v>1.95</v>
+      </c>
+      <c r="T90">
+        <v>3</v>
+      </c>
+      <c r="U90">
+        <v>2</v>
+      </c>
+      <c r="V90">
+        <v>1.8</v>
+      </c>
+      <c r="W90">
+        <v>0.363</v>
+      </c>
+      <c r="X90">
+        <v>-1</v>
+      </c>
+      <c r="Y90">
+        <v>-1</v>
+      </c>
+      <c r="Z90">
         <v>0.75</v>
       </c>
-      <c r="R90">
-        <v>1.825</v>
-      </c>
-      <c r="S90">
-        <v>1.975</v>
-      </c>
-      <c r="T90">
-        <v>2.75</v>
-      </c>
-      <c r="U90">
-        <v>1.8</v>
-      </c>
-      <c r="V90">
-        <v>2</v>
-      </c>
-      <c r="W90">
-        <v>-1</v>
-      </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
-      <c r="Y90">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z90">
-        <v>-1</v>
-      </c>
       <c r="AA90">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC90">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8794,7 +8794,7 @@
         <v>45207.46875</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
         <v>32</v>
@@ -8871,7 +8871,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7337013</v>
+        <v>7337011</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8883,76 +8883,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G93" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K93">
+        <v>1.4</v>
+      </c>
+      <c r="L93">
+        <v>4.75</v>
+      </c>
+      <c r="M93">
+        <v>5.25</v>
+      </c>
+      <c r="N93">
+        <v>1.4</v>
+      </c>
+      <c r="O93">
+        <v>4.75</v>
+      </c>
+      <c r="P93">
+        <v>5.25</v>
+      </c>
+      <c r="Q93">
+        <v>-1.25</v>
+      </c>
+      <c r="R93">
+        <v>1.9</v>
+      </c>
+      <c r="S93">
+        <v>1.9</v>
+      </c>
+      <c r="T93">
         <v>2.75</v>
       </c>
-      <c r="L93">
-        <v>3.4</v>
-      </c>
-      <c r="M93">
-        <v>2.2</v>
-      </c>
-      <c r="N93">
-        <v>2.75</v>
-      </c>
-      <c r="O93">
-        <v>3.4</v>
-      </c>
-      <c r="P93">
-        <v>2.2</v>
-      </c>
-      <c r="Q93">
-        <v>0.25</v>
-      </c>
-      <c r="R93">
-        <v>1.8</v>
-      </c>
-      <c r="S93">
-        <v>2</v>
-      </c>
-      <c r="T93">
-        <v>3</v>
-      </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X93">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8960,7 +8960,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7337011</v>
+        <v>7337013</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8972,76 +8972,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K94">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L94">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M94">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N94">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O94">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q94">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V94">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W94">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9150,7 +9150,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G96" t="s">
         <v>42</v>
@@ -9328,7 +9328,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
         <v>84</v>
@@ -9420,7 +9420,7 @@
         <v>44</v>
       </c>
       <c r="G99" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -9595,7 +9595,7 @@
         <v>45220.4375</v>
       </c>
       <c r="F101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G101" t="s">
         <v>89</v>
@@ -9687,7 +9687,7 @@
         <v>42</v>
       </c>
       <c r="G102" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9776,7 +9776,7 @@
         <v>59</v>
       </c>
       <c r="G103" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H103">
         <v>4</v>
@@ -9850,7 +9850,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7382547</v>
+        <v>7382546</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9862,76 +9862,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>99</v>
+      </c>
+      <c r="K104">
+        <v>1.363</v>
+      </c>
+      <c r="L104">
+        <v>4.333</v>
+      </c>
+      <c r="M104">
+        <v>6.5</v>
+      </c>
+      <c r="N104">
+        <v>1.25</v>
+      </c>
+      <c r="O104">
         <v>5</v>
       </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104" t="s">
-        <v>98</v>
-      </c>
-      <c r="K104">
-        <v>2.3</v>
-      </c>
-      <c r="L104">
-        <v>3.4</v>
-      </c>
-      <c r="M104">
-        <v>2.625</v>
-      </c>
-      <c r="N104">
-        <v>2.3</v>
-      </c>
-      <c r="O104">
-        <v>3.4</v>
-      </c>
       <c r="P104">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R104">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S104">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB104">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9939,7 +9939,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7382546</v>
+        <v>7382547</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9951,76 +9951,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K105">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L105">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N105">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O105">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P105">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="Q105">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S105">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X105">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC105">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10132,7 +10132,7 @@
         <v>57</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H107">
         <v>3</v>
@@ -10221,7 +10221,7 @@
         <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10485,7 +10485,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
         <v>81</v>
@@ -10562,7 +10562,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7460854</v>
+        <v>7460852</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10574,76 +10574,76 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K112">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="L112">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="N112">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O112">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="Q112">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R112">
+        <v>1.8</v>
+      </c>
+      <c r="S112">
+        <v>2</v>
+      </c>
+      <c r="T112">
+        <v>2.75</v>
+      </c>
+      <c r="U112">
         <v>1.95</v>
       </c>
-      <c r="S112">
+      <c r="V112">
         <v>1.85</v>
       </c>
-      <c r="T112">
-        <v>3</v>
-      </c>
-      <c r="U112">
-        <v>1.775</v>
-      </c>
-      <c r="V112">
-        <v>2.025</v>
-      </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y112">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AA112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC112">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10651,7 +10651,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7460852</v>
+        <v>7460854</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10663,76 +10663,76 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K113">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="L113">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M113">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="N113">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O113">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P113">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="Q113">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R113">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T113">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V113">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z113">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB113">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10930,10 +10930,10 @@
         <v>45248.375</v>
       </c>
       <c r="F116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G116" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -11108,7 +11108,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G118" t="s">
         <v>94</v>
@@ -11185,7 +11185,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7493775</v>
+        <v>7493773</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11197,76 +11197,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K119">
-        <v>1.727</v>
+        <v>1.2</v>
       </c>
       <c r="L119">
+        <v>6</v>
+      </c>
+      <c r="M119">
+        <v>9</v>
+      </c>
+      <c r="N119">
+        <v>1.2</v>
+      </c>
+      <c r="O119">
+        <v>6</v>
+      </c>
+      <c r="P119">
+        <v>9</v>
+      </c>
+      <c r="Q119">
+        <v>-2</v>
+      </c>
+      <c r="R119">
+        <v>1.85</v>
+      </c>
+      <c r="S119">
+        <v>1.95</v>
+      </c>
+      <c r="T119">
         <v>3.75</v>
       </c>
-      <c r="M119">
-        <v>3.75</v>
-      </c>
-      <c r="N119">
-        <v>1.5</v>
-      </c>
-      <c r="O119">
-        <v>3.8</v>
-      </c>
-      <c r="P119">
-        <v>5.25</v>
-      </c>
-      <c r="Q119">
-        <v>-1</v>
-      </c>
-      <c r="R119">
-        <v>1.925</v>
-      </c>
-      <c r="S119">
-        <v>1.875</v>
-      </c>
-      <c r="T119">
-        <v>2.5</v>
-      </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W119">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB119">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11274,7 +11274,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7493774</v>
+        <v>7493772</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11286,76 +11286,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K120">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L120">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N120">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P120">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q120">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R120">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U120">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X120">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA120">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC120">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11363,7 +11363,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7493773</v>
+        <v>7493774</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11375,61 +11375,61 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
         <v>99</v>
       </c>
       <c r="K121">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L121">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M121">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N121">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="O121">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P121">
-        <v>9</v>
+        <v>5.75</v>
       </c>
       <c r="Q121">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R121">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S121">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T121">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Y121">
         <v>-1</v>
@@ -11438,13 +11438,13 @@
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB121">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11452,7 +11452,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7493772</v>
+        <v>7493775</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11464,13 +11464,13 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G122" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -11479,43 +11479,43 @@
         <v>98</v>
       </c>
       <c r="K122">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L122">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M122">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N122">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O122">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P122">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q122">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V122">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W122">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11524,16 +11524,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA122">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC122">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11541,7 +11541,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7493771</v>
+        <v>7493776</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11553,13 +11553,13 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -11568,43 +11568,43 @@
         <v>98</v>
       </c>
       <c r="K123">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M123">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N123">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O123">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P123">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S123">
         <v>1.975</v>
       </c>
       <c r="T123">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U123">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11613,16 +11613,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11630,7 +11630,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7493776</v>
+        <v>7493771</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11642,13 +11642,13 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -11657,43 +11657,43 @@
         <v>98</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L124">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N124">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O124">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P124">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S124">
         <v>1.975</v>
       </c>
       <c r="T124">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W124">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11702,16 +11702,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11912,7 +11912,7 @@
         <v>65</v>
       </c>
       <c r="G127" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12176,7 +12176,7 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
         <v>44</v>
@@ -12342,7 +12342,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7519479</v>
+        <v>7519478</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12354,55 +12354,55 @@
         <v>45256.40625</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
         <v>97</v>
       </c>
       <c r="K132">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M132">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N132">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q132">
         <v>0.25</v>
       </c>
       <c r="R132">
+        <v>2</v>
+      </c>
+      <c r="S132">
         <v>1.8</v>
       </c>
-      <c r="S132">
-        <v>2</v>
-      </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12411,19 +12411,19 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12431,7 +12431,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7519478</v>
+        <v>7519479</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12443,55 +12443,55 @@
         <v>45256.40625</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
         <v>1</v>
-      </c>
-      <c r="I133">
-        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>97</v>
       </c>
       <c r="K133">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N133">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q133">
         <v>0.25</v>
       </c>
       <c r="R133">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S133">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12500,19 +12500,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
+        <v>1.2</v>
+      </c>
+      <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
         <v>1</v>
       </c>
-      <c r="Z133">
-        <v>-1</v>
-      </c>
-      <c r="AA133">
-        <v>0.8</v>
-      </c>
       <c r="AB133">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:29">

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -2463,7 +2463,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6474643</v>
+        <v>6474644</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2475,76 +2475,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
         <v>99</v>
       </c>
       <c r="K21">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="L21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="N21">
-        <v>1.142</v>
+        <v>2.5</v>
       </c>
       <c r="O21">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>12</v>
+        <v>2.625</v>
       </c>
       <c r="Q21">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S21">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2552,7 +2552,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6474641</v>
+        <v>6474643</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2564,76 +2564,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="O22">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P22">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U22">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2641,7 +2641,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6474644</v>
+        <v>6474641</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2653,76 +2653,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K23">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L23">
+        <v>3.5</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
         <v>3</v>
       </c>
-      <c r="M23">
-        <v>2.625</v>
-      </c>
-      <c r="N23">
-        <v>2.5</v>
-      </c>
       <c r="O23">
+        <v>3.5</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>0.25</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
         <v>3</v>
       </c>
-      <c r="P23">
-        <v>2.625</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>1.85</v>
-      </c>
-      <c r="S23">
-        <v>1.95</v>
-      </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X23">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -4510,7 +4510,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6615716</v>
+        <v>6612704</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4522,40 +4522,40 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="H44">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K44">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L44">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N44">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="O44">
         <v>4</v>
       </c>
       <c r="P44">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q44">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
         <v>1.825</v>
@@ -4567,31 +4567,31 @@
         <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V44">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4599,7 +4599,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6612703</v>
+        <v>6615716</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4611,58 +4611,58 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>98</v>
       </c>
       <c r="K45">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N45">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O45">
         <v>4</v>
       </c>
       <c r="P45">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q45">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4671,16 +4671,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
+        <v>0.825</v>
+      </c>
+      <c r="AA45">
+        <v>-1</v>
+      </c>
+      <c r="AB45">
         <v>0.8</v>
       </c>
-      <c r="AA45">
-        <v>-1</v>
-      </c>
-      <c r="AB45">
-        <v>-1</v>
-      </c>
       <c r="AC45">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4688,7 +4688,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6612704</v>
+        <v>6612703</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4700,76 +4700,76 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
         <v>0</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
       <c r="J46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K46">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="L46">
         <v>4</v>
       </c>
       <c r="M46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O46">
         <v>4</v>
       </c>
       <c r="P46">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q46">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R46">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S46">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA46">
+        <v>-1</v>
+      </c>
+      <c r="AB46">
+        <v>-1</v>
+      </c>
+      <c r="AC46">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB46">
-        <v>-1</v>
-      </c>
-      <c r="AC46">
-        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -9850,7 +9850,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7382546</v>
+        <v>7382547</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9862,76 +9862,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K104">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L104">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N104">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O104">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P104">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="Q104">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X104">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC104">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9939,7 +9939,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7382547</v>
+        <v>7382546</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9951,76 +9951,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="s">
+        <v>99</v>
+      </c>
+      <c r="K105">
+        <v>1.363</v>
+      </c>
+      <c r="L105">
+        <v>4.333</v>
+      </c>
+      <c r="M105">
+        <v>6.5</v>
+      </c>
+      <c r="N105">
+        <v>1.25</v>
+      </c>
+      <c r="O105">
         <v>5</v>
       </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105" t="s">
-        <v>98</v>
-      </c>
-      <c r="K105">
-        <v>2.3</v>
-      </c>
-      <c r="L105">
-        <v>3.4</v>
-      </c>
-      <c r="M105">
-        <v>2.625</v>
-      </c>
-      <c r="N105">
-        <v>2.3</v>
-      </c>
-      <c r="O105">
-        <v>3.4</v>
-      </c>
       <c r="P105">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R105">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S105">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -11185,7 +11185,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7493773</v>
+        <v>7493772</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11197,76 +11197,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K119">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="L119">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M119">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="N119">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O119">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P119">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Q119">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R119">
+        <v>1.9</v>
+      </c>
+      <c r="S119">
+        <v>1.9</v>
+      </c>
+      <c r="T119">
+        <v>3</v>
+      </c>
+      <c r="U119">
         <v>1.85</v>
       </c>
-      <c r="S119">
+      <c r="V119">
         <v>1.95</v>
       </c>
-      <c r="T119">
-        <v>3.75</v>
-      </c>
-      <c r="U119">
-        <v>1.95</v>
-      </c>
-      <c r="V119">
-        <v>1.85</v>
-      </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X119">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA119">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB119">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC119">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11274,7 +11274,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7493772</v>
+        <v>7493773</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11286,76 +11286,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G120" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K120">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M120">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="N120">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O120">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P120">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Q120">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U120">
+        <v>1.95</v>
+      </c>
+      <c r="V120">
         <v>1.85</v>
       </c>
-      <c r="V120">
-        <v>1.95</v>
-      </c>
       <c r="W120">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
+        <v>-1</v>
+      </c>
+      <c r="AA120">
+        <v>0.95</v>
+      </c>
+      <c r="AB120">
+        <v>0.475</v>
+      </c>
+      <c r="AC120">
         <v>-0.5</v>
-      </c>
-      <c r="AA120">
-        <v>0.45</v>
-      </c>
-      <c r="AB120">
-        <v>0</v>
-      </c>
-      <c r="AC120">
-        <v>-0</v>
       </c>
     </row>
     <row r="121" spans="1:29">

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -109,10 +109,10 @@
     <t>NK Tekstilac Ravnice</t>
   </si>
   <si>
-    <t>Lucko</t>
+    <t>NK Bistra</t>
   </si>
   <si>
-    <t>NK Bistra</t>
+    <t>Lucko</t>
   </si>
   <si>
     <t>RNK Split</t>
@@ -124,19 +124,19 @@
     <t>NK Junak</t>
   </si>
   <si>
-    <t>NK Granicar Zupanja</t>
-  </si>
-  <si>
     <t>NK Bedem Ivankovo</t>
   </si>
   <si>
     <t>Sava Strmec</t>
   </si>
   <si>
-    <t>NK Naftas Hask</t>
+    <t>NK Granicar Zupanja</t>
   </si>
   <si>
     <t>NK Pomorac</t>
+  </si>
+  <si>
+    <t>NK Naftas Hask</t>
   </si>
   <si>
     <t>Karlovac</t>
@@ -160,25 +160,25 @@
     <t>NK Koprivnica</t>
   </si>
   <si>
-    <t>NK Primorac Biograd</t>
-  </si>
-  <si>
     <t>NK Uljanik</t>
   </si>
   <si>
     <t>NK Darda</t>
   </si>
   <si>
-    <t>NK Zadar</t>
+    <t>NK Primorac Biograd</t>
   </si>
   <si>
-    <t>NK Ponikve</t>
+    <t>NK Zadar</t>
   </si>
   <si>
     <t>NK Tresnjevka</t>
   </si>
   <si>
     <t>NK Maksimir</t>
+  </si>
+  <si>
+    <t>NK Ponikve</t>
   </si>
   <si>
     <t>NK Krizevci</t>
@@ -208,10 +208,10 @@
     <t>NK Medulin</t>
   </si>
   <si>
-    <t>NK Croatia Dakovo</t>
+    <t>NK Gosk Kastel Gomilica</t>
   </si>
   <si>
-    <t>NK Gosk Kastel Gomilica</t>
+    <t>NK Croatia Dakovo</t>
   </si>
   <si>
     <t>NK Vrapce</t>
@@ -229,16 +229,16 @@
     <t>NK Mladost Petrinja</t>
   </si>
   <si>
+    <t>NK Vrbovec</t>
+  </si>
+  <si>
     <t>Sloga Nova Gradiska</t>
   </si>
   <si>
-    <t>NK Vrbovec</t>
+    <t>NK Svacic</t>
   </si>
   <si>
     <t>NK Neretva</t>
-  </si>
-  <si>
-    <t>NK Svacic</t>
   </si>
   <si>
     <t>HNK Segesta</t>
@@ -950,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6353811</v>
+        <v>6353810</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -965,55 +965,55 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>98</v>
       </c>
       <c r="K4">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="N4">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -1022,16 +1022,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1039,7 +1039,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6353810</v>
+        <v>6353811</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1054,55 +1054,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>98</v>
       </c>
       <c r="K5">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N5">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="O5">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="Q5">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -1111,16 +1111,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1143,7 +1143,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1395,7 +1395,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6419353</v>
+        <v>6419352</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1410,43 +1410,43 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>98</v>
       </c>
       <c r="K9">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="N9">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="O9">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="Q9">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
         <v>3</v>
@@ -1458,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="W9">
-        <v>0.2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1467,16 +1467,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1484,7 +1484,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6419352</v>
+        <v>6419351</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1499,70 +1499,70 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
         <v>4</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K10">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="L10">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N10">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="O10">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P10">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q10">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S10">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W10">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB10">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1573,7 +1573,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6419351</v>
+        <v>6419353</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1588,73 +1588,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K11">
-        <v>2.75</v>
+        <v>1.2</v>
       </c>
       <c r="L11">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M11">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="N11">
-        <v>2.75</v>
+        <v>1.2</v>
       </c>
       <c r="O11">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="P11">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R11">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA11">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1662,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6442864</v>
+        <v>6442865</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1677,37 +1677,37 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K12">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="L12">
+        <v>3.4</v>
+      </c>
+      <c r="M12">
+        <v>2.875</v>
+      </c>
+      <c r="N12">
+        <v>1.909</v>
+      </c>
+      <c r="O12">
         <v>3.5</v>
       </c>
-      <c r="M12">
-        <v>1.95</v>
-      </c>
-      <c r="N12">
-        <v>2.5</v>
-      </c>
-      <c r="O12">
-        <v>3.4</v>
-      </c>
       <c r="P12">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
         <v>1.975</v>
@@ -1716,34 +1716,34 @@
         <v>1.825</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1751,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6442865</v>
+        <v>6442864</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1766,37 +1766,37 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13">
+        <v>3.2</v>
+      </c>
+      <c r="L13">
+        <v>3.5</v>
+      </c>
+      <c r="M13">
+        <v>1.95</v>
+      </c>
+      <c r="N13">
+        <v>2.5</v>
+      </c>
+      <c r="O13">
+        <v>3.4</v>
+      </c>
+      <c r="P13">
+        <v>2.375</v>
+      </c>
+      <c r="Q13">
         <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13">
-        <v>2.1</v>
-      </c>
-      <c r="L13">
-        <v>3.4</v>
-      </c>
-      <c r="M13">
-        <v>2.875</v>
-      </c>
-      <c r="N13">
-        <v>1.909</v>
-      </c>
-      <c r="O13">
-        <v>3.5</v>
-      </c>
-      <c r="P13">
-        <v>3.3</v>
-      </c>
-      <c r="Q13">
-        <v>-0.5</v>
       </c>
       <c r="R13">
         <v>1.975</v>
@@ -1805,34 +1805,34 @@
         <v>1.825</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1855,7 +1855,7 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -2030,10 +2030,10 @@
         <v>45014.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2196,7 +2196,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6474091</v>
+        <v>6474092</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2208,10 +2208,10 @@
         <v>45017.47916666666</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2223,40 +2223,40 @@
         <v>97</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M18">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="N18">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P18">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
         <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2265,16 +2265,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB18">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6474092</v>
+        <v>6474091</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2297,10 +2297,10 @@
         <v>45017.47916666666</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2312,40 +2312,40 @@
         <v>97</v>
       </c>
       <c r="K19">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N19">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2354,16 +2354,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
+        <v>0.5</v>
+      </c>
+      <c r="Z19">
+        <v>-1</v>
+      </c>
+      <c r="AA19">
+        <v>0.875</v>
+      </c>
+      <c r="AB19">
         <v>0.8</v>
-      </c>
-      <c r="Z19">
-        <v>-1</v>
-      </c>
-      <c r="AA19">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB19">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2389,7 +2389,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2463,7 +2463,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6474644</v>
+        <v>6474641</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2475,76 +2475,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K21">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L21">
+        <v>3.5</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
         <v>3</v>
       </c>
-      <c r="M21">
-        <v>2.625</v>
-      </c>
-      <c r="N21">
-        <v>2.5</v>
-      </c>
       <c r="O21">
+        <v>3.5</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>0.25</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>1.8</v>
+      </c>
+      <c r="T21">
         <v>3</v>
       </c>
-      <c r="P21">
-        <v>2.625</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>1.85</v>
-      </c>
-      <c r="S21">
-        <v>1.95</v>
-      </c>
-      <c r="T21">
-        <v>2.5</v>
-      </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X21">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2552,7 +2552,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6474643</v>
+        <v>6474644</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2564,76 +2564,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
         <v>99</v>
       </c>
       <c r="K22">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="L22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="N22">
-        <v>1.142</v>
+        <v>2.5</v>
       </c>
       <c r="O22">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P22">
-        <v>12</v>
+        <v>2.625</v>
       </c>
       <c r="Q22">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2641,7 +2641,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6474641</v>
+        <v>6474643</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2659,70 +2659,70 @@
         <v>72</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N23">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="O23">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P23">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U23">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2742,7 +2742,7 @@
         <v>45021.47916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
         <v>70</v>
@@ -2908,7 +2908,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6498264</v>
+        <v>6498265</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2920,76 +2920,76 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
         <v>73</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K26">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L26">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
         <v>3.4</v>
       </c>
       <c r="N26">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O26">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P26">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2997,7 +2997,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6498265</v>
+        <v>6498264</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -3009,76 +3009,76 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
         <v>74</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K27">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M27">
         <v>3.4</v>
       </c>
       <c r="N27">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P27">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>1.8</v>
+      </c>
+      <c r="T27">
+        <v>2.5</v>
+      </c>
+      <c r="U27">
         <v>1.9</v>
       </c>
-      <c r="S27">
+      <c r="V27">
         <v>1.9</v>
       </c>
-      <c r="T27">
-        <v>3</v>
-      </c>
-      <c r="U27">
-        <v>1.75</v>
-      </c>
-      <c r="V27">
-        <v>1.95</v>
-      </c>
       <c r="W27">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z27">
+        <v>-1</v>
+      </c>
+      <c r="AA27">
+        <v>0.8</v>
+      </c>
+      <c r="AB27">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA27">
-        <v>-1</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
       <c r="AC27">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3098,10 +3098,10 @@
         <v>45028.5</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3187,7 +3187,7 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
         <v>30</v>
@@ -3365,7 +3365,7 @@
         <v>45032.47916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
         <v>75</v>
@@ -3454,10 +3454,10 @@
         <v>45032.5</v>
       </c>
       <c r="F32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" t="s">
         <v>36</v>
-      </c>
-      <c r="G32" t="s">
-        <v>37</v>
       </c>
       <c r="H32">
         <v>6</v>
@@ -3546,7 +3546,7 @@
         <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>45039.5</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -3798,7 +3798,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6557198</v>
+        <v>6557199</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3810,76 +3810,76 @@
         <v>45039.5</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
         <v>0</v>
       </c>
-      <c r="I36">
-        <v>2</v>
-      </c>
       <c r="J36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K36">
         <v>2.5</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M36">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N36">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P36">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC36">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3887,7 +3887,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6557199</v>
+        <v>6557198</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3899,76 +3899,76 @@
         <v>45039.5</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G37" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K37">
         <v>2.5</v>
       </c>
       <c r="L37">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M37">
+        <v>2.6</v>
+      </c>
+      <c r="N37">
         <v>2.5</v>
       </c>
-      <c r="N37">
-        <v>2.25</v>
-      </c>
       <c r="O37">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P37">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S37">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T37">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z37">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB37">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4065,7 +4065,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6584079</v>
+        <v>6587217</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4080,73 +4080,73 @@
         <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K39">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="N39">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="Q39">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R39">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S39">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z39">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB39">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4154,7 +4154,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6584080</v>
+        <v>6584081</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4166,76 +4166,76 @@
         <v>45045.5</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40" t="s">
+        <v>99</v>
+      </c>
+      <c r="K40">
+        <v>2.375</v>
+      </c>
+      <c r="L40">
+        <v>3.4</v>
+      </c>
+      <c r="M40">
+        <v>2.5</v>
+      </c>
+      <c r="N40">
+        <v>2.375</v>
+      </c>
+      <c r="O40">
+        <v>3.4</v>
+      </c>
+      <c r="P40">
+        <v>2.5</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>1.85</v>
+      </c>
+      <c r="S40">
+        <v>1.95</v>
+      </c>
+      <c r="T40">
+        <v>3</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <v>1.8</v>
+      </c>
+      <c r="W40">
+        <v>-1</v>
+      </c>
+      <c r="X40">
+        <v>2.4</v>
+      </c>
+      <c r="Y40">
+        <v>-1</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>-0</v>
+      </c>
+      <c r="AB40">
         <v>1</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40" t="s">
-        <v>98</v>
-      </c>
-      <c r="K40">
-        <v>3.6</v>
-      </c>
-      <c r="L40">
-        <v>3.5</v>
-      </c>
-      <c r="M40">
-        <v>1.8</v>
-      </c>
-      <c r="N40">
-        <v>3.6</v>
-      </c>
-      <c r="O40">
-        <v>3.5</v>
-      </c>
-      <c r="P40">
-        <v>1.8</v>
-      </c>
-      <c r="Q40">
-        <v>0.5</v>
-      </c>
-      <c r="R40">
-        <v>1.95</v>
-      </c>
-      <c r="S40">
-        <v>1.85</v>
-      </c>
-      <c r="T40">
-        <v>2.75</v>
-      </c>
-      <c r="U40">
-        <v>1.8</v>
-      </c>
-      <c r="V40">
-        <v>2</v>
-      </c>
-      <c r="W40">
-        <v>2.6</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
-      <c r="Y40">
-        <v>-1</v>
-      </c>
-      <c r="Z40">
-        <v>0.95</v>
-      </c>
-      <c r="AA40">
-        <v>-1</v>
-      </c>
-      <c r="AB40">
-        <v>-1</v>
-      </c>
       <c r="AC40">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4243,7 +4243,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6587217</v>
+        <v>6584080</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4255,76 +4255,76 @@
         <v>45045.5</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K41">
-        <v>1.444</v>
+        <v>3.6</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M41">
-        <v>5.75</v>
+        <v>1.8</v>
       </c>
       <c r="N41">
-        <v>1.444</v>
+        <v>3.6</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P41">
-        <v>5.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q41">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R41">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA41">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4332,7 +4332,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6584081</v>
+        <v>6584079</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4347,73 +4347,73 @@
         <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K42">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="L42">
         <v>3.4</v>
       </c>
       <c r="M42">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="N42">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O42">
         <v>3.4</v>
       </c>
       <c r="P42">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
+        <v>1.825</v>
+      </c>
+      <c r="S42">
+        <v>1.975</v>
+      </c>
+      <c r="T42">
+        <v>2.75</v>
+      </c>
+      <c r="U42">
+        <v>1.95</v>
+      </c>
+      <c r="V42">
         <v>1.85</v>
       </c>
-      <c r="S42">
-        <v>1.95</v>
-      </c>
-      <c r="T42">
-        <v>3</v>
-      </c>
-      <c r="U42">
-        <v>2</v>
-      </c>
-      <c r="V42">
-        <v>1.8</v>
-      </c>
       <c r="W42">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X42">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA42">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4599,7 +4599,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6615716</v>
+        <v>6612703</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4611,58 +4611,58 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H45">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>98</v>
       </c>
       <c r="K45">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L45">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N45">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O45">
         <v>4</v>
       </c>
       <c r="P45">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q45">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4671,16 +4671,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4688,7 +4688,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6612703</v>
+        <v>6615716</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4700,58 +4700,58 @@
         <v>45052.52083333334</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
         <v>98</v>
       </c>
       <c r="K46">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N46">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O46">
         <v>4</v>
       </c>
       <c r="P46">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q46">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4760,16 +4760,16 @@
         <v>-1</v>
       </c>
       <c r="Z46">
+        <v>0.825</v>
+      </c>
+      <c r="AA46">
+        <v>-1</v>
+      </c>
+      <c r="AB46">
         <v>0.8</v>
       </c>
-      <c r="AA46">
-        <v>-1</v>
-      </c>
-      <c r="AB46">
-        <v>-1</v>
-      </c>
       <c r="AC46">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4789,7 +4789,7 @@
         <v>45053.52083333334</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
         <v>80</v>
@@ -4881,7 +4881,7 @@
         <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4955,7 +4955,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6642562</v>
+        <v>6642564</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4967,76 +4967,76 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K49">
-        <v>1.6</v>
+        <v>1.222</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M49">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="N49">
-        <v>1.6</v>
+        <v>1.222</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P49">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q49">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R49">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V49">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X49">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5056,10 +5056,10 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -5133,7 +5133,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6642564</v>
+        <v>6642561</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5145,58 +5145,58 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G51" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>98</v>
       </c>
       <c r="K51">
-        <v>1.222</v>
+        <v>1.909</v>
       </c>
       <c r="L51">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="N51">
-        <v>1.222</v>
+        <v>2.2</v>
       </c>
       <c r="O51">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W51">
-        <v>0.222</v>
+        <v>1.2</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5205,16 +5205,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5222,7 +5222,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6642561</v>
+        <v>6642562</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5237,73 +5237,73 @@
         <v>54</v>
       </c>
       <c r="G52" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K52">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M52">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N52">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O52">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P52">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
         <v>3</v>
       </c>
       <c r="U52">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5679,7 +5679,7 @@
         <v>45079.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
         <v>81</v>
@@ -5768,7 +5768,7 @@
         <v>45080.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
         <v>82</v>
@@ -6035,7 +6035,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s">
         <v>85</v>
@@ -6124,10 +6124,10 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6213,7 +6213,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
         <v>66</v>
@@ -6391,10 +6391,10 @@
         <v>45171.51041666666</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6483,7 +6483,7 @@
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6569,7 +6569,7 @@
         <v>45172.5</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
         <v>57</v>
@@ -6646,7 +6646,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7183191</v>
+        <v>7183190</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6658,76 +6658,76 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K68">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="N68">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P68">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q68">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
+        <v>1.975</v>
+      </c>
+      <c r="S68">
+        <v>1.825</v>
+      </c>
+      <c r="T68">
+        <v>3</v>
+      </c>
+      <c r="U68">
         <v>1.95</v>
       </c>
-      <c r="S68">
+      <c r="V68">
         <v>1.85</v>
       </c>
-      <c r="T68">
+      <c r="W68">
+        <v>-1</v>
+      </c>
+      <c r="X68">
         <v>2.75</v>
       </c>
-      <c r="U68">
-        <v>1.9</v>
-      </c>
-      <c r="V68">
-        <v>1.9</v>
-      </c>
-      <c r="W68">
-        <v>-1</v>
-      </c>
-      <c r="X68">
-        <v>-1</v>
-      </c>
       <c r="Y68">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB68">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6735,7 +6735,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7183190</v>
+        <v>7183189</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6747,76 +6747,76 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K69">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L69">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M69">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O69">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P69">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB69">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6824,7 +6824,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7183189</v>
+        <v>7183191</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6836,55 +6836,55 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>97</v>
       </c>
       <c r="K70">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L70">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N70">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O70">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T70">
         <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6893,19 +6893,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC70">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7002,7 +7002,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7188989</v>
+        <v>7188990</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7017,10 +7017,10 @@
         <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -7029,41 +7029,41 @@
         <v>97</v>
       </c>
       <c r="K72">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L72">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M72">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P72">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S72">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
+        <v>1.825</v>
+      </c>
+      <c r="V72">
         <v>1.975</v>
       </c>
-      <c r="V72">
-        <v>1.825</v>
-      </c>
       <c r="W72">
         <v>-1</v>
       </c>
@@ -7071,19 +7071,19 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7091,7 +7091,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7188988</v>
+        <v>7188989</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7103,56 +7103,56 @@
         <v>45179.5</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>97</v>
       </c>
       <c r="K73">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L73">
         <v>3.4</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N73">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O73">
         <v>3.4</v>
       </c>
       <c r="P73">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R73">
+        <v>1.95</v>
+      </c>
+      <c r="S73">
+        <v>1.85</v>
+      </c>
+      <c r="T73">
+        <v>3</v>
+      </c>
+      <c r="U73">
         <v>1.975</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>1.825</v>
       </c>
-      <c r="T73">
-        <v>2.75</v>
-      </c>
-      <c r="U73">
-        <v>1.825</v>
-      </c>
-      <c r="V73">
-        <v>1.975</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
@@ -7160,19 +7160,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7180,7 +7180,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7188987</v>
+        <v>7188988</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7192,49 +7192,49 @@
         <v>45179.5</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J74" t="s">
         <v>97</v>
       </c>
       <c r="K74">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="L74">
         <v>3.4</v>
       </c>
       <c r="M74">
+        <v>3.4</v>
+      </c>
+      <c r="N74">
         <v>1.909</v>
-      </c>
-      <c r="N74">
-        <v>3.5</v>
       </c>
       <c r="O74">
         <v>3.4</v>
       </c>
       <c r="P74">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="Q74">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S74">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
         <v>1.825</v>
@@ -7249,19 +7249,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.909</v>
+        <v>2.4</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7269,7 +7269,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7188990</v>
+        <v>7188987</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7281,49 +7281,49 @@
         <v>45179.5</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
         <v>97</v>
       </c>
       <c r="K75">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L75">
+        <v>3.4</v>
+      </c>
+      <c r="M75">
+        <v>1.909</v>
+      </c>
+      <c r="N75">
         <v>3.5</v>
       </c>
-      <c r="M75">
+      <c r="O75">
+        <v>3.4</v>
+      </c>
+      <c r="P75">
+        <v>1.909</v>
+      </c>
+      <c r="Q75">
+        <v>0.5</v>
+      </c>
+      <c r="R75">
+        <v>1.85</v>
+      </c>
+      <c r="S75">
+        <v>1.95</v>
+      </c>
+      <c r="T75">
         <v>3</v>
-      </c>
-      <c r="N75">
-        <v>2.1</v>
-      </c>
-      <c r="O75">
-        <v>3.5</v>
-      </c>
-      <c r="P75">
-        <v>3</v>
-      </c>
-      <c r="Q75">
-        <v>-0.25</v>
-      </c>
-      <c r="R75">
-        <v>1.875</v>
-      </c>
-      <c r="S75">
-        <v>1.925</v>
-      </c>
-      <c r="T75">
-        <v>2.75</v>
       </c>
       <c r="U75">
         <v>1.825</v>
@@ -7338,13 +7338,13 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
         <v>-1</v>
@@ -7358,7 +7358,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7202437</v>
+        <v>7202435</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7370,10 +7370,10 @@
         <v>45182.5</v>
       </c>
       <c r="F76" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="H76">
         <v>6</v>
@@ -7385,43 +7385,43 @@
         <v>98</v>
       </c>
       <c r="K76">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M76">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N76">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O76">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P76">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q76">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>0.3999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7430,13 +7430,13 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7447,7 +7447,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7202435</v>
+        <v>7202436</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7459,46 +7459,46 @@
         <v>45182.5</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H77">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
         <v>98</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M77">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N77">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O77">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P77">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T77">
         <v>2.75</v>
@@ -7510,7 +7510,7 @@
         <v>1.975</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7519,16 +7519,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.8</v>
+        <v>0.35</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB77">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7536,7 +7536,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7202436</v>
+        <v>7202437</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7548,58 +7548,58 @@
         <v>45182.5</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G78" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>98</v>
       </c>
       <c r="K78">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L78">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M78">
+        <v>6</v>
+      </c>
+      <c r="N78">
+        <v>1.4</v>
+      </c>
+      <c r="O78">
         <v>4.333</v>
       </c>
-      <c r="N78">
-        <v>1.533</v>
-      </c>
-      <c r="O78">
-        <v>4</v>
-      </c>
       <c r="P78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R78">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W78">
-        <v>0.5329999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7608,16 +7608,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.35</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7726,10 +7726,10 @@
         <v>45188.48958333334</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7907,7 +7907,7 @@
         <v>59</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7981,7 +7981,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7250138</v>
+        <v>7250137</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7993,76 +7993,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F83" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K83">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L83">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M83">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N83">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O83">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P83">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8070,7 +8070,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7250137</v>
+        <v>7250138</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8082,76 +8082,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G84" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K84">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M84">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N84">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O84">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P84">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y84">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC84">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8260,7 +8260,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>85</v>
@@ -8337,7 +8337,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7291472</v>
+        <v>7291473</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8349,13 +8349,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F87" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -8364,43 +8364,43 @@
         <v>98</v>
       </c>
       <c r="K87">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L87">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M87">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N87">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P87">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U87">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8409,13 +8409,13 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8426,7 +8426,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7291473</v>
+        <v>7291472</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8438,13 +8438,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G88" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -8453,43 +8453,43 @@
         <v>98</v>
       </c>
       <c r="K88">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L88">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M88">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N88">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="O88">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q88">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S88">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T88">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W88">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8498,13 +8498,13 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8619,7 +8619,7 @@
         <v>60</v>
       </c>
       <c r="G90" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H90">
         <v>4</v>
@@ -8794,10 +8794,10 @@
         <v>45207.46875</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8975,7 +8975,7 @@
         <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -9049,7 +9049,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7337008</v>
+        <v>7337010</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -9061,76 +9061,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H95">
+        <v>5</v>
+      </c>
+      <c r="I95">
         <v>0</v>
       </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
       <c r="J95" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K95">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M95">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N95">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P95">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q95">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R95">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S95">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
+        <v>1.75</v>
+      </c>
+      <c r="V95">
         <v>1.95</v>
       </c>
-      <c r="V95">
-        <v>1.85</v>
-      </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9138,7 +9138,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7337010</v>
+        <v>7337008</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9150,76 +9150,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H96">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K96">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N96">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O96">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P96">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q96">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R96">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S96">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T96">
         <v>3</v>
       </c>
       <c r="U96">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W96">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z96">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB96">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9328,7 +9328,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
         <v>84</v>
@@ -9420,7 +9420,7 @@
         <v>44</v>
       </c>
       <c r="G99" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -9595,7 +9595,7 @@
         <v>45220.4375</v>
       </c>
       <c r="F101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G101" t="s">
         <v>89</v>
@@ -9850,7 +9850,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7382547</v>
+        <v>7382546</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9862,76 +9862,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>99</v>
+      </c>
+      <c r="K104">
+        <v>1.363</v>
+      </c>
+      <c r="L104">
+        <v>4.333</v>
+      </c>
+      <c r="M104">
+        <v>6.5</v>
+      </c>
+      <c r="N104">
+        <v>1.25</v>
+      </c>
+      <c r="O104">
         <v>5</v>
       </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104" t="s">
-        <v>98</v>
-      </c>
-      <c r="K104">
-        <v>2.3</v>
-      </c>
-      <c r="L104">
-        <v>3.4</v>
-      </c>
-      <c r="M104">
-        <v>2.625</v>
-      </c>
-      <c r="N104">
-        <v>2.3</v>
-      </c>
-      <c r="O104">
-        <v>3.4</v>
-      </c>
       <c r="P104">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R104">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S104">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB104">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9939,7 +9939,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7382546</v>
+        <v>7382547</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9951,76 +9951,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K105">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L105">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N105">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O105">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P105">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="Q105">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S105">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X105">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC105">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10132,7 +10132,7 @@
         <v>57</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H107">
         <v>3</v>
@@ -10218,7 +10218,7 @@
         <v>45228.4375</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>87</v>
@@ -10399,7 +10399,7 @@
         <v>60</v>
       </c>
       <c r="G110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
         <v>81</v>
@@ -10562,7 +10562,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7460852</v>
+        <v>7460854</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10574,76 +10574,76 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K112">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="L112">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M112">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="N112">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O112">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P112">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="Q112">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R112">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T112">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V112">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z112">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10651,7 +10651,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7460854</v>
+        <v>7460852</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10663,76 +10663,76 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K113">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="L113">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M113">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="N113">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O113">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P113">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="Q113">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R113">
+        <v>1.8</v>
+      </c>
+      <c r="S113">
+        <v>2</v>
+      </c>
+      <c r="T113">
+        <v>2.75</v>
+      </c>
+      <c r="U113">
         <v>1.95</v>
       </c>
-      <c r="S113">
+      <c r="V113">
         <v>1.85</v>
       </c>
-      <c r="T113">
-        <v>3</v>
-      </c>
-      <c r="U113">
-        <v>1.775</v>
-      </c>
-      <c r="V113">
-        <v>2.025</v>
-      </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y113">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AA113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10930,7 +10930,7 @@
         <v>45248.375</v>
       </c>
       <c r="F116" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G116" t="s">
         <v>88</v>
@@ -11108,7 +11108,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G118" t="s">
         <v>94</v>
@@ -11185,7 +11185,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7493772</v>
+        <v>7493775</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11197,13 +11197,13 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="G119" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -11212,43 +11212,43 @@
         <v>98</v>
       </c>
       <c r="K119">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L119">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M119">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N119">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O119">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P119">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q119">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11257,16 +11257,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA119">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11274,7 +11274,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7493773</v>
+        <v>7493774</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11286,61 +11286,61 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
         <v>99</v>
       </c>
       <c r="K120">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L120">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M120">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N120">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="O120">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>9</v>
+        <v>5.75</v>
       </c>
       <c r="Q120">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R120">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S120">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T120">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Y120">
         <v>-1</v>
@@ -11349,13 +11349,13 @@
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB120">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11363,7 +11363,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7493774</v>
+        <v>7493773</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11375,61 +11375,61 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G121" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
         <v>99</v>
       </c>
       <c r="K121">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L121">
+        <v>6</v>
+      </c>
+      <c r="M121">
+        <v>9</v>
+      </c>
+      <c r="N121">
+        <v>1.2</v>
+      </c>
+      <c r="O121">
+        <v>6</v>
+      </c>
+      <c r="P121">
+        <v>9</v>
+      </c>
+      <c r="Q121">
+        <v>-2</v>
+      </c>
+      <c r="R121">
+        <v>1.85</v>
+      </c>
+      <c r="S121">
+        <v>1.95</v>
+      </c>
+      <c r="T121">
         <v>3.75</v>
       </c>
-      <c r="M121">
-        <v>4</v>
-      </c>
-      <c r="N121">
-        <v>1.45</v>
-      </c>
-      <c r="O121">
-        <v>3.8</v>
-      </c>
-      <c r="P121">
-        <v>5.75</v>
-      </c>
-      <c r="Q121">
-        <v>-1</v>
-      </c>
-      <c r="R121">
-        <v>1.825</v>
-      </c>
-      <c r="S121">
-        <v>1.975</v>
-      </c>
-      <c r="T121">
-        <v>2.75</v>
-      </c>
       <c r="U121">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Y121">
         <v>-1</v>
@@ -11438,13 +11438,13 @@
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC121">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11452,7 +11452,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7493775</v>
+        <v>7493772</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11464,13 +11464,13 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F122" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -11479,43 +11479,43 @@
         <v>98</v>
       </c>
       <c r="K122">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L122">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M122">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N122">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O122">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P122">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q122">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R122">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U122">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V122">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W122">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11524,16 +11524,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB122">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11541,7 +11541,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7493776</v>
+        <v>7493771</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11553,13 +11553,13 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -11568,43 +11568,43 @@
         <v>98</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L123">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N123">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O123">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P123">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S123">
         <v>1.975</v>
       </c>
       <c r="T123">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W123">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11613,16 +11613,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11630,7 +11630,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7493771</v>
+        <v>7493776</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11642,13 +11642,13 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -11657,43 +11657,43 @@
         <v>98</v>
       </c>
       <c r="K124">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L124">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M124">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N124">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O124">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P124">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S124">
         <v>1.975</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11702,16 +11702,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11808,7 +11808,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7517624</v>
+        <v>7520493</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11820,55 +11820,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F126" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G126" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J126" t="s">
         <v>97</v>
       </c>
       <c r="K126">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="L126">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="M126">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N126">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O126">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="P126">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q126">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R126">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S126">
         <v>1.95</v>
       </c>
       <c r="T126">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U126">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V126">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11877,7 +11877,7 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>4.25</v>
+        <v>0.95</v>
       </c>
       <c r="Z126">
         <v>-1</v>
@@ -11886,7 +11886,7 @@
         <v>0.95</v>
       </c>
       <c r="AB126">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11909,10 +11909,10 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G127" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11986,7 +11986,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7520493</v>
+        <v>7517624</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11998,55 +11998,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F128" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G128" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J128" t="s">
         <v>97</v>
       </c>
       <c r="K128">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="L128">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="M128">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N128">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O128">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="P128">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="Q128">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R128">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S128">
         <v>1.95</v>
       </c>
       <c r="T128">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U128">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -12055,7 +12055,7 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.95</v>
+        <v>4.25</v>
       </c>
       <c r="Z128">
         <v>-1</v>
@@ -12064,7 +12064,7 @@
         <v>0.95</v>
       </c>
       <c r="AB128">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -12164,7 +12164,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7519480</v>
+        <v>7519482</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12176,76 +12176,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G130" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K130">
+        <v>1.909</v>
+      </c>
+      <c r="L130">
+        <v>3.4</v>
+      </c>
+      <c r="M130">
+        <v>3.4</v>
+      </c>
+      <c r="N130">
+        <v>1.727</v>
+      </c>
+      <c r="O130">
+        <v>3.6</v>
+      </c>
+      <c r="P130">
+        <v>4.333</v>
+      </c>
+      <c r="Q130">
+        <v>-0.75</v>
+      </c>
+      <c r="R130">
+        <v>1.95</v>
+      </c>
+      <c r="S130">
+        <v>1.85</v>
+      </c>
+      <c r="T130">
         <v>2.5</v>
       </c>
-      <c r="L130">
-        <v>3.5</v>
-      </c>
-      <c r="M130">
-        <v>2.375</v>
-      </c>
-      <c r="N130">
-        <v>2.5</v>
-      </c>
-      <c r="O130">
-        <v>3.5</v>
-      </c>
-      <c r="P130">
-        <v>2.375</v>
-      </c>
-      <c r="Q130">
-        <v>0</v>
-      </c>
-      <c r="R130">
-        <v>1.975</v>
-      </c>
-      <c r="S130">
-        <v>1.825</v>
-      </c>
-      <c r="T130">
-        <v>3</v>
-      </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X130">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA130">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12253,7 +12253,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7519482</v>
+        <v>7519480</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12265,76 +12265,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H131">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K131">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L131">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N131">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O131">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
+        <v>3</v>
+      </c>
+      <c r="U131">
+        <v>1.9</v>
+      </c>
+      <c r="V131">
+        <v>1.9</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
         <v>2.5</v>
       </c>
-      <c r="U131">
-        <v>1.85</v>
-      </c>
-      <c r="V131">
-        <v>1.95</v>
-      </c>
-      <c r="W131">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12354,10 +12354,10 @@
         <v>45256.40625</v>
       </c>
       <c r="F132" t="s">
+        <v>31</v>
+      </c>
+      <c r="G132" t="s">
         <v>32</v>
-      </c>
-      <c r="G132" t="s">
-        <v>31</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12443,10 +12443,10 @@
         <v>45256.40625</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12532,7 +12532,7 @@
         <v>45262.39583333334</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
         <v>96</v>

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="100">
   <si>
     <t>id</t>
   </si>
@@ -675,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC134"/>
+  <dimension ref="A1:AC135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12604,6 +12604,80 @@
         <v>1</v>
       </c>
     </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>7879705</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45347.29166666666</v>
+      </c>
+      <c r="F135" t="s">
+        <v>29</v>
+      </c>
+      <c r="G135" t="s">
+        <v>88</v>
+      </c>
+      <c r="K135">
+        <v>1.571</v>
+      </c>
+      <c r="L135">
+        <v>4</v>
+      </c>
+      <c r="M135">
+        <v>4.333</v>
+      </c>
+      <c r="N135">
+        <v>1.4</v>
+      </c>
+      <c r="O135">
+        <v>4.5</v>
+      </c>
+      <c r="P135">
+        <v>6</v>
+      </c>
+      <c r="Q135">
+        <v>-1.25</v>
+      </c>
+      <c r="R135">
+        <v>1.85</v>
+      </c>
+      <c r="S135">
+        <v>1.95</v>
+      </c>
+      <c r="T135">
+        <v>2.75</v>
+      </c>
+      <c r="U135">
+        <v>1.85</v>
+      </c>
+      <c r="V135">
+        <v>1.95</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -118,12 +118,12 @@
     <t>NK Vuteks Sloga</t>
   </si>
   <si>
+    <t>NK Tomislav</t>
+  </si>
+  <si>
     <t>Sava Strmec</t>
   </si>
   <si>
-    <t>NK Tomislav</t>
-  </si>
-  <si>
     <t>NK Bistra</t>
   </si>
   <si>
@@ -136,12 +136,12 @@
     <t>Zmaj Makarska</t>
   </si>
   <si>
+    <t>NK Vodice</t>
+  </si>
+  <si>
     <t>RNK Split</t>
   </si>
   <si>
-    <t>NK Vodice</t>
-  </si>
-  <si>
     <t>NK Udarnik Kurilovec</t>
   </si>
   <si>
@@ -187,12 +187,12 @@
     <t>NK Tresnjevka</t>
   </si>
   <si>
+    <t>NK Gosk Kastel Gomilica</t>
+  </si>
+  <si>
     <t>NK Croatia Dakovo</t>
   </si>
   <si>
-    <t>NK Gosk Kastel Gomilica</t>
-  </si>
-  <si>
     <t>NK Tekstilac Ravnice</t>
   </si>
   <si>
@@ -217,12 +217,12 @@
     <t>NK Vrapce</t>
   </si>
   <si>
+    <t>NK Uskok</t>
+  </si>
+  <si>
     <t>NK Kamen Ivanbegovina</t>
   </si>
   <si>
-    <t>NK Uskok</t>
-  </si>
-  <si>
     <t>NK Nask Nasice</t>
   </si>
   <si>
@@ -235,10 +235,10 @@
     <t>NK Mladost Petrinja</t>
   </si>
   <si>
+    <t>Sloga Nova Gradiska</t>
+  </si>
+  <si>
     <t>NK Svacic</t>
-  </si>
-  <si>
-    <t>Sloga Nova Gradiska</t>
   </si>
   <si>
     <t>NK Neretva</t>
@@ -1181,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7126858</v>
+        <v>7126859</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1193,76 +1193,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K7">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>-1</v>
+      </c>
+      <c r="R7">
         <v>1.8</v>
       </c>
-      <c r="Q7">
-        <v>0.5</v>
-      </c>
-      <c r="R7">
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>1.85</v>
+      </c>
+      <c r="V7">
         <v>1.95</v>
       </c>
-      <c r="S7">
-        <v>1.85</v>
-      </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
-      <c r="U7">
-        <v>1.9</v>
-      </c>
-      <c r="V7">
-        <v>1.9</v>
-      </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1270,7 +1270,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7126859</v>
+        <v>7126860</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1282,10 +1282,10 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1297,61 +1297,61 @@
         <v>87</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N8">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T8">
         <v>3</v>
       </c>
       <c r="U8">
+        <v>1.95</v>
+      </c>
+      <c r="V8">
         <v>1.85</v>
       </c>
-      <c r="V8">
-        <v>1.95</v>
-      </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1359,7 +1359,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7126860</v>
+        <v>7126858</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1374,73 +1374,73 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K9">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L9">
         <v>3.4</v>
       </c>
       <c r="M9">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N9">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1641,7 +1641,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1730,7 +1730,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1893,7 +1893,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7183190</v>
+        <v>7183189</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1911,70 +1911,70 @@
         <v>67</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K15">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O15">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P15">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1982,7 +1982,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7183189</v>
+        <v>7183190</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2000,70 +2000,70 @@
         <v>68</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K16">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M16">
+        <v>3.75</v>
+      </c>
+      <c r="N16">
+        <v>1.727</v>
+      </c>
+      <c r="O16">
+        <v>3.75</v>
+      </c>
+      <c r="P16">
+        <v>3.75</v>
+      </c>
+      <c r="Q16">
+        <v>-0.75</v>
+      </c>
+      <c r="R16">
+        <v>1.975</v>
+      </c>
+      <c r="S16">
+        <v>1.825</v>
+      </c>
+      <c r="T16">
         <v>3</v>
       </c>
-      <c r="N16">
-        <v>2.1</v>
-      </c>
-      <c r="O16">
-        <v>3.3</v>
-      </c>
-      <c r="P16">
-        <v>3</v>
-      </c>
-      <c r="Q16">
-        <v>-0.25</v>
-      </c>
-      <c r="R16">
-        <v>1.9</v>
-      </c>
-      <c r="S16">
-        <v>1.9</v>
-      </c>
-      <c r="T16">
+      <c r="U16">
+        <v>1.95</v>
+      </c>
+      <c r="V16">
+        <v>1.85</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
         <v>2.75</v>
       </c>
-      <c r="U16">
-        <v>1.925</v>
-      </c>
-      <c r="V16">
-        <v>1.775</v>
-      </c>
-      <c r="W16">
-        <v>-1</v>
-      </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
       <c r="Y16">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC16">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2160,7 +2160,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7188990</v>
+        <v>7188989</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2172,13 +2172,13 @@
         <v>45179.5</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -2187,41 +2187,41 @@
         <v>86</v>
       </c>
       <c r="K18">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L18">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
+        <v>2.4</v>
+      </c>
+      <c r="N18">
+        <v>2.5</v>
+      </c>
+      <c r="O18">
+        <v>3.4</v>
+      </c>
+      <c r="P18">
+        <v>2.4</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.95</v>
+      </c>
+      <c r="S18">
+        <v>1.85</v>
+      </c>
+      <c r="T18">
         <v>3</v>
       </c>
-      <c r="N18">
-        <v>2.1</v>
-      </c>
-      <c r="O18">
-        <v>3.5</v>
-      </c>
-      <c r="P18">
-        <v>3</v>
-      </c>
-      <c r="Q18">
-        <v>-0.25</v>
-      </c>
-      <c r="R18">
-        <v>1.875</v>
-      </c>
-      <c r="S18">
-        <v>1.925</v>
-      </c>
-      <c r="T18">
-        <v>2.75</v>
-      </c>
       <c r="U18">
+        <v>1.975</v>
+      </c>
+      <c r="V18">
         <v>1.825</v>
       </c>
-      <c r="V18">
-        <v>1.975</v>
-      </c>
       <c r="W18">
         <v>-1</v>
       </c>
@@ -2229,19 +2229,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2249,7 +2249,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7188988</v>
+        <v>7188990</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2261,46 +2261,46 @@
         <v>45179.5</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>86</v>
       </c>
       <c r="K19">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L19">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M19">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N19">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O19">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P19">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
         <v>2.75</v>
@@ -2318,19 +2318,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2338,7 +2338,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7188987</v>
+        <v>7188988</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2350,49 +2350,49 @@
         <v>45179.5</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
         <v>86</v>
       </c>
       <c r="K20">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="L20">
         <v>3.4</v>
       </c>
       <c r="M20">
+        <v>3.4</v>
+      </c>
+      <c r="N20">
         <v>1.909</v>
-      </c>
-      <c r="N20">
-        <v>3.5</v>
       </c>
       <c r="O20">
         <v>3.4</v>
       </c>
       <c r="P20">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
         <v>1.825</v>
@@ -2407,19 +2407,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.909</v>
+        <v>2.4</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2427,7 +2427,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7188989</v>
+        <v>7188987</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2439,56 +2439,56 @@
         <v>45179.5</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>1</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
       </c>
       <c r="J21" t="s">
         <v>86</v>
       </c>
       <c r="K21">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L21">
         <v>3.4</v>
       </c>
       <c r="M21">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="N21">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O21">
         <v>3.4</v>
       </c>
       <c r="P21">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
+        <v>1.85</v>
+      </c>
+      <c r="S21">
         <v>1.95</v>
-      </c>
-      <c r="S21">
-        <v>1.85</v>
       </c>
       <c r="T21">
         <v>3</v>
       </c>
       <c r="U21">
+        <v>1.825</v>
+      </c>
+      <c r="V21">
         <v>1.975</v>
       </c>
-      <c r="V21">
-        <v>1.825</v>
-      </c>
       <c r="W21">
         <v>-1</v>
       </c>
@@ -2496,19 +2496,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.4</v>
+        <v>0.909</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2516,7 +2516,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7202435</v>
+        <v>7202437</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2528,10 +2528,10 @@
         <v>45182.5</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>6</v>
@@ -2543,43 +2543,43 @@
         <v>85</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M22">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O22">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P22">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R22">
+        <v>1.85</v>
+      </c>
+      <c r="S22">
+        <v>1.95</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+      <c r="U22">
         <v>1.8</v>
       </c>
-      <c r="S22">
-        <v>2</v>
-      </c>
-      <c r="T22">
-        <v>2.75</v>
-      </c>
-      <c r="U22">
-        <v>1.825</v>
-      </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2588,13 +2588,13 @@
         <v>-1</v>
       </c>
       <c r="Z22">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
         <v>0.8</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>0.825</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2605,7 +2605,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7202437</v>
+        <v>7202435</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2617,10 +2617,10 @@
         <v>45182.5</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="H23">
         <v>6</v>
@@ -2632,43 +2632,43 @@
         <v>85</v>
       </c>
       <c r="K23">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N23">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O23">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P23">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
-        <v>0.3999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2677,13 +2677,13 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2795,7 +2795,7 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
         <v>47</v>
@@ -3139,7 +3139,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7250137</v>
+        <v>7250138</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3151,76 +3151,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
         <v>73</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K29">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N29">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O29">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S29">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y29">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA29">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3228,7 +3228,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7250138</v>
+        <v>7250137</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3240,76 +3240,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
         <v>74</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K30">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M30">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N30">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P30">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3495,7 +3495,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7291472</v>
+        <v>7291473</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3507,13 +3507,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3522,43 +3522,43 @@
         <v>85</v>
       </c>
       <c r="K33">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M33">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N33">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P33">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3567,13 +3567,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3584,7 +3584,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7291473</v>
+        <v>7291472</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3596,13 +3596,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3611,43 +3611,43 @@
         <v>85</v>
       </c>
       <c r="K34">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L34">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N34">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="O34">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P34">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q34">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W34">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3656,13 +3656,13 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3866,7 +3866,7 @@
         <v>47</v>
       </c>
       <c r="G37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>45207.46875</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
         <v>36</v>
@@ -4130,7 +4130,7 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
         <v>52</v>
@@ -4207,7 +4207,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7337008</v>
+        <v>7337010</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4219,76 +4219,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
         <v>0</v>
       </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
       <c r="J41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K41">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L41">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N41">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O41">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P41">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q41">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
+        <v>1.75</v>
+      </c>
+      <c r="V41">
         <v>1.95</v>
       </c>
-      <c r="V41">
-        <v>1.85</v>
-      </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4296,7 +4296,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7337010</v>
+        <v>7337008</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4308,76 +4308,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K42">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N42">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O42">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P42">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
         <v>3</v>
       </c>
       <c r="U42">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB42">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4486,7 +4486,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
         <v>60</v>
@@ -4578,7 +4578,7 @@
         <v>50</v>
       </c>
       <c r="G45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4667,7 +4667,7 @@
         <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -5008,7 +5008,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7382547</v>
+        <v>7382546</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5020,76 +5020,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G50" t="s">
         <v>40</v>
       </c>
       <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>87</v>
+      </c>
+      <c r="K50">
+        <v>1.363</v>
+      </c>
+      <c r="L50">
+        <v>4.333</v>
+      </c>
+      <c r="M50">
+        <v>6.5</v>
+      </c>
+      <c r="N50">
+        <v>1.25</v>
+      </c>
+      <c r="O50">
         <v>5</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50" t="s">
-        <v>85</v>
-      </c>
-      <c r="K50">
-        <v>2.3</v>
-      </c>
-      <c r="L50">
-        <v>3.4</v>
-      </c>
-      <c r="M50">
-        <v>2.625</v>
-      </c>
-      <c r="N50">
-        <v>2.3</v>
-      </c>
-      <c r="O50">
-        <v>3.4</v>
-      </c>
       <c r="P50">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R50">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB50">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5097,7 +5097,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7382546</v>
+        <v>7382547</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5109,76 +5109,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
         <v>41</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K51">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L51">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N51">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X51">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5198,7 +5198,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
         <v>77</v>
@@ -5287,7 +5287,7 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
@@ -5468,7 +5468,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5557,7 +5557,7 @@
         <v>46</v>
       </c>
       <c r="G56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5720,7 +5720,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7460854</v>
+        <v>7460852</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5735,73 +5735,73 @@
         <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K58">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="L58">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M58">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="N58">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O58">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P58">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="Q58">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R58">
+        <v>1.8</v>
+      </c>
+      <c r="S58">
+        <v>2</v>
+      </c>
+      <c r="T58">
+        <v>2.75</v>
+      </c>
+      <c r="U58">
         <v>1.95</v>
       </c>
-      <c r="S58">
+      <c r="V58">
         <v>1.85</v>
       </c>
-      <c r="T58">
-        <v>3</v>
-      </c>
-      <c r="U58">
-        <v>1.775</v>
-      </c>
-      <c r="V58">
-        <v>2.025</v>
-      </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y58">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AA58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC58">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5809,7 +5809,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7460852</v>
+        <v>7460854</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5824,73 +5824,73 @@
         <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K59">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="L59">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M59">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="N59">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O59">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P59">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="Q59">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T59">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V59">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z59">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB59">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6343,7 +6343,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7493775</v>
+        <v>7493773</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6355,76 +6355,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G65" t="s">
         <v>40</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K65">
-        <v>1.727</v>
+        <v>1.2</v>
       </c>
       <c r="L65">
+        <v>6</v>
+      </c>
+      <c r="M65">
+        <v>9</v>
+      </c>
+      <c r="N65">
+        <v>1.2</v>
+      </c>
+      <c r="O65">
+        <v>6</v>
+      </c>
+      <c r="P65">
+        <v>9</v>
+      </c>
+      <c r="Q65">
+        <v>-2</v>
+      </c>
+      <c r="R65">
+        <v>1.85</v>
+      </c>
+      <c r="S65">
+        <v>1.95</v>
+      </c>
+      <c r="T65">
         <v>3.75</v>
       </c>
-      <c r="M65">
-        <v>3.75</v>
-      </c>
-      <c r="N65">
-        <v>1.5</v>
-      </c>
-      <c r="O65">
-        <v>3.8</v>
-      </c>
-      <c r="P65">
-        <v>5.25</v>
-      </c>
-      <c r="Q65">
-        <v>-1</v>
-      </c>
-      <c r="R65">
-        <v>1.925</v>
-      </c>
-      <c r="S65">
-        <v>1.875</v>
-      </c>
-      <c r="T65">
-        <v>2.5</v>
-      </c>
       <c r="U65">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V65">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W65">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB65">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6447,7 +6447,7 @@
         <v>50</v>
       </c>
       <c r="G66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6521,7 +6521,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7493773</v>
+        <v>7493772</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6533,76 +6533,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F67" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K67">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="L67">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M67">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="N67">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O67">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P67">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Q67">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R67">
+        <v>1.9</v>
+      </c>
+      <c r="S67">
+        <v>1.9</v>
+      </c>
+      <c r="T67">
+        <v>3</v>
+      </c>
+      <c r="U67">
         <v>1.85</v>
       </c>
-      <c r="S67">
+      <c r="V67">
         <v>1.95</v>
       </c>
-      <c r="T67">
-        <v>3.75</v>
-      </c>
-      <c r="U67">
-        <v>1.95</v>
-      </c>
-      <c r="V67">
-        <v>1.85</v>
-      </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X67">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA67">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB67">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6610,7 +6610,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7493772</v>
+        <v>7493775</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6622,13 +6622,13 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G68" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -6637,43 +6637,43 @@
         <v>85</v>
       </c>
       <c r="K68">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N68">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O68">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P68">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q68">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W68">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6682,16 +6682,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA68">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6699,7 +6699,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7493771</v>
+        <v>7493776</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6711,13 +6711,13 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -6726,43 +6726,43 @@
         <v>85</v>
       </c>
       <c r="K69">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L69">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
         <v>1.975</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6771,16 +6771,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6788,7 +6788,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7493776</v>
+        <v>7493771</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6800,13 +6800,13 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6815,43 +6815,43 @@
         <v>85</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N70">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P70">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S70">
         <v>1.975</v>
       </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W70">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6860,16 +6860,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6892,7 +6892,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7517624</v>
+        <v>7517623</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7070,37 +7070,37 @@
         <v>57</v>
       </c>
       <c r="G73" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K73">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L73">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="M73">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O73">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q73">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
         <v>1.85</v>
@@ -7109,34 +7109,34 @@
         <v>1.95</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7144,7 +7144,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7517623</v>
+        <v>7517624</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7159,37 +7159,37 @@
         <v>58</v>
       </c>
       <c r="G74" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K74">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L74">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="M74">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N74">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R74">
         <v>1.85</v>
@@ -7198,34 +7198,34 @@
         <v>1.95</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z74">
+        <v>-1</v>
+      </c>
+      <c r="AA74">
+        <v>0.95</v>
+      </c>
+      <c r="AB74">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA74">
-        <v>-1</v>
-      </c>
-      <c r="AB74">
-        <v>-1</v>
-      </c>
       <c r="AC74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7245,7 +7245,7 @@
         <v>45255.40277777778</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
         <v>48</v>
@@ -7322,7 +7322,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7519480</v>
+        <v>7519482</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7334,76 +7334,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K76">
+        <v>1.909</v>
+      </c>
+      <c r="L76">
+        <v>3.4</v>
+      </c>
+      <c r="M76">
+        <v>3.4</v>
+      </c>
+      <c r="N76">
+        <v>1.727</v>
+      </c>
+      <c r="O76">
+        <v>3.6</v>
+      </c>
+      <c r="P76">
+        <v>4.333</v>
+      </c>
+      <c r="Q76">
+        <v>-0.75</v>
+      </c>
+      <c r="R76">
+        <v>1.95</v>
+      </c>
+      <c r="S76">
+        <v>1.85</v>
+      </c>
+      <c r="T76">
         <v>2.5</v>
       </c>
-      <c r="L76">
-        <v>3.5</v>
-      </c>
-      <c r="M76">
-        <v>2.375</v>
-      </c>
-      <c r="N76">
-        <v>2.5</v>
-      </c>
-      <c r="O76">
-        <v>3.5</v>
-      </c>
-      <c r="P76">
-        <v>2.375</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>1.975</v>
-      </c>
-      <c r="S76">
-        <v>1.825</v>
-      </c>
-      <c r="T76">
-        <v>3</v>
-      </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X76">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC76">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7411,7 +7411,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7519482</v>
+        <v>7519480</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7423,76 +7423,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F77" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K77">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N77">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P77">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T77">
+        <v>3</v>
+      </c>
+      <c r="U77">
+        <v>1.9</v>
+      </c>
+      <c r="V77">
+        <v>1.9</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
         <v>2.5</v>
       </c>
-      <c r="U77">
-        <v>1.85</v>
-      </c>
-      <c r="V77">
-        <v>1.95</v>
-      </c>
-      <c r="W77">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7500,7 +7500,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7519479</v>
+        <v>7519478</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7512,55 +7512,55 @@
         <v>45256.40625</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>86</v>
       </c>
       <c r="K78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q78">
         <v>0.25</v>
       </c>
       <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
         <v>1.8</v>
       </c>
-      <c r="S78">
-        <v>2</v>
-      </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7569,19 +7569,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7589,7 +7589,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7519478</v>
+        <v>7519479</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7601,55 +7601,55 @@
         <v>45256.40625</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
         <v>1</v>
-      </c>
-      <c r="I79">
-        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>86</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O79">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q79">
         <v>0.25</v>
       </c>
       <c r="R79">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S79">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7658,19 +7658,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
+        <v>1.2</v>
+      </c>
+      <c r="Z79">
+        <v>-1</v>
+      </c>
+      <c r="AA79">
         <v>1</v>
       </c>
-      <c r="Z79">
-        <v>-1</v>
-      </c>
-      <c r="AA79">
-        <v>0.8</v>
-      </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:29">

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -118,12 +118,12 @@
     <t>NK Vuteks Sloga</t>
   </si>
   <si>
+    <t>Sava Strmec</t>
+  </si>
+  <si>
     <t>NK Tomislav</t>
   </si>
   <si>
-    <t>Sava Strmec</t>
-  </si>
-  <si>
     <t>NK Bistra</t>
   </si>
   <si>
@@ -136,12 +136,12 @@
     <t>Zmaj Makarska</t>
   </si>
   <si>
+    <t>RNK Split</t>
+  </si>
+  <si>
     <t>NK Vodice</t>
   </si>
   <si>
-    <t>RNK Split</t>
-  </si>
-  <si>
     <t>NK Udarnik Kurilovec</t>
   </si>
   <si>
@@ -217,19 +217,19 @@
     <t>NK Vrapce</t>
   </si>
   <si>
+    <t>NK Kamen Ivanbegovina</t>
+  </si>
+  <si>
     <t>NK Uskok</t>
   </si>
   <si>
-    <t>NK Kamen Ivanbegovina</t>
-  </si>
-  <si>
     <t>NK Nask Nasice</t>
   </si>
   <si>
+    <t>NK Zagorec Krapina</t>
+  </si>
+  <si>
     <t>NK Tondach</t>
-  </si>
-  <si>
-    <t>NK Zagorec Krapina</t>
   </si>
   <si>
     <t>NK Mladost Petrinja</t>
@@ -1270,7 +1270,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7126860</v>
+        <v>7126858</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1285,73 +1285,73 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K8">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L8">
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N8">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1359,7 +1359,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7126858</v>
+        <v>7126860</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1374,73 +1374,73 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K9">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L9">
         <v>3.4</v>
       </c>
       <c r="M9">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N9">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R9">
+        <v>1.975</v>
+      </c>
+      <c r="S9">
+        <v>1.725</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
         <v>1.95</v>
       </c>
-      <c r="S9">
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
-      <c r="U9">
-        <v>1.9</v>
-      </c>
-      <c r="V9">
-        <v>1.9</v>
-      </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
+        <v>-0</v>
+      </c>
+      <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB9">
-        <v>-1</v>
-      </c>
-      <c r="AC9">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1641,7 +1641,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1730,7 +1730,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1893,7 +1893,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7183189</v>
+        <v>7183190</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1911,70 +1911,70 @@
         <v>67</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K15">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
+        <v>3.75</v>
+      </c>
+      <c r="N15">
+        <v>1.727</v>
+      </c>
+      <c r="O15">
+        <v>3.75</v>
+      </c>
+      <c r="P15">
+        <v>3.75</v>
+      </c>
+      <c r="Q15">
+        <v>-0.75</v>
+      </c>
+      <c r="R15">
+        <v>1.975</v>
+      </c>
+      <c r="S15">
+        <v>1.825</v>
+      </c>
+      <c r="T15">
         <v>3</v>
       </c>
-      <c r="N15">
-        <v>2.1</v>
-      </c>
-      <c r="O15">
-        <v>3.3</v>
-      </c>
-      <c r="P15">
-        <v>3</v>
-      </c>
-      <c r="Q15">
-        <v>-0.25</v>
-      </c>
-      <c r="R15">
-        <v>1.9</v>
-      </c>
-      <c r="S15">
-        <v>1.9</v>
-      </c>
-      <c r="T15">
+      <c r="U15">
+        <v>1.95</v>
+      </c>
+      <c r="V15">
+        <v>1.85</v>
+      </c>
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
         <v>2.75</v>
       </c>
-      <c r="U15">
-        <v>1.925</v>
-      </c>
-      <c r="V15">
-        <v>1.775</v>
-      </c>
-      <c r="W15">
-        <v>-1</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
       <c r="Y15">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC15">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1982,7 +1982,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7183190</v>
+        <v>7183189</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2000,70 +2000,70 @@
         <v>68</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K16">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L16">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2160,7 +2160,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7188989</v>
+        <v>7188987</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2172,56 +2172,56 @@
         <v>45179.5</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>1</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>86</v>
       </c>
       <c r="K18">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L18">
         <v>3.4</v>
       </c>
       <c r="M18">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="N18">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O18">
         <v>3.4</v>
       </c>
       <c r="P18">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
+        <v>1.85</v>
+      </c>
+      <c r="S18">
         <v>1.95</v>
-      </c>
-      <c r="S18">
-        <v>1.85</v>
       </c>
       <c r="T18">
         <v>3</v>
       </c>
       <c r="U18">
+        <v>1.825</v>
+      </c>
+      <c r="V18">
         <v>1.975</v>
       </c>
-      <c r="V18">
-        <v>1.825</v>
-      </c>
       <c r="W18">
         <v>-1</v>
       </c>
@@ -2229,19 +2229,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.4</v>
+        <v>0.909</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2249,7 +2249,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7188990</v>
+        <v>7188989</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2261,13 +2261,13 @@
         <v>45179.5</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -2276,41 +2276,41 @@
         <v>86</v>
       </c>
       <c r="K19">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L19">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
+        <v>2.4</v>
+      </c>
+      <c r="N19">
+        <v>2.5</v>
+      </c>
+      <c r="O19">
+        <v>3.4</v>
+      </c>
+      <c r="P19">
+        <v>2.4</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.95</v>
+      </c>
+      <c r="S19">
+        <v>1.85</v>
+      </c>
+      <c r="T19">
         <v>3</v>
       </c>
-      <c r="N19">
-        <v>2.1</v>
-      </c>
-      <c r="O19">
-        <v>3.5</v>
-      </c>
-      <c r="P19">
-        <v>3</v>
-      </c>
-      <c r="Q19">
-        <v>-0.25</v>
-      </c>
-      <c r="R19">
-        <v>1.875</v>
-      </c>
-      <c r="S19">
-        <v>1.925</v>
-      </c>
-      <c r="T19">
-        <v>2.75</v>
-      </c>
       <c r="U19">
+        <v>1.975</v>
+      </c>
+      <c r="V19">
         <v>1.825</v>
       </c>
-      <c r="V19">
-        <v>1.975</v>
-      </c>
       <c r="W19">
         <v>-1</v>
       </c>
@@ -2318,19 +2318,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2338,7 +2338,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7188988</v>
+        <v>7188990</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2350,46 +2350,46 @@
         <v>45179.5</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>86</v>
       </c>
       <c r="K20">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M20">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O20">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P20">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
         <v>2.75</v>
@@ -2407,19 +2407,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2427,7 +2427,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7188987</v>
+        <v>7188988</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2439,49 +2439,49 @@
         <v>45179.5</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
         <v>71</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
         <v>86</v>
       </c>
       <c r="K21">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="L21">
         <v>3.4</v>
       </c>
       <c r="M21">
+        <v>3.4</v>
+      </c>
+      <c r="N21">
         <v>1.909</v>
-      </c>
-      <c r="N21">
-        <v>3.5</v>
       </c>
       <c r="O21">
         <v>3.4</v>
       </c>
       <c r="P21">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
         <v>1.825</v>
@@ -2496,19 +2496,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.909</v>
+        <v>2.4</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2516,7 +2516,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7202437</v>
+        <v>7202436</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2528,58 +2528,58 @@
         <v>45182.5</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>85</v>
       </c>
       <c r="K22">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L22">
+        <v>3.75</v>
+      </c>
+      <c r="M22">
         <v>4.333</v>
       </c>
-      <c r="M22">
-        <v>6</v>
-      </c>
       <c r="N22">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="O22">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q22">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W22">
-        <v>0.3999999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2588,16 +2588,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB22">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2605,7 +2605,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7202435</v>
+        <v>7202437</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2617,10 +2617,10 @@
         <v>45182.5</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="H23">
         <v>6</v>
@@ -2632,43 +2632,43 @@
         <v>85</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M23">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R23">
+        <v>1.85</v>
+      </c>
+      <c r="S23">
+        <v>1.95</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23">
         <v>1.8</v>
       </c>
-      <c r="S23">
-        <v>2</v>
-      </c>
-      <c r="T23">
-        <v>2.75</v>
-      </c>
-      <c r="U23">
-        <v>1.825</v>
-      </c>
       <c r="V23">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2677,13 +2677,13 @@
         <v>-1</v>
       </c>
       <c r="Z23">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
         <v>0.8</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>0.825</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2694,7 +2694,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7202436</v>
+        <v>7202435</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2706,46 +2706,46 @@
         <v>45182.5</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>85</v>
       </c>
       <c r="K24">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M24">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N24">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T24">
         <v>2.75</v>
@@ -2757,7 +2757,7 @@
         <v>1.975</v>
       </c>
       <c r="W24">
-        <v>0.5329999999999999</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2766,16 +2766,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="AA24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2795,7 +2795,7 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
         <v>47</v>
@@ -3151,7 +3151,7 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
         <v>73</v>
@@ -3599,7 +3599,7 @@
         <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3673,7 +3673,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7305881</v>
+        <v>7305882</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3685,76 +3685,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>86</v>
+      </c>
+      <c r="K35">
+        <v>3.6</v>
+      </c>
+      <c r="L35">
         <v>4</v>
       </c>
-      <c r="I35">
-        <v>2</v>
-      </c>
-      <c r="J35" t="s">
-        <v>85</v>
-      </c>
-      <c r="K35">
-        <v>1.363</v>
-      </c>
-      <c r="L35">
-        <v>4.75</v>
-      </c>
       <c r="M35">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="N35">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O35">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P35">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q35">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R35">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V35">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W35">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z35">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB35">
+        <v>-1</v>
+      </c>
+      <c r="AC35">
         <v>1</v>
-      </c>
-      <c r="AC35">
-        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3762,7 +3762,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7305882</v>
+        <v>7305881</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3774,76 +3774,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I36">
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K36">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M36">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="N36">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O36">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P36">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="Q36">
+        <v>-1.25</v>
+      </c>
+      <c r="R36">
+        <v>1.75</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
+        <v>1.8</v>
+      </c>
+      <c r="W36">
+        <v>0.363</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
+        <v>-1</v>
+      </c>
+      <c r="Z36">
         <v>0.75</v>
       </c>
-      <c r="R36">
-        <v>1.825</v>
-      </c>
-      <c r="S36">
-        <v>1.975</v>
-      </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
-      <c r="U36">
-        <v>1.8</v>
-      </c>
-      <c r="V36">
-        <v>2</v>
-      </c>
-      <c r="W36">
-        <v>-1</v>
-      </c>
-      <c r="X36">
-        <v>-1</v>
-      </c>
-      <c r="Y36">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z36">
-        <v>-1</v>
-      </c>
       <c r="AA36">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC36">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3866,7 +3866,7 @@
         <v>47</v>
       </c>
       <c r="G37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>45207.46875</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
         <v>36</v>
@@ -4130,7 +4130,7 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
         <v>52</v>
@@ -4486,7 +4486,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
         <v>60</v>
@@ -4563,7 +4563,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7366818</v>
+        <v>7366817</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4575,76 +4575,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
         <v>1</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>85</v>
       </c>
       <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>3.4</v>
+      </c>
+      <c r="M45">
+        <v>3.1</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>3.4</v>
+      </c>
+      <c r="P45">
+        <v>3.1</v>
+      </c>
+      <c r="Q45">
+        <v>-0.25</v>
+      </c>
+      <c r="R45">
         <v>1.8</v>
       </c>
-      <c r="L45">
-        <v>3.75</v>
-      </c>
-      <c r="M45">
-        <v>3.4</v>
-      </c>
-      <c r="N45">
-        <v>1.8</v>
-      </c>
-      <c r="O45">
-        <v>3.75</v>
-      </c>
-      <c r="P45">
-        <v>3.4</v>
-      </c>
-      <c r="Q45">
-        <v>-0.5</v>
-      </c>
-      <c r="R45">
-        <v>1.85</v>
-      </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
+        <v>-1</v>
+      </c>
+      <c r="Z45">
         <v>0.8</v>
       </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>-1</v>
-      </c>
-      <c r="Z45">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4652,7 +4652,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7366817</v>
+        <v>7366818</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4664,76 +4664,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
         <v>85</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L46">
+        <v>3.75</v>
+      </c>
+      <c r="M46">
         <v>3.4</v>
       </c>
-      <c r="M46">
-        <v>3.1</v>
-      </c>
       <c r="N46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O46">
+        <v>3.75</v>
+      </c>
+      <c r="P46">
         <v>3.4</v>
       </c>
-      <c r="P46">
-        <v>3.1</v>
-      </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W46">
+        <v>0.8</v>
+      </c>
+      <c r="X46">
+        <v>-1</v>
+      </c>
+      <c r="Y46">
+        <v>-1</v>
+      </c>
+      <c r="Z46">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>-1</v>
+      </c>
+      <c r="AB46">
+        <v>-1</v>
+      </c>
+      <c r="AC46">
         <v>1</v>
-      </c>
-      <c r="X46">
-        <v>-1</v>
-      </c>
-      <c r="Y46">
-        <v>-1</v>
-      </c>
-      <c r="Z46">
-        <v>0.8</v>
-      </c>
-      <c r="AA46">
-        <v>-1</v>
-      </c>
-      <c r="AB46">
-        <v>0.925</v>
-      </c>
-      <c r="AC46">
-        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4845,7 +4845,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4934,7 +4934,7 @@
         <v>45</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -5008,7 +5008,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7382546</v>
+        <v>7382547</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5020,76 +5020,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s">
         <v>40</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K50">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L50">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N50">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O50">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="Q50">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X50">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC50">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5097,7 +5097,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7382547</v>
+        <v>7382546</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5109,76 +5109,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s">
         <v>41</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>87</v>
+      </c>
+      <c r="K51">
+        <v>1.363</v>
+      </c>
+      <c r="L51">
+        <v>4.333</v>
+      </c>
+      <c r="M51">
+        <v>6.5</v>
+      </c>
+      <c r="N51">
+        <v>1.25</v>
+      </c>
+      <c r="O51">
         <v>5</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>85</v>
-      </c>
-      <c r="K51">
-        <v>2.3</v>
-      </c>
-      <c r="L51">
-        <v>3.4</v>
-      </c>
-      <c r="M51">
-        <v>2.625</v>
-      </c>
-      <c r="N51">
-        <v>2.3</v>
-      </c>
-      <c r="O51">
-        <v>3.4</v>
-      </c>
       <c r="P51">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5198,7 +5198,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
         <v>77</v>
@@ -5287,7 +5287,7 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
@@ -5379,7 +5379,7 @@
         <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5468,7 +5468,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5720,7 +5720,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7460852</v>
+        <v>7460854</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5735,73 +5735,73 @@
         <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K58">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="L58">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M58">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="N58">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O58">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P58">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="Q58">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R58">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U58">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V58">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z58">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB58">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5809,7 +5809,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7460854</v>
+        <v>7460852</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5824,73 +5824,73 @@
         <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K59">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="L59">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M59">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="N59">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O59">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="Q59">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R59">
+        <v>1.8</v>
+      </c>
+      <c r="S59">
+        <v>2</v>
+      </c>
+      <c r="T59">
+        <v>2.75</v>
+      </c>
+      <c r="U59">
         <v>1.95</v>
       </c>
-      <c r="S59">
+      <c r="V59">
         <v>1.85</v>
       </c>
-      <c r="T59">
-        <v>3</v>
-      </c>
-      <c r="U59">
-        <v>1.775</v>
-      </c>
-      <c r="V59">
-        <v>2.025</v>
-      </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y59">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AA59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC59">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6091,7 +6091,7 @@
         <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6343,7 +6343,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7493773</v>
+        <v>7493772</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6355,76 +6355,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H65">
         <v>2</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K65">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="L65">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M65">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="N65">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O65">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P65">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Q65">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R65">
+        <v>1.9</v>
+      </c>
+      <c r="S65">
+        <v>1.9</v>
+      </c>
+      <c r="T65">
+        <v>3</v>
+      </c>
+      <c r="U65">
         <v>1.85</v>
       </c>
-      <c r="S65">
+      <c r="V65">
         <v>1.95</v>
       </c>
-      <c r="T65">
-        <v>3.75</v>
-      </c>
-      <c r="U65">
-        <v>1.95</v>
-      </c>
-      <c r="V65">
-        <v>1.85</v>
-      </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X65">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB65">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6432,7 +6432,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7493774</v>
+        <v>7493773</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6444,61 +6444,61 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G66" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
         <v>87</v>
       </c>
       <c r="K66">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L66">
+        <v>6</v>
+      </c>
+      <c r="M66">
+        <v>9</v>
+      </c>
+      <c r="N66">
+        <v>1.2</v>
+      </c>
+      <c r="O66">
+        <v>6</v>
+      </c>
+      <c r="P66">
+        <v>9</v>
+      </c>
+      <c r="Q66">
+        <v>-2</v>
+      </c>
+      <c r="R66">
+        <v>1.85</v>
+      </c>
+      <c r="S66">
+        <v>1.95</v>
+      </c>
+      <c r="T66">
         <v>3.75</v>
       </c>
-      <c r="M66">
-        <v>4</v>
-      </c>
-      <c r="N66">
-        <v>1.45</v>
-      </c>
-      <c r="O66">
-        <v>3.8</v>
-      </c>
-      <c r="P66">
-        <v>5.75</v>
-      </c>
-      <c r="Q66">
-        <v>-1</v>
-      </c>
-      <c r="R66">
-        <v>1.825</v>
-      </c>
-      <c r="S66">
-        <v>1.975</v>
-      </c>
-      <c r="T66">
-        <v>2.75</v>
-      </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6507,13 +6507,13 @@
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC66">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6521,7 +6521,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7493772</v>
+        <v>7493774</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6533,76 +6533,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G67" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K67">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L67">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M67">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N67">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O67">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P67">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q67">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R67">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S67">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T67">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W67">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6625,7 +6625,7 @@
         <v>48</v>
       </c>
       <c r="G68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H68">
         <v>4</v>
@@ -6699,7 +6699,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7493776</v>
+        <v>7493771</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6711,13 +6711,13 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -6726,43 +6726,43 @@
         <v>85</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L69">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O69">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S69">
         <v>1.975</v>
       </c>
       <c r="T69">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6771,16 +6771,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6788,7 +6788,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7493771</v>
+        <v>7493776</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6800,13 +6800,13 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6815,43 +6815,43 @@
         <v>85</v>
       </c>
       <c r="K70">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L70">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O70">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
         <v>1.975</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6860,16 +6860,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6892,7 +6892,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6966,7 +6966,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7520493</v>
+        <v>7517623</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6978,43 +6978,43 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G72" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="H72">
         <v>2</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K72">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L72">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="M72">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O72">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="P72">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q72">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
         <v>1.95</v>
@@ -7023,31 +7023,31 @@
         <v>3</v>
       </c>
       <c r="U72">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7055,7 +7055,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7517623</v>
+        <v>7517624</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7067,40 +7067,40 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G73" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K73">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L73">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N73">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="P73">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R73">
         <v>1.85</v>
@@ -7109,34 +7109,34 @@
         <v>1.95</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U73">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z73">
+        <v>-1</v>
+      </c>
+      <c r="AA73">
+        <v>0.95</v>
+      </c>
+      <c r="AB73">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
-      <c r="AB73">
-        <v>-1</v>
-      </c>
       <c r="AC73">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7144,7 +7144,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7517624</v>
+        <v>7520493</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7156,55 +7156,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F74" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G74" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J74" t="s">
         <v>86</v>
       </c>
       <c r="K74">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="L74">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="M74">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N74">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O74">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="P74">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S74">
         <v>1.95</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -7213,7 +7213,7 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>4.25</v>
+        <v>0.95</v>
       </c>
       <c r="Z74">
         <v>-1</v>
@@ -7222,7 +7222,7 @@
         <v>0.95</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7245,7 +7245,7 @@
         <v>45255.40277777778</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
         <v>48</v>
@@ -7500,7 +7500,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7519478</v>
+        <v>7519479</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7512,55 +7512,55 @@
         <v>45256.40625</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>1</v>
-      </c>
-      <c r="I78">
-        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>86</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q78">
         <v>0.25</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7569,19 +7569,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
+        <v>1.2</v>
+      </c>
+      <c r="Z78">
+        <v>-1</v>
+      </c>
+      <c r="AA78">
         <v>1</v>
       </c>
-      <c r="Z78">
-        <v>-1</v>
-      </c>
-      <c r="AA78">
-        <v>0.8</v>
-      </c>
       <c r="AB78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7589,7 +7589,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7519479</v>
+        <v>7519478</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7601,55 +7601,55 @@
         <v>45256.40625</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>86</v>
       </c>
       <c r="K79">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N79">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q79">
         <v>0.25</v>
       </c>
       <c r="R79">
+        <v>2</v>
+      </c>
+      <c r="S79">
         <v>1.8</v>
       </c>
-      <c r="S79">
-        <v>2</v>
-      </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7658,19 +7658,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7782,7 +7782,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H81">
         <v>7</v>

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -118,12 +118,12 @@
     <t>NK Vuteks Sloga</t>
   </si>
   <si>
+    <t>NK Tomislav</t>
+  </si>
+  <si>
     <t>Sava Strmec</t>
   </si>
   <si>
-    <t>NK Tomislav</t>
-  </si>
-  <si>
     <t>NK Bistra</t>
   </si>
   <si>
@@ -133,15 +133,15 @@
     <t>Gaj Mace</t>
   </si>
   <si>
+    <t>NK Vodice</t>
+  </si>
+  <si>
+    <t>RNK Split</t>
+  </si>
+  <si>
     <t>Zmaj Makarska</t>
   </si>
   <si>
-    <t>RNK Split</t>
-  </si>
-  <si>
-    <t>NK Vodice</t>
-  </si>
-  <si>
     <t>NK Udarnik Kurilovec</t>
   </si>
   <si>
@@ -208,28 +208,28 @@
     <t>Valpovka</t>
   </si>
   <si>
+    <t>NK Oriolik Oriovac</t>
+  </si>
+  <si>
     <t>Slavija Pleternica</t>
   </si>
   <si>
-    <t>NK Oriolik Oriovac</t>
-  </si>
-  <si>
     <t>NK Vrapce</t>
   </si>
   <si>
+    <t>NK Uskok</t>
+  </si>
+  <si>
     <t>NK Kamen Ivanbegovina</t>
   </si>
   <si>
-    <t>NK Uskok</t>
-  </si>
-  <si>
     <t>NK Nask Nasice</t>
   </si>
   <si>
+    <t>NK Tondach</t>
+  </si>
+  <si>
     <t>NK Zagorec Krapina</t>
-  </si>
-  <si>
-    <t>NK Tondach</t>
   </si>
   <si>
     <t>NK Mladost Petrinja</t>
@@ -1181,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7126859</v>
+        <v>7126860</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1193,7 +1193,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
         <v>64</v>
@@ -1208,61 +1208,61 @@
         <v>87</v>
       </c>
       <c r="K7">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N7">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T7">
         <v>3</v>
       </c>
       <c r="U7">
+        <v>1.95</v>
+      </c>
+      <c r="V7">
         <v>1.85</v>
       </c>
-      <c r="V7">
-        <v>1.95</v>
-      </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1282,7 +1282,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
         <v>37</v>
@@ -1359,7 +1359,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7126860</v>
+        <v>7126859</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1371,7 +1371,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
         <v>65</v>
@@ -1386,61 +1386,61 @@
         <v>87</v>
       </c>
       <c r="K9">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P9">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>3</v>
       </c>
       <c r="U9">
+        <v>1.85</v>
+      </c>
+      <c r="V9">
         <v>1.95</v>
       </c>
-      <c r="V9">
-        <v>1.85</v>
-      </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1641,7 +1641,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1730,7 +1730,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1804,7 +1804,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7183191</v>
+        <v>7183189</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1819,52 +1819,52 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>1</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>86</v>
       </c>
       <c r="K14">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L14">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P14">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q14">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1873,19 +1873,19 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB14">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1908,7 +1908,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1982,7 +1982,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7183189</v>
+        <v>7183191</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1997,52 +1997,52 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N16">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O16">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R16">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -2051,19 +2051,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC16">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2160,7 +2160,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7188987</v>
+        <v>7188990</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2172,49 +2172,49 @@
         <v>45179.5</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>86</v>
       </c>
       <c r="K18">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L18">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M18">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N18">
+        <v>2.1</v>
+      </c>
+      <c r="O18">
         <v>3.5</v>
       </c>
-      <c r="O18">
-        <v>3.4</v>
-      </c>
       <c r="P18">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
         <v>1.825</v>
@@ -2229,13 +2229,13 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB18">
         <v>-1</v>
@@ -2261,7 +2261,7 @@
         <v>45179.5</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
         <v>66</v>
@@ -2338,7 +2338,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7188990</v>
+        <v>7188988</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2350,46 +2350,46 @@
         <v>45179.5</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
         <v>86</v>
       </c>
       <c r="K20">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L20">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N20">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O20">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P20">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
         <v>2.75</v>
@@ -2407,19 +2407,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2427,7 +2427,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7188988</v>
+        <v>7188987</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2439,49 +2439,49 @@
         <v>45179.5</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>71</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>86</v>
       </c>
       <c r="K21">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L21">
         <v>3.4</v>
       </c>
       <c r="M21">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O21">
         <v>3.4</v>
       </c>
       <c r="P21">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U21">
         <v>1.825</v>
@@ -2496,19 +2496,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>2.4</v>
+        <v>0.909</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2516,7 +2516,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7202436</v>
+        <v>7202435</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2528,46 +2528,46 @@
         <v>45182.5</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>85</v>
       </c>
       <c r="K22">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N22">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P22">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q22">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T22">
         <v>2.75</v>
@@ -2579,7 +2579,7 @@
         <v>1.975</v>
       </c>
       <c r="W22">
-        <v>0.5329999999999999</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2588,16 +2588,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="AA22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2605,7 +2605,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7202437</v>
+        <v>7202436</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2617,58 +2617,58 @@
         <v>45182.5</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>85</v>
       </c>
       <c r="K23">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L23">
+        <v>3.75</v>
+      </c>
+      <c r="M23">
         <v>4.333</v>
       </c>
-      <c r="M23">
-        <v>6</v>
-      </c>
       <c r="N23">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="O23">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q23">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
-        <v>0.3999999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2677,16 +2677,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2694,7 +2694,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7202435</v>
+        <v>7202437</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2706,10 +2706,10 @@
         <v>45182.5</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="H24">
         <v>6</v>
@@ -2721,43 +2721,43 @@
         <v>85</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L24">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M24">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R24">
+        <v>1.85</v>
+      </c>
+      <c r="S24">
+        <v>1.95</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
         <v>1.8</v>
       </c>
-      <c r="S24">
-        <v>2</v>
-      </c>
-      <c r="T24">
-        <v>2.75</v>
-      </c>
-      <c r="U24">
-        <v>1.825</v>
-      </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2766,13 +2766,13 @@
         <v>-1</v>
       </c>
       <c r="Z24">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA24">
+        <v>-1</v>
+      </c>
+      <c r="AB24">
         <v>0.8</v>
-      </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
-      <c r="AB24">
-        <v>0.825</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2976,7 +2976,7 @@
         <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3151,7 +3151,7 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
         <v>73</v>
@@ -3421,7 +3421,7 @@
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3495,7 +3495,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7291473</v>
+        <v>7291472</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3507,13 +3507,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3522,43 +3522,43 @@
         <v>85</v>
       </c>
       <c r="K33">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L33">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N33">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="O33">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P33">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q33">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V33">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3567,13 +3567,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3584,7 +3584,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7291472</v>
+        <v>7291473</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3596,13 +3596,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3611,43 +3611,43 @@
         <v>85</v>
       </c>
       <c r="K34">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L34">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M34">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N34">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P34">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3656,13 +3656,13 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3673,7 +3673,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7305882</v>
+        <v>7305881</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3685,76 +3685,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I35">
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K35">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M35">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="N35">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O35">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P35">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="Q35">
+        <v>-1.25</v>
+      </c>
+      <c r="R35">
+        <v>1.75</v>
+      </c>
+      <c r="S35">
+        <v>1.95</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
+        <v>1.8</v>
+      </c>
+      <c r="W35">
+        <v>0.363</v>
+      </c>
+      <c r="X35">
+        <v>-1</v>
+      </c>
+      <c r="Y35">
+        <v>-1</v>
+      </c>
+      <c r="Z35">
         <v>0.75</v>
       </c>
-      <c r="R35">
-        <v>1.825</v>
-      </c>
-      <c r="S35">
-        <v>1.975</v>
-      </c>
-      <c r="T35">
-        <v>2.75</v>
-      </c>
-      <c r="U35">
-        <v>1.8</v>
-      </c>
-      <c r="V35">
-        <v>2</v>
-      </c>
-      <c r="W35">
-        <v>-1</v>
-      </c>
-      <c r="X35">
-        <v>-1</v>
-      </c>
-      <c r="Y35">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z35">
-        <v>-1</v>
-      </c>
       <c r="AA35">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3762,7 +3762,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7305881</v>
+        <v>7305882</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3774,76 +3774,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>86</v>
+      </c>
+      <c r="K36">
+        <v>3.6</v>
+      </c>
+      <c r="L36">
         <v>4</v>
       </c>
-      <c r="I36">
-        <v>2</v>
-      </c>
-      <c r="J36" t="s">
-        <v>85</v>
-      </c>
-      <c r="K36">
-        <v>1.363</v>
-      </c>
-      <c r="L36">
-        <v>4.75</v>
-      </c>
       <c r="M36">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="N36">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O36">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P36">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q36">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R36">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V36">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z36">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
         <v>1</v>
-      </c>
-      <c r="AC36">
-        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3866,7 +3866,7 @@
         <v>47</v>
       </c>
       <c r="G37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>45207.46875</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
         <v>36</v>
@@ -4029,7 +4029,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7337011</v>
+        <v>7337013</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4041,76 +4041,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K39">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L39">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N39">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O39">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q39">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U39">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V39">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W39">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4118,7 +4118,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7337013</v>
+        <v>7337011</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4130,76 +4130,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K40">
+        <v>1.4</v>
+      </c>
+      <c r="L40">
+        <v>4.75</v>
+      </c>
+      <c r="M40">
+        <v>5.25</v>
+      </c>
+      <c r="N40">
+        <v>1.4</v>
+      </c>
+      <c r="O40">
+        <v>4.75</v>
+      </c>
+      <c r="P40">
+        <v>5.25</v>
+      </c>
+      <c r="Q40">
+        <v>-1.25</v>
+      </c>
+      <c r="R40">
+        <v>1.9</v>
+      </c>
+      <c r="S40">
+        <v>1.9</v>
+      </c>
+      <c r="T40">
         <v>2.75</v>
       </c>
-      <c r="L40">
-        <v>3.4</v>
-      </c>
-      <c r="M40">
-        <v>2.2</v>
-      </c>
-      <c r="N40">
-        <v>2.75</v>
-      </c>
-      <c r="O40">
-        <v>3.4</v>
-      </c>
-      <c r="P40">
-        <v>2.2</v>
-      </c>
-      <c r="Q40">
-        <v>0.25</v>
-      </c>
-      <c r="R40">
-        <v>1.8</v>
-      </c>
-      <c r="S40">
-        <v>2</v>
-      </c>
-      <c r="T40">
-        <v>3</v>
-      </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X40">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4486,7 +4486,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
         <v>60</v>
@@ -4667,7 +4667,7 @@
         <v>50</v>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4845,7 +4845,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4934,7 +4934,7 @@
         <v>45</v>
       </c>
       <c r="G49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -5020,7 +5020,7 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
         <v>40</v>
@@ -5112,7 +5112,7 @@
         <v>52</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5287,7 +5287,7 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
@@ -5379,7 +5379,7 @@
         <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5465,10 +5465,10 @@
         <v>45232.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5821,7 +5821,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
         <v>78</v>
@@ -6091,7 +6091,7 @@
         <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6343,7 +6343,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7493772</v>
+        <v>7493774</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6355,76 +6355,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G65" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K65">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M65">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N65">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O65">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P65">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q65">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V65">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W65">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6447,7 +6447,7 @@
         <v>55</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6521,7 +6521,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7493774</v>
+        <v>7493775</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6533,76 +6533,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F67" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G67" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K67">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L67">
         <v>3.75</v>
       </c>
       <c r="M67">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N67">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O67">
         <v>3.8</v>
       </c>
       <c r="P67">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q67">
         <v>-1</v>
       </c>
       <c r="R67">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S67">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
+        <v>1.875</v>
+      </c>
+      <c r="V67">
         <v>1.925</v>
       </c>
-      <c r="V67">
-        <v>1.875</v>
-      </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X67">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA67">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC67">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6610,7 +6610,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7493775</v>
+        <v>7493772</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6622,13 +6622,13 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F68" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -6637,43 +6637,43 @@
         <v>85</v>
       </c>
       <c r="K68">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L68">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M68">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N68">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O68">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P68">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6682,16 +6682,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB68">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6699,7 +6699,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7493771</v>
+        <v>7493776</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6711,13 +6711,13 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -6726,43 +6726,43 @@
         <v>85</v>
       </c>
       <c r="K69">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L69">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
         <v>1.975</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6771,16 +6771,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6788,7 +6788,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7493776</v>
+        <v>7493771</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6800,13 +6800,13 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6815,43 +6815,43 @@
         <v>85</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N70">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P70">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S70">
         <v>1.975</v>
       </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W70">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6860,16 +6860,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6892,7 +6892,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7517624</v>
+        <v>7520493</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7067,55 +7067,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F73" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G73" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
         <v>86</v>
       </c>
       <c r="K73">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="L73">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="M73">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N73">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O73">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="P73">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q73">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S73">
         <v>1.95</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
         <v>-1</v>
@@ -7124,7 +7124,7 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>4.25</v>
+        <v>0.95</v>
       </c>
       <c r="Z73">
         <v>-1</v>
@@ -7133,7 +7133,7 @@
         <v>0.95</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7144,7 +7144,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7520493</v>
+        <v>7517624</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7156,55 +7156,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F74" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G74" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J74" t="s">
         <v>86</v>
       </c>
       <c r="K74">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="L74">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="M74">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N74">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O74">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="P74">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="Q74">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R74">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
         <v>1.95</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -7213,7 +7213,7 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.95</v>
+        <v>4.25</v>
       </c>
       <c r="Z74">
         <v>-1</v>
@@ -7222,7 +7222,7 @@
         <v>0.95</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7245,7 +7245,7 @@
         <v>45255.40277777778</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
         <v>48</v>
@@ -7337,7 +7337,7 @@
         <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H76">
         <v>4</v>
@@ -7500,7 +7500,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7519479</v>
+        <v>7519478</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7512,55 +7512,55 @@
         <v>45256.40625</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>86</v>
       </c>
       <c r="K78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q78">
         <v>0.25</v>
       </c>
       <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
         <v>1.8</v>
       </c>
-      <c r="S78">
-        <v>2</v>
-      </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7569,19 +7569,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7589,7 +7589,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7519478</v>
+        <v>7519479</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7601,55 +7601,55 @@
         <v>45256.40625</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
         <v>1</v>
-      </c>
-      <c r="I79">
-        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>86</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O79">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q79">
         <v>0.25</v>
       </c>
       <c r="R79">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S79">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7658,19 +7658,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
+        <v>1.2</v>
+      </c>
+      <c r="Z79">
+        <v>-1</v>
+      </c>
+      <c r="AA79">
         <v>1</v>
       </c>
-      <c r="Z79">
-        <v>-1</v>
-      </c>
-      <c r="AA79">
-        <v>0.8</v>
-      </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7782,7 +7782,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H81">
         <v>7</v>

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -118,30 +118,30 @@
     <t>NK Vuteks Sloga</t>
   </si>
   <si>
+    <t>NK Bistra</t>
+  </si>
+  <si>
     <t>NK Tomislav</t>
   </si>
   <si>
     <t>Sava Strmec</t>
   </si>
   <si>
-    <t>NK Bistra</t>
-  </si>
-  <si>
     <t>Lucko</t>
   </si>
   <si>
     <t>Gaj Mace</t>
   </si>
   <si>
+    <t>Zmaj Makarska</t>
+  </si>
+  <si>
     <t>NK Vodice</t>
   </si>
   <si>
     <t>RNK Split</t>
   </si>
   <si>
-    <t>Zmaj Makarska</t>
-  </si>
-  <si>
     <t>NK Udarnik Kurilovec</t>
   </si>
   <si>
@@ -187,12 +187,12 @@
     <t>NK Tresnjevka</t>
   </si>
   <si>
+    <t>NK Croatia Dakovo</t>
+  </si>
+  <si>
     <t>NK Gosk Kastel Gomilica</t>
   </si>
   <si>
-    <t>NK Croatia Dakovo</t>
-  </si>
-  <si>
     <t>NK Tekstilac Ravnice</t>
   </si>
   <si>
@@ -208,15 +208,15 @@
     <t>Valpovka</t>
   </si>
   <si>
+    <t>NK Vrapce</t>
+  </si>
+  <si>
     <t>NK Oriolik Oriovac</t>
   </si>
   <si>
     <t>Slavija Pleternica</t>
   </si>
   <si>
-    <t>NK Vrapce</t>
-  </si>
-  <si>
     <t>NK Uskok</t>
   </si>
   <si>
@@ -226,19 +226,19 @@
     <t>NK Nask Nasice</t>
   </si>
   <si>
+    <t>NK Zagorec Krapina</t>
+  </si>
+  <si>
     <t>NK Tondach</t>
   </si>
   <si>
-    <t>NK Zagorec Krapina</t>
-  </si>
-  <si>
     <t>NK Mladost Petrinja</t>
   </si>
   <si>
+    <t>NK Svacic</t>
+  </si>
+  <si>
     <t>Sloga Nova Gradiska</t>
-  </si>
-  <si>
-    <t>NK Svacic</t>
   </si>
   <si>
     <t>NK Neretva</t>
@@ -639,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC81"/>
+  <dimension ref="A1:AC84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1181,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7126860</v>
+        <v>7126857</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1199,70 +1199,70 @@
         <v>64</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K7">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="N7">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="O7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
+        <v>1.925</v>
+      </c>
+      <c r="S7">
+        <v>1.875</v>
+      </c>
+      <c r="T7">
+        <v>2.75</v>
+      </c>
+      <c r="U7">
+        <v>1.825</v>
+      </c>
+      <c r="V7">
         <v>1.975</v>
       </c>
-      <c r="S7">
-        <v>1.725</v>
-      </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
-      <c r="U7">
-        <v>1.95</v>
-      </c>
-      <c r="V7">
-        <v>1.85</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X7">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA7">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1270,7 +1270,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7126858</v>
+        <v>7126860</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1285,73 +1285,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K8">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L8">
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N8">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R8">
+        <v>1.975</v>
+      </c>
+      <c r="S8">
+        <v>1.725</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
         <v>1.95</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>1.85</v>
       </c>
-      <c r="T8">
-        <v>2.75</v>
-      </c>
-      <c r="U8">
-        <v>1.9</v>
-      </c>
-      <c r="V8">
-        <v>1.9</v>
-      </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA8">
+        <v>-0</v>
+      </c>
+      <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB8">
-        <v>-1</v>
-      </c>
-      <c r="AC8">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1359,7 +1359,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7126859</v>
+        <v>7126858</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1371,76 +1371,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K9">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N9">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1448,7 +1448,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7126857</v>
+        <v>7126859</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1460,76 +1460,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
         <v>66</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10">
+        <v>1.5</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>1.5</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>-1</v>
+      </c>
+      <c r="R10">
+        <v>1.8</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
         <v>3</v>
       </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10">
-        <v>2.875</v>
-      </c>
-      <c r="L10">
-        <v>3.5</v>
-      </c>
-      <c r="M10">
-        <v>2.1</v>
-      </c>
-      <c r="N10">
-        <v>2.9</v>
-      </c>
-      <c r="O10">
-        <v>3.5</v>
-      </c>
-      <c r="P10">
-        <v>2.1</v>
-      </c>
-      <c r="Q10">
-        <v>0.25</v>
-      </c>
-      <c r="R10">
-        <v>1.925</v>
-      </c>
-      <c r="S10">
-        <v>1.875</v>
-      </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W10">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1641,7 +1641,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1730,7 +1730,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1804,7 +1804,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7183189</v>
+        <v>7183191</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1819,52 +1819,52 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>86</v>
       </c>
       <c r="K14">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N14">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O14">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1873,19 +1873,19 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC14">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1893,7 +1893,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7183190</v>
+        <v>7183189</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1908,73 +1908,73 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K15">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O15">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P15">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1982,7 +1982,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7183191</v>
+        <v>7183190</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1997,73 +1997,73 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K16">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M16">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="N16">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q16">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
+        <v>1.975</v>
+      </c>
+      <c r="S16">
+        <v>1.825</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
         <v>1.95</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>1.85</v>
       </c>
-      <c r="T16">
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
         <v>2.75</v>
       </c>
-      <c r="U16">
-        <v>1.9</v>
-      </c>
-      <c r="V16">
-        <v>1.9</v>
-      </c>
-      <c r="W16">
-        <v>-1</v>
-      </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
       <c r="Y16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB16">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2249,7 +2249,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7188989</v>
+        <v>7188987</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2261,56 +2261,56 @@
         <v>45179.5</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>1</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>86</v>
       </c>
       <c r="K19">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L19">
         <v>3.4</v>
       </c>
       <c r="M19">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="N19">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O19">
         <v>3.4</v>
       </c>
       <c r="P19">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
+        <v>1.85</v>
+      </c>
+      <c r="S19">
         <v>1.95</v>
-      </c>
-      <c r="S19">
-        <v>1.85</v>
       </c>
       <c r="T19">
         <v>3</v>
       </c>
       <c r="U19">
+        <v>1.825</v>
+      </c>
+      <c r="V19">
         <v>1.975</v>
       </c>
-      <c r="V19">
-        <v>1.825</v>
-      </c>
       <c r="W19">
         <v>-1</v>
       </c>
@@ -2318,19 +2318,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.4</v>
+        <v>0.909</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2338,7 +2338,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7188988</v>
+        <v>7188989</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2350,56 +2350,56 @@
         <v>45179.5</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>86</v>
       </c>
       <c r="K20">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L20">
         <v>3.4</v>
       </c>
       <c r="M20">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N20">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O20">
         <v>3.4</v>
       </c>
       <c r="P20">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R20">
+        <v>1.95</v>
+      </c>
+      <c r="S20">
+        <v>1.85</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20">
         <v>1.975</v>
       </c>
-      <c r="S20">
+      <c r="V20">
         <v>1.825</v>
       </c>
-      <c r="T20">
-        <v>2.75</v>
-      </c>
-      <c r="U20">
-        <v>1.825</v>
-      </c>
-      <c r="V20">
-        <v>1.975</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
@@ -2407,19 +2407,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB20">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2427,7 +2427,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7188987</v>
+        <v>7188988</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2439,49 +2439,49 @@
         <v>45179.5</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
         <v>71</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
         <v>86</v>
       </c>
       <c r="K21">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="L21">
         <v>3.4</v>
       </c>
       <c r="M21">
+        <v>3.4</v>
+      </c>
+      <c r="N21">
         <v>1.909</v>
-      </c>
-      <c r="N21">
-        <v>3.5</v>
       </c>
       <c r="O21">
         <v>3.4</v>
       </c>
       <c r="P21">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
         <v>1.825</v>
@@ -2496,19 +2496,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.909</v>
+        <v>2.4</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2516,7 +2516,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7202435</v>
+        <v>7202436</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2528,46 +2528,46 @@
         <v>45182.5</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>85</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M22">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O22">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P22">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R22">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T22">
         <v>2.75</v>
@@ -2579,7 +2579,7 @@
         <v>1.975</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2588,16 +2588,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8</v>
+        <v>0.35</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB22">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2605,7 +2605,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7202436</v>
+        <v>7202435</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2617,46 +2617,46 @@
         <v>45182.5</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>85</v>
       </c>
       <c r="K23">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N23">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O23">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P23">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T23">
         <v>2.75</v>
@@ -2668,7 +2668,7 @@
         <v>1.975</v>
       </c>
       <c r="W23">
-        <v>0.5329999999999999</v>
+        <v>1</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2677,16 +2677,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2709,7 +2709,7 @@
         <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H24">
         <v>6</v>
@@ -2795,7 +2795,7 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
         <v>47</v>
@@ -2976,7 +2976,7 @@
         <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3065,7 +3065,7 @@
         <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3139,7 +3139,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7250138</v>
+        <v>7250137</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3151,76 +3151,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>73</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K29">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L29">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M29">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N29">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P29">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3228,7 +3228,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7250137</v>
+        <v>7250138</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3240,76 +3240,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
         <v>74</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K30">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L30">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N30">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O30">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P30">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S30">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y30">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3421,7 +3421,7 @@
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3495,7 +3495,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7291472</v>
+        <v>7291473</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3507,13 +3507,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3522,43 +3522,43 @@
         <v>85</v>
       </c>
       <c r="K33">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M33">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N33">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P33">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3567,13 +3567,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3584,7 +3584,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7291473</v>
+        <v>7291472</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3596,13 +3596,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3611,43 +3611,43 @@
         <v>85</v>
       </c>
       <c r="K34">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L34">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N34">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="O34">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P34">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q34">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W34">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3656,13 +3656,13 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3774,7 +3774,7 @@
         <v>45206.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
         <v>55</v>
@@ -3952,10 +3952,10 @@
         <v>45207.46875</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -4029,7 +4029,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7337013</v>
+        <v>7337011</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4041,76 +4041,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K39">
+        <v>1.4</v>
+      </c>
+      <c r="L39">
+        <v>4.75</v>
+      </c>
+      <c r="M39">
+        <v>5.25</v>
+      </c>
+      <c r="N39">
+        <v>1.4</v>
+      </c>
+      <c r="O39">
+        <v>4.75</v>
+      </c>
+      <c r="P39">
+        <v>5.25</v>
+      </c>
+      <c r="Q39">
+        <v>-1.25</v>
+      </c>
+      <c r="R39">
+        <v>1.9</v>
+      </c>
+      <c r="S39">
+        <v>1.9</v>
+      </c>
+      <c r="T39">
         <v>2.75</v>
       </c>
-      <c r="L39">
-        <v>3.4</v>
-      </c>
-      <c r="M39">
-        <v>2.2</v>
-      </c>
-      <c r="N39">
-        <v>2.75</v>
-      </c>
-      <c r="O39">
-        <v>3.4</v>
-      </c>
-      <c r="P39">
-        <v>2.2</v>
-      </c>
-      <c r="Q39">
-        <v>0.25</v>
-      </c>
-      <c r="R39">
-        <v>1.8</v>
-      </c>
-      <c r="S39">
-        <v>2</v>
-      </c>
-      <c r="T39">
-        <v>3</v>
-      </c>
       <c r="U39">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X39">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4118,7 +4118,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7337011</v>
+        <v>7337013</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4130,76 +4130,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K40">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L40">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N40">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O40">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q40">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W40">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4207,7 +4207,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7337010</v>
+        <v>7337008</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4219,76 +4219,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K41">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M41">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N41">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O41">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P41">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R41">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S41">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB41">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4296,7 +4296,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7337008</v>
+        <v>7337010</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4308,76 +4308,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
       <c r="J42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K42">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L42">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N42">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O42">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P42">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q42">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R42">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
         <v>3</v>
       </c>
       <c r="U42">
+        <v>1.75</v>
+      </c>
+      <c r="V42">
         <v>1.95</v>
       </c>
-      <c r="V42">
-        <v>1.85</v>
-      </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4385,7 +4385,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7343496</v>
+        <v>7343497</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4397,10 +4397,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4412,43 +4412,43 @@
         <v>85</v>
       </c>
       <c r="K43">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M43">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N43">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O43">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P43">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S43">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T43">
         <v>3</v>
       </c>
       <c r="U43">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V43">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W43">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4457,7 +4457,7 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA43">
         <v>-1</v>
@@ -4474,7 +4474,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7343497</v>
+        <v>7343496</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4486,10 +4486,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4501,43 +4501,43 @@
         <v>85</v>
       </c>
       <c r="K44">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L44">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O44">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T44">
         <v>3</v>
       </c>
       <c r="U44">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4546,7 +4546,7 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4563,7 +4563,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7366817</v>
+        <v>7366818</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4575,76 +4575,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>85</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L45">
+        <v>3.75</v>
+      </c>
+      <c r="M45">
         <v>3.4</v>
       </c>
-      <c r="M45">
-        <v>3.1</v>
-      </c>
       <c r="N45">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O45">
+        <v>3.75</v>
+      </c>
+      <c r="P45">
         <v>3.4</v>
       </c>
-      <c r="P45">
-        <v>3.1</v>
-      </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W45">
+        <v>0.8</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
+        <v>-1</v>
+      </c>
+      <c r="Z45">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA45">
+        <v>-1</v>
+      </c>
+      <c r="AB45">
+        <v>-1</v>
+      </c>
+      <c r="AC45">
         <v>1</v>
-      </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>-1</v>
-      </c>
-      <c r="Z45">
-        <v>0.8</v>
-      </c>
-      <c r="AA45">
-        <v>-1</v>
-      </c>
-      <c r="AB45">
-        <v>0.925</v>
-      </c>
-      <c r="AC45">
-        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4652,7 +4652,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7366818</v>
+        <v>7366817</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4664,76 +4664,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
         <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
       </c>
       <c r="J46" t="s">
         <v>85</v>
       </c>
       <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>3.4</v>
+      </c>
+      <c r="M46">
+        <v>3.1</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>3.4</v>
+      </c>
+      <c r="P46">
+        <v>3.1</v>
+      </c>
+      <c r="Q46">
+        <v>-0.25</v>
+      </c>
+      <c r="R46">
         <v>1.8</v>
       </c>
-      <c r="L46">
-        <v>3.75</v>
-      </c>
-      <c r="M46">
-        <v>3.4</v>
-      </c>
-      <c r="N46">
-        <v>1.8</v>
-      </c>
-      <c r="O46">
-        <v>3.75</v>
-      </c>
-      <c r="P46">
-        <v>3.4</v>
-      </c>
-      <c r="Q46">
-        <v>-0.5</v>
-      </c>
-      <c r="R46">
-        <v>1.85</v>
-      </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>-1</v>
+      </c>
+      <c r="Y46">
+        <v>-1</v>
+      </c>
+      <c r="Z46">
         <v>0.8</v>
       </c>
-      <c r="X46">
-        <v>-1</v>
-      </c>
-      <c r="Y46">
-        <v>-1</v>
-      </c>
-      <c r="Z46">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4845,7 +4845,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4934,7 +4934,7 @@
         <v>45</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -5020,10 +5020,10 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" t="s">
         <v>41</v>
-      </c>
-      <c r="G50" t="s">
-        <v>40</v>
       </c>
       <c r="H50">
         <v>5</v>
@@ -5112,7 +5112,7 @@
         <v>52</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5198,7 +5198,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
         <v>77</v>
@@ -5287,7 +5287,7 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
@@ -5376,10 +5376,10 @@
         <v>45228.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5465,7 +5465,7 @@
         <v>45232.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
         <v>67</v>
@@ -5557,7 +5557,7 @@
         <v>46</v>
       </c>
       <c r="G56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5732,7 +5732,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
         <v>55</v>
@@ -5821,7 +5821,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
         <v>78</v>
@@ -6091,7 +6091,7 @@
         <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6343,7 +6343,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7493774</v>
+        <v>7493775</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6355,76 +6355,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G65" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K65">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L65">
         <v>3.75</v>
       </c>
       <c r="M65">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N65">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O65">
         <v>3.8</v>
       </c>
       <c r="P65">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q65">
         <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S65">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
+        <v>1.875</v>
+      </c>
+      <c r="V65">
         <v>1.925</v>
       </c>
-      <c r="V65">
-        <v>1.875</v>
-      </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X65">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA65">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC65">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6432,7 +6432,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7493773</v>
+        <v>7493772</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6444,76 +6444,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F66" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="H66">
         <v>2</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K66">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="L66">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M66">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="N66">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O66">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P66">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Q66">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R66">
+        <v>1.9</v>
+      </c>
+      <c r="S66">
+        <v>1.9</v>
+      </c>
+      <c r="T66">
+        <v>3</v>
+      </c>
+      <c r="U66">
         <v>1.85</v>
       </c>
-      <c r="S66">
+      <c r="V66">
         <v>1.95</v>
       </c>
-      <c r="T66">
-        <v>3.75</v>
-      </c>
-      <c r="U66">
-        <v>1.95</v>
-      </c>
-      <c r="V66">
-        <v>1.85</v>
-      </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X66">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB66">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6521,7 +6521,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7493775</v>
+        <v>7493774</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6533,76 +6533,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F67" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K67">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="L67">
         <v>3.75</v>
       </c>
       <c r="M67">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N67">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O67">
         <v>3.8</v>
       </c>
       <c r="P67">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q67">
         <v>-1</v>
       </c>
       <c r="R67">
+        <v>1.825</v>
+      </c>
+      <c r="S67">
+        <v>1.975</v>
+      </c>
+      <c r="T67">
+        <v>2.75</v>
+      </c>
+      <c r="U67">
         <v>1.925</v>
       </c>
-      <c r="S67">
+      <c r="V67">
         <v>1.875</v>
       </c>
-      <c r="T67">
-        <v>2.5</v>
-      </c>
-      <c r="U67">
-        <v>1.875</v>
-      </c>
-      <c r="V67">
-        <v>1.925</v>
-      </c>
       <c r="W67">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB67">
+        <v>-1</v>
+      </c>
+      <c r="AC67">
         <v>0.875</v>
-      </c>
-      <c r="AC67">
-        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6610,7 +6610,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7493772</v>
+        <v>7493773</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6622,76 +6622,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G68" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K68">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M68">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="N68">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O68">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P68">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Q68">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U68">
+        <v>1.95</v>
+      </c>
+      <c r="V68">
         <v>1.85</v>
       </c>
-      <c r="V68">
-        <v>1.95</v>
-      </c>
       <c r="W68">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
+        <v>-1</v>
+      </c>
+      <c r="AA68">
+        <v>0.95</v>
+      </c>
+      <c r="AB68">
+        <v>0.475</v>
+      </c>
+      <c r="AC68">
         <v>-0.5</v>
-      </c>
-      <c r="AA68">
-        <v>0.45</v>
-      </c>
-      <c r="AB68">
-        <v>0</v>
-      </c>
-      <c r="AC68">
-        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6714,7 +6714,7 @@
         <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6892,7 +6892,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6966,7 +6966,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7517623</v>
+        <v>7520493</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6978,43 +6978,43 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G72" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="H72">
         <v>2</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K72">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="L72">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="N72">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O72">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="P72">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S72">
         <v>1.95</v>
@@ -7023,31 +7023,31 @@
         <v>3</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC72">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7055,7 +7055,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7520493</v>
+        <v>7517624</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7067,55 +7067,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F73" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G73" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J73" t="s">
         <v>86</v>
       </c>
       <c r="K73">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="L73">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="M73">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N73">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O73">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="P73">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="Q73">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R73">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
         <v>1.95</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
         <v>-1</v>
@@ -7124,7 +7124,7 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.95</v>
+        <v>4.25</v>
       </c>
       <c r="Z73">
         <v>-1</v>
@@ -7133,7 +7133,7 @@
         <v>0.95</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7144,7 +7144,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7517624</v>
+        <v>7517623</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7159,37 +7159,37 @@
         <v>58</v>
       </c>
       <c r="G74" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K74">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L74">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="M74">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O74">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
         <v>1.85</v>
@@ -7198,34 +7198,34 @@
         <v>1.95</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7245,7 +7245,7 @@
         <v>45255.40277777778</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
         <v>48</v>
@@ -7322,7 +7322,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7519482</v>
+        <v>7519480</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7334,76 +7334,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F76" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K76">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L76">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N76">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P76">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S76">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T76">
+        <v>3</v>
+      </c>
+      <c r="U76">
+        <v>1.9</v>
+      </c>
+      <c r="V76">
+        <v>1.9</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
         <v>2.5</v>
       </c>
-      <c r="U76">
-        <v>1.85</v>
-      </c>
-      <c r="V76">
-        <v>1.95</v>
-      </c>
-      <c r="W76">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7411,7 +7411,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7519480</v>
+        <v>7519482</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7423,76 +7423,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K77">
+        <v>1.909</v>
+      </c>
+      <c r="L77">
+        <v>3.4</v>
+      </c>
+      <c r="M77">
+        <v>3.4</v>
+      </c>
+      <c r="N77">
+        <v>1.727</v>
+      </c>
+      <c r="O77">
+        <v>3.6</v>
+      </c>
+      <c r="P77">
+        <v>4.333</v>
+      </c>
+      <c r="Q77">
+        <v>-0.75</v>
+      </c>
+      <c r="R77">
+        <v>1.95</v>
+      </c>
+      <c r="S77">
+        <v>1.85</v>
+      </c>
+      <c r="T77">
         <v>2.5</v>
       </c>
-      <c r="L77">
-        <v>3.5</v>
-      </c>
-      <c r="M77">
-        <v>2.375</v>
-      </c>
-      <c r="N77">
-        <v>2.5</v>
-      </c>
-      <c r="O77">
-        <v>3.5</v>
-      </c>
-      <c r="P77">
-        <v>2.375</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>1.975</v>
-      </c>
-      <c r="S77">
-        <v>1.825</v>
-      </c>
-      <c r="T77">
-        <v>3</v>
-      </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X77">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC77">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7512,7 +7512,7 @@
         <v>45256.40625</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7601,7 +7601,7 @@
         <v>45256.40625</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
         <v>83</v>
@@ -7782,7 +7782,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H81">
         <v>7</v>
@@ -7849,6 +7849,273 @@
       </c>
       <c r="AC81">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>7902470</v>
+      </c>
+      <c r="C82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45353.45833333334</v>
+      </c>
+      <c r="F82" t="s">
+        <v>40</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82" t="s">
+        <v>86</v>
+      </c>
+      <c r="K82">
+        <v>3.4</v>
+      </c>
+      <c r="L82">
+        <v>3.75</v>
+      </c>
+      <c r="M82">
+        <v>1.8</v>
+      </c>
+      <c r="N82">
+        <v>3.1</v>
+      </c>
+      <c r="O82">
+        <v>3.75</v>
+      </c>
+      <c r="P82">
+        <v>1.909</v>
+      </c>
+      <c r="Q82">
+        <v>0.5</v>
+      </c>
+      <c r="R82">
+        <v>1.825</v>
+      </c>
+      <c r="S82">
+        <v>1.975</v>
+      </c>
+      <c r="T82">
+        <v>3.5</v>
+      </c>
+      <c r="U82">
+        <v>1.775</v>
+      </c>
+      <c r="V82">
+        <v>2.025</v>
+      </c>
+      <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
+        <v>-1</v>
+      </c>
+      <c r="Y82">
+        <v>0.909</v>
+      </c>
+      <c r="Z82">
+        <v>-1</v>
+      </c>
+      <c r="AA82">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB82">
+        <v>-1</v>
+      </c>
+      <c r="AC82">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>7902469</v>
+      </c>
+      <c r="C83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45353.47916666666</v>
+      </c>
+      <c r="F83" t="s">
+        <v>37</v>
+      </c>
+      <c r="G83" t="s">
+        <v>36</v>
+      </c>
+      <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>85</v>
+      </c>
+      <c r="K83">
+        <v>1.333</v>
+      </c>
+      <c r="L83">
+        <v>4.5</v>
+      </c>
+      <c r="M83">
+        <v>7</v>
+      </c>
+      <c r="N83">
+        <v>1.5</v>
+      </c>
+      <c r="O83">
+        <v>4.5</v>
+      </c>
+      <c r="P83">
+        <v>4.333</v>
+      </c>
+      <c r="Q83">
+        <v>-1</v>
+      </c>
+      <c r="R83">
+        <v>1.875</v>
+      </c>
+      <c r="S83">
+        <v>1.925</v>
+      </c>
+      <c r="T83">
+        <v>2.5</v>
+      </c>
+      <c r="U83">
+        <v>1.9</v>
+      </c>
+      <c r="V83">
+        <v>1.9</v>
+      </c>
+      <c r="W83">
+        <v>0.5</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>-0</v>
+      </c>
+      <c r="AB83">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC83">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>7902467</v>
+      </c>
+      <c r="C84" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45353.47916666666</v>
+      </c>
+      <c r="F84" t="s">
+        <v>42</v>
+      </c>
+      <c r="G84" t="s">
+        <v>44</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" t="s">
+        <v>87</v>
+      </c>
+      <c r="K84">
+        <v>1.571</v>
+      </c>
+      <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>4.333</v>
+      </c>
+      <c r="N84">
+        <v>1.571</v>
+      </c>
+      <c r="O84">
+        <v>4</v>
+      </c>
+      <c r="P84">
+        <v>4.333</v>
+      </c>
+      <c r="Q84">
+        <v>-1</v>
+      </c>
+      <c r="R84">
+        <v>1.925</v>
+      </c>
+      <c r="S84">
+        <v>1.875</v>
+      </c>
+      <c r="T84">
+        <v>3.25</v>
+      </c>
+      <c r="U84">
+        <v>1.775</v>
+      </c>
+      <c r="V84">
+        <v>1.925</v>
+      </c>
+      <c r="W84">
+        <v>-1</v>
+      </c>
+      <c r="X84">
+        <v>3</v>
+      </c>
+      <c r="Y84">
+        <v>-1</v>
+      </c>
+      <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
+        <v>0.875</v>
+      </c>
+      <c r="AB84">
+        <v>-1</v>
+      </c>
+      <c r="AC84">
+        <v>0.925</v>
       </c>
     </row>
   </sheetData>

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -133,15 +133,15 @@
     <t>Gaj Mace</t>
   </si>
   <si>
+    <t>NK Vodice</t>
+  </si>
+  <si>
+    <t>RNK Split</t>
+  </si>
+  <si>
     <t>Zmaj Makarska</t>
   </si>
   <si>
-    <t>NK Vodice</t>
-  </si>
-  <si>
-    <t>RNK Split</t>
-  </si>
-  <si>
     <t>NK Udarnik Kurilovec</t>
   </si>
   <si>
@@ -211,12 +211,12 @@
     <t>NK Vrapce</t>
   </si>
   <si>
+    <t>Slavija Pleternica</t>
+  </si>
+  <si>
     <t>NK Oriolik Oriovac</t>
   </si>
   <si>
-    <t>Slavija Pleternica</t>
-  </si>
-  <si>
     <t>NK Uskok</t>
   </si>
   <si>
@@ -235,10 +235,10 @@
     <t>NK Mladost Petrinja</t>
   </si>
   <si>
+    <t>Sloga Nova Gradiska</t>
+  </si>
+  <si>
     <t>NK Svacic</t>
-  </si>
-  <si>
-    <t>Sloga Nova Gradiska</t>
   </si>
   <si>
     <t>NK Neretva</t>
@@ -639,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC84"/>
+  <dimension ref="A1:AC85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1270,7 +1270,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7126860</v>
+        <v>7126859</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1282,7 +1282,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
         <v>65</v>
@@ -1297,61 +1297,61 @@
         <v>87</v>
       </c>
       <c r="K8">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N8">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P8">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R8">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T8">
         <v>3</v>
       </c>
       <c r="U8">
+        <v>1.85</v>
+      </c>
+      <c r="V8">
         <v>1.95</v>
       </c>
-      <c r="V8">
-        <v>1.85</v>
-      </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1359,7 +1359,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7126858</v>
+        <v>7126860</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1371,76 +1371,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K9">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L9">
         <v>3.4</v>
       </c>
       <c r="M9">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N9">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R9">
+        <v>1.975</v>
+      </c>
+      <c r="S9">
+        <v>1.725</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
         <v>1.95</v>
       </c>
-      <c r="S9">
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
-      <c r="U9">
-        <v>1.9</v>
-      </c>
-      <c r="V9">
-        <v>1.9</v>
-      </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
+        <v>-0</v>
+      </c>
+      <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB9">
-        <v>-1</v>
-      </c>
-      <c r="AC9">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1448,7 +1448,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7126859</v>
+        <v>7126858</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1460,76 +1460,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K10">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N10">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1804,7 +1804,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7183191</v>
+        <v>7183189</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1819,52 +1819,52 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>1</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>86</v>
       </c>
       <c r="K14">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L14">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P14">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q14">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1873,19 +1873,19 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB14">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1893,7 +1893,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7183189</v>
+        <v>7183190</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1908,73 +1908,73 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K15">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
+        <v>3.75</v>
+      </c>
+      <c r="N15">
+        <v>1.727</v>
+      </c>
+      <c r="O15">
+        <v>3.75</v>
+      </c>
+      <c r="P15">
+        <v>3.75</v>
+      </c>
+      <c r="Q15">
+        <v>-0.75</v>
+      </c>
+      <c r="R15">
+        <v>1.975</v>
+      </c>
+      <c r="S15">
+        <v>1.825</v>
+      </c>
+      <c r="T15">
         <v>3</v>
       </c>
-      <c r="N15">
-        <v>2.1</v>
-      </c>
-      <c r="O15">
-        <v>3.3</v>
-      </c>
-      <c r="P15">
-        <v>3</v>
-      </c>
-      <c r="Q15">
-        <v>-0.25</v>
-      </c>
-      <c r="R15">
-        <v>1.9</v>
-      </c>
-      <c r="S15">
-        <v>1.9</v>
-      </c>
-      <c r="T15">
+      <c r="U15">
+        <v>1.95</v>
+      </c>
+      <c r="V15">
+        <v>1.85</v>
+      </c>
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
         <v>2.75</v>
       </c>
-      <c r="U15">
-        <v>1.925</v>
-      </c>
-      <c r="V15">
-        <v>1.775</v>
-      </c>
-      <c r="W15">
-        <v>-1</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
       <c r="Y15">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC15">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1982,7 +1982,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7183190</v>
+        <v>7183191</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1997,73 +1997,73 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K16">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L16">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N16">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2160,7 +2160,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7188990</v>
+        <v>7188987</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2172,49 +2172,49 @@
         <v>45179.5</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>86</v>
       </c>
       <c r="K18">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L18">
+        <v>3.4</v>
+      </c>
+      <c r="M18">
+        <v>1.909</v>
+      </c>
+      <c r="N18">
         <v>3.5</v>
       </c>
-      <c r="M18">
+      <c r="O18">
+        <v>3.4</v>
+      </c>
+      <c r="P18">
+        <v>1.909</v>
+      </c>
+      <c r="Q18">
+        <v>0.5</v>
+      </c>
+      <c r="R18">
+        <v>1.85</v>
+      </c>
+      <c r="S18">
+        <v>1.95</v>
+      </c>
+      <c r="T18">
         <v>3</v>
-      </c>
-      <c r="N18">
-        <v>2.1</v>
-      </c>
-      <c r="O18">
-        <v>3.5</v>
-      </c>
-      <c r="P18">
-        <v>3</v>
-      </c>
-      <c r="Q18">
-        <v>-0.25</v>
-      </c>
-      <c r="R18">
-        <v>1.875</v>
-      </c>
-      <c r="S18">
-        <v>1.925</v>
-      </c>
-      <c r="T18">
-        <v>2.75</v>
       </c>
       <c r="U18">
         <v>1.825</v>
@@ -2229,13 +2229,13 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB18">
         <v>-1</v>
@@ -2249,7 +2249,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7188987</v>
+        <v>7188989</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2261,56 +2261,56 @@
         <v>45179.5</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>86</v>
       </c>
       <c r="K19">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="L19">
         <v>3.4</v>
       </c>
       <c r="M19">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="N19">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O19">
         <v>3.4</v>
       </c>
       <c r="P19">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R19">
+        <v>1.95</v>
+      </c>
+      <c r="S19">
         <v>1.85</v>
-      </c>
-      <c r="S19">
-        <v>1.95</v>
       </c>
       <c r="T19">
         <v>3</v>
       </c>
       <c r="U19">
+        <v>1.975</v>
+      </c>
+      <c r="V19">
         <v>1.825</v>
       </c>
-      <c r="V19">
-        <v>1.975</v>
-      </c>
       <c r="W19">
         <v>-1</v>
       </c>
@@ -2318,19 +2318,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.909</v>
+        <v>1.4</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2338,7 +2338,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7188989</v>
+        <v>7188990</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2350,13 +2350,13 @@
         <v>45179.5</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -2365,41 +2365,41 @@
         <v>86</v>
       </c>
       <c r="K20">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M20">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O20">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P20">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
+        <v>1.825</v>
+      </c>
+      <c r="V20">
         <v>1.975</v>
       </c>
-      <c r="V20">
-        <v>1.825</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
@@ -2407,19 +2407,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2605,7 +2605,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7202435</v>
+        <v>7202437</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2617,10 +2617,10 @@
         <v>45182.5</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <v>6</v>
@@ -2632,43 +2632,43 @@
         <v>85</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M23">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R23">
+        <v>1.85</v>
+      </c>
+      <c r="S23">
+        <v>1.95</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23">
         <v>1.8</v>
       </c>
-      <c r="S23">
-        <v>2</v>
-      </c>
-      <c r="T23">
-        <v>2.75</v>
-      </c>
-      <c r="U23">
-        <v>1.825</v>
-      </c>
       <c r="V23">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2677,13 +2677,13 @@
         <v>-1</v>
       </c>
       <c r="Z23">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
         <v>0.8</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>0.825</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2694,7 +2694,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7202437</v>
+        <v>7202435</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2706,10 +2706,10 @@
         <v>45182.5</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="H24">
         <v>6</v>
@@ -2721,43 +2721,43 @@
         <v>85</v>
       </c>
       <c r="K24">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N24">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
-        <v>0.3999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2766,13 +2766,13 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2795,7 +2795,7 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
         <v>47</v>
@@ -2976,7 +2976,7 @@
         <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3139,7 +3139,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7250137</v>
+        <v>7250138</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3151,76 +3151,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
         <v>73</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K29">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N29">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O29">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S29">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y29">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA29">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3228,7 +3228,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7250138</v>
+        <v>7250137</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3240,76 +3240,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
         <v>74</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K30">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M30">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N30">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P30">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3421,7 +3421,7 @@
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3774,7 +3774,7 @@
         <v>45206.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
         <v>55</v>
@@ -4029,7 +4029,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7337011</v>
+        <v>7337013</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4041,76 +4041,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K39">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L39">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N39">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O39">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q39">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U39">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V39">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W39">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4118,7 +4118,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7337013</v>
+        <v>7337011</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4130,76 +4130,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" t="s">
         <v>41</v>
       </c>
-      <c r="G40" t="s">
-        <v>52</v>
-      </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K40">
+        <v>1.4</v>
+      </c>
+      <c r="L40">
+        <v>4.75</v>
+      </c>
+      <c r="M40">
+        <v>5.25</v>
+      </c>
+      <c r="N40">
+        <v>1.4</v>
+      </c>
+      <c r="O40">
+        <v>4.75</v>
+      </c>
+      <c r="P40">
+        <v>5.25</v>
+      </c>
+      <c r="Q40">
+        <v>-1.25</v>
+      </c>
+      <c r="R40">
+        <v>1.9</v>
+      </c>
+      <c r="S40">
+        <v>1.9</v>
+      </c>
+      <c r="T40">
         <v>2.75</v>
       </c>
-      <c r="L40">
-        <v>3.4</v>
-      </c>
-      <c r="M40">
-        <v>2.2</v>
-      </c>
-      <c r="N40">
-        <v>2.75</v>
-      </c>
-      <c r="O40">
-        <v>3.4</v>
-      </c>
-      <c r="P40">
-        <v>2.2</v>
-      </c>
-      <c r="Q40">
-        <v>0.25</v>
-      </c>
-      <c r="R40">
-        <v>1.8</v>
-      </c>
-      <c r="S40">
-        <v>2</v>
-      </c>
-      <c r="T40">
-        <v>3</v>
-      </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X40">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4207,7 +4207,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7337008</v>
+        <v>7337010</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4219,76 +4219,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
         <v>0</v>
       </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
       <c r="J41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K41">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L41">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N41">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O41">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P41">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q41">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
+        <v>1.75</v>
+      </c>
+      <c r="V41">
         <v>1.95</v>
       </c>
-      <c r="V41">
-        <v>1.85</v>
-      </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4296,7 +4296,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7337010</v>
+        <v>7337008</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4308,76 +4308,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K42">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N42">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O42">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P42">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
         <v>3</v>
       </c>
       <c r="U42">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB42">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4385,7 +4385,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7343497</v>
+        <v>7343496</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4397,10 +4397,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4412,43 +4412,43 @@
         <v>85</v>
       </c>
       <c r="K43">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L43">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M43">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O43">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P43">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
         <v>3</v>
       </c>
       <c r="U43">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4457,7 +4457,7 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA43">
         <v>-1</v>
@@ -4474,7 +4474,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7343496</v>
+        <v>7343497</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4486,10 +4486,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4501,43 +4501,43 @@
         <v>85</v>
       </c>
       <c r="K44">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M44">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N44">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P44">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T44">
         <v>3</v>
       </c>
       <c r="U44">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V44">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W44">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4546,7 +4546,7 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4563,7 +4563,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7366818</v>
+        <v>7366817</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4575,76 +4575,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
         <v>1</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>85</v>
       </c>
       <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>3.4</v>
+      </c>
+      <c r="M45">
+        <v>3.1</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>3.4</v>
+      </c>
+      <c r="P45">
+        <v>3.1</v>
+      </c>
+      <c r="Q45">
+        <v>-0.25</v>
+      </c>
+      <c r="R45">
         <v>1.8</v>
       </c>
-      <c r="L45">
-        <v>3.75</v>
-      </c>
-      <c r="M45">
-        <v>3.4</v>
-      </c>
-      <c r="N45">
-        <v>1.8</v>
-      </c>
-      <c r="O45">
-        <v>3.75</v>
-      </c>
-      <c r="P45">
-        <v>3.4</v>
-      </c>
-      <c r="Q45">
-        <v>-0.5</v>
-      </c>
-      <c r="R45">
-        <v>1.85</v>
-      </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
+        <v>-1</v>
+      </c>
+      <c r="Z45">
         <v>0.8</v>
       </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>-1</v>
-      </c>
-      <c r="Z45">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4652,7 +4652,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7366817</v>
+        <v>7366818</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4664,76 +4664,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
         <v>85</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L46">
+        <v>3.75</v>
+      </c>
+      <c r="M46">
         <v>3.4</v>
       </c>
-      <c r="M46">
-        <v>3.1</v>
-      </c>
       <c r="N46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O46">
+        <v>3.75</v>
+      </c>
+      <c r="P46">
         <v>3.4</v>
       </c>
-      <c r="P46">
-        <v>3.1</v>
-      </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W46">
+        <v>0.8</v>
+      </c>
+      <c r="X46">
+        <v>-1</v>
+      </c>
+      <c r="Y46">
+        <v>-1</v>
+      </c>
+      <c r="Z46">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>-1</v>
+      </c>
+      <c r="AB46">
+        <v>-1</v>
+      </c>
+      <c r="AC46">
         <v>1</v>
-      </c>
-      <c r="X46">
-        <v>-1</v>
-      </c>
-      <c r="Y46">
-        <v>-1</v>
-      </c>
-      <c r="Z46">
-        <v>0.8</v>
-      </c>
-      <c r="AA46">
-        <v>-1</v>
-      </c>
-      <c r="AB46">
-        <v>0.925</v>
-      </c>
-      <c r="AC46">
-        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5020,10 +5020,10 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H50">
         <v>5</v>
@@ -5112,7 +5112,7 @@
         <v>52</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5198,7 +5198,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
         <v>77</v>
@@ -5465,7 +5465,7 @@
         <v>45232.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
         <v>67</v>
@@ -5732,7 +5732,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
         <v>55</v>
@@ -5821,7 +5821,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
         <v>78</v>
@@ -6358,7 +6358,7 @@
         <v>48</v>
       </c>
       <c r="G65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H65">
         <v>4</v>
@@ -6432,7 +6432,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7493772</v>
+        <v>7493774</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6444,76 +6444,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G66" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K66">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M66">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N66">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O66">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P66">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q66">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T66">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V66">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W66">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6521,7 +6521,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7493774</v>
+        <v>7493773</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6533,61 +6533,61 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F67" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G67" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
         <v>87</v>
       </c>
       <c r="K67">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L67">
+        <v>6</v>
+      </c>
+      <c r="M67">
+        <v>9</v>
+      </c>
+      <c r="N67">
+        <v>1.2</v>
+      </c>
+      <c r="O67">
+        <v>6</v>
+      </c>
+      <c r="P67">
+        <v>9</v>
+      </c>
+      <c r="Q67">
+        <v>-2</v>
+      </c>
+      <c r="R67">
+        <v>1.85</v>
+      </c>
+      <c r="S67">
+        <v>1.95</v>
+      </c>
+      <c r="T67">
         <v>3.75</v>
       </c>
-      <c r="M67">
-        <v>4</v>
-      </c>
-      <c r="N67">
-        <v>1.45</v>
-      </c>
-      <c r="O67">
-        <v>3.8</v>
-      </c>
-      <c r="P67">
-        <v>5.75</v>
-      </c>
-      <c r="Q67">
-        <v>-1</v>
-      </c>
-      <c r="R67">
-        <v>1.825</v>
-      </c>
-      <c r="S67">
-        <v>1.975</v>
-      </c>
-      <c r="T67">
-        <v>2.75</v>
-      </c>
       <c r="U67">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Y67">
         <v>-1</v>
@@ -6596,13 +6596,13 @@
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC67">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6610,7 +6610,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7493773</v>
+        <v>7493772</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6622,76 +6622,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F68" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K68">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="L68">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M68">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="N68">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O68">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P68">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Q68">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R68">
+        <v>1.9</v>
+      </c>
+      <c r="S68">
+        <v>1.9</v>
+      </c>
+      <c r="T68">
+        <v>3</v>
+      </c>
+      <c r="U68">
         <v>1.85</v>
       </c>
-      <c r="S68">
+      <c r="V68">
         <v>1.95</v>
       </c>
-      <c r="T68">
-        <v>3.75</v>
-      </c>
-      <c r="U68">
-        <v>1.95</v>
-      </c>
-      <c r="V68">
-        <v>1.85</v>
-      </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X68">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA68">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB68">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -7245,7 +7245,7 @@
         <v>45255.40277777778</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
         <v>48</v>
@@ -7322,7 +7322,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7519480</v>
+        <v>7519482</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7334,76 +7334,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K76">
+        <v>1.909</v>
+      </c>
+      <c r="L76">
+        <v>3.4</v>
+      </c>
+      <c r="M76">
+        <v>3.4</v>
+      </c>
+      <c r="N76">
+        <v>1.727</v>
+      </c>
+      <c r="O76">
+        <v>3.6</v>
+      </c>
+      <c r="P76">
+        <v>4.333</v>
+      </c>
+      <c r="Q76">
+        <v>-0.75</v>
+      </c>
+      <c r="R76">
+        <v>1.95</v>
+      </c>
+      <c r="S76">
+        <v>1.85</v>
+      </c>
+      <c r="T76">
         <v>2.5</v>
       </c>
-      <c r="L76">
-        <v>3.5</v>
-      </c>
-      <c r="M76">
-        <v>2.375</v>
-      </c>
-      <c r="N76">
-        <v>2.5</v>
-      </c>
-      <c r="O76">
-        <v>3.5</v>
-      </c>
-      <c r="P76">
-        <v>2.375</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>1.975</v>
-      </c>
-      <c r="S76">
-        <v>1.825</v>
-      </c>
-      <c r="T76">
-        <v>3</v>
-      </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X76">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC76">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7411,7 +7411,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7519482</v>
+        <v>7519480</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7423,76 +7423,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F77" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K77">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N77">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P77">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T77">
+        <v>3</v>
+      </c>
+      <c r="U77">
+        <v>1.9</v>
+      </c>
+      <c r="V77">
+        <v>1.9</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
         <v>2.5</v>
       </c>
-      <c r="U77">
-        <v>1.85</v>
-      </c>
-      <c r="V77">
-        <v>1.95</v>
-      </c>
-      <c r="W77">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7868,7 +7868,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
         <v>46</v>
@@ -7945,7 +7945,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7902469</v>
+        <v>7902467</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7957,34 +7957,34 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K83">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L83">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M83">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N83">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="O83">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P83">
         <v>4.333</v>
@@ -7993,40 +7993,40 @@
         <v>-1</v>
       </c>
       <c r="R83">
+        <v>1.925</v>
+      </c>
+      <c r="S83">
         <v>1.875</v>
       </c>
-      <c r="S83">
+      <c r="T83">
+        <v>3.25</v>
+      </c>
+      <c r="U83">
+        <v>1.775</v>
+      </c>
+      <c r="V83">
         <v>1.925</v>
       </c>
-      <c r="T83">
-        <v>2.5</v>
-      </c>
-      <c r="U83">
-        <v>1.9</v>
-      </c>
-      <c r="V83">
-        <v>1.9</v>
-      </c>
       <c r="W83">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8034,7 +8034,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7902467</v>
+        <v>7902469</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8046,34 +8046,34 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K84">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M84">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N84">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P84">
         <v>4.333</v>
@@ -8082,40 +8082,129 @@
         <v>-1</v>
       </c>
       <c r="R84">
+        <v>1.875</v>
+      </c>
+      <c r="S84">
         <v>1.925</v>
       </c>
-      <c r="S84">
-        <v>1.875</v>
-      </c>
       <c r="T84">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
+        <v>1.9</v>
+      </c>
+      <c r="V84">
+        <v>1.9</v>
+      </c>
+      <c r="W84">
+        <v>0.5</v>
+      </c>
+      <c r="X84">
+        <v>-1</v>
+      </c>
+      <c r="Y84">
+        <v>-1</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>-0</v>
+      </c>
+      <c r="AB84">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC84">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>7907650</v>
+      </c>
+      <c r="C85" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45354.45833333334</v>
+      </c>
+      <c r="F85" t="s">
+        <v>30</v>
+      </c>
+      <c r="G85" t="s">
+        <v>60</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85" t="s">
+        <v>85</v>
+      </c>
+      <c r="K85">
+        <v>1.6</v>
+      </c>
+      <c r="L85">
+        <v>4.5</v>
+      </c>
+      <c r="M85">
+        <v>3.75</v>
+      </c>
+      <c r="N85">
+        <v>1.5</v>
+      </c>
+      <c r="O85">
+        <v>4.75</v>
+      </c>
+      <c r="P85">
+        <v>4.2</v>
+      </c>
+      <c r="Q85">
+        <v>-1</v>
+      </c>
+      <c r="R85">
+        <v>1.85</v>
+      </c>
+      <c r="S85">
+        <v>1.95</v>
+      </c>
+      <c r="T85">
+        <v>2.75</v>
+      </c>
+      <c r="U85">
         <v>1.775</v>
       </c>
-      <c r="V84">
-        <v>1.925</v>
-      </c>
-      <c r="W84">
-        <v>-1</v>
-      </c>
-      <c r="X84">
-        <v>3</v>
-      </c>
-      <c r="Y84">
-        <v>-1</v>
-      </c>
-      <c r="Z84">
-        <v>-1</v>
-      </c>
-      <c r="AA84">
-        <v>0.875</v>
-      </c>
-      <c r="AB84">
-        <v>-1</v>
-      </c>
-      <c r="AC84">
-        <v>0.925</v>
+      <c r="V85">
+        <v>2.025</v>
+      </c>
+      <c r="W85">
+        <v>0.5</v>
+      </c>
+      <c r="X85">
+        <v>-1</v>
+      </c>
+      <c r="Y85">
+        <v>-1</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>-0</v>
+      </c>
+      <c r="AB85">
+        <v>0.3875</v>
+      </c>
+      <c r="AC85">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -118,15 +118,15 @@
     <t>NK Vuteks Sloga</t>
   </si>
   <si>
+    <t>NK Tomislav</t>
+  </si>
+  <si>
+    <t>Sava Strmec</t>
+  </si>
+  <si>
     <t>NK Bistra</t>
   </si>
   <si>
-    <t>NK Tomislav</t>
-  </si>
-  <si>
-    <t>Sava Strmec</t>
-  </si>
-  <si>
     <t>Lucko</t>
   </si>
   <si>
@@ -187,12 +187,12 @@
     <t>NK Tresnjevka</t>
   </si>
   <si>
+    <t>NK Gosk Kastel Gomilica</t>
+  </si>
+  <si>
     <t>NK Croatia Dakovo</t>
   </si>
   <si>
-    <t>NK Gosk Kastel Gomilica</t>
-  </si>
-  <si>
     <t>NK Tekstilac Ravnice</t>
   </si>
   <si>
@@ -208,15 +208,15 @@
     <t>Valpovka</t>
   </si>
   <si>
+    <t>Slavija Pleternica</t>
+  </si>
+  <si>
+    <t>NK Oriolik Oriovac</t>
+  </si>
+  <si>
     <t>NK Vrapce</t>
   </si>
   <si>
-    <t>Slavija Pleternica</t>
-  </si>
-  <si>
-    <t>NK Oriolik Oriovac</t>
-  </si>
-  <si>
     <t>NK Uskok</t>
   </si>
   <si>
@@ -235,10 +235,10 @@
     <t>NK Mladost Petrinja</t>
   </si>
   <si>
+    <t>NK Svacic</t>
+  </si>
+  <si>
     <t>Sloga Nova Gradiska</t>
-  </si>
-  <si>
-    <t>NK Svacic</t>
   </si>
   <si>
     <t>NK Neretva</t>
@@ -1181,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7126857</v>
+        <v>7126859</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1193,76 +1193,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
         <v>64</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7">
+        <v>1.5</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>1.5</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>-1</v>
+      </c>
+      <c r="R7">
+        <v>1.8</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
         <v>3</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7">
-        <v>2.875</v>
-      </c>
-      <c r="L7">
-        <v>3.5</v>
-      </c>
-      <c r="M7">
-        <v>2.1</v>
-      </c>
-      <c r="N7">
-        <v>2.9</v>
-      </c>
-      <c r="O7">
-        <v>3.5</v>
-      </c>
-      <c r="P7">
-        <v>2.1</v>
-      </c>
-      <c r="Q7">
-        <v>0.25</v>
-      </c>
-      <c r="R7">
-        <v>1.925</v>
-      </c>
-      <c r="S7">
-        <v>1.875</v>
-      </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
       <c r="U7">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1270,7 +1270,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7126859</v>
+        <v>7126860</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1282,7 +1282,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
         <v>65</v>
@@ -1297,61 +1297,61 @@
         <v>87</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N8">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T8">
         <v>3</v>
       </c>
       <c r="U8">
+        <v>1.95</v>
+      </c>
+      <c r="V8">
         <v>1.85</v>
       </c>
-      <c r="V8">
-        <v>1.95</v>
-      </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1359,7 +1359,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7126860</v>
+        <v>7126858</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1374,73 +1374,73 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K9">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L9">
         <v>3.4</v>
       </c>
       <c r="M9">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N9">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1448,7 +1448,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7126858</v>
+        <v>7126857</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1463,73 +1463,73 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K10">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N10">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P10">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q10">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T10">
         <v>2.75</v>
       </c>
       <c r="U10">
+        <v>1.825</v>
+      </c>
+      <c r="V10">
+        <v>1.975</v>
+      </c>
+      <c r="W10">
         <v>1.9</v>
       </c>
-      <c r="V10">
-        <v>1.9</v>
-      </c>
-      <c r="W10">
-        <v>-1</v>
-      </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1641,7 +1641,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1730,7 +1730,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -2160,7 +2160,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7188987</v>
+        <v>7188989</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2172,56 +2172,56 @@
         <v>45179.5</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>86</v>
       </c>
       <c r="K18">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="L18">
         <v>3.4</v>
       </c>
       <c r="M18">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="N18">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O18">
         <v>3.4</v>
       </c>
       <c r="P18">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R18">
+        <v>1.95</v>
+      </c>
+      <c r="S18">
         <v>1.85</v>
-      </c>
-      <c r="S18">
-        <v>1.95</v>
       </c>
       <c r="T18">
         <v>3</v>
       </c>
       <c r="U18">
+        <v>1.975</v>
+      </c>
+      <c r="V18">
         <v>1.825</v>
       </c>
-      <c r="V18">
-        <v>1.975</v>
-      </c>
       <c r="W18">
         <v>-1</v>
       </c>
@@ -2229,19 +2229,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.909</v>
+        <v>1.4</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2249,7 +2249,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7188989</v>
+        <v>7188990</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2261,13 +2261,13 @@
         <v>45179.5</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -2276,41 +2276,41 @@
         <v>86</v>
       </c>
       <c r="K19">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L19">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M19">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N19">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O19">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P19">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
+        <v>1.825</v>
+      </c>
+      <c r="V19">
         <v>1.975</v>
       </c>
-      <c r="V19">
-        <v>1.825</v>
-      </c>
       <c r="W19">
         <v>-1</v>
       </c>
@@ -2318,19 +2318,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2338,7 +2338,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7188990</v>
+        <v>7188987</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2350,49 +2350,49 @@
         <v>45179.5</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>86</v>
       </c>
       <c r="K20">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L20">
+        <v>3.4</v>
+      </c>
+      <c r="M20">
+        <v>1.909</v>
+      </c>
+      <c r="N20">
         <v>3.5</v>
       </c>
-      <c r="M20">
+      <c r="O20">
+        <v>3.4</v>
+      </c>
+      <c r="P20">
+        <v>1.909</v>
+      </c>
+      <c r="Q20">
+        <v>0.5</v>
+      </c>
+      <c r="R20">
+        <v>1.85</v>
+      </c>
+      <c r="S20">
+        <v>1.95</v>
+      </c>
+      <c r="T20">
         <v>3</v>
-      </c>
-      <c r="N20">
-        <v>2.1</v>
-      </c>
-      <c r="O20">
-        <v>3.5</v>
-      </c>
-      <c r="P20">
-        <v>3</v>
-      </c>
-      <c r="Q20">
-        <v>-0.25</v>
-      </c>
-      <c r="R20">
-        <v>1.875</v>
-      </c>
-      <c r="S20">
-        <v>1.925</v>
-      </c>
-      <c r="T20">
-        <v>2.75</v>
       </c>
       <c r="U20">
         <v>1.825</v>
@@ -2407,13 +2407,13 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB20">
         <v>-1</v>
@@ -2516,7 +2516,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7202436</v>
+        <v>7202437</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2528,58 +2528,58 @@
         <v>45182.5</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>85</v>
       </c>
       <c r="K22">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L22">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M22">
+        <v>6</v>
+      </c>
+      <c r="N22">
+        <v>1.4</v>
+      </c>
+      <c r="O22">
         <v>4.333</v>
       </c>
-      <c r="N22">
-        <v>1.533</v>
-      </c>
-      <c r="O22">
-        <v>4</v>
-      </c>
       <c r="P22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q22">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R22">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U22">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>0.5329999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2588,16 +2588,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.35</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AC22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2605,7 +2605,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7202437</v>
+        <v>7202436</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2617,58 +2617,58 @@
         <v>45182.5</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>85</v>
       </c>
       <c r="K23">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L23">
+        <v>3.75</v>
+      </c>
+      <c r="M23">
         <v>4.333</v>
       </c>
-      <c r="M23">
-        <v>6</v>
-      </c>
       <c r="N23">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="O23">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q23">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
-        <v>0.3999999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2677,16 +2677,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2976,7 +2976,7 @@
         <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3065,7 +3065,7 @@
         <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3139,7 +3139,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7250138</v>
+        <v>7250137</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3151,76 +3151,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>73</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K29">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L29">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M29">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N29">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P29">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3228,7 +3228,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7250137</v>
+        <v>7250138</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3240,76 +3240,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
         <v>74</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K30">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L30">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N30">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O30">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P30">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S30">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y30">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3421,7 +3421,7 @@
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3495,7 +3495,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7291473</v>
+        <v>7291472</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3507,13 +3507,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3522,43 +3522,43 @@
         <v>85</v>
       </c>
       <c r="K33">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L33">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N33">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="O33">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P33">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q33">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V33">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3567,13 +3567,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3584,7 +3584,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7291472</v>
+        <v>7291473</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3596,13 +3596,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3611,43 +3611,43 @@
         <v>85</v>
       </c>
       <c r="K34">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L34">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M34">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N34">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P34">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3656,13 +3656,13 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3673,7 +3673,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7305881</v>
+        <v>7305882</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3685,76 +3685,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>86</v>
+      </c>
+      <c r="K35">
+        <v>3.6</v>
+      </c>
+      <c r="L35">
         <v>4</v>
       </c>
-      <c r="I35">
-        <v>2</v>
-      </c>
-      <c r="J35" t="s">
-        <v>85</v>
-      </c>
-      <c r="K35">
-        <v>1.363</v>
-      </c>
-      <c r="L35">
-        <v>4.75</v>
-      </c>
       <c r="M35">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="N35">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O35">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P35">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q35">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R35">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V35">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W35">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z35">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB35">
+        <v>-1</v>
+      </c>
+      <c r="AC35">
         <v>1</v>
-      </c>
-      <c r="AC35">
-        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3762,7 +3762,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7305882</v>
+        <v>7305881</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3774,76 +3774,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I36">
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K36">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M36">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="N36">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O36">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P36">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="Q36">
+        <v>-1.25</v>
+      </c>
+      <c r="R36">
+        <v>1.75</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
+        <v>1.8</v>
+      </c>
+      <c r="W36">
+        <v>0.363</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
+        <v>-1</v>
+      </c>
+      <c r="Z36">
         <v>0.75</v>
       </c>
-      <c r="R36">
-        <v>1.825</v>
-      </c>
-      <c r="S36">
-        <v>1.975</v>
-      </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
-      <c r="U36">
-        <v>1.8</v>
-      </c>
-      <c r="V36">
-        <v>2</v>
-      </c>
-      <c r="W36">
-        <v>-1</v>
-      </c>
-      <c r="X36">
-        <v>-1</v>
-      </c>
-      <c r="Y36">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z36">
-        <v>-1</v>
-      </c>
       <c r="AA36">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC36">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3952,10 +3952,10 @@
         <v>45207.46875</v>
       </c>
       <c r="F38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" t="s">
         <v>36</v>
-      </c>
-      <c r="G38" t="s">
-        <v>34</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -4486,7 +4486,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
         <v>60</v>
@@ -4563,7 +4563,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7366817</v>
+        <v>7366818</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4575,76 +4575,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>85</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L45">
+        <v>3.75</v>
+      </c>
+      <c r="M45">
         <v>3.4</v>
       </c>
-      <c r="M45">
-        <v>3.1</v>
-      </c>
       <c r="N45">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O45">
+        <v>3.75</v>
+      </c>
+      <c r="P45">
         <v>3.4</v>
       </c>
-      <c r="P45">
-        <v>3.1</v>
-      </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W45">
+        <v>0.8</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
+        <v>-1</v>
+      </c>
+      <c r="Z45">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA45">
+        <v>-1</v>
+      </c>
+      <c r="AB45">
+        <v>-1</v>
+      </c>
+      <c r="AC45">
         <v>1</v>
-      </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>-1</v>
-      </c>
-      <c r="Z45">
-        <v>0.8</v>
-      </c>
-      <c r="AA45">
-        <v>-1</v>
-      </c>
-      <c r="AB45">
-        <v>0.925</v>
-      </c>
-      <c r="AC45">
-        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4652,7 +4652,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7366818</v>
+        <v>7366817</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4664,76 +4664,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
         <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
       </c>
       <c r="J46" t="s">
         <v>85</v>
       </c>
       <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>3.4</v>
+      </c>
+      <c r="M46">
+        <v>3.1</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>3.4</v>
+      </c>
+      <c r="P46">
+        <v>3.1</v>
+      </c>
+      <c r="Q46">
+        <v>-0.25</v>
+      </c>
+      <c r="R46">
         <v>1.8</v>
       </c>
-      <c r="L46">
-        <v>3.75</v>
-      </c>
-      <c r="M46">
-        <v>3.4</v>
-      </c>
-      <c r="N46">
-        <v>1.8</v>
-      </c>
-      <c r="O46">
-        <v>3.75</v>
-      </c>
-      <c r="P46">
-        <v>3.4</v>
-      </c>
-      <c r="Q46">
-        <v>-0.5</v>
-      </c>
-      <c r="R46">
-        <v>1.85</v>
-      </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>-1</v>
+      </c>
+      <c r="Y46">
+        <v>-1</v>
+      </c>
+      <c r="Z46">
         <v>0.8</v>
       </c>
-      <c r="X46">
-        <v>-1</v>
-      </c>
-      <c r="Y46">
-        <v>-1</v>
-      </c>
-      <c r="Z46">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5008,7 +5008,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7382547</v>
+        <v>7382546</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5020,76 +5020,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>87</v>
+      </c>
+      <c r="K50">
+        <v>1.363</v>
+      </c>
+      <c r="L50">
+        <v>4.333</v>
+      </c>
+      <c r="M50">
+        <v>6.5</v>
+      </c>
+      <c r="N50">
+        <v>1.25</v>
+      </c>
+      <c r="O50">
         <v>5</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50" t="s">
-        <v>85</v>
-      </c>
-      <c r="K50">
-        <v>2.3</v>
-      </c>
-      <c r="L50">
-        <v>3.4</v>
-      </c>
-      <c r="M50">
-        <v>2.625</v>
-      </c>
-      <c r="N50">
-        <v>2.3</v>
-      </c>
-      <c r="O50">
-        <v>3.4</v>
-      </c>
       <c r="P50">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R50">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB50">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5097,7 +5097,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7382546</v>
+        <v>7382547</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5109,76 +5109,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K51">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L51">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N51">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X51">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5287,7 +5287,7 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
@@ -5376,7 +5376,7 @@
         <v>45228.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
         <v>71</v>
@@ -5557,7 +5557,7 @@
         <v>46</v>
       </c>
       <c r="G56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -6343,7 +6343,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7493775</v>
+        <v>7493772</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6355,13 +6355,13 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -6370,43 +6370,43 @@
         <v>85</v>
       </c>
       <c r="K65">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L65">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M65">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N65">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O65">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P65">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q65">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R65">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S65">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U65">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6415,16 +6415,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB65">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6447,7 +6447,7 @@
         <v>50</v>
       </c>
       <c r="G66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6521,7 +6521,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7493773</v>
+        <v>7493775</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6533,76 +6533,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F67" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K67">
-        <v>1.2</v>
+        <v>1.727</v>
       </c>
       <c r="L67">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M67">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="N67">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="O67">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P67">
-        <v>9</v>
+        <v>5.25</v>
       </c>
       <c r="Q67">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T67">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V67">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X67">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AC67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6610,7 +6610,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7493772</v>
+        <v>7493773</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6622,76 +6622,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G68" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K68">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M68">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="N68">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O68">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P68">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Q68">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U68">
+        <v>1.95</v>
+      </c>
+      <c r="V68">
         <v>1.85</v>
       </c>
-      <c r="V68">
-        <v>1.95</v>
-      </c>
       <c r="W68">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
+        <v>-1</v>
+      </c>
+      <c r="AA68">
+        <v>0.95</v>
+      </c>
+      <c r="AB68">
+        <v>0.475</v>
+      </c>
+      <c r="AC68">
         <v>-0.5</v>
-      </c>
-      <c r="AA68">
-        <v>0.45</v>
-      </c>
-      <c r="AB68">
-        <v>0</v>
-      </c>
-      <c r="AC68">
-        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6714,7 +6714,7 @@
         <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6892,7 +6892,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7517624</v>
+        <v>7517623</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7070,37 +7070,37 @@
         <v>57</v>
       </c>
       <c r="G73" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K73">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L73">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="M73">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O73">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q73">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
         <v>1.85</v>
@@ -7109,34 +7109,34 @@
         <v>1.95</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7144,7 +7144,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7517623</v>
+        <v>7517624</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7159,37 +7159,37 @@
         <v>58</v>
       </c>
       <c r="G74" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K74">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L74">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="M74">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N74">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R74">
         <v>1.85</v>
@@ -7198,34 +7198,34 @@
         <v>1.95</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z74">
+        <v>-1</v>
+      </c>
+      <c r="AA74">
+        <v>0.95</v>
+      </c>
+      <c r="AB74">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA74">
-        <v>-1</v>
-      </c>
-      <c r="AB74">
-        <v>-1</v>
-      </c>
       <c r="AC74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7500,7 +7500,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7519478</v>
+        <v>7519479</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7512,55 +7512,55 @@
         <v>45256.40625</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>1</v>
-      </c>
-      <c r="I78">
-        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>86</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q78">
         <v>0.25</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7569,19 +7569,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
+        <v>1.2</v>
+      </c>
+      <c r="Z78">
+        <v>-1</v>
+      </c>
+      <c r="AA78">
         <v>1</v>
       </c>
-      <c r="Z78">
-        <v>-1</v>
-      </c>
-      <c r="AA78">
-        <v>0.8</v>
-      </c>
       <c r="AB78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7589,7 +7589,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7519479</v>
+        <v>7519478</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7604,52 +7604,52 @@
         <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>86</v>
       </c>
       <c r="K79">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N79">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q79">
         <v>0.25</v>
       </c>
       <c r="R79">
+        <v>2</v>
+      </c>
+      <c r="S79">
         <v>1.8</v>
       </c>
-      <c r="S79">
-        <v>2</v>
-      </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7658,19 +7658,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7945,7 +7945,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7902467</v>
+        <v>7902469</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7957,34 +7957,34 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K83">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M83">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N83">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P83">
         <v>4.333</v>
@@ -7993,40 +7993,40 @@
         <v>-1</v>
       </c>
       <c r="R83">
+        <v>1.875</v>
+      </c>
+      <c r="S83">
         <v>1.925</v>
       </c>
-      <c r="S83">
-        <v>1.875</v>
-      </c>
       <c r="T83">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X83">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC83">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8034,7 +8034,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7902469</v>
+        <v>7902467</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8046,34 +8046,34 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K84">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L84">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M84">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N84">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="O84">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P84">
         <v>4.333</v>
@@ -8082,40 +8082,40 @@
         <v>-1</v>
       </c>
       <c r="R84">
+        <v>1.925</v>
+      </c>
+      <c r="S84">
         <v>1.875</v>
       </c>
-      <c r="S84">
+      <c r="T84">
+        <v>3.25</v>
+      </c>
+      <c r="U84">
+        <v>1.775</v>
+      </c>
+      <c r="V84">
         <v>1.925</v>
       </c>
-      <c r="T84">
-        <v>2.5</v>
-      </c>
-      <c r="U84">
-        <v>1.9</v>
-      </c>
-      <c r="V84">
-        <v>1.9</v>
-      </c>
       <c r="W84">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="85" spans="1:29">

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -118,30 +118,30 @@
     <t>NK Vuteks Sloga</t>
   </si>
   <si>
+    <t>NK Bistra</t>
+  </si>
+  <si>
+    <t>Sava Strmec</t>
+  </si>
+  <si>
     <t>NK Tomislav</t>
   </si>
   <si>
-    <t>Sava Strmec</t>
-  </si>
-  <si>
-    <t>NK Bistra</t>
-  </si>
-  <si>
     <t>Lucko</t>
   </si>
   <si>
     <t>Gaj Mace</t>
   </si>
   <si>
+    <t>RNK Split</t>
+  </si>
+  <si>
+    <t>Zmaj Makarska</t>
+  </si>
+  <si>
     <t>NK Vodice</t>
   </si>
   <si>
-    <t>RNK Split</t>
-  </si>
-  <si>
-    <t>Zmaj Makarska</t>
-  </si>
-  <si>
     <t>NK Udarnik Kurilovec</t>
   </si>
   <si>
@@ -187,10 +187,13 @@
     <t>NK Tresnjevka</t>
   </si>
   <si>
+    <t>NK Croatia Dakovo</t>
+  </si>
+  <si>
     <t>NK Gosk Kastel Gomilica</t>
   </si>
   <si>
-    <t>NK Croatia Dakovo</t>
+    <t>NK Neretvanac Opuzen</t>
   </si>
   <si>
     <t>NK Tekstilac Ravnice</t>
@@ -208,21 +211,21 @@
     <t>Valpovka</t>
   </si>
   <si>
+    <t>NK Vrapce</t>
+  </si>
+  <si>
     <t>Slavija Pleternica</t>
   </si>
   <si>
     <t>NK Oriolik Oriovac</t>
   </si>
   <si>
-    <t>NK Vrapce</t>
+    <t>NK Kamen Ivanbegovina</t>
   </si>
   <si>
     <t>NK Uskok</t>
   </si>
   <si>
-    <t>NK Kamen Ivanbegovina</t>
-  </si>
-  <si>
     <t>NK Nask Nasice</t>
   </si>
   <si>
@@ -235,12 +238,12 @@
     <t>NK Mladost Petrinja</t>
   </si>
   <si>
+    <t>Sloga Nova Gradiska</t>
+  </si>
+  <si>
     <t>NK Svacic</t>
   </si>
   <si>
-    <t>Sloga Nova Gradiska</t>
-  </si>
-  <si>
     <t>NK Neretva</t>
   </si>
   <si>
@@ -269,6 +272,9 @@
   </si>
   <si>
     <t>NK Samobor</t>
+  </si>
+  <si>
+    <t>NK Cres</t>
   </si>
   <si>
     <t>H</t>
@@ -639,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC85"/>
+  <dimension ref="A1:AC92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -751,7 +757,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -760,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K2">
         <v>1.285</v>
@@ -840,7 +846,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -849,7 +855,7 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K3">
         <v>2.1</v>
@@ -929,7 +935,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -938,7 +944,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K4">
         <v>1.8</v>
@@ -1018,7 +1024,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1027,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K5">
         <v>2.25</v>
@@ -1107,7 +1113,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1116,7 +1122,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K6">
         <v>1.666</v>
@@ -1181,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7126859</v>
+        <v>7126857</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1193,76 +1199,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
         <v>87</v>
       </c>
       <c r="K7">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="N7">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1270,7 +1276,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7126860</v>
+        <v>7126858</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1282,76 +1288,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L8">
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N8">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1359,7 +1365,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7126858</v>
+        <v>7126859</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1371,76 +1377,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K9">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>-1</v>
+      </c>
+      <c r="R9">
         <v>1.8</v>
       </c>
-      <c r="Q9">
-        <v>0.5</v>
-      </c>
-      <c r="R9">
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>1.85</v>
+      </c>
+      <c r="V9">
         <v>1.95</v>
       </c>
-      <c r="S9">
-        <v>1.85</v>
-      </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
-      <c r="U9">
-        <v>1.9</v>
-      </c>
-      <c r="V9">
-        <v>1.9</v>
-      </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1448,7 +1454,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7126857</v>
+        <v>7126860</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1463,73 +1469,73 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10">
+        <v>2.5</v>
+      </c>
+      <c r="L10">
+        <v>3.4</v>
+      </c>
+      <c r="M10">
+        <v>2.4</v>
+      </c>
+      <c r="N10">
+        <v>2.625</v>
+      </c>
+      <c r="O10">
+        <v>3.4</v>
+      </c>
+      <c r="P10">
+        <v>2.3</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1.975</v>
+      </c>
+      <c r="S10">
+        <v>1.725</v>
+      </c>
+      <c r="T10">
         <v>3</v>
       </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10">
-        <v>2.875</v>
-      </c>
-      <c r="L10">
-        <v>3.5</v>
-      </c>
-      <c r="M10">
-        <v>2.1</v>
-      </c>
-      <c r="N10">
-        <v>2.9</v>
-      </c>
-      <c r="O10">
-        <v>3.5</v>
-      </c>
-      <c r="P10">
-        <v>2.1</v>
-      </c>
-      <c r="Q10">
-        <v>0.25</v>
-      </c>
-      <c r="R10">
-        <v>1.925</v>
-      </c>
-      <c r="S10">
-        <v>1.875</v>
-      </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1561,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K11">
         <v>1.444</v>
@@ -1650,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K12">
         <v>1.6</v>
@@ -1730,7 +1736,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1739,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K13">
         <v>1.8</v>
@@ -1804,7 +1810,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7183189</v>
+        <v>7183190</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1819,73 +1825,73 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K14">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
+        <v>3.75</v>
+      </c>
+      <c r="N14">
+        <v>1.727</v>
+      </c>
+      <c r="O14">
+        <v>3.75</v>
+      </c>
+      <c r="P14">
+        <v>3.75</v>
+      </c>
+      <c r="Q14">
+        <v>-0.75</v>
+      </c>
+      <c r="R14">
+        <v>1.975</v>
+      </c>
+      <c r="S14">
+        <v>1.825</v>
+      </c>
+      <c r="T14">
         <v>3</v>
       </c>
-      <c r="N14">
-        <v>2.1</v>
-      </c>
-      <c r="O14">
-        <v>3.3</v>
-      </c>
-      <c r="P14">
-        <v>3</v>
-      </c>
-      <c r="Q14">
-        <v>-0.25</v>
-      </c>
-      <c r="R14">
-        <v>1.9</v>
-      </c>
-      <c r="S14">
-        <v>1.9</v>
-      </c>
-      <c r="T14">
+      <c r="U14">
+        <v>1.95</v>
+      </c>
+      <c r="V14">
+        <v>1.85</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
         <v>2.75</v>
       </c>
-      <c r="U14">
-        <v>1.925</v>
-      </c>
-      <c r="V14">
-        <v>1.775</v>
-      </c>
-      <c r="W14">
-        <v>-1</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
       <c r="Y14">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC14">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1893,7 +1899,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7183190</v>
+        <v>7183191</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1908,73 +1914,73 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K15">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N15">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O15">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1982,7 +1988,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7183191</v>
+        <v>7183189</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1997,52 +2003,52 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
       <c r="J16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q16">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -2051,19 +2057,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB16">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2086,7 +2092,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2095,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K17">
         <v>2.55</v>
@@ -2175,7 +2181,7 @@
         <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2184,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K18">
         <v>2.5</v>
@@ -2249,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7188990</v>
+        <v>7188987</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2261,49 +2267,49 @@
         <v>45179.5</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K19">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L19">
+        <v>3.4</v>
+      </c>
+      <c r="M19">
+        <v>1.909</v>
+      </c>
+      <c r="N19">
         <v>3.5</v>
       </c>
-      <c r="M19">
+      <c r="O19">
+        <v>3.4</v>
+      </c>
+      <c r="P19">
+        <v>1.909</v>
+      </c>
+      <c r="Q19">
+        <v>0.5</v>
+      </c>
+      <c r="R19">
+        <v>1.85</v>
+      </c>
+      <c r="S19">
+        <v>1.95</v>
+      </c>
+      <c r="T19">
         <v>3</v>
-      </c>
-      <c r="N19">
-        <v>2.1</v>
-      </c>
-      <c r="O19">
-        <v>3.5</v>
-      </c>
-      <c r="P19">
-        <v>3</v>
-      </c>
-      <c r="Q19">
-        <v>-0.25</v>
-      </c>
-      <c r="R19">
-        <v>1.875</v>
-      </c>
-      <c r="S19">
-        <v>1.925</v>
-      </c>
-      <c r="T19">
-        <v>2.75</v>
       </c>
       <c r="U19">
         <v>1.825</v>
@@ -2318,13 +2324,13 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
         <v>-1</v>
@@ -2338,7 +2344,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7188987</v>
+        <v>7188990</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2350,49 +2356,49 @@
         <v>45179.5</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K20">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M20">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N20">
+        <v>2.1</v>
+      </c>
+      <c r="O20">
         <v>3.5</v>
       </c>
-      <c r="O20">
-        <v>3.4</v>
-      </c>
       <c r="P20">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
         <v>1.825</v>
@@ -2407,13 +2413,13 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
         <v>-1</v>
@@ -2442,7 +2448,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2451,7 +2457,7 @@
         <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K21">
         <v>1.909</v>
@@ -2516,7 +2522,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7202437</v>
+        <v>7202436</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2528,58 +2534,58 @@
         <v>45182.5</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K22">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L22">
+        <v>3.75</v>
+      </c>
+      <c r="M22">
         <v>4.333</v>
       </c>
-      <c r="M22">
-        <v>6</v>
-      </c>
       <c r="N22">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="O22">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q22">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W22">
-        <v>0.3999999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2588,16 +2594,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB22">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2605,7 +2611,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7202436</v>
+        <v>7202435</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2617,46 +2623,46 @@
         <v>45182.5</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K23">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N23">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O23">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P23">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T23">
         <v>2.75</v>
@@ -2668,7 +2674,7 @@
         <v>1.975</v>
       </c>
       <c r="W23">
-        <v>0.5329999999999999</v>
+        <v>1</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2677,16 +2683,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2694,7 +2700,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7202435</v>
+        <v>7202437</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2706,10 +2712,10 @@
         <v>45182.5</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="H24">
         <v>6</v>
@@ -2718,46 +2724,46 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L24">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M24">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R24">
+        <v>1.85</v>
+      </c>
+      <c r="S24">
+        <v>1.95</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
         <v>1.8</v>
       </c>
-      <c r="S24">
-        <v>2</v>
-      </c>
-      <c r="T24">
-        <v>2.75</v>
-      </c>
-      <c r="U24">
-        <v>1.825</v>
-      </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2766,13 +2772,13 @@
         <v>-1</v>
       </c>
       <c r="Z24">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA24">
+        <v>-1</v>
+      </c>
+      <c r="AB24">
         <v>0.8</v>
-      </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
-      <c r="AB24">
-        <v>0.825</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2795,7 +2801,7 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
         <v>47</v>
@@ -2807,7 +2813,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K25">
         <v>1.8</v>
@@ -2896,7 +2902,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K26">
         <v>2.4</v>
@@ -2976,7 +2982,7 @@
         <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2985,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K27">
         <v>2.75</v>
@@ -3065,7 +3071,7 @@
         <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3074,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K28">
         <v>1.909</v>
@@ -3139,7 +3145,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7250137</v>
+        <v>7250138</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3151,76 +3157,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K29">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N29">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O29">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S29">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y29">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA29">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3228,7 +3234,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7250138</v>
+        <v>7250137</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3240,76 +3246,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K30">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M30">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N30">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P30">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3332,7 +3338,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H31">
         <v>4</v>
@@ -3341,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K31">
         <v>1.6</v>
@@ -3421,7 +3427,7 @@
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3430,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K32">
         <v>1.333</v>
@@ -3519,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K33">
         <v>2.2</v>
@@ -3599,7 +3605,7 @@
         <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H34">
         <v>5</v>
@@ -3608,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K34">
         <v>1.25</v>
@@ -3673,7 +3679,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7305882</v>
+        <v>7305881</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3685,76 +3691,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I35">
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K35">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M35">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="N35">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O35">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P35">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="Q35">
+        <v>-1.25</v>
+      </c>
+      <c r="R35">
+        <v>1.75</v>
+      </c>
+      <c r="S35">
+        <v>1.95</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
+        <v>1.8</v>
+      </c>
+      <c r="W35">
+        <v>0.363</v>
+      </c>
+      <c r="X35">
+        <v>-1</v>
+      </c>
+      <c r="Y35">
+        <v>-1</v>
+      </c>
+      <c r="Z35">
         <v>0.75</v>
       </c>
-      <c r="R35">
-        <v>1.825</v>
-      </c>
-      <c r="S35">
-        <v>1.975</v>
-      </c>
-      <c r="T35">
-        <v>2.75</v>
-      </c>
-      <c r="U35">
-        <v>1.8</v>
-      </c>
-      <c r="V35">
-        <v>2</v>
-      </c>
-      <c r="W35">
-        <v>-1</v>
-      </c>
-      <c r="X35">
-        <v>-1</v>
-      </c>
-      <c r="Y35">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z35">
-        <v>-1</v>
-      </c>
       <c r="AA35">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3762,7 +3768,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7305881</v>
+        <v>7305882</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3774,76 +3780,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>88</v>
+      </c>
+      <c r="K36">
+        <v>3.6</v>
+      </c>
+      <c r="L36">
         <v>4</v>
       </c>
-      <c r="I36">
-        <v>2</v>
-      </c>
-      <c r="J36" t="s">
-        <v>85</v>
-      </c>
-      <c r="K36">
-        <v>1.363</v>
-      </c>
-      <c r="L36">
-        <v>4.75</v>
-      </c>
       <c r="M36">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="N36">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O36">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P36">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q36">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R36">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V36">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z36">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
         <v>1</v>
-      </c>
-      <c r="AC36">
-        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3875,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K37">
         <v>1.3</v>
@@ -3955,7 +3961,7 @@
         <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3964,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K38">
         <v>1.95</v>
@@ -4041,7 +4047,7 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
         <v>52</v>
@@ -4053,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K39">
         <v>2.75</v>
@@ -4133,7 +4139,7 @@
         <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4142,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K40">
         <v>1.4</v>
@@ -4231,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K41">
         <v>1.5</v>
@@ -4320,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K42">
         <v>2.5</v>
@@ -4385,7 +4391,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7343496</v>
+        <v>7343497</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4397,10 +4403,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4409,46 +4415,46 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K43">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M43">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N43">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O43">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P43">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S43">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T43">
         <v>3</v>
       </c>
       <c r="U43">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V43">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W43">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4457,7 +4463,7 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA43">
         <v>-1</v>
@@ -4474,7 +4480,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7343497</v>
+        <v>7343496</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4486,10 +4492,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4498,46 +4504,46 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K44">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L44">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O44">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T44">
         <v>3</v>
       </c>
       <c r="U44">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4546,7 +4552,7 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4578,7 +4584,7 @@
         <v>50</v>
       </c>
       <c r="G45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4587,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K45">
         <v>1.8</v>
@@ -4676,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -4756,7 +4762,7 @@
         <v>51</v>
       </c>
       <c r="G47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4765,7 +4771,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K47">
         <v>1.25</v>
@@ -4845,7 +4851,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4854,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K48">
         <v>2.5</v>
@@ -4934,7 +4940,7 @@
         <v>45</v>
       </c>
       <c r="G49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -4943,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K49">
         <v>1.571</v>
@@ -5023,7 +5029,7 @@
         <v>52</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5032,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K50">
         <v>1.363</v>
@@ -5109,10 +5115,10 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H51">
         <v>5</v>
@@ -5121,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K51">
         <v>2.3</v>
@@ -5198,10 +5204,10 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5210,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K52">
         <v>1.4</v>
@@ -5287,7 +5293,7 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
@@ -5299,7 +5305,7 @@
         <v>4</v>
       </c>
       <c r="J53" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K53">
         <v>1.615</v>
@@ -5376,10 +5382,10 @@
         <v>45228.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5388,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K54">
         <v>1.5</v>
@@ -5465,10 +5471,10 @@
         <v>45232.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5477,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K55">
         <v>3.5</v>
@@ -5557,7 +5563,7 @@
         <v>46</v>
       </c>
       <c r="G56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5566,7 +5572,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K56">
         <v>1.909</v>
@@ -5646,7 +5652,7 @@
         <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5655,7 +5661,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -5732,7 +5738,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
         <v>55</v>
@@ -5744,7 +5750,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K58">
         <v>5.75</v>
@@ -5821,10 +5827,10 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5833,7 +5839,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K59">
         <v>4</v>
@@ -5913,7 +5919,7 @@
         <v>53</v>
       </c>
       <c r="G60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5922,7 +5928,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K60">
         <v>3.2</v>
@@ -6011,7 +6017,7 @@
         <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K61">
         <v>2.4</v>
@@ -6091,7 +6097,7 @@
         <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6100,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K62">
         <v>1.5</v>
@@ -6180,7 +6186,7 @@
         <v>54</v>
       </c>
       <c r="G63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6189,7 +6195,7 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6269,7 +6275,7 @@
         <v>51</v>
       </c>
       <c r="G64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6278,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6343,7 +6349,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7493772</v>
+        <v>7493775</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6355,58 +6361,58 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G65" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K65">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M65">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N65">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O65">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P65">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q65">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V65">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6415,16 +6421,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA65">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC65">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6432,7 +6438,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7493774</v>
+        <v>7493773</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6444,61 +6450,61 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G66" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K66">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L66">
+        <v>6</v>
+      </c>
+      <c r="M66">
+        <v>9</v>
+      </c>
+      <c r="N66">
+        <v>1.2</v>
+      </c>
+      <c r="O66">
+        <v>6</v>
+      </c>
+      <c r="P66">
+        <v>9</v>
+      </c>
+      <c r="Q66">
+        <v>-2</v>
+      </c>
+      <c r="R66">
+        <v>1.85</v>
+      </c>
+      <c r="S66">
+        <v>1.95</v>
+      </c>
+      <c r="T66">
         <v>3.75</v>
       </c>
-      <c r="M66">
-        <v>4</v>
-      </c>
-      <c r="N66">
-        <v>1.45</v>
-      </c>
-      <c r="O66">
-        <v>3.8</v>
-      </c>
-      <c r="P66">
-        <v>5.75</v>
-      </c>
-      <c r="Q66">
-        <v>-1</v>
-      </c>
-      <c r="R66">
-        <v>1.825</v>
-      </c>
-      <c r="S66">
-        <v>1.975</v>
-      </c>
-      <c r="T66">
-        <v>2.75</v>
-      </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6507,13 +6513,13 @@
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC66">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6521,7 +6527,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7493775</v>
+        <v>7493772</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6533,58 +6539,58 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F67" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K67">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L67">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M67">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N67">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O67">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P67">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q67">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R67">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S67">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V67">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6593,16 +6599,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB67">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6610,7 +6616,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7493773</v>
+        <v>7493774</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6622,61 +6628,61 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F68" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K68">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L68">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N68">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="O68">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P68">
-        <v>9</v>
+        <v>5.75</v>
       </c>
       <c r="Q68">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T68">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Y68">
         <v>-1</v>
@@ -6685,13 +6691,13 @@
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB68">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6714,7 +6720,7 @@
         <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6723,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -6812,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K70">
         <v>2.6</v>
@@ -6892,7 +6898,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6901,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K71">
         <v>2.45</v>
@@ -6981,7 +6987,7 @@
         <v>53</v>
       </c>
       <c r="G72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6990,7 +6996,7 @@
         <v>4</v>
       </c>
       <c r="J72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K72">
         <v>2.8</v>
@@ -7055,7 +7061,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7517623</v>
+        <v>7517624</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7070,37 +7076,37 @@
         <v>57</v>
       </c>
       <c r="G73" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J73" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K73">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L73">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N73">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="P73">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R73">
         <v>1.85</v>
@@ -7109,34 +7115,34 @@
         <v>1.95</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U73">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z73">
+        <v>-1</v>
+      </c>
+      <c r="AA73">
+        <v>0.95</v>
+      </c>
+      <c r="AB73">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
-      <c r="AB73">
-        <v>-1</v>
-      </c>
       <c r="AC73">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7144,7 +7150,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7517624</v>
+        <v>7517623</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7159,37 +7165,37 @@
         <v>58</v>
       </c>
       <c r="G74" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K74">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L74">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="M74">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O74">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
         <v>1.85</v>
@@ -7198,34 +7204,34 @@
         <v>1.95</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7245,7 +7251,7 @@
         <v>45255.40277777778</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
         <v>48</v>
@@ -7257,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K75">
         <v>3.2</v>
@@ -7322,7 +7328,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7519482</v>
+        <v>7519480</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7334,76 +7340,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F76" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K76">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L76">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N76">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P76">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S76">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T76">
+        <v>3</v>
+      </c>
+      <c r="U76">
+        <v>1.9</v>
+      </c>
+      <c r="V76">
+        <v>1.9</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
         <v>2.5</v>
       </c>
-      <c r="U76">
-        <v>1.85</v>
-      </c>
-      <c r="V76">
-        <v>1.95</v>
-      </c>
-      <c r="W76">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7411,7 +7417,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7519480</v>
+        <v>7519482</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7423,76 +7429,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
         <v>87</v>
       </c>
       <c r="K77">
+        <v>1.909</v>
+      </c>
+      <c r="L77">
+        <v>3.4</v>
+      </c>
+      <c r="M77">
+        <v>3.4</v>
+      </c>
+      <c r="N77">
+        <v>1.727</v>
+      </c>
+      <c r="O77">
+        <v>3.6</v>
+      </c>
+      <c r="P77">
+        <v>4.333</v>
+      </c>
+      <c r="Q77">
+        <v>-0.75</v>
+      </c>
+      <c r="R77">
+        <v>1.95</v>
+      </c>
+      <c r="S77">
+        <v>1.85</v>
+      </c>
+      <c r="T77">
         <v>2.5</v>
       </c>
-      <c r="L77">
-        <v>3.5</v>
-      </c>
-      <c r="M77">
-        <v>2.375</v>
-      </c>
-      <c r="N77">
-        <v>2.5</v>
-      </c>
-      <c r="O77">
-        <v>3.5</v>
-      </c>
-      <c r="P77">
-        <v>2.375</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>1.975</v>
-      </c>
-      <c r="S77">
-        <v>1.825</v>
-      </c>
-      <c r="T77">
-        <v>3</v>
-      </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X77">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC77">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7515,7 +7521,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7524,7 +7530,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K78">
         <v>2.75</v>
@@ -7601,7 +7607,7 @@
         <v>45256.40625</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
         <v>37</v>
@@ -7613,7 +7619,7 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K79">
         <v>3</v>
@@ -7693,7 +7699,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7702,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K80">
         <v>1.5</v>
@@ -7782,7 +7788,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H81">
         <v>7</v>
@@ -7791,7 +7797,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K81">
         <v>1.571</v>
@@ -7868,7 +7874,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G82" t="s">
         <v>46</v>
@@ -7880,7 +7886,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K82">
         <v>3.4</v>
@@ -7945,7 +7951,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7902469</v>
+        <v>7902467</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7957,34 +7963,34 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K83">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L83">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M83">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N83">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="O83">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P83">
         <v>4.333</v>
@@ -7993,40 +7999,40 @@
         <v>-1</v>
       </c>
       <c r="R83">
+        <v>1.925</v>
+      </c>
+      <c r="S83">
         <v>1.875</v>
       </c>
-      <c r="S83">
+      <c r="T83">
+        <v>3.25</v>
+      </c>
+      <c r="U83">
+        <v>1.775</v>
+      </c>
+      <c r="V83">
         <v>1.925</v>
       </c>
-      <c r="T83">
-        <v>2.5</v>
-      </c>
-      <c r="U83">
-        <v>1.9</v>
-      </c>
-      <c r="V83">
-        <v>1.9</v>
-      </c>
       <c r="W83">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8034,7 +8040,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7902467</v>
+        <v>7902469</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8046,34 +8052,34 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>87</v>
       </c>
       <c r="K84">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M84">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N84">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P84">
         <v>4.333</v>
@@ -8082,40 +8088,40 @@
         <v>-1</v>
       </c>
       <c r="R84">
+        <v>1.875</v>
+      </c>
+      <c r="S84">
         <v>1.925</v>
       </c>
-      <c r="S84">
-        <v>1.875</v>
-      </c>
       <c r="T84">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X84">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC84">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8138,7 +8144,7 @@
         <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8147,7 +8153,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K85">
         <v>1.6</v>
@@ -8205,6 +8211,629 @@
       </c>
       <c r="AC85">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>7934098</v>
+      </c>
+      <c r="C86" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F86" t="s">
+        <v>46</v>
+      </c>
+      <c r="G86" t="s">
+        <v>52</v>
+      </c>
+      <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>87</v>
+      </c>
+      <c r="K86">
+        <v>1.727</v>
+      </c>
+      <c r="L86">
+        <v>3.6</v>
+      </c>
+      <c r="M86">
+        <v>3.8</v>
+      </c>
+      <c r="N86">
+        <v>1.727</v>
+      </c>
+      <c r="O86">
+        <v>3.6</v>
+      </c>
+      <c r="P86">
+        <v>3.8</v>
+      </c>
+      <c r="Q86">
+        <v>-0.75</v>
+      </c>
+      <c r="R86">
+        <v>1.975</v>
+      </c>
+      <c r="S86">
+        <v>1.825</v>
+      </c>
+      <c r="T86">
+        <v>3</v>
+      </c>
+      <c r="U86">
+        <v>1.95</v>
+      </c>
+      <c r="V86">
+        <v>1.85</v>
+      </c>
+      <c r="W86">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X86">
+        <v>-1</v>
+      </c>
+      <c r="Y86">
+        <v>-1</v>
+      </c>
+      <c r="Z86">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA86">
+        <v>-1</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>7934099</v>
+      </c>
+      <c r="C87" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45360.45902777778</v>
+      </c>
+      <c r="F87" t="s">
+        <v>51</v>
+      </c>
+      <c r="G87" t="s">
+        <v>86</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87" t="s">
+        <v>87</v>
+      </c>
+      <c r="K87">
+        <v>1.333</v>
+      </c>
+      <c r="L87">
+        <v>4.5</v>
+      </c>
+      <c r="M87">
+        <v>7.5</v>
+      </c>
+      <c r="N87">
+        <v>1.25</v>
+      </c>
+      <c r="O87">
+        <v>4.75</v>
+      </c>
+      <c r="P87">
+        <v>9</v>
+      </c>
+      <c r="Q87">
+        <v>-1.75</v>
+      </c>
+      <c r="R87">
+        <v>1.95</v>
+      </c>
+      <c r="S87">
+        <v>1.85</v>
+      </c>
+      <c r="T87">
+        <v>2.75</v>
+      </c>
+      <c r="U87">
+        <v>1.75</v>
+      </c>
+      <c r="V87">
+        <v>1.95</v>
+      </c>
+      <c r="W87">
+        <v>0.25</v>
+      </c>
+      <c r="X87">
+        <v>-1</v>
+      </c>
+      <c r="Y87">
+        <v>-1</v>
+      </c>
+      <c r="Z87">
+        <v>0.95</v>
+      </c>
+      <c r="AA87">
+        <v>-1</v>
+      </c>
+      <c r="AB87">
+        <v>0.375</v>
+      </c>
+      <c r="AC87">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>7934097</v>
+      </c>
+      <c r="C88" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45360.47916666666</v>
+      </c>
+      <c r="F88" t="s">
+        <v>33</v>
+      </c>
+      <c r="G88" t="s">
+        <v>66</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>87</v>
+      </c>
+      <c r="K88">
+        <v>1.6</v>
+      </c>
+      <c r="L88">
+        <v>4</v>
+      </c>
+      <c r="M88">
+        <v>4.2</v>
+      </c>
+      <c r="N88">
+        <v>1.6</v>
+      </c>
+      <c r="O88">
+        <v>4</v>
+      </c>
+      <c r="P88">
+        <v>4.2</v>
+      </c>
+      <c r="Q88">
+        <v>-0.75</v>
+      </c>
+      <c r="R88">
+        <v>1.75</v>
+      </c>
+      <c r="S88">
+        <v>1.95</v>
+      </c>
+      <c r="T88">
+        <v>3</v>
+      </c>
+      <c r="U88">
+        <v>1.875</v>
+      </c>
+      <c r="V88">
+        <v>1.925</v>
+      </c>
+      <c r="W88">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X88">
+        <v>-1</v>
+      </c>
+      <c r="Y88">
+        <v>-1</v>
+      </c>
+      <c r="Z88">
+        <v>0.75</v>
+      </c>
+      <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>7939609</v>
+      </c>
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45361.45833333334</v>
+      </c>
+      <c r="F89" t="s">
+        <v>59</v>
+      </c>
+      <c r="G89" t="s">
+        <v>78</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89" t="s">
+        <v>87</v>
+      </c>
+      <c r="K89">
+        <v>1.4</v>
+      </c>
+      <c r="L89">
+        <v>4.8</v>
+      </c>
+      <c r="M89">
+        <v>5.25</v>
+      </c>
+      <c r="N89">
+        <v>1.4</v>
+      </c>
+      <c r="O89">
+        <v>5</v>
+      </c>
+      <c r="P89">
+        <v>5</v>
+      </c>
+      <c r="Q89">
+        <v>-1.25</v>
+      </c>
+      <c r="R89">
+        <v>1.875</v>
+      </c>
+      <c r="S89">
+        <v>1.925</v>
+      </c>
+      <c r="T89">
+        <v>2.75</v>
+      </c>
+      <c r="U89">
+        <v>1.8</v>
+      </c>
+      <c r="V89">
+        <v>2</v>
+      </c>
+      <c r="W89">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
+        <v>-1</v>
+      </c>
+      <c r="Z89">
+        <v>-0.5</v>
+      </c>
+      <c r="AA89">
+        <v>0.4625</v>
+      </c>
+      <c r="AB89">
+        <v>-1</v>
+      </c>
+      <c r="AC89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>7939610</v>
+      </c>
+      <c r="C90" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45361.45833333334</v>
+      </c>
+      <c r="F90" t="s">
+        <v>47</v>
+      </c>
+      <c r="G90" t="s">
+        <v>55</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>4</v>
+      </c>
+      <c r="J90" t="s">
+        <v>88</v>
+      </c>
+      <c r="K90">
+        <v>2.75</v>
+      </c>
+      <c r="L90">
+        <v>3.4</v>
+      </c>
+      <c r="M90">
+        <v>2.2</v>
+      </c>
+      <c r="N90">
+        <v>3.1</v>
+      </c>
+      <c r="O90">
+        <v>3.4</v>
+      </c>
+      <c r="P90">
+        <v>2</v>
+      </c>
+      <c r="Q90">
+        <v>0.25</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
+        <v>1.8</v>
+      </c>
+      <c r="T90">
+        <v>2.75</v>
+      </c>
+      <c r="U90">
+        <v>1.8</v>
+      </c>
+      <c r="V90">
+        <v>2</v>
+      </c>
+      <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
+        <v>-1</v>
+      </c>
+      <c r="Y90">
+        <v>1</v>
+      </c>
+      <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
+        <v>0.8</v>
+      </c>
+      <c r="AB90">
+        <v>0.8</v>
+      </c>
+      <c r="AC90">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>7939607</v>
+      </c>
+      <c r="C91" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45361.47916666666</v>
+      </c>
+      <c r="F91" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" t="s">
+        <v>70</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>87</v>
+      </c>
+      <c r="K91">
+        <v>2.75</v>
+      </c>
+      <c r="L91">
+        <v>3.5</v>
+      </c>
+      <c r="M91">
+        <v>2.15</v>
+      </c>
+      <c r="N91">
+        <v>2.75</v>
+      </c>
+      <c r="O91">
+        <v>3.5</v>
+      </c>
+      <c r="P91">
+        <v>2.15</v>
+      </c>
+      <c r="Q91">
+        <v>0.25</v>
+      </c>
+      <c r="R91">
+        <v>1.85</v>
+      </c>
+      <c r="S91">
+        <v>1.95</v>
+      </c>
+      <c r="T91">
+        <v>3</v>
+      </c>
+      <c r="U91">
+        <v>1.875</v>
+      </c>
+      <c r="V91">
+        <v>1.925</v>
+      </c>
+      <c r="W91">
+        <v>1.75</v>
+      </c>
+      <c r="X91">
+        <v>-1</v>
+      </c>
+      <c r="Y91">
+        <v>-1</v>
+      </c>
+      <c r="Z91">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA91">
+        <v>-1</v>
+      </c>
+      <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>7939611</v>
+      </c>
+      <c r="C92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" t="s">
+        <v>28</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45361.48958333334</v>
+      </c>
+      <c r="F92" t="s">
+        <v>35</v>
+      </c>
+      <c r="G92" t="s">
+        <v>38</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>89</v>
+      </c>
+      <c r="K92">
+        <v>3.4</v>
+      </c>
+      <c r="L92">
+        <v>3.8</v>
+      </c>
+      <c r="M92">
+        <v>1.8</v>
+      </c>
+      <c r="N92">
+        <v>3.3</v>
+      </c>
+      <c r="O92">
+        <v>3.8</v>
+      </c>
+      <c r="P92">
+        <v>1.8</v>
+      </c>
+      <c r="Q92">
+        <v>0.5</v>
+      </c>
+      <c r="R92">
+        <v>1.95</v>
+      </c>
+      <c r="S92">
+        <v>1.85</v>
+      </c>
+      <c r="T92">
+        <v>2.75</v>
+      </c>
+      <c r="U92">
+        <v>1.75</v>
+      </c>
+      <c r="V92">
+        <v>1.95</v>
+      </c>
+      <c r="W92">
+        <v>-1</v>
+      </c>
+      <c r="X92">
+        <v>2.8</v>
+      </c>
+      <c r="Y92">
+        <v>-1</v>
+      </c>
+      <c r="Z92">
+        <v>0.95</v>
+      </c>
+      <c r="AA92">
+        <v>-1</v>
+      </c>
+      <c r="AB92">
+        <v>-1</v>
+      </c>
+      <c r="AC92">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="91">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>NK Vuteks Sloga</t>
   </si>
   <si>
-    <t>NK Bistra</t>
+    <t>Sava Strmec</t>
   </si>
   <si>
-    <t>Sava Strmec</t>
+    <t>NK Bistra</t>
   </si>
   <si>
     <t>NK Tomislav</t>
@@ -136,10 +136,10 @@
     <t>RNK Split</t>
   </si>
   <si>
-    <t>Zmaj Makarska</t>
+    <t>NK Vodice</t>
   </si>
   <si>
-    <t>NK Vodice</t>
+    <t>Zmaj Makarska</t>
   </si>
   <si>
     <t>NK Udarnik Kurilovec</t>
@@ -187,10 +187,10 @@
     <t>NK Tresnjevka</t>
   </si>
   <si>
-    <t>NK Croatia Dakovo</t>
+    <t>NK Gosk Kastel Gomilica</t>
   </si>
   <si>
-    <t>NK Gosk Kastel Gomilica</t>
+    <t>NK Croatia Dakovo</t>
   </si>
   <si>
     <t>NK Neretvanac Opuzen</t>
@@ -214,10 +214,10 @@
     <t>NK Vrapce</t>
   </si>
   <si>
-    <t>Slavija Pleternica</t>
+    <t>NK Oriolik Oriovac</t>
   </si>
   <si>
-    <t>NK Oriolik Oriovac</t>
+    <t>Slavija Pleternica</t>
   </si>
   <si>
     <t>NK Kamen Ivanbegovina</t>
@@ -229,10 +229,10 @@
     <t>NK Nask Nasice</t>
   </si>
   <si>
-    <t>NK Zagorec Krapina</t>
+    <t>NK Tondach</t>
   </si>
   <si>
-    <t>NK Tondach</t>
+    <t>NK Zagorec Krapina</t>
   </si>
   <si>
     <t>NK Mladost Petrinja</t>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>NK Cres</t>
+  </si>
+  <si>
+    <t>NK Rudar Labin</t>
   </si>
   <si>
     <t>H</t>
@@ -645,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC92"/>
+  <dimension ref="A1:AC96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -766,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K2">
         <v>1.285</v>
@@ -855,7 +858,7 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3">
         <v>2.1</v>
@@ -944,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4">
         <v>1.8</v>
@@ -1033,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K5">
         <v>2.25</v>
@@ -1122,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K6">
         <v>1.666</v>
@@ -1187,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7126857</v>
+        <v>7126858</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1202,73 +1205,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K7">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N7">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1276,7 +1279,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7126858</v>
+        <v>7126857</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1291,10 +1294,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -1303,61 +1306,61 @@
         <v>88</v>
       </c>
       <c r="K8">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N8">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
+        <v>1.825</v>
+      </c>
+      <c r="V8">
+        <v>1.975</v>
+      </c>
+      <c r="W8">
         <v>1.9</v>
       </c>
-      <c r="V8">
-        <v>1.9</v>
-      </c>
-      <c r="W8">
-        <v>-1</v>
-      </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1365,7 +1368,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7126859</v>
+        <v>7126860</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1377,7 +1380,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
         <v>66</v>
@@ -1389,64 +1392,64 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K9">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N9">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T9">
         <v>3</v>
       </c>
       <c r="U9">
+        <v>1.95</v>
+      </c>
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="V9">
-        <v>1.95</v>
-      </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1454,7 +1457,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7126860</v>
+        <v>7126859</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1466,7 +1469,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
         <v>67</v>
@@ -1478,64 +1481,64 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K10">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N10">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>3</v>
       </c>
       <c r="U10">
+        <v>1.85</v>
+      </c>
+      <c r="V10">
         <v>1.95</v>
       </c>
-      <c r="V10">
-        <v>1.85</v>
-      </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1567,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11">
         <v>1.444</v>
@@ -1647,7 +1650,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1656,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K12">
         <v>1.6</v>
@@ -1745,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K13">
         <v>1.8</v>
@@ -1834,7 +1837,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14">
         <v>1.727</v>
@@ -1899,7 +1902,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7183191</v>
+        <v>7183189</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1914,52 +1917,52 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
       <c r="J15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K15">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P15">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1968,19 +1971,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB15">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1988,7 +1991,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7183189</v>
+        <v>7183191</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2003,52 +2006,52 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N16">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O16">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R16">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -2057,19 +2060,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC16">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2101,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17">
         <v>2.55</v>
@@ -2178,7 +2181,7 @@
         <v>45179.5</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
         <v>65</v>
@@ -2190,7 +2193,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K18">
         <v>2.5</v>
@@ -2255,7 +2258,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7188987</v>
+        <v>7188988</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2267,49 +2270,49 @@
         <v>45179.5</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
         <v>71</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K19">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="L19">
         <v>3.4</v>
       </c>
       <c r="M19">
+        <v>3.4</v>
+      </c>
+      <c r="N19">
         <v>1.909</v>
-      </c>
-      <c r="N19">
-        <v>3.5</v>
       </c>
       <c r="O19">
         <v>3.4</v>
       </c>
       <c r="P19">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
         <v>1.825</v>
@@ -2324,19 +2327,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.909</v>
+        <v>2.4</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2368,7 +2371,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K20">
         <v>2.1</v>
@@ -2433,7 +2436,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7188988</v>
+        <v>7188987</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2445,49 +2448,49 @@
         <v>45179.5</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>72</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K21">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L21">
         <v>3.4</v>
       </c>
       <c r="M21">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O21">
         <v>3.4</v>
       </c>
       <c r="P21">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U21">
         <v>1.825</v>
@@ -2502,19 +2505,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>2.4</v>
+        <v>0.909</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2522,7 +2525,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7202436</v>
+        <v>7202435</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2534,46 +2537,46 @@
         <v>45182.5</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K22">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N22">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P22">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q22">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T22">
         <v>2.75</v>
@@ -2585,7 +2588,7 @@
         <v>1.975</v>
       </c>
       <c r="W22">
-        <v>0.5329999999999999</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2594,16 +2597,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="AA22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2611,7 +2614,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7202435</v>
+        <v>7202436</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2623,46 +2626,46 @@
         <v>45182.5</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M23">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T23">
         <v>2.75</v>
@@ -2674,7 +2677,7 @@
         <v>1.975</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2683,16 +2686,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8</v>
+        <v>0.35</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2715,7 +2718,7 @@
         <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>6</v>
@@ -2724,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K24">
         <v>1.4</v>
@@ -2813,7 +2816,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25">
         <v>1.8</v>
@@ -2902,7 +2905,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K26">
         <v>2.4</v>
@@ -2982,7 +2985,7 @@
         <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2991,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K27">
         <v>2.75</v>
@@ -3071,7 +3074,7 @@
         <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3080,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K28">
         <v>1.909</v>
@@ -3169,7 +3172,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K29">
         <v>2.1</v>
@@ -3258,7 +3261,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K30">
         <v>1.727</v>
@@ -3347,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K31">
         <v>1.6</v>
@@ -3427,7 +3430,7 @@
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3436,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K32">
         <v>1.333</v>
@@ -3516,7 +3519,7 @@
         <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3525,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K33">
         <v>2.2</v>
@@ -3614,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K34">
         <v>1.25</v>
@@ -3703,7 +3706,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K35">
         <v>1.363</v>
@@ -3780,7 +3783,7 @@
         <v>45206.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
         <v>55</v>
@@ -3792,7 +3795,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K36">
         <v>3.6</v>
@@ -3881,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K37">
         <v>1.3</v>
@@ -3958,11 +3961,11 @@
         <v>45207.46875</v>
       </c>
       <c r="F38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" t="s">
         <v>35</v>
       </c>
-      <c r="G38" t="s">
-        <v>34</v>
-      </c>
       <c r="H38">
         <v>2</v>
       </c>
@@ -3970,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K38">
         <v>1.95</v>
@@ -4035,7 +4038,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7337013</v>
+        <v>7337011</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4047,76 +4050,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K39">
+        <v>1.4</v>
+      </c>
+      <c r="L39">
+        <v>4.75</v>
+      </c>
+      <c r="M39">
+        <v>5.25</v>
+      </c>
+      <c r="N39">
+        <v>1.4</v>
+      </c>
+      <c r="O39">
+        <v>4.75</v>
+      </c>
+      <c r="P39">
+        <v>5.25</v>
+      </c>
+      <c r="Q39">
+        <v>-1.25</v>
+      </c>
+      <c r="R39">
+        <v>1.9</v>
+      </c>
+      <c r="S39">
+        <v>1.9</v>
+      </c>
+      <c r="T39">
         <v>2.75</v>
       </c>
-      <c r="L39">
-        <v>3.4</v>
-      </c>
-      <c r="M39">
-        <v>2.2</v>
-      </c>
-      <c r="N39">
-        <v>2.75</v>
-      </c>
-      <c r="O39">
-        <v>3.4</v>
-      </c>
-      <c r="P39">
-        <v>2.2</v>
-      </c>
-      <c r="Q39">
-        <v>0.25</v>
-      </c>
-      <c r="R39">
-        <v>1.8</v>
-      </c>
-      <c r="S39">
-        <v>2</v>
-      </c>
-      <c r="T39">
-        <v>3</v>
-      </c>
       <c r="U39">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X39">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4124,7 +4127,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7337011</v>
+        <v>7337013</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4136,76 +4139,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K40">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L40">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N40">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O40">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q40">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W40">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4213,7 +4216,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7337010</v>
+        <v>7337008</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4225,76 +4228,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K41">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M41">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N41">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O41">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P41">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R41">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S41">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB41">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4302,7 +4305,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7337008</v>
+        <v>7337010</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4314,76 +4317,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
         <v>88</v>
       </c>
       <c r="K42">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L42">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N42">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O42">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P42">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q42">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R42">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
         <v>3</v>
       </c>
       <c r="U42">
+        <v>1.75</v>
+      </c>
+      <c r="V42">
         <v>1.95</v>
       </c>
-      <c r="V42">
-        <v>1.85</v>
-      </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4391,7 +4394,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7343497</v>
+        <v>7343496</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4403,10 +4406,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4415,46 +4418,46 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K43">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L43">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M43">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O43">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P43">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
         <v>3</v>
       </c>
       <c r="U43">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4463,7 +4466,7 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA43">
         <v>-1</v>
@@ -4480,7 +4483,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7343496</v>
+        <v>7343497</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4492,10 +4495,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4504,46 +4507,46 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K44">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M44">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N44">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P44">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T44">
         <v>3</v>
       </c>
       <c r="U44">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V44">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W44">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4552,7 +4555,7 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4569,7 +4572,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7366818</v>
+        <v>7366817</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4581,76 +4584,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
         <v>1</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
       <c r="J45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>3.4</v>
+      </c>
+      <c r="M45">
+        <v>3.1</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>3.4</v>
+      </c>
+      <c r="P45">
+        <v>3.1</v>
+      </c>
+      <c r="Q45">
+        <v>-0.25</v>
+      </c>
+      <c r="R45">
         <v>1.8</v>
       </c>
-      <c r="L45">
-        <v>3.75</v>
-      </c>
-      <c r="M45">
-        <v>3.4</v>
-      </c>
-      <c r="N45">
-        <v>1.8</v>
-      </c>
-      <c r="O45">
-        <v>3.75</v>
-      </c>
-      <c r="P45">
-        <v>3.4</v>
-      </c>
-      <c r="Q45">
-        <v>-0.5</v>
-      </c>
-      <c r="R45">
-        <v>1.85</v>
-      </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
+        <v>-1</v>
+      </c>
+      <c r="Z45">
         <v>0.8</v>
       </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>-1</v>
-      </c>
-      <c r="Z45">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4658,7 +4661,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7366817</v>
+        <v>7366818</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4670,76 +4673,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L46">
+        <v>3.75</v>
+      </c>
+      <c r="M46">
         <v>3.4</v>
       </c>
-      <c r="M46">
-        <v>3.1</v>
-      </c>
       <c r="N46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O46">
+        <v>3.75</v>
+      </c>
+      <c r="P46">
         <v>3.4</v>
       </c>
-      <c r="P46">
-        <v>3.1</v>
-      </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W46">
+        <v>0.8</v>
+      </c>
+      <c r="X46">
+        <v>-1</v>
+      </c>
+      <c r="Y46">
+        <v>-1</v>
+      </c>
+      <c r="Z46">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>-1</v>
+      </c>
+      <c r="AB46">
+        <v>-1</v>
+      </c>
+      <c r="AC46">
         <v>1</v>
-      </c>
-      <c r="X46">
-        <v>-1</v>
-      </c>
-      <c r="Y46">
-        <v>-1</v>
-      </c>
-      <c r="Z46">
-        <v>0.8</v>
-      </c>
-      <c r="AA46">
-        <v>-1</v>
-      </c>
-      <c r="AB46">
-        <v>0.925</v>
-      </c>
-      <c r="AC46">
-        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4771,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K47">
         <v>1.25</v>
@@ -4851,7 +4854,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4860,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K48">
         <v>2.5</v>
@@ -4940,7 +4943,7 @@
         <v>45</v>
       </c>
       <c r="G49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -4949,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K49">
         <v>1.571</v>
@@ -5014,7 +5017,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7382546</v>
+        <v>7382547</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5026,76 +5029,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K50">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L50">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N50">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O50">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="Q50">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X50">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC50">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5103,7 +5106,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7382547</v>
+        <v>7382546</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5115,76 +5118,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" t="s">
         <v>40</v>
       </c>
-      <c r="G51" t="s">
-        <v>39</v>
-      </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>90</v>
+      </c>
+      <c r="K51">
+        <v>1.363</v>
+      </c>
+      <c r="L51">
+        <v>4.333</v>
+      </c>
+      <c r="M51">
+        <v>6.5</v>
+      </c>
+      <c r="N51">
+        <v>1.25</v>
+      </c>
+      <c r="O51">
         <v>5</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>87</v>
-      </c>
-      <c r="K51">
-        <v>2.3</v>
-      </c>
-      <c r="L51">
-        <v>3.4</v>
-      </c>
-      <c r="M51">
-        <v>2.625</v>
-      </c>
-      <c r="N51">
-        <v>2.3</v>
-      </c>
-      <c r="O51">
-        <v>3.4</v>
-      </c>
       <c r="P51">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5216,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K52">
         <v>1.4</v>
@@ -5305,7 +5308,7 @@
         <v>4</v>
       </c>
       <c r="J53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K53">
         <v>1.615</v>
@@ -5382,10 +5385,10 @@
         <v>45228.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5394,7 +5397,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K54">
         <v>1.5</v>
@@ -5471,7 +5474,7 @@
         <v>45232.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
         <v>69</v>
@@ -5483,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K55">
         <v>3.5</v>
@@ -5563,7 +5566,7 @@
         <v>46</v>
       </c>
       <c r="G56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5572,7 +5575,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K56">
         <v>1.909</v>
@@ -5661,7 +5664,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -5750,7 +5753,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K58">
         <v>5.75</v>
@@ -5827,7 +5830,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
         <v>79</v>
@@ -5839,7 +5842,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K59">
         <v>4</v>
@@ -5928,7 +5931,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K60">
         <v>3.2</v>
@@ -6017,7 +6020,7 @@
         <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K61">
         <v>2.4</v>
@@ -6097,7 +6100,7 @@
         <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6106,7 +6109,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K62">
         <v>1.5</v>
@@ -6195,7 +6198,7 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6284,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6373,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K65">
         <v>1.727</v>
@@ -6438,7 +6441,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7493773</v>
+        <v>7493774</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6450,61 +6453,61 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F66" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K66">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L66">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M66">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N66">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="O66">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P66">
-        <v>9</v>
+        <v>5.75</v>
       </c>
       <c r="Q66">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R66">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S66">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T66">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V66">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6513,13 +6516,13 @@
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB66">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6527,7 +6530,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7493772</v>
+        <v>7493773</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6539,76 +6542,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G67" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K67">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="L67">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M67">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="N67">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O67">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P67">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Q67">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R67">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T67">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U67">
+        <v>1.95</v>
+      </c>
+      <c r="V67">
         <v>1.85</v>
       </c>
-      <c r="V67">
-        <v>1.95</v>
-      </c>
       <c r="W67">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
+        <v>-1</v>
+      </c>
+      <c r="AA67">
+        <v>0.95</v>
+      </c>
+      <c r="AB67">
+        <v>0.475</v>
+      </c>
+      <c r="AC67">
         <v>-0.5</v>
-      </c>
-      <c r="AA67">
-        <v>0.45</v>
-      </c>
-      <c r="AB67">
-        <v>0</v>
-      </c>
-      <c r="AC67">
-        <v>-0</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6616,7 +6619,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7493774</v>
+        <v>7493772</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6628,76 +6631,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F68" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K68">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L68">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M68">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N68">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O68">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P68">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R68">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X68">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA68">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6705,7 +6708,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7493776</v>
+        <v>7493771</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6717,58 +6720,58 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L69">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O69">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S69">
         <v>1.975</v>
       </c>
       <c r="T69">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6777,16 +6780,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6794,7 +6797,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7493771</v>
+        <v>7493776</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6806,58 +6809,58 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>88</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>3.6</v>
+      </c>
+      <c r="M70">
         <v>3</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70" t="s">
-        <v>87</v>
-      </c>
-      <c r="K70">
-        <v>2.6</v>
-      </c>
-      <c r="L70">
-        <v>3.5</v>
-      </c>
-      <c r="M70">
-        <v>2.25</v>
-      </c>
       <c r="N70">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O70">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
         <v>1.975</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6866,16 +6869,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6907,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K71">
         <v>2.45</v>
@@ -6996,7 +6999,7 @@
         <v>4</v>
       </c>
       <c r="J72" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K72">
         <v>2.8</v>
@@ -7061,7 +7064,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7517624</v>
+        <v>7517623</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7076,37 +7079,37 @@
         <v>57</v>
       </c>
       <c r="G73" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>88</v>
       </c>
       <c r="K73">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L73">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="M73">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O73">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q73">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
         <v>1.85</v>
@@ -7115,34 +7118,34 @@
         <v>1.95</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7150,7 +7153,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7517623</v>
+        <v>7517624</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7165,37 +7168,37 @@
         <v>58</v>
       </c>
       <c r="G74" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J74" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K74">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L74">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="M74">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N74">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R74">
         <v>1.85</v>
@@ -7204,34 +7207,34 @@
         <v>1.95</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z74">
+        <v>-1</v>
+      </c>
+      <c r="AA74">
+        <v>0.95</v>
+      </c>
+      <c r="AB74">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA74">
-        <v>-1</v>
-      </c>
-      <c r="AB74">
-        <v>-1</v>
-      </c>
       <c r="AC74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7251,7 +7254,7 @@
         <v>45255.40277777778</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
         <v>48</v>
@@ -7263,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K75">
         <v>3.2</v>
@@ -7328,7 +7331,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7519480</v>
+        <v>7519482</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7340,76 +7343,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K76">
+        <v>1.909</v>
+      </c>
+      <c r="L76">
+        <v>3.4</v>
+      </c>
+      <c r="M76">
+        <v>3.4</v>
+      </c>
+      <c r="N76">
+        <v>1.727</v>
+      </c>
+      <c r="O76">
+        <v>3.6</v>
+      </c>
+      <c r="P76">
+        <v>4.333</v>
+      </c>
+      <c r="Q76">
+        <v>-0.75</v>
+      </c>
+      <c r="R76">
+        <v>1.95</v>
+      </c>
+      <c r="S76">
+        <v>1.85</v>
+      </c>
+      <c r="T76">
         <v>2.5</v>
       </c>
-      <c r="L76">
-        <v>3.5</v>
-      </c>
-      <c r="M76">
-        <v>2.375</v>
-      </c>
-      <c r="N76">
-        <v>2.5</v>
-      </c>
-      <c r="O76">
-        <v>3.5</v>
-      </c>
-      <c r="P76">
-        <v>2.375</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>1.975</v>
-      </c>
-      <c r="S76">
-        <v>1.825</v>
-      </c>
-      <c r="T76">
-        <v>3</v>
-      </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X76">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC76">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7417,7 +7420,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7519482</v>
+        <v>7519480</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7429,76 +7432,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F77" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K77">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N77">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P77">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T77">
+        <v>3</v>
+      </c>
+      <c r="U77">
+        <v>1.9</v>
+      </c>
+      <c r="V77">
+        <v>1.9</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
         <v>2.5</v>
       </c>
-      <c r="U77">
-        <v>1.85</v>
-      </c>
-      <c r="V77">
-        <v>1.95</v>
-      </c>
-      <c r="W77">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7506,7 +7509,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7519479</v>
+        <v>7519478</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7521,52 +7524,52 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q78">
         <v>0.25</v>
       </c>
       <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
         <v>1.8</v>
       </c>
-      <c r="S78">
-        <v>2</v>
-      </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7575,19 +7578,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7595,7 +7598,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7519478</v>
+        <v>7519479</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7610,52 +7613,52 @@
         <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
         <v>1</v>
       </c>
-      <c r="I79">
-        <v>2</v>
-      </c>
       <c r="J79" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O79">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q79">
         <v>0.25</v>
       </c>
       <c r="R79">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S79">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7664,19 +7667,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
+        <v>1.2</v>
+      </c>
+      <c r="Z79">
+        <v>-1</v>
+      </c>
+      <c r="AA79">
         <v>1</v>
       </c>
-      <c r="Z79">
-        <v>-1</v>
-      </c>
-      <c r="AA79">
-        <v>0.8</v>
-      </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7708,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K80">
         <v>1.5</v>
@@ -7788,7 +7791,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H81">
         <v>7</v>
@@ -7797,7 +7800,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K81">
         <v>1.571</v>
@@ -7874,7 +7877,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G82" t="s">
         <v>46</v>
@@ -7886,7 +7889,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K82">
         <v>3.4</v>
@@ -7975,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K83">
         <v>1.571</v>
@@ -8055,7 +8058,7 @@
         <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8064,7 +8067,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K84">
         <v>1.333</v>
@@ -8153,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K85">
         <v>1.6</v>
@@ -8242,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K86">
         <v>1.727</v>
@@ -8331,7 +8334,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K87">
         <v>1.333</v>
@@ -8411,7 +8414,7 @@
         <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8420,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K88">
         <v>1.6</v>
@@ -8485,7 +8488,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7939609</v>
+        <v>7939610</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8497,46 +8500,46 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G89" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K89">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L89">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N89">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O89">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S89">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T89">
         <v>2.75</v>
@@ -8548,25 +8551,25 @@
         <v>2</v>
       </c>
       <c r="W89">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC89">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8574,7 +8577,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7939610</v>
+        <v>7939609</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8586,46 +8589,46 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G90" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
         <v>88</v>
       </c>
       <c r="K90">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="M90">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="N90">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
         <v>2.75</v>
@@ -8637,25 +8640,25 @@
         <v>2</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
+        <v>-1</v>
+      </c>
+      <c r="Z90">
+        <v>-0.5</v>
+      </c>
+      <c r="AA90">
+        <v>0.4625</v>
+      </c>
+      <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>1</v>
-      </c>
-      <c r="Z90">
-        <v>-1</v>
-      </c>
-      <c r="AA90">
-        <v>0.8</v>
-      </c>
-      <c r="AB90">
-        <v>0.8</v>
-      </c>
-      <c r="AC90">
-        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8687,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K91">
         <v>2.75</v>
@@ -8764,7 +8767,7 @@
         <v>45361.48958333334</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
         <v>38</v>
@@ -8776,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K92">
         <v>3.4</v>
@@ -8834,6 +8837,347 @@
       </c>
       <c r="AC92">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>7964850</v>
+      </c>
+      <c r="C93" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45367.47916666666</v>
+      </c>
+      <c r="F93" t="s">
+        <v>53</v>
+      </c>
+      <c r="G93" t="s">
+        <v>87</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93" t="s">
+        <v>90</v>
+      </c>
+      <c r="K93">
+        <v>3.8</v>
+      </c>
+      <c r="L93">
+        <v>3.4</v>
+      </c>
+      <c r="M93">
+        <v>1.8</v>
+      </c>
+      <c r="N93">
+        <v>2.7</v>
+      </c>
+      <c r="O93">
+        <v>3.4</v>
+      </c>
+      <c r="P93">
+        <v>2.25</v>
+      </c>
+      <c r="Q93">
+        <v>0.25</v>
+      </c>
+      <c r="R93">
+        <v>1.775</v>
+      </c>
+      <c r="S93">
+        <v>2.025</v>
+      </c>
+      <c r="T93">
+        <v>3</v>
+      </c>
+      <c r="U93">
+        <v>1.95</v>
+      </c>
+      <c r="V93">
+        <v>1.85</v>
+      </c>
+      <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
+        <v>2.4</v>
+      </c>
+      <c r="Y93">
+        <v>-1</v>
+      </c>
+      <c r="Z93">
+        <v>0.3875</v>
+      </c>
+      <c r="AA93">
+        <v>-0.5</v>
+      </c>
+      <c r="AB93">
+        <v>-1</v>
+      </c>
+      <c r="AC93">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>7964849</v>
+      </c>
+      <c r="C94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45367.47916666666</v>
+      </c>
+      <c r="F94" t="s">
+        <v>58</v>
+      </c>
+      <c r="G94" t="s">
+        <v>36</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>88</v>
+      </c>
+      <c r="K94">
+        <v>1.4</v>
+      </c>
+      <c r="L94">
+        <v>4.5</v>
+      </c>
+      <c r="M94">
+        <v>5.5</v>
+      </c>
+      <c r="N94">
+        <v>1.4</v>
+      </c>
+      <c r="O94">
+        <v>4.5</v>
+      </c>
+      <c r="P94">
+        <v>5.5</v>
+      </c>
+      <c r="Q94">
+        <v>-1.25</v>
+      </c>
+      <c r="R94">
+        <v>1.85</v>
+      </c>
+      <c r="S94">
+        <v>1.95</v>
+      </c>
+      <c r="T94">
+        <v>3</v>
+      </c>
+      <c r="U94">
+        <v>1.95</v>
+      </c>
+      <c r="V94">
+        <v>1.85</v>
+      </c>
+      <c r="W94">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X94">
+        <v>-1</v>
+      </c>
+      <c r="Y94">
+        <v>-1</v>
+      </c>
+      <c r="Z94">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA94">
+        <v>-1</v>
+      </c>
+      <c r="AB94">
+        <v>-1</v>
+      </c>
+      <c r="AC94">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>7964847</v>
+      </c>
+      <c r="C95" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" t="s">
+        <v>28</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45367.5</v>
+      </c>
+      <c r="F95" t="s">
+        <v>37</v>
+      </c>
+      <c r="G95" t="s">
+        <v>56</v>
+      </c>
+      <c r="H95">
+        <v>3</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95" t="s">
+        <v>88</v>
+      </c>
+      <c r="K95">
+        <v>1.909</v>
+      </c>
+      <c r="L95">
+        <v>3.6</v>
+      </c>
+      <c r="M95">
+        <v>3.2</v>
+      </c>
+      <c r="N95">
+        <v>1.727</v>
+      </c>
+      <c r="O95">
+        <v>3.75</v>
+      </c>
+      <c r="P95">
+        <v>3.8</v>
+      </c>
+      <c r="Q95">
+        <v>-0.75</v>
+      </c>
+      <c r="R95">
+        <v>1.975</v>
+      </c>
+      <c r="S95">
+        <v>1.825</v>
+      </c>
+      <c r="T95">
+        <v>2.5</v>
+      </c>
+      <c r="U95">
+        <v>1.9</v>
+      </c>
+      <c r="V95">
+        <v>1.9</v>
+      </c>
+      <c r="W95">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X95">
+        <v>-1</v>
+      </c>
+      <c r="Y95">
+        <v>-1</v>
+      </c>
+      <c r="Z95">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA95">
+        <v>-1</v>
+      </c>
+      <c r="AB95">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC95">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>7970544</v>
+      </c>
+      <c r="C96" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45368.47916666666</v>
+      </c>
+      <c r="F96" t="s">
+        <v>30</v>
+      </c>
+      <c r="G96" t="s">
+        <v>31</v>
+      </c>
+      <c r="K96">
+        <v>1.333</v>
+      </c>
+      <c r="L96">
+        <v>4.5</v>
+      </c>
+      <c r="M96">
+        <v>7</v>
+      </c>
+      <c r="N96">
+        <v>1.5</v>
+      </c>
+      <c r="O96">
+        <v>4</v>
+      </c>
+      <c r="P96">
+        <v>5.25</v>
+      </c>
+      <c r="Q96">
+        <v>-1</v>
+      </c>
+      <c r="R96">
+        <v>1.8</v>
+      </c>
+      <c r="S96">
+        <v>2</v>
+      </c>
+      <c r="T96">
+        <v>2.75</v>
+      </c>
+      <c r="U96">
+        <v>1.825</v>
+      </c>
+      <c r="V96">
+        <v>1.975</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -118,13 +118,13 @@
     <t>NK Vuteks Sloga</t>
   </si>
   <si>
-    <t>Sava Strmec</t>
+    <t>NK Tomislav</t>
   </si>
   <si>
     <t>NK Bistra</t>
   </si>
   <si>
-    <t>NK Tomislav</t>
+    <t>Sava Strmec</t>
   </si>
   <si>
     <t>Lucko</t>
@@ -136,10 +136,10 @@
     <t>RNK Split</t>
   </si>
   <si>
-    <t>NK Vodice</t>
+    <t>Zmaj Makarska</t>
   </si>
   <si>
-    <t>Zmaj Makarska</t>
+    <t>NK Vodice</t>
   </si>
   <si>
     <t>NK Udarnik Kurilovec</t>
@@ -187,10 +187,10 @@
     <t>NK Tresnjevka</t>
   </si>
   <si>
-    <t>NK Gosk Kastel Gomilica</t>
+    <t>NK Croatia Dakovo</t>
   </si>
   <si>
-    <t>NK Croatia Dakovo</t>
+    <t>NK Gosk Kastel Gomilica</t>
   </si>
   <si>
     <t>NK Neretvanac Opuzen</t>
@@ -211,10 +211,10 @@
     <t>Valpovka</t>
   </si>
   <si>
-    <t>NK Vrapce</t>
+    <t>NK Oriolik Oriovac</t>
   </si>
   <si>
-    <t>NK Oriolik Oriovac</t>
+    <t>NK Vrapce</t>
   </si>
   <si>
     <t>Slavija Pleternica</t>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>NK Rudar Labin</t>
+  </si>
+  <si>
+    <t>HNK Segesta</t>
   </si>
   <si>
     <t>H</t>
@@ -648,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC96"/>
+  <dimension ref="A1:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -769,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K2">
         <v>1.285</v>
@@ -858,7 +861,7 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K3">
         <v>2.1</v>
@@ -947,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4">
         <v>1.8</v>
@@ -1036,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5">
         <v>2.25</v>
@@ -1125,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K6">
         <v>1.666</v>
@@ -1190,7 +1193,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7126858</v>
+        <v>7126860</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1205,73 +1208,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K7">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L7">
         <v>3.4</v>
       </c>
       <c r="M7">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N7">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P7">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R7">
+        <v>1.975</v>
+      </c>
+      <c r="S7">
+        <v>1.725</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
         <v>1.95</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>1.85</v>
       </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
-      <c r="U7">
-        <v>1.9</v>
-      </c>
-      <c r="V7">
-        <v>1.9</v>
-      </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
+        <v>-0</v>
+      </c>
+      <c r="AB7">
+        <v>-1</v>
+      </c>
+      <c r="AC7">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB7">
-        <v>-1</v>
-      </c>
-      <c r="AC7">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1294,7 +1297,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1303,7 +1306,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K8">
         <v>2.875</v>
@@ -1368,7 +1371,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7126860</v>
+        <v>7126859</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1380,10 +1383,10 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1392,64 +1395,64 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K9">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P9">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>3</v>
       </c>
       <c r="U9">
+        <v>1.85</v>
+      </c>
+      <c r="V9">
         <v>1.95</v>
       </c>
-      <c r="V9">
-        <v>1.85</v>
-      </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1457,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7126859</v>
+        <v>7126858</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1469,76 +1472,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>90</v>
       </c>
       <c r="K10">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N10">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1570,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K11">
         <v>1.444</v>
@@ -1650,7 +1653,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1659,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K12">
         <v>1.6</v>
@@ -1739,7 +1742,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1748,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13">
         <v>1.8</v>
@@ -1837,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14">
         <v>1.727</v>
@@ -1902,7 +1905,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7183189</v>
+        <v>7183191</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1917,52 +1920,52 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K15">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N15">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O15">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1971,19 +1974,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC15">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1991,7 +1994,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7183191</v>
+        <v>7183189</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2006,52 +2009,52 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
       <c r="J16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K16">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q16">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -2060,19 +2063,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB16">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2104,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17">
         <v>2.55</v>
@@ -2169,7 +2172,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7188989</v>
+        <v>7188988</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2181,76 +2184,76 @@
         <v>45179.5</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L18">
         <v>3.4</v>
       </c>
       <c r="M18">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N18">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O18">
         <v>3.4</v>
       </c>
       <c r="P18">
+        <v>3.4</v>
+      </c>
+      <c r="Q18">
+        <v>-0.5</v>
+      </c>
+      <c r="R18">
+        <v>1.975</v>
+      </c>
+      <c r="S18">
+        <v>1.825</v>
+      </c>
+      <c r="T18">
+        <v>2.75</v>
+      </c>
+      <c r="U18">
+        <v>1.825</v>
+      </c>
+      <c r="V18">
+        <v>1.975</v>
+      </c>
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
+        <v>-1</v>
+      </c>
+      <c r="Y18">
         <v>2.4</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>1.95</v>
-      </c>
-      <c r="S18">
-        <v>1.85</v>
-      </c>
-      <c r="T18">
-        <v>3</v>
-      </c>
-      <c r="U18">
-        <v>1.975</v>
-      </c>
-      <c r="V18">
-        <v>1.825</v>
-      </c>
-      <c r="W18">
-        <v>-1</v>
-      </c>
-      <c r="X18">
-        <v>-1</v>
-      </c>
-      <c r="Y18">
-        <v>1.4</v>
-      </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC18">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2258,7 +2261,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7188988</v>
+        <v>7188989</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2270,56 +2273,56 @@
         <v>45179.5</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K19">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L19">
         <v>3.4</v>
       </c>
       <c r="M19">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N19">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O19">
         <v>3.4</v>
       </c>
       <c r="P19">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R19">
+        <v>1.95</v>
+      </c>
+      <c r="S19">
+        <v>1.85</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
         <v>1.975</v>
       </c>
-      <c r="S19">
+      <c r="V19">
         <v>1.825</v>
       </c>
-      <c r="T19">
-        <v>2.75</v>
-      </c>
-      <c r="U19">
-        <v>1.825</v>
-      </c>
-      <c r="V19">
-        <v>1.975</v>
-      </c>
       <c r="W19">
         <v>-1</v>
       </c>
@@ -2327,19 +2330,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2371,7 +2374,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K20">
         <v>2.1</v>
@@ -2460,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K21">
         <v>3.4</v>
@@ -2525,7 +2528,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7202435</v>
+        <v>7202437</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2537,10 +2540,10 @@
         <v>45182.5</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <v>6</v>
@@ -2549,46 +2552,46 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M22">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O22">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P22">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R22">
+        <v>1.85</v>
+      </c>
+      <c r="S22">
+        <v>1.95</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+      <c r="U22">
         <v>1.8</v>
       </c>
-      <c r="S22">
-        <v>2</v>
-      </c>
-      <c r="T22">
-        <v>2.75</v>
-      </c>
-      <c r="U22">
-        <v>1.825</v>
-      </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2597,13 +2600,13 @@
         <v>-1</v>
       </c>
       <c r="Z22">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
         <v>0.8</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>0.825</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2638,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K23">
         <v>1.615</v>
@@ -2703,7 +2706,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7202437</v>
+        <v>7202435</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2715,10 +2718,10 @@
         <v>45182.5</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="H24">
         <v>6</v>
@@ -2727,46 +2730,46 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K24">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N24">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
-        <v>0.3999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2775,13 +2778,13 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2816,7 +2819,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K25">
         <v>1.8</v>
@@ -2905,7 +2908,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K26">
         <v>2.4</v>
@@ -2985,7 +2988,7 @@
         <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2994,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K27">
         <v>2.75</v>
@@ -3083,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K28">
         <v>1.909</v>
@@ -3160,7 +3163,7 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
         <v>74</v>
@@ -3172,7 +3175,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K29">
         <v>2.1</v>
@@ -3261,7 +3264,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K30">
         <v>1.727</v>
@@ -3350,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K31">
         <v>1.6</v>
@@ -3439,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K32">
         <v>1.333</v>
@@ -3504,7 +3507,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7291472</v>
+        <v>7291473</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3516,58 +3519,58 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K33">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M33">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N33">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P33">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3576,13 +3579,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3593,7 +3596,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7291473</v>
+        <v>7291472</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3605,58 +3608,58 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K34">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L34">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N34">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="O34">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P34">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q34">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W34">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3665,13 +3668,13 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3682,7 +3685,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7305881</v>
+        <v>7305882</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3694,76 +3697,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>90</v>
+      </c>
+      <c r="K35">
+        <v>3.6</v>
+      </c>
+      <c r="L35">
         <v>4</v>
       </c>
-      <c r="I35">
-        <v>2</v>
-      </c>
-      <c r="J35" t="s">
-        <v>88</v>
-      </c>
-      <c r="K35">
-        <v>1.363</v>
-      </c>
-      <c r="L35">
-        <v>4.75</v>
-      </c>
       <c r="M35">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="N35">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O35">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P35">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q35">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R35">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V35">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W35">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z35">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB35">
+        <v>-1</v>
+      </c>
+      <c r="AC35">
         <v>1</v>
-      </c>
-      <c r="AC35">
-        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3771,7 +3774,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7305882</v>
+        <v>7305881</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3783,13 +3786,13 @@
         <v>45206.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -3798,61 +3801,61 @@
         <v>89</v>
       </c>
       <c r="K36">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M36">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="N36">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O36">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P36">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="Q36">
+        <v>-1.25</v>
+      </c>
+      <c r="R36">
+        <v>1.75</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
+        <v>1.8</v>
+      </c>
+      <c r="W36">
+        <v>0.363</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
+        <v>-1</v>
+      </c>
+      <c r="Z36">
         <v>0.75</v>
       </c>
-      <c r="R36">
-        <v>1.825</v>
-      </c>
-      <c r="S36">
-        <v>1.975</v>
-      </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
-      <c r="U36">
-        <v>1.8</v>
-      </c>
-      <c r="V36">
-        <v>2</v>
-      </c>
-      <c r="W36">
-        <v>-1</v>
-      </c>
-      <c r="X36">
-        <v>-1</v>
-      </c>
-      <c r="Y36">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z36">
-        <v>-1</v>
-      </c>
       <c r="AA36">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC36">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3884,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K37">
         <v>1.3</v>
@@ -3961,7 +3964,7 @@
         <v>45207.46875</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
         <v>35</v>
@@ -3973,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K38">
         <v>1.95</v>
@@ -4038,7 +4041,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7337011</v>
+        <v>7337013</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4050,76 +4053,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K39">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L39">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N39">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O39">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q39">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U39">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V39">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W39">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4127,7 +4130,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7337013</v>
+        <v>7337011</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4139,76 +4142,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K40">
+        <v>1.4</v>
+      </c>
+      <c r="L40">
+        <v>4.75</v>
+      </c>
+      <c r="M40">
+        <v>5.25</v>
+      </c>
+      <c r="N40">
+        <v>1.4</v>
+      </c>
+      <c r="O40">
+        <v>4.75</v>
+      </c>
+      <c r="P40">
+        <v>5.25</v>
+      </c>
+      <c r="Q40">
+        <v>-1.25</v>
+      </c>
+      <c r="R40">
+        <v>1.9</v>
+      </c>
+      <c r="S40">
+        <v>1.9</v>
+      </c>
+      <c r="T40">
         <v>2.75</v>
       </c>
-      <c r="L40">
-        <v>3.4</v>
-      </c>
-      <c r="M40">
-        <v>2.2</v>
-      </c>
-      <c r="N40">
-        <v>2.75</v>
-      </c>
-      <c r="O40">
-        <v>3.4</v>
-      </c>
-      <c r="P40">
-        <v>2.2</v>
-      </c>
-      <c r="Q40">
-        <v>0.25</v>
-      </c>
-      <c r="R40">
-        <v>1.8</v>
-      </c>
-      <c r="S40">
-        <v>2</v>
-      </c>
-      <c r="T40">
-        <v>3</v>
-      </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X40">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4216,7 +4219,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7337008</v>
+        <v>7337010</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4228,76 +4231,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
         <v>0</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>89</v>
       </c>
       <c r="K41">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L41">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N41">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O41">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P41">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q41">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
+        <v>1.75</v>
+      </c>
+      <c r="V41">
         <v>1.95</v>
       </c>
-      <c r="V41">
-        <v>1.85</v>
-      </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4305,7 +4308,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7337010</v>
+        <v>7337008</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4317,76 +4320,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K42">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N42">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O42">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P42">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
         <v>3</v>
       </c>
       <c r="U42">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB42">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4394,7 +4397,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7343496</v>
+        <v>7343497</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4406,10 +4409,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4418,46 +4421,46 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K43">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M43">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N43">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O43">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P43">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S43">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T43">
         <v>3</v>
       </c>
       <c r="U43">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V43">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W43">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4466,7 +4469,7 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA43">
         <v>-1</v>
@@ -4483,7 +4486,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7343497</v>
+        <v>7343496</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4495,10 +4498,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4507,46 +4510,46 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K44">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L44">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O44">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T44">
         <v>3</v>
       </c>
       <c r="U44">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4555,7 +4558,7 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4572,7 +4575,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7366817</v>
+        <v>7366818</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4584,76 +4587,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L45">
+        <v>3.75</v>
+      </c>
+      <c r="M45">
         <v>3.4</v>
       </c>
-      <c r="M45">
-        <v>3.1</v>
-      </c>
       <c r="N45">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O45">
+        <v>3.75</v>
+      </c>
+      <c r="P45">
         <v>3.4</v>
       </c>
-      <c r="P45">
-        <v>3.1</v>
-      </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W45">
+        <v>0.8</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
+        <v>-1</v>
+      </c>
+      <c r="Z45">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA45">
+        <v>-1</v>
+      </c>
+      <c r="AB45">
+        <v>-1</v>
+      </c>
+      <c r="AC45">
         <v>1</v>
-      </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>-1</v>
-      </c>
-      <c r="Z45">
-        <v>0.8</v>
-      </c>
-      <c r="AA45">
-        <v>-1</v>
-      </c>
-      <c r="AB45">
-        <v>0.925</v>
-      </c>
-      <c r="AC45">
-        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4661,7 +4664,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7366818</v>
+        <v>7366817</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4673,76 +4676,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
         <v>1</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
       <c r="J46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>3.4</v>
+      </c>
+      <c r="M46">
+        <v>3.1</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>3.4</v>
+      </c>
+      <c r="P46">
+        <v>3.1</v>
+      </c>
+      <c r="Q46">
+        <v>-0.25</v>
+      </c>
+      <c r="R46">
         <v>1.8</v>
       </c>
-      <c r="L46">
-        <v>3.75</v>
-      </c>
-      <c r="M46">
-        <v>3.4</v>
-      </c>
-      <c r="N46">
-        <v>1.8</v>
-      </c>
-      <c r="O46">
-        <v>3.75</v>
-      </c>
-      <c r="P46">
-        <v>3.4</v>
-      </c>
-      <c r="Q46">
-        <v>-0.5</v>
-      </c>
-      <c r="R46">
-        <v>1.85</v>
-      </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>-1</v>
+      </c>
+      <c r="Y46">
+        <v>-1</v>
+      </c>
+      <c r="Z46">
         <v>0.8</v>
       </c>
-      <c r="X46">
-        <v>-1</v>
-      </c>
-      <c r="Y46">
-        <v>-1</v>
-      </c>
-      <c r="Z46">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4774,7 +4777,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K47">
         <v>1.25</v>
@@ -4863,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K48">
         <v>2.5</v>
@@ -4952,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K49">
         <v>1.571</v>
@@ -5017,7 +5020,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7382547</v>
+        <v>7382546</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5029,76 +5032,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F50" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" t="s">
         <v>41</v>
       </c>
-      <c r="G50" t="s">
-        <v>39</v>
-      </c>
       <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50">
+        <v>1.363</v>
+      </c>
+      <c r="L50">
+        <v>4.333</v>
+      </c>
+      <c r="M50">
+        <v>6.5</v>
+      </c>
+      <c r="N50">
+        <v>1.25</v>
+      </c>
+      <c r="O50">
         <v>5</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50" t="s">
-        <v>88</v>
-      </c>
-      <c r="K50">
-        <v>2.3</v>
-      </c>
-      <c r="L50">
-        <v>3.4</v>
-      </c>
-      <c r="M50">
-        <v>2.625</v>
-      </c>
-      <c r="N50">
-        <v>2.3</v>
-      </c>
-      <c r="O50">
-        <v>3.4</v>
-      </c>
       <c r="P50">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R50">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB50">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5106,7 +5109,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7382546</v>
+        <v>7382547</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5118,76 +5121,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K51">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L51">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N51">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X51">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5219,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K52">
         <v>1.4</v>
@@ -5296,7 +5299,7 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
@@ -5308,7 +5311,7 @@
         <v>4</v>
       </c>
       <c r="J53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K53">
         <v>1.615</v>
@@ -5397,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K54">
         <v>1.5</v>
@@ -5474,7 +5477,7 @@
         <v>45232.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
         <v>69</v>
@@ -5486,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K55">
         <v>3.5</v>
@@ -5566,7 +5569,7 @@
         <v>46</v>
       </c>
       <c r="G56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5575,7 +5578,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K56">
         <v>1.909</v>
@@ -5664,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -5753,7 +5756,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K58">
         <v>5.75</v>
@@ -5830,7 +5833,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
         <v>79</v>
@@ -5842,7 +5845,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K59">
         <v>4</v>
@@ -5931,7 +5934,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K60">
         <v>3.2</v>
@@ -6020,7 +6023,7 @@
         <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K61">
         <v>2.4</v>
@@ -6109,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K62">
         <v>1.5</v>
@@ -6198,7 +6201,7 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6287,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6352,7 +6355,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7493775</v>
+        <v>7493772</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6364,58 +6367,58 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K65">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L65">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M65">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N65">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O65">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P65">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q65">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R65">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S65">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U65">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6424,16 +6427,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB65">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6441,7 +6444,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7493774</v>
+        <v>7493773</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6453,61 +6456,61 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G66" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K66">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L66">
+        <v>6</v>
+      </c>
+      <c r="M66">
+        <v>9</v>
+      </c>
+      <c r="N66">
+        <v>1.2</v>
+      </c>
+      <c r="O66">
+        <v>6</v>
+      </c>
+      <c r="P66">
+        <v>9</v>
+      </c>
+      <c r="Q66">
+        <v>-2</v>
+      </c>
+      <c r="R66">
+        <v>1.85</v>
+      </c>
+      <c r="S66">
+        <v>1.95</v>
+      </c>
+      <c r="T66">
         <v>3.75</v>
       </c>
-      <c r="M66">
-        <v>4</v>
-      </c>
-      <c r="N66">
-        <v>1.45</v>
-      </c>
-      <c r="O66">
-        <v>3.8</v>
-      </c>
-      <c r="P66">
-        <v>5.75</v>
-      </c>
-      <c r="Q66">
-        <v>-1</v>
-      </c>
-      <c r="R66">
-        <v>1.825</v>
-      </c>
-      <c r="S66">
-        <v>1.975</v>
-      </c>
-      <c r="T66">
-        <v>2.75</v>
-      </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6516,13 +6519,13 @@
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC66">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6530,7 +6533,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7493773</v>
+        <v>7493774</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6542,61 +6545,61 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F67" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K67">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L67">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M67">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N67">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="O67">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P67">
-        <v>9</v>
+        <v>5.75</v>
       </c>
       <c r="Q67">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T67">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Y67">
         <v>-1</v>
@@ -6605,13 +6608,13 @@
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB67">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6619,7 +6622,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7493772</v>
+        <v>7493775</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6631,58 +6634,58 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G68" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K68">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N68">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O68">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P68">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q68">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W68">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6691,16 +6694,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA68">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6708,7 +6711,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7493771</v>
+        <v>7493776</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6720,58 +6723,58 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K69">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L69">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
         <v>1.975</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6780,16 +6783,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6797,7 +6800,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7493776</v>
+        <v>7493771</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6809,58 +6812,58 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N70">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P70">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S70">
         <v>1.975</v>
       </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W70">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6869,16 +6872,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6901,7 +6904,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6910,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K71">
         <v>2.45</v>
@@ -6975,7 +6978,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7520493</v>
+        <v>7517624</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6987,55 +6990,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G72" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K72">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="L72">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="M72">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N72">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O72">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="P72">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="Q72">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R72">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
         <v>1.95</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U72">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
         <v>-1</v>
@@ -7044,7 +7047,7 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.95</v>
+        <v>4.25</v>
       </c>
       <c r="Z72">
         <v>-1</v>
@@ -7053,7 +7056,7 @@
         <v>0.95</v>
       </c>
       <c r="AB72">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -7076,7 +7079,7 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G73" t="s">
         <v>52</v>
@@ -7088,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K73">
         <v>2.05</v>
@@ -7153,7 +7156,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7517624</v>
+        <v>7520493</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7165,55 +7168,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F74" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G74" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K74">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="L74">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="M74">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N74">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O74">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="P74">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S74">
         <v>1.95</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -7222,7 +7225,7 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>4.25</v>
+        <v>0.95</v>
       </c>
       <c r="Z74">
         <v>-1</v>
@@ -7231,7 +7234,7 @@
         <v>0.95</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7254,7 +7257,7 @@
         <v>45255.40277777778</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
         <v>48</v>
@@ -7266,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K75">
         <v>3.2</v>
@@ -7331,7 +7334,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7519482</v>
+        <v>7519480</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7343,76 +7346,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F76" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K76">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L76">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N76">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P76">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S76">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T76">
+        <v>3</v>
+      </c>
+      <c r="U76">
+        <v>1.9</v>
+      </c>
+      <c r="V76">
+        <v>1.9</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
         <v>2.5</v>
       </c>
-      <c r="U76">
-        <v>1.85</v>
-      </c>
-      <c r="V76">
-        <v>1.95</v>
-      </c>
-      <c r="W76">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7420,7 +7423,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7519480</v>
+        <v>7519482</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7432,76 +7435,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K77">
+        <v>1.909</v>
+      </c>
+      <c r="L77">
+        <v>3.4</v>
+      </c>
+      <c r="M77">
+        <v>3.4</v>
+      </c>
+      <c r="N77">
+        <v>1.727</v>
+      </c>
+      <c r="O77">
+        <v>3.6</v>
+      </c>
+      <c r="P77">
+        <v>4.333</v>
+      </c>
+      <c r="Q77">
+        <v>-0.75</v>
+      </c>
+      <c r="R77">
+        <v>1.95</v>
+      </c>
+      <c r="S77">
+        <v>1.85</v>
+      </c>
+      <c r="T77">
         <v>2.5</v>
       </c>
-      <c r="L77">
-        <v>3.5</v>
-      </c>
-      <c r="M77">
-        <v>2.375</v>
-      </c>
-      <c r="N77">
-        <v>2.5</v>
-      </c>
-      <c r="O77">
-        <v>3.5</v>
-      </c>
-      <c r="P77">
-        <v>2.375</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>1.975</v>
-      </c>
-      <c r="S77">
-        <v>1.825</v>
-      </c>
-      <c r="T77">
-        <v>3</v>
-      </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X77">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC77">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7509,7 +7512,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7519478</v>
+        <v>7519479</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7521,55 +7524,55 @@
         <v>45256.40625</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>1</v>
       </c>
-      <c r="I78">
-        <v>2</v>
-      </c>
       <c r="J78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q78">
         <v>0.25</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7578,19 +7581,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
+        <v>1.2</v>
+      </c>
+      <c r="Z78">
+        <v>-1</v>
+      </c>
+      <c r="AA78">
         <v>1</v>
       </c>
-      <c r="Z78">
-        <v>-1</v>
-      </c>
-      <c r="AA78">
-        <v>0.8</v>
-      </c>
       <c r="AB78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7598,7 +7601,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7519479</v>
+        <v>7519478</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7610,55 +7613,55 @@
         <v>45256.40625</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K79">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N79">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q79">
         <v>0.25</v>
       </c>
       <c r="R79">
+        <v>2</v>
+      </c>
+      <c r="S79">
         <v>1.8</v>
       </c>
-      <c r="S79">
-        <v>2</v>
-      </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7667,19 +7670,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7711,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K80">
         <v>1.5</v>
@@ -7800,7 +7803,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K81">
         <v>1.571</v>
@@ -7877,7 +7880,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G82" t="s">
         <v>46</v>
@@ -7889,7 +7892,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K82">
         <v>3.4</v>
@@ -7954,7 +7957,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7902467</v>
+        <v>7902469</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7966,34 +7969,34 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K83">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M83">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N83">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P83">
         <v>4.333</v>
@@ -8002,40 +8005,40 @@
         <v>-1</v>
       </c>
       <c r="R83">
+        <v>1.875</v>
+      </c>
+      <c r="S83">
         <v>1.925</v>
       </c>
-      <c r="S83">
-        <v>1.875</v>
-      </c>
       <c r="T83">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X83">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC83">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8043,7 +8046,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7902469</v>
+        <v>7902467</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8055,34 +8058,34 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K84">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L84">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M84">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N84">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="O84">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P84">
         <v>4.333</v>
@@ -8091,40 +8094,40 @@
         <v>-1</v>
       </c>
       <c r="R84">
+        <v>1.925</v>
+      </c>
+      <c r="S84">
         <v>1.875</v>
       </c>
-      <c r="S84">
+      <c r="T84">
+        <v>3.25</v>
+      </c>
+      <c r="U84">
+        <v>1.775</v>
+      </c>
+      <c r="V84">
         <v>1.925</v>
       </c>
-      <c r="T84">
-        <v>2.5</v>
-      </c>
-      <c r="U84">
-        <v>1.9</v>
-      </c>
-      <c r="V84">
-        <v>1.9</v>
-      </c>
       <c r="W84">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8156,7 +8159,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K85">
         <v>1.6</v>
@@ -8245,7 +8248,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K86">
         <v>1.727</v>
@@ -8334,7 +8337,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K87">
         <v>1.333</v>
@@ -8423,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K88">
         <v>1.6</v>
@@ -8512,7 +8515,7 @@
         <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K89">
         <v>2.75</v>
@@ -8601,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K90">
         <v>1.4</v>
@@ -8690,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K91">
         <v>2.75</v>
@@ -8767,7 +8770,7 @@
         <v>45361.48958333334</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>38</v>
@@ -8779,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K92">
         <v>3.4</v>
@@ -8844,7 +8847,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7964850</v>
+        <v>7964849</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8856,46 +8859,46 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F93" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G93" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K93">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M93">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="N93">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P93">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R93">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
         <v>3</v>
@@ -8907,19 +8910,19 @@
         <v>1.85</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X93">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
         <v>-1</v>
@@ -8933,7 +8936,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7964849</v>
+        <v>7964850</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8945,46 +8948,46 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F94" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K94">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="L94">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M94">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="N94">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O94">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q94">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S94">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T94">
         <v>3</v>
@@ -8996,19 +8999,19 @@
         <v>1.85</v>
       </c>
       <c r="W94">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
         <v>-1</v>
@@ -9046,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K95">
         <v>1.909</v>
@@ -9111,73 +9114,622 @@
         <v>94</v>
       </c>
       <c r="B96">
+        <v>7970543</v>
+      </c>
+      <c r="C96" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45368.29166666666</v>
+      </c>
+      <c r="F96" t="s">
+        <v>38</v>
+      </c>
+      <c r="G96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96" t="s">
+        <v>90</v>
+      </c>
+      <c r="K96">
+        <v>1.5</v>
+      </c>
+      <c r="L96">
+        <v>4</v>
+      </c>
+      <c r="M96">
+        <v>5</v>
+      </c>
+      <c r="N96">
+        <v>1.363</v>
+      </c>
+      <c r="O96">
+        <v>4.5</v>
+      </c>
+      <c r="P96">
+        <v>6.5</v>
+      </c>
+      <c r="Q96">
+        <v>-1.25</v>
+      </c>
+      <c r="R96">
+        <v>1.825</v>
+      </c>
+      <c r="S96">
+        <v>1.975</v>
+      </c>
+      <c r="T96">
+        <v>3</v>
+      </c>
+      <c r="U96">
+        <v>1.85</v>
+      </c>
+      <c r="V96">
+        <v>1.95</v>
+      </c>
+      <c r="W96">
+        <v>-1</v>
+      </c>
+      <c r="X96">
+        <v>-1</v>
+      </c>
+      <c r="Y96">
+        <v>5.5</v>
+      </c>
+      <c r="Z96">
+        <v>-1</v>
+      </c>
+      <c r="AA96">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
         <v>7970544</v>
       </c>
-      <c r="C96" t="s">
-        <v>28</v>
-      </c>
-      <c r="D96" t="s">
-        <v>28</v>
-      </c>
-      <c r="E96" s="2">
+      <c r="C97" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" s="2">
         <v>45368.47916666666</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F97" t="s">
         <v>30</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G97" t="s">
         <v>31</v>
       </c>
-      <c r="K96">
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97" t="s">
+        <v>90</v>
+      </c>
+      <c r="K97">
         <v>1.333</v>
       </c>
-      <c r="L96">
+      <c r="L97">
         <v>4.5</v>
       </c>
-      <c r="M96">
+      <c r="M97">
         <v>7</v>
       </c>
-      <c r="N96">
+      <c r="N97">
         <v>1.5</v>
       </c>
-      <c r="O96">
+      <c r="O97">
         <v>4</v>
       </c>
-      <c r="P96">
+      <c r="P97">
         <v>5.25</v>
       </c>
-      <c r="Q96">
-        <v>-1</v>
-      </c>
-      <c r="R96">
+      <c r="Q97">
+        <v>-1</v>
+      </c>
+      <c r="R97">
         <v>1.8</v>
       </c>
-      <c r="S96">
-        <v>2</v>
-      </c>
-      <c r="T96">
+      <c r="S97">
+        <v>2</v>
+      </c>
+      <c r="T97">
         <v>2.75</v>
       </c>
-      <c r="U96">
+      <c r="U97">
         <v>1.825</v>
       </c>
-      <c r="V96">
+      <c r="V97">
         <v>1.975</v>
       </c>
-      <c r="W96">
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>4.25</v>
+      </c>
+      <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
+        <v>1</v>
+      </c>
+      <c r="AB97">
+        <v>0.4125</v>
+      </c>
+      <c r="AC97">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>7996521</v>
+      </c>
+      <c r="C98" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" t="s">
+        <v>28</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45374.45833333334</v>
+      </c>
+      <c r="F98" t="s">
+        <v>50</v>
+      </c>
+      <c r="G98" t="s">
+        <v>79</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98" t="s">
+        <v>89</v>
+      </c>
+      <c r="K98">
+        <v>2.1</v>
+      </c>
+      <c r="L98">
+        <v>3.5</v>
+      </c>
+      <c r="M98">
+        <v>3</v>
+      </c>
+      <c r="N98">
+        <v>1.909</v>
+      </c>
+      <c r="O98">
+        <v>3.6</v>
+      </c>
+      <c r="P98">
+        <v>3.5</v>
+      </c>
+      <c r="Q98">
+        <v>-0.5</v>
+      </c>
+      <c r="R98">
+        <v>1.95</v>
+      </c>
+      <c r="S98">
+        <v>1.85</v>
+      </c>
+      <c r="T98">
+        <v>2.75</v>
+      </c>
+      <c r="U98">
+        <v>1.8</v>
+      </c>
+      <c r="V98">
+        <v>2</v>
+      </c>
+      <c r="W98">
+        <v>0.909</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>-1</v>
+      </c>
+      <c r="Z98">
+        <v>0.95</v>
+      </c>
+      <c r="AA98">
+        <v>-1</v>
+      </c>
+      <c r="AB98">
+        <v>0.4</v>
+      </c>
+      <c r="AC98">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>7996522</v>
+      </c>
+      <c r="C99" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45374.5</v>
+      </c>
+      <c r="F99" t="s">
+        <v>44</v>
+      </c>
+      <c r="G99" t="s">
+        <v>66</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>91</v>
+      </c>
+      <c r="K99">
+        <v>2.4</v>
+      </c>
+      <c r="L99">
+        <v>3.4</v>
+      </c>
+      <c r="M99">
+        <v>2.5</v>
+      </c>
+      <c r="N99">
+        <v>2.4</v>
+      </c>
+      <c r="O99">
+        <v>3.4</v>
+      </c>
+      <c r="P99">
+        <v>2.5</v>
+      </c>
+      <c r="Q99">
         <v>0</v>
       </c>
-      <c r="X96">
+      <c r="R99">
+        <v>1.85</v>
+      </c>
+      <c r="S99">
+        <v>1.95</v>
+      </c>
+      <c r="T99">
+        <v>2.75</v>
+      </c>
+      <c r="U99">
+        <v>1.75</v>
+      </c>
+      <c r="V99">
+        <v>1.95</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>2.4</v>
+      </c>
+      <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
         <v>0</v>
       </c>
-      <c r="Y96">
-        <v>0</v>
-      </c>
-      <c r="Z96">
-        <v>0</v>
-      </c>
-      <c r="AA96">
-        <v>0</v>
+      <c r="AA99">
+        <v>-0</v>
+      </c>
+      <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>8001391</v>
+      </c>
+      <c r="C100" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45375.47916666666</v>
+      </c>
+      <c r="F100" t="s">
+        <v>31</v>
+      </c>
+      <c r="G100" t="s">
+        <v>65</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>91</v>
+      </c>
+      <c r="K100">
+        <v>2.4</v>
+      </c>
+      <c r="L100">
+        <v>3.4</v>
+      </c>
+      <c r="M100">
+        <v>2.5</v>
+      </c>
+      <c r="N100">
+        <v>1.533</v>
+      </c>
+      <c r="O100">
+        <v>3.8</v>
+      </c>
+      <c r="P100">
+        <v>5.25</v>
+      </c>
+      <c r="Q100">
+        <v>-1</v>
+      </c>
+      <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
+        <v>1.8</v>
+      </c>
+      <c r="T100">
+        <v>2.5</v>
+      </c>
+      <c r="U100">
+        <v>1.85</v>
+      </c>
+      <c r="V100">
+        <v>1.95</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
+        <v>2.8</v>
+      </c>
+      <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
+        <v>-1</v>
+      </c>
+      <c r="AA100">
+        <v>0.8</v>
+      </c>
+      <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>8001389</v>
+      </c>
+      <c r="C101" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" t="s">
+        <v>28</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45375.5</v>
+      </c>
+      <c r="F101" t="s">
+        <v>35</v>
+      </c>
+      <c r="G101" t="s">
+        <v>88</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101" t="s">
+        <v>90</v>
+      </c>
+      <c r="K101">
+        <v>5.5</v>
+      </c>
+      <c r="L101">
+        <v>4.5</v>
+      </c>
+      <c r="M101">
+        <v>1.4</v>
+      </c>
+      <c r="N101">
+        <v>3.8</v>
+      </c>
+      <c r="O101">
+        <v>3.5</v>
+      </c>
+      <c r="P101">
+        <v>1.75</v>
+      </c>
+      <c r="Q101">
+        <v>0.75</v>
+      </c>
+      <c r="R101">
+        <v>1.75</v>
+      </c>
+      <c r="S101">
+        <v>1.95</v>
+      </c>
+      <c r="T101">
+        <v>2.75</v>
+      </c>
+      <c r="U101">
+        <v>1.925</v>
+      </c>
+      <c r="V101">
+        <v>1.775</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
+        <v>-1</v>
+      </c>
+      <c r="Y101">
+        <v>0.75</v>
+      </c>
+      <c r="Z101">
+        <v>-0.5</v>
+      </c>
+      <c r="AA101">
+        <v>0.475</v>
+      </c>
+      <c r="AB101">
+        <v>0.4625</v>
+      </c>
+      <c r="AC101">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>8001390</v>
+      </c>
+      <c r="C102" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45375.5</v>
+      </c>
+      <c r="F102" t="s">
+        <v>36</v>
+      </c>
+      <c r="G102" t="s">
+        <v>43</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>91</v>
+      </c>
+      <c r="K102">
+        <v>5.5</v>
+      </c>
+      <c r="L102">
+        <v>4.5</v>
+      </c>
+      <c r="M102">
+        <v>1.4</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102">
+        <v>3.2</v>
+      </c>
+      <c r="P102">
+        <v>2.15</v>
+      </c>
+      <c r="Q102">
+        <v>0.25</v>
+      </c>
+      <c r="R102">
+        <v>1.875</v>
+      </c>
+      <c r="S102">
+        <v>1.925</v>
+      </c>
+      <c r="T102">
+        <v>2.5</v>
+      </c>
+      <c r="U102">
+        <v>1.95</v>
+      </c>
+      <c r="V102">
+        <v>1.85</v>
+      </c>
+      <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
+        <v>2.2</v>
+      </c>
+      <c r="Y102">
+        <v>-1</v>
+      </c>
+      <c r="Z102">
+        <v>0.4375</v>
+      </c>
+      <c r="AA102">
+        <v>-0.5</v>
+      </c>
+      <c r="AB102">
+        <v>-1</v>
+      </c>
+      <c r="AC102">
+        <v>0.8500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -133,13 +133,13 @@
     <t>Gaj Mace</t>
   </si>
   <si>
+    <t>NK Vodice</t>
+  </si>
+  <si>
     <t>RNK Split</t>
   </si>
   <si>
     <t>Zmaj Makarska</t>
-  </si>
-  <si>
-    <t>NK Vodice</t>
   </si>
   <si>
     <t>NK Udarnik Kurilovec</t>
@@ -187,10 +187,10 @@
     <t>NK Tresnjevka</t>
   </si>
   <si>
-    <t>NK Croatia Dakovo</t>
+    <t>NK Gosk Kastel Gomilica</t>
   </si>
   <si>
-    <t>NK Gosk Kastel Gomilica</t>
+    <t>NK Croatia Dakovo</t>
   </si>
   <si>
     <t>NK Neretvanac Opuzen</t>
@@ -211,19 +211,19 @@
     <t>Valpovka</t>
   </si>
   <si>
+    <t>Slavija Pleternica</t>
+  </si>
+  <si>
     <t>NK Oriolik Oriovac</t>
   </si>
   <si>
     <t>NK Vrapce</t>
   </si>
   <si>
-    <t>Slavija Pleternica</t>
+    <t>NK Uskok</t>
   </si>
   <si>
     <t>NK Kamen Ivanbegovina</t>
-  </si>
-  <si>
-    <t>NK Uskok</t>
   </si>
   <si>
     <t>NK Nask Nasice</t>
@@ -238,10 +238,10 @@
     <t>NK Mladost Petrinja</t>
   </si>
   <si>
-    <t>Sloga Nova Gradiska</t>
+    <t>NK Svacic</t>
   </si>
   <si>
-    <t>NK Svacic</t>
+    <t>Sloga Nova Gradiska</t>
   </si>
   <si>
     <t>NK Neretva</t>
@@ -651,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC102"/>
+  <dimension ref="A1:AC103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1193,7 +1193,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7126860</v>
+        <v>7126859</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1205,7 +1205,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
         <v>65</v>
@@ -1220,61 +1220,61 @@
         <v>91</v>
       </c>
       <c r="K7">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O7">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R7">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S7">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T7">
         <v>3</v>
       </c>
       <c r="U7">
+        <v>1.85</v>
+      </c>
+      <c r="V7">
         <v>1.95</v>
       </c>
-      <c r="V7">
-        <v>1.85</v>
-      </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1282,7 +1282,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7126857</v>
+        <v>7126860</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1294,76 +1294,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
         <v>66</v>
       </c>
       <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8">
+        <v>2.5</v>
+      </c>
+      <c r="L8">
+        <v>3.4</v>
+      </c>
+      <c r="M8">
+        <v>2.4</v>
+      </c>
+      <c r="N8">
+        <v>2.625</v>
+      </c>
+      <c r="O8">
+        <v>3.4</v>
+      </c>
+      <c r="P8">
+        <v>2.3</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1.975</v>
+      </c>
+      <c r="S8">
+        <v>1.725</v>
+      </c>
+      <c r="T8">
         <v>3</v>
       </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8">
-        <v>2.875</v>
-      </c>
-      <c r="L8">
-        <v>3.5</v>
-      </c>
-      <c r="M8">
-        <v>2.1</v>
-      </c>
-      <c r="N8">
-        <v>2.9</v>
-      </c>
-      <c r="O8">
-        <v>3.5</v>
-      </c>
-      <c r="P8">
-        <v>2.1</v>
-      </c>
-      <c r="Q8">
-        <v>0.25</v>
-      </c>
-      <c r="R8">
-        <v>1.925</v>
-      </c>
-      <c r="S8">
-        <v>1.875</v>
-      </c>
-      <c r="T8">
-        <v>2.75</v>
-      </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1371,7 +1371,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7126859</v>
+        <v>7126857</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1383,76 +1383,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
         <v>67</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K9">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="N9">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X9">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1816,7 +1816,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7183190</v>
+        <v>7183189</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1834,70 +1834,70 @@
         <v>68</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K14">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L14">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O14">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P14">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1905,7 +1905,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7183191</v>
+        <v>7183190</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1920,73 +1920,73 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K15">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="N15">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P15">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q15">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
+        <v>1.975</v>
+      </c>
+      <c r="S15">
+        <v>1.825</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
         <v>1.95</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>1.85</v>
       </c>
-      <c r="T15">
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
         <v>2.75</v>
       </c>
-      <c r="U15">
-        <v>1.9</v>
-      </c>
-      <c r="V15">
-        <v>1.9</v>
-      </c>
-      <c r="W15">
-        <v>-1</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
       <c r="Y15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB15">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1994,7 +1994,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7183189</v>
+        <v>7183191</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2009,52 +2009,52 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>90</v>
       </c>
       <c r="K16">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N16">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O16">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R16">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -2063,19 +2063,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC16">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2276,7 +2276,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2528,7 +2528,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7202437</v>
+        <v>7202436</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2540,58 +2540,58 @@
         <v>45182.5</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>89</v>
       </c>
       <c r="K22">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L22">
+        <v>3.75</v>
+      </c>
+      <c r="M22">
         <v>4.333</v>
       </c>
-      <c r="M22">
-        <v>6</v>
-      </c>
       <c r="N22">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="O22">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q22">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W22">
-        <v>0.3999999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2600,16 +2600,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB22">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2617,7 +2617,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7202436</v>
+        <v>7202435</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2629,46 +2629,46 @@
         <v>45182.5</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>89</v>
       </c>
       <c r="K23">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N23">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O23">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P23">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T23">
         <v>2.75</v>
@@ -2680,7 +2680,7 @@
         <v>1.975</v>
       </c>
       <c r="W23">
-        <v>0.5329999999999999</v>
+        <v>1</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2689,16 +2689,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2706,7 +2706,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7202435</v>
+        <v>7202437</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2718,10 +2718,10 @@
         <v>45182.5</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="H24">
         <v>6</v>
@@ -2733,43 +2733,43 @@
         <v>89</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L24">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M24">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R24">
+        <v>1.85</v>
+      </c>
+      <c r="S24">
+        <v>1.95</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
         <v>1.8</v>
       </c>
-      <c r="S24">
-        <v>2</v>
-      </c>
-      <c r="T24">
-        <v>2.75</v>
-      </c>
-      <c r="U24">
-        <v>1.825</v>
-      </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2778,13 +2778,13 @@
         <v>-1</v>
       </c>
       <c r="Z24">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA24">
+        <v>-1</v>
+      </c>
+      <c r="AB24">
         <v>0.8</v>
-      </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
-      <c r="AB24">
-        <v>0.825</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2807,7 +2807,7 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
         <v>47</v>
@@ -2988,7 +2988,7 @@
         <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3151,7 +3151,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7250138</v>
+        <v>7250137</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3163,76 +3163,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>74</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K29">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L29">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M29">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N29">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P29">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3240,7 +3240,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7250137</v>
+        <v>7250138</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3252,76 +3252,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
         <v>75</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K30">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L30">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N30">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O30">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P30">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S30">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y30">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3433,7 +3433,7 @@
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3507,7 +3507,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7291473</v>
+        <v>7291472</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3519,13 +3519,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3534,43 +3534,43 @@
         <v>89</v>
       </c>
       <c r="K33">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L33">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N33">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="O33">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P33">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q33">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V33">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3579,13 +3579,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3596,7 +3596,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7291472</v>
+        <v>7291473</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3608,13 +3608,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3623,43 +3623,43 @@
         <v>89</v>
       </c>
       <c r="K34">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L34">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M34">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N34">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P34">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3668,13 +3668,13 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3697,7 +3697,7 @@
         <v>45206.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
         <v>55</v>
@@ -3878,7 +3878,7 @@
         <v>47</v>
       </c>
       <c r="G37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
         <v>52</v>
@@ -4145,7 +4145,7 @@
         <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4219,7 +4219,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7337010</v>
+        <v>7337008</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4231,76 +4231,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K41">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M41">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N41">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O41">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P41">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R41">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S41">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB41">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4308,7 +4308,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7337008</v>
+        <v>7337010</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4320,76 +4320,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
       <c r="J42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K42">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L42">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N42">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O42">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P42">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q42">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R42">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
         <v>3</v>
       </c>
       <c r="U42">
+        <v>1.75</v>
+      </c>
+      <c r="V42">
         <v>1.95</v>
       </c>
-      <c r="V42">
-        <v>1.85</v>
-      </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4397,7 +4397,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7343497</v>
+        <v>7343496</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4409,10 +4409,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4424,43 +4424,43 @@
         <v>89</v>
       </c>
       <c r="K43">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L43">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M43">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O43">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P43">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
         <v>3</v>
       </c>
       <c r="U43">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4469,7 +4469,7 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA43">
         <v>-1</v>
@@ -4486,7 +4486,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7343496</v>
+        <v>7343497</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4498,10 +4498,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4513,43 +4513,43 @@
         <v>89</v>
       </c>
       <c r="K44">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M44">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N44">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P44">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T44">
         <v>3</v>
       </c>
       <c r="U44">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V44">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W44">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4558,7 +4558,7 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4575,7 +4575,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7366818</v>
+        <v>7366817</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4587,76 +4587,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
         <v>1</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>89</v>
       </c>
       <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>3.4</v>
+      </c>
+      <c r="M45">
+        <v>3.1</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>3.4</v>
+      </c>
+      <c r="P45">
+        <v>3.1</v>
+      </c>
+      <c r="Q45">
+        <v>-0.25</v>
+      </c>
+      <c r="R45">
         <v>1.8</v>
       </c>
-      <c r="L45">
-        <v>3.75</v>
-      </c>
-      <c r="M45">
-        <v>3.4</v>
-      </c>
-      <c r="N45">
-        <v>1.8</v>
-      </c>
-      <c r="O45">
-        <v>3.75</v>
-      </c>
-      <c r="P45">
-        <v>3.4</v>
-      </c>
-      <c r="Q45">
-        <v>-0.5</v>
-      </c>
-      <c r="R45">
-        <v>1.85</v>
-      </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
+        <v>-1</v>
+      </c>
+      <c r="Z45">
         <v>0.8</v>
       </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>-1</v>
-      </c>
-      <c r="Z45">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4664,7 +4664,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7366817</v>
+        <v>7366818</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4676,76 +4676,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
         <v>89</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L46">
+        <v>3.75</v>
+      </c>
+      <c r="M46">
         <v>3.4</v>
       </c>
-      <c r="M46">
-        <v>3.1</v>
-      </c>
       <c r="N46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O46">
+        <v>3.75</v>
+      </c>
+      <c r="P46">
         <v>3.4</v>
       </c>
-      <c r="P46">
-        <v>3.1</v>
-      </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W46">
+        <v>0.8</v>
+      </c>
+      <c r="X46">
+        <v>-1</v>
+      </c>
+      <c r="Y46">
+        <v>-1</v>
+      </c>
+      <c r="Z46">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>-1</v>
+      </c>
+      <c r="AB46">
+        <v>-1</v>
+      </c>
+      <c r="AC46">
         <v>1</v>
-      </c>
-      <c r="X46">
-        <v>-1</v>
-      </c>
-      <c r="Y46">
-        <v>-1</v>
-      </c>
-      <c r="Z46">
-        <v>0.8</v>
-      </c>
-      <c r="AA46">
-        <v>-1</v>
-      </c>
-      <c r="AB46">
-        <v>0.925</v>
-      </c>
-      <c r="AC46">
-        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5035,7 +5035,7 @@
         <v>52</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5121,10 +5121,10 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F51" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" t="s">
         <v>40</v>
-      </c>
-      <c r="G51" t="s">
-        <v>39</v>
       </c>
       <c r="H51">
         <v>5</v>
@@ -5210,7 +5210,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
         <v>78</v>
@@ -5477,10 +5477,10 @@
         <v>45232.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>46</v>
       </c>
       <c r="G56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5744,7 +5744,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
         <v>55</v>
@@ -5833,7 +5833,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
         <v>79</v>
@@ -6355,7 +6355,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7493772</v>
+        <v>7493775</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6367,13 +6367,13 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G65" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -6382,43 +6382,43 @@
         <v>89</v>
       </c>
       <c r="K65">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M65">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N65">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O65">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P65">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q65">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V65">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6427,16 +6427,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA65">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC65">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6459,7 +6459,7 @@
         <v>55</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6548,7 +6548,7 @@
         <v>50</v>
       </c>
       <c r="G67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6622,7 +6622,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7493775</v>
+        <v>7493772</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6634,13 +6634,13 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F68" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -6649,43 +6649,43 @@
         <v>89</v>
       </c>
       <c r="K68">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L68">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M68">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N68">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O68">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P68">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6694,16 +6694,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB68">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6711,7 +6711,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7493776</v>
+        <v>7493771</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6723,13 +6723,13 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -6738,43 +6738,43 @@
         <v>89</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L69">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O69">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S69">
         <v>1.975</v>
       </c>
       <c r="T69">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6783,16 +6783,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6800,7 +6800,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7493771</v>
+        <v>7493776</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6812,13 +6812,13 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6827,43 +6827,43 @@
         <v>89</v>
       </c>
       <c r="K70">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L70">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O70">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
         <v>1.975</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6872,16 +6872,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6978,7 +6978,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7517624</v>
+        <v>7517623</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6993,37 +6993,37 @@
         <v>57</v>
       </c>
       <c r="G72" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K72">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L72">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="M72">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O72">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="P72">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
         <v>1.85</v>
@@ -7032,34 +7032,34 @@
         <v>1.95</v>
       </c>
       <c r="T72">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7067,7 +7067,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7517623</v>
+        <v>7517624</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7082,37 +7082,37 @@
         <v>58</v>
       </c>
       <c r="G73" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K73">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L73">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N73">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="P73">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R73">
         <v>1.85</v>
@@ -7121,34 +7121,34 @@
         <v>1.95</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U73">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z73">
+        <v>-1</v>
+      </c>
+      <c r="AA73">
+        <v>0.95</v>
+      </c>
+      <c r="AB73">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
-      <c r="AB73">
-        <v>-1</v>
-      </c>
       <c r="AC73">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7257,7 +7257,7 @@
         <v>45255.40277777778</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
         <v>48</v>
@@ -7438,7 +7438,7 @@
         <v>47</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -7880,7 +7880,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
         <v>46</v>
@@ -8417,7 +8417,7 @@
         <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8859,7 +8859,7 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G93" t="s">
         <v>34</v>
@@ -9396,7 +9396,7 @@
         <v>44</v>
       </c>
       <c r="G99" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9485,7 +9485,7 @@
         <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9559,7 +9559,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>8001389</v>
+        <v>8001390</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9571,19 +9571,19 @@
         <v>45375.5</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K101">
         <v>5.5</v>
@@ -9595,52 +9595,52 @@
         <v>1.4</v>
       </c>
       <c r="N101">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O101">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P101">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q101">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
+        <v>1.925</v>
+      </c>
+      <c r="T101">
+        <v>2.5</v>
+      </c>
+      <c r="U101">
         <v>1.95</v>
       </c>
-      <c r="T101">
-        <v>2.75</v>
-      </c>
-      <c r="U101">
-        <v>1.925</v>
-      </c>
       <c r="V101">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y101">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
+        <v>0.4375</v>
+      </c>
+      <c r="AA101">
         <v>-0.5</v>
       </c>
-      <c r="AA101">
-        <v>0.475</v>
-      </c>
       <c r="AB101">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9648,7 +9648,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>8001390</v>
+        <v>8001389</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9660,19 +9660,19 @@
         <v>45375.5</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K102">
         <v>5.5</v>
@@ -9684,52 +9684,141 @@
         <v>1.4</v>
       </c>
       <c r="N102">
+        <v>3.8</v>
+      </c>
+      <c r="O102">
+        <v>3.5</v>
+      </c>
+      <c r="P102">
+        <v>1.75</v>
+      </c>
+      <c r="Q102">
+        <v>0.75</v>
+      </c>
+      <c r="R102">
+        <v>1.75</v>
+      </c>
+      <c r="S102">
+        <v>1.95</v>
+      </c>
+      <c r="T102">
+        <v>2.75</v>
+      </c>
+      <c r="U102">
+        <v>1.925</v>
+      </c>
+      <c r="V102">
+        <v>1.775</v>
+      </c>
+      <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
+        <v>-1</v>
+      </c>
+      <c r="Y102">
+        <v>0.75</v>
+      </c>
+      <c r="Z102">
+        <v>-0.5</v>
+      </c>
+      <c r="AA102">
+        <v>0.475</v>
+      </c>
+      <c r="AB102">
+        <v>0.4625</v>
+      </c>
+      <c r="AC102">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>8018533</v>
+      </c>
+      <c r="C103" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45379.5</v>
+      </c>
+      <c r="F103" t="s">
+        <v>43</v>
+      </c>
+      <c r="G103" t="s">
+        <v>44</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>90</v>
+      </c>
+      <c r="K103">
+        <v>1.3</v>
+      </c>
+      <c r="L103">
+        <v>4.75</v>
+      </c>
+      <c r="M103">
+        <v>7.5</v>
+      </c>
+      <c r="N103">
+        <v>1.3</v>
+      </c>
+      <c r="O103">
+        <v>4.75</v>
+      </c>
+      <c r="P103">
+        <v>7</v>
+      </c>
+      <c r="Q103">
+        <v>-1.5</v>
+      </c>
+      <c r="R103">
+        <v>1.85</v>
+      </c>
+      <c r="S103">
+        <v>1.95</v>
+      </c>
+      <c r="T103">
         <v>3</v>
       </c>
-      <c r="O102">
-        <v>3.2</v>
-      </c>
-      <c r="P102">
-        <v>2.15</v>
-      </c>
-      <c r="Q102">
-        <v>0.25</v>
-      </c>
-      <c r="R102">
-        <v>1.875</v>
-      </c>
-      <c r="S102">
-        <v>1.925</v>
-      </c>
-      <c r="T102">
-        <v>2.5</v>
-      </c>
-      <c r="U102">
-        <v>1.95</v>
-      </c>
-      <c r="V102">
-        <v>1.85</v>
-      </c>
-      <c r="W102">
-        <v>-1</v>
-      </c>
-      <c r="X102">
-        <v>2.2</v>
-      </c>
-      <c r="Y102">
-        <v>-1</v>
-      </c>
-      <c r="Z102">
-        <v>0.4375</v>
-      </c>
-      <c r="AA102">
-        <v>-0.5</v>
-      </c>
-      <c r="AB102">
-        <v>-1</v>
-      </c>
-      <c r="AC102">
-        <v>0.8500000000000001</v>
+      <c r="U103">
+        <v>1.825</v>
+      </c>
+      <c r="V103">
+        <v>1.975</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>6</v>
+      </c>
+      <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
+        <v>0.95</v>
+      </c>
+      <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
+        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -118,13 +118,13 @@
     <t>NK Vuteks Sloga</t>
   </si>
   <si>
-    <t>NK Tomislav</t>
-  </si>
-  <si>
     <t>NK Bistra</t>
   </si>
   <si>
     <t>Sava Strmec</t>
+  </si>
+  <si>
+    <t>NK Tomislav</t>
   </si>
   <si>
     <t>Lucko</t>
@@ -214,10 +214,10 @@
     <t>Slavija Pleternica</t>
   </si>
   <si>
-    <t>NK Oriolik Oriovac</t>
+    <t>NK Vrapce</t>
   </si>
   <si>
-    <t>NK Vrapce</t>
+    <t>NK Oriolik Oriovac</t>
   </si>
   <si>
     <t>NK Uskok</t>
@@ -229,19 +229,19 @@
     <t>NK Nask Nasice</t>
   </si>
   <si>
-    <t>NK Tondach</t>
+    <t>NK Zagorec Krapina</t>
   </si>
   <si>
-    <t>NK Zagorec Krapina</t>
+    <t>NK Tondach</t>
   </si>
   <si>
     <t>NK Mladost Petrinja</t>
   </si>
   <si>
-    <t>NK Svacic</t>
+    <t>Sloga Nova Gradiska</t>
   </si>
   <si>
-    <t>Sloga Nova Gradiska</t>
+    <t>NK Svacic</t>
   </si>
   <si>
     <t>NK Neretva</t>
@@ -1282,7 +1282,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7126860</v>
+        <v>7126857</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1300,70 +1300,70 @@
         <v>66</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K8">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="N8">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
+        <v>1.925</v>
+      </c>
+      <c r="S8">
+        <v>1.875</v>
+      </c>
+      <c r="T8">
+        <v>2.75</v>
+      </c>
+      <c r="U8">
+        <v>1.825</v>
+      </c>
+      <c r="V8">
         <v>1.975</v>
       </c>
-      <c r="S8">
-        <v>1.725</v>
-      </c>
-      <c r="T8">
-        <v>3</v>
-      </c>
-      <c r="U8">
-        <v>1.95</v>
-      </c>
-      <c r="V8">
-        <v>1.85</v>
-      </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X8">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1371,7 +1371,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7126857</v>
+        <v>7126858</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1386,73 +1386,73 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K9">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L9">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N9">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
         <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z9">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1460,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7126858</v>
+        <v>7126860</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1475,73 +1475,73 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K10">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L10">
         <v>3.4</v>
       </c>
       <c r="M10">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N10">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R10">
+        <v>1.975</v>
+      </c>
+      <c r="S10">
+        <v>1.725</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
         <v>1.95</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>1.85</v>
       </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.9</v>
-      </c>
-      <c r="V10">
-        <v>1.9</v>
-      </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y10">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
+        <v>-0</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB10">
-        <v>-1</v>
-      </c>
-      <c r="AC10">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1653,7 +1653,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1742,7 +1742,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -2172,7 +2172,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7188988</v>
+        <v>7188990</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2184,46 +2184,46 @@
         <v>45179.5</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>90</v>
       </c>
       <c r="K18">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L18">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M18">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O18">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
         <v>2.75</v>
@@ -2241,19 +2241,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2273,10 +2273,10 @@
         <v>45179.5</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2350,7 +2350,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7188990</v>
+        <v>7188987</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2362,49 +2362,49 @@
         <v>45179.5</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>90</v>
       </c>
       <c r="K20">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L20">
+        <v>3.4</v>
+      </c>
+      <c r="M20">
+        <v>1.909</v>
+      </c>
+      <c r="N20">
         <v>3.5</v>
       </c>
-      <c r="M20">
+      <c r="O20">
+        <v>3.4</v>
+      </c>
+      <c r="P20">
+        <v>1.909</v>
+      </c>
+      <c r="Q20">
+        <v>0.5</v>
+      </c>
+      <c r="R20">
+        <v>1.85</v>
+      </c>
+      <c r="S20">
+        <v>1.95</v>
+      </c>
+      <c r="T20">
         <v>3</v>
-      </c>
-      <c r="N20">
-        <v>2.1</v>
-      </c>
-      <c r="O20">
-        <v>3.5</v>
-      </c>
-      <c r="P20">
-        <v>3</v>
-      </c>
-      <c r="Q20">
-        <v>-0.25</v>
-      </c>
-      <c r="R20">
-        <v>1.875</v>
-      </c>
-      <c r="S20">
-        <v>1.925</v>
-      </c>
-      <c r="T20">
-        <v>2.75</v>
       </c>
       <c r="U20">
         <v>1.825</v>
@@ -2419,13 +2419,13 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB20">
         <v>-1</v>
@@ -2439,7 +2439,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7188987</v>
+        <v>7188988</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2451,49 +2451,49 @@
         <v>45179.5</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
         <v>72</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
         <v>90</v>
       </c>
       <c r="K21">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="L21">
         <v>3.4</v>
       </c>
       <c r="M21">
+        <v>3.4</v>
+      </c>
+      <c r="N21">
         <v>1.909</v>
-      </c>
-      <c r="N21">
-        <v>3.5</v>
       </c>
       <c r="O21">
         <v>3.4</v>
       </c>
       <c r="P21">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
         <v>1.825</v>
@@ -2508,19 +2508,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.909</v>
+        <v>2.4</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2528,7 +2528,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7202436</v>
+        <v>7202435</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2540,46 +2540,46 @@
         <v>45182.5</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>89</v>
       </c>
       <c r="K22">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N22">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P22">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q22">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T22">
         <v>2.75</v>
@@ -2591,7 +2591,7 @@
         <v>1.975</v>
       </c>
       <c r="W22">
-        <v>0.5329999999999999</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2600,16 +2600,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="AA22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2617,7 +2617,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7202435</v>
+        <v>7202436</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2629,46 +2629,46 @@
         <v>45182.5</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>89</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M23">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T23">
         <v>2.75</v>
@@ -2680,7 +2680,7 @@
         <v>1.975</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2689,16 +2689,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8</v>
+        <v>0.35</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2721,7 +2721,7 @@
         <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H24">
         <v>6</v>
@@ -2988,7 +2988,7 @@
         <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3077,7 +3077,7 @@
         <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3151,7 +3151,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7250137</v>
+        <v>7250138</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3163,76 +3163,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
         <v>74</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K29">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N29">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O29">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S29">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y29">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA29">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3240,7 +3240,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7250138</v>
+        <v>7250137</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3252,76 +3252,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
         <v>75</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K30">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M30">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N30">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P30">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3507,7 +3507,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7291472</v>
+        <v>7291473</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3519,13 +3519,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3534,43 +3534,43 @@
         <v>89</v>
       </c>
       <c r="K33">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M33">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N33">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P33">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3579,13 +3579,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3596,7 +3596,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7291473</v>
+        <v>7291472</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3608,13 +3608,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3623,43 +3623,43 @@
         <v>89</v>
       </c>
       <c r="K34">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L34">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N34">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="O34">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P34">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q34">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W34">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3668,13 +3668,13 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3964,10 +3964,10 @@
         <v>45207.46875</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -4498,7 +4498,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
         <v>61</v>
@@ -4590,7 +4590,7 @@
         <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4857,7 +4857,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4946,7 +4946,7 @@
         <v>45</v>
       </c>
       <c r="G49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -5020,7 +5020,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7382546</v>
+        <v>7382547</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5032,76 +5032,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K50">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L50">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N50">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O50">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="Q50">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X50">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC50">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5109,7 +5109,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7382547</v>
+        <v>7382546</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5121,76 +5121,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>91</v>
+      </c>
+      <c r="K51">
+        <v>1.363</v>
+      </c>
+      <c r="L51">
+        <v>4.333</v>
+      </c>
+      <c r="M51">
+        <v>6.5</v>
+      </c>
+      <c r="N51">
+        <v>1.25</v>
+      </c>
+      <c r="O51">
         <v>5</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>89</v>
-      </c>
-      <c r="K51">
-        <v>2.3</v>
-      </c>
-      <c r="L51">
-        <v>3.4</v>
-      </c>
-      <c r="M51">
-        <v>2.625</v>
-      </c>
-      <c r="N51">
-        <v>2.3</v>
-      </c>
-      <c r="O51">
-        <v>3.4</v>
-      </c>
       <c r="P51">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5299,7 +5299,7 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
@@ -5388,10 +5388,10 @@
         <v>45228.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -6103,7 +6103,7 @@
         <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6533,7 +6533,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7493774</v>
+        <v>7493772</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6545,76 +6545,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F67" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K67">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L67">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M67">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N67">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O67">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P67">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q67">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R67">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S67">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X67">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA67">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6622,7 +6622,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7493772</v>
+        <v>7493774</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6634,76 +6634,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G68" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K68">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N68">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O68">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P68">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q68">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6815,7 +6815,7 @@
         <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6904,7 +6904,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7512,7 +7512,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7519479</v>
+        <v>7519478</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7524,55 +7524,55 @@
         <v>45256.40625</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>90</v>
       </c>
       <c r="K78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q78">
         <v>0.25</v>
       </c>
       <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
         <v>1.8</v>
       </c>
-      <c r="S78">
-        <v>2</v>
-      </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7581,19 +7581,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7601,7 +7601,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7519478</v>
+        <v>7519479</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7616,52 +7616,52 @@
         <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
         <v>1</v>
-      </c>
-      <c r="I79">
-        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>90</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O79">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q79">
         <v>0.25</v>
       </c>
       <c r="R79">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S79">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7670,19 +7670,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
+        <v>1.2</v>
+      </c>
+      <c r="Z79">
+        <v>-1</v>
+      </c>
+      <c r="AA79">
         <v>1</v>
       </c>
-      <c r="Z79">
-        <v>-1</v>
-      </c>
-      <c r="AA79">
-        <v>0.8</v>
-      </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7794,7 +7794,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H81">
         <v>7</v>
@@ -7972,7 +7972,7 @@
         <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8770,7 +8770,7 @@
         <v>45361.48958333334</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
         <v>38</v>
@@ -8862,7 +8862,7 @@
         <v>58</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -9396,7 +9396,7 @@
         <v>44</v>
       </c>
       <c r="G99" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9485,7 +9485,7 @@
         <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9571,7 +9571,7 @@
         <v>45375.5</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
         <v>43</v>
@@ -9660,7 +9660,7 @@
         <v>45375.5</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
         <v>88</v>

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -118,13 +118,13 @@
     <t>NK Vuteks Sloga</t>
   </si>
   <si>
+    <t>NK Tomislav</t>
+  </si>
+  <si>
     <t>NK Bistra</t>
   </si>
   <si>
     <t>Sava Strmec</t>
-  </si>
-  <si>
-    <t>NK Tomislav</t>
   </si>
   <si>
     <t>Lucko</t>
@@ -214,10 +214,10 @@
     <t>Slavija Pleternica</t>
   </si>
   <si>
-    <t>NK Vrapce</t>
+    <t>NK Oriolik Oriovac</t>
   </si>
   <si>
-    <t>NK Oriolik Oriovac</t>
+    <t>NK Vrapce</t>
   </si>
   <si>
     <t>NK Uskok</t>
@@ -229,10 +229,10 @@
     <t>NK Nask Nasice</t>
   </si>
   <si>
-    <t>NK Zagorec Krapina</t>
+    <t>NK Tondach</t>
   </si>
   <si>
-    <t>NK Tondach</t>
+    <t>NK Zagorec Krapina</t>
   </si>
   <si>
     <t>NK Mladost Petrinja</t>
@@ -1282,7 +1282,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7126857</v>
+        <v>7126860</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1300,70 +1300,70 @@
         <v>66</v>
       </c>
       <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8">
+        <v>2.5</v>
+      </c>
+      <c r="L8">
+        <v>3.4</v>
+      </c>
+      <c r="M8">
+        <v>2.4</v>
+      </c>
+      <c r="N8">
+        <v>2.625</v>
+      </c>
+      <c r="O8">
+        <v>3.4</v>
+      </c>
+      <c r="P8">
+        <v>2.3</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1.975</v>
+      </c>
+      <c r="S8">
+        <v>1.725</v>
+      </c>
+      <c r="T8">
         <v>3</v>
       </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8">
-        <v>2.875</v>
-      </c>
-      <c r="L8">
-        <v>3.5</v>
-      </c>
-      <c r="M8">
-        <v>2.1</v>
-      </c>
-      <c r="N8">
-        <v>2.9</v>
-      </c>
-      <c r="O8">
-        <v>3.5</v>
-      </c>
-      <c r="P8">
-        <v>2.1</v>
-      </c>
-      <c r="Q8">
-        <v>0.25</v>
-      </c>
-      <c r="R8">
-        <v>1.925</v>
-      </c>
-      <c r="S8">
-        <v>1.875</v>
-      </c>
-      <c r="T8">
-        <v>2.75</v>
-      </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1371,7 +1371,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7126858</v>
+        <v>7126857</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1386,73 +1386,73 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K9">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N9">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P9">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T9">
         <v>2.75</v>
       </c>
       <c r="U9">
+        <v>1.825</v>
+      </c>
+      <c r="V9">
+        <v>1.975</v>
+      </c>
+      <c r="W9">
         <v>1.9</v>
       </c>
-      <c r="V9">
-        <v>1.9</v>
-      </c>
-      <c r="W9">
-        <v>-1</v>
-      </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1460,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7126860</v>
+        <v>7126858</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1475,73 +1475,73 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K10">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L10">
         <v>3.4</v>
       </c>
       <c r="M10">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N10">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1653,7 +1653,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1742,7 +1742,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -2172,7 +2172,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7188990</v>
+        <v>7188988</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2184,46 +2184,46 @@
         <v>45179.5</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
         <v>90</v>
       </c>
       <c r="K18">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L18">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N18">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P18">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T18">
         <v>2.75</v>
@@ -2241,19 +2241,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2273,10 +2273,10 @@
         <v>45179.5</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2350,7 +2350,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7188987</v>
+        <v>7188990</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2362,49 +2362,49 @@
         <v>45179.5</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>90</v>
       </c>
       <c r="K20">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M20">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N20">
+        <v>2.1</v>
+      </c>
+      <c r="O20">
         <v>3.5</v>
       </c>
-      <c r="O20">
-        <v>3.4</v>
-      </c>
       <c r="P20">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
         <v>1.825</v>
@@ -2419,13 +2419,13 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
         <v>-1</v>
@@ -2439,7 +2439,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7188988</v>
+        <v>7188987</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2451,49 +2451,49 @@
         <v>45179.5</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>72</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>90</v>
       </c>
       <c r="K21">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L21">
         <v>3.4</v>
       </c>
       <c r="M21">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O21">
         <v>3.4</v>
       </c>
       <c r="P21">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U21">
         <v>1.825</v>
@@ -2508,19 +2508,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>2.4</v>
+        <v>0.909</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2528,7 +2528,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7202435</v>
+        <v>7202436</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2540,46 +2540,46 @@
         <v>45182.5</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>89</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M22">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O22">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P22">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R22">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T22">
         <v>2.75</v>
@@ -2591,7 +2591,7 @@
         <v>1.975</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2600,16 +2600,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8</v>
+        <v>0.35</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB22">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2617,7 +2617,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7202436</v>
+        <v>7202435</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2629,46 +2629,46 @@
         <v>45182.5</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>89</v>
       </c>
       <c r="K23">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N23">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O23">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P23">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T23">
         <v>2.75</v>
@@ -2680,7 +2680,7 @@
         <v>1.975</v>
       </c>
       <c r="W23">
-        <v>0.5329999999999999</v>
+        <v>1</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2689,16 +2689,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2721,7 +2721,7 @@
         <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H24">
         <v>6</v>
@@ -2988,7 +2988,7 @@
         <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3077,7 +3077,7 @@
         <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3163,7 +3163,7 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
         <v>74</v>
@@ -3507,7 +3507,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7291473</v>
+        <v>7291472</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3519,13 +3519,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3534,43 +3534,43 @@
         <v>89</v>
       </c>
       <c r="K33">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L33">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N33">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="O33">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P33">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q33">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V33">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3579,13 +3579,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3596,7 +3596,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7291472</v>
+        <v>7291473</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3608,13 +3608,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3623,43 +3623,43 @@
         <v>89</v>
       </c>
       <c r="K34">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L34">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M34">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N34">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P34">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3668,13 +3668,13 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3964,10 +3964,10 @@
         <v>45207.46875</v>
       </c>
       <c r="F38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" t="s">
         <v>35</v>
-      </c>
-      <c r="G38" t="s">
-        <v>34</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -4498,7 +4498,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
         <v>61</v>
@@ -4857,7 +4857,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4946,7 +4946,7 @@
         <v>45</v>
       </c>
       <c r="G49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -5020,7 +5020,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7382547</v>
+        <v>7382546</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5032,76 +5032,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50">
+        <v>1.363</v>
+      </c>
+      <c r="L50">
+        <v>4.333</v>
+      </c>
+      <c r="M50">
+        <v>6.5</v>
+      </c>
+      <c r="N50">
+        <v>1.25</v>
+      </c>
+      <c r="O50">
         <v>5</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50" t="s">
-        <v>89</v>
-      </c>
-      <c r="K50">
-        <v>2.3</v>
-      </c>
-      <c r="L50">
-        <v>3.4</v>
-      </c>
-      <c r="M50">
-        <v>2.625</v>
-      </c>
-      <c r="N50">
-        <v>2.3</v>
-      </c>
-      <c r="O50">
-        <v>3.4</v>
-      </c>
       <c r="P50">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R50">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB50">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5109,7 +5109,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7382546</v>
+        <v>7382547</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5121,76 +5121,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K51">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L51">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N51">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X51">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5299,7 +5299,7 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
@@ -5388,10 +5388,10 @@
         <v>45228.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -6103,7 +6103,7 @@
         <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6815,7 +6815,7 @@
         <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6904,7 +6904,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7524,7 +7524,7 @@
         <v>45256.40625</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7613,7 +7613,7 @@
         <v>45256.40625</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
         <v>84</v>
@@ -7794,7 +7794,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H81">
         <v>7</v>
@@ -7972,7 +7972,7 @@
         <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8770,7 +8770,7 @@
         <v>45361.48958333334</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>38</v>
@@ -8862,7 +8862,7 @@
         <v>58</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -9396,7 +9396,7 @@
         <v>44</v>
       </c>
       <c r="G99" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9485,7 +9485,7 @@
         <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9571,7 +9571,7 @@
         <v>45375.5</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
         <v>43</v>
@@ -9660,7 +9660,7 @@
         <v>45375.5</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
         <v>88</v>

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="94">
   <si>
     <t>id</t>
   </si>
@@ -118,13 +118,13 @@
     <t>NK Vuteks Sloga</t>
   </si>
   <si>
-    <t>NK Tomislav</t>
-  </si>
-  <si>
     <t>NK Bistra</t>
   </si>
   <si>
     <t>Sava Strmec</t>
+  </si>
+  <si>
+    <t>NK Tomislav</t>
   </si>
   <si>
     <t>Lucko</t>
@@ -133,13 +133,13 @@
     <t>Gaj Mace</t>
   </si>
   <si>
-    <t>NK Vodice</t>
+    <t>Zmaj Makarska</t>
   </si>
   <si>
     <t>RNK Split</t>
   </si>
   <si>
-    <t>Zmaj Makarska</t>
+    <t>NK Vodice</t>
   </si>
   <si>
     <t>NK Udarnik Kurilovec</t>
@@ -211,28 +211,28 @@
     <t>Valpovka</t>
   </si>
   <si>
+    <t>NK Vrapce</t>
+  </si>
+  <si>
     <t>Slavija Pleternica</t>
   </si>
   <si>
     <t>NK Oriolik Oriovac</t>
   </si>
   <si>
-    <t>NK Vrapce</t>
+    <t>NK Kamen Ivanbegovina</t>
   </si>
   <si>
     <t>NK Uskok</t>
   </si>
   <si>
-    <t>NK Kamen Ivanbegovina</t>
-  </si>
-  <si>
     <t>NK Nask Nasice</t>
   </si>
   <si>
-    <t>NK Tondach</t>
+    <t>NK Zagorec Krapina</t>
   </si>
   <si>
-    <t>NK Zagorec Krapina</t>
+    <t>NK Tondach</t>
   </si>
   <si>
     <t>NK Mladost Petrinja</t>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>HNK Segesta</t>
+  </si>
+  <si>
+    <t>NK Crikvenica</t>
+  </si>
+  <si>
+    <t>NK Borac Knezevi Vinogradi</t>
   </si>
   <si>
     <t>H</t>
@@ -651,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC103"/>
+  <dimension ref="A1:AC105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -772,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K2">
         <v>1.285</v>
@@ -861,7 +867,7 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K3">
         <v>2.1</v>
@@ -950,7 +956,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4">
         <v>1.8</v>
@@ -1039,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K5">
         <v>2.25</v>
@@ -1128,7 +1134,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K6">
         <v>1.666</v>
@@ -1193,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7126859</v>
+        <v>7126857</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1205,76 +1211,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
         <v>65</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
         <v>91</v>
       </c>
       <c r="K7">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="N7">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1282,7 +1288,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7126860</v>
+        <v>7126858</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1294,76 +1300,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K8">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L8">
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N8">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1371,7 +1377,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7126857</v>
+        <v>7126859</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1383,76 +1389,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9">
+        <v>1.5</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>1.5</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>-1</v>
+      </c>
+      <c r="R9">
+        <v>1.8</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9">
         <v>3</v>
       </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9">
-        <v>2.875</v>
-      </c>
-      <c r="L9">
-        <v>3.5</v>
-      </c>
-      <c r="M9">
-        <v>2.1</v>
-      </c>
-      <c r="N9">
-        <v>2.9</v>
-      </c>
-      <c r="O9">
-        <v>3.5</v>
-      </c>
-      <c r="P9">
-        <v>2.1</v>
-      </c>
-      <c r="Q9">
-        <v>0.25</v>
-      </c>
-      <c r="R9">
-        <v>1.925</v>
-      </c>
-      <c r="S9">
-        <v>1.875</v>
-      </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W9">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1460,7 +1466,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7126858</v>
+        <v>7126860</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1475,73 +1481,73 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K10">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L10">
         <v>3.4</v>
       </c>
       <c r="M10">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N10">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R10">
+        <v>1.975</v>
+      </c>
+      <c r="S10">
+        <v>1.725</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
         <v>1.95</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>1.85</v>
       </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.9</v>
-      </c>
-      <c r="V10">
-        <v>1.9</v>
-      </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y10">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
+        <v>-0</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB10">
-        <v>-1</v>
-      </c>
-      <c r="AC10">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1573,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K11">
         <v>1.444</v>
@@ -1653,7 +1659,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1662,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K12">
         <v>1.6</v>
@@ -1742,7 +1748,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1751,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K13">
         <v>1.8</v>
@@ -1816,7 +1822,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7183189</v>
+        <v>7183191</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1831,52 +1837,52 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N14">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O14">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1885,19 +1891,19 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC14">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1920,7 +1926,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1929,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K15">
         <v>1.727</v>
@@ -1994,7 +2000,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7183191</v>
+        <v>7183189</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2009,52 +2015,52 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
       <c r="J16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q16">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -2063,19 +2069,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB16">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2107,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K17">
         <v>2.55</v>
@@ -2172,7 +2178,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7188988</v>
+        <v>7188987</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2184,49 +2190,49 @@
         <v>45179.5</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
         <v>71</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K18">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L18">
         <v>3.4</v>
       </c>
       <c r="M18">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="N18">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O18">
         <v>3.4</v>
       </c>
       <c r="P18">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S18">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U18">
         <v>1.825</v>
@@ -2241,19 +2247,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2.4</v>
+        <v>0.909</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2261,7 +2267,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7188989</v>
+        <v>7188988</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2273,76 +2279,76 @@
         <v>45179.5</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K19">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L19">
         <v>3.4</v>
       </c>
       <c r="M19">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N19">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O19">
         <v>3.4</v>
       </c>
       <c r="P19">
+        <v>3.4</v>
+      </c>
+      <c r="Q19">
+        <v>-0.5</v>
+      </c>
+      <c r="R19">
+        <v>1.975</v>
+      </c>
+      <c r="S19">
+        <v>1.825</v>
+      </c>
+      <c r="T19">
+        <v>2.75</v>
+      </c>
+      <c r="U19">
+        <v>1.825</v>
+      </c>
+      <c r="V19">
+        <v>1.975</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
         <v>2.4</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>1.95</v>
-      </c>
-      <c r="S19">
-        <v>1.85</v>
-      </c>
-      <c r="T19">
-        <v>3</v>
-      </c>
-      <c r="U19">
-        <v>1.975</v>
-      </c>
-      <c r="V19">
-        <v>1.825</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>1.4</v>
-      </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC19">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2350,7 +2356,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7188990</v>
+        <v>7188989</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2362,56 +2368,56 @@
         <v>45179.5</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20">
+        <v>2.5</v>
+      </c>
+      <c r="L20">
+        <v>3.4</v>
+      </c>
+      <c r="M20">
+        <v>2.4</v>
+      </c>
+      <c r="N20">
+        <v>2.5</v>
+      </c>
+      <c r="O20">
+        <v>3.4</v>
+      </c>
+      <c r="P20">
+        <v>2.4</v>
+      </c>
+      <c r="Q20">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20" t="s">
-        <v>90</v>
-      </c>
-      <c r="K20">
-        <v>2.1</v>
-      </c>
-      <c r="L20">
-        <v>3.5</v>
-      </c>
-      <c r="M20">
+      <c r="R20">
+        <v>1.95</v>
+      </c>
+      <c r="S20">
+        <v>1.85</v>
+      </c>
+      <c r="T20">
         <v>3</v>
       </c>
-      <c r="N20">
-        <v>2.1</v>
-      </c>
-      <c r="O20">
-        <v>3.5</v>
-      </c>
-      <c r="P20">
-        <v>3</v>
-      </c>
-      <c r="Q20">
-        <v>-0.25</v>
-      </c>
-      <c r="R20">
-        <v>1.875</v>
-      </c>
-      <c r="S20">
-        <v>1.925</v>
-      </c>
-      <c r="T20">
-        <v>2.75</v>
-      </c>
       <c r="U20">
+        <v>1.975</v>
+      </c>
+      <c r="V20">
         <v>1.825</v>
       </c>
-      <c r="V20">
-        <v>1.975</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
@@ -2419,19 +2425,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2439,7 +2445,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7188987</v>
+        <v>7188990</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2451,49 +2457,49 @@
         <v>45179.5</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K21">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N21">
+        <v>2.1</v>
+      </c>
+      <c r="O21">
         <v>3.5</v>
       </c>
-      <c r="O21">
-        <v>3.4</v>
-      </c>
       <c r="P21">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
         <v>1.825</v>
@@ -2508,13 +2514,13 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB21">
         <v>-1</v>
@@ -2528,7 +2534,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7202436</v>
+        <v>7202435</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2540,46 +2546,46 @@
         <v>45182.5</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K22">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N22">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P22">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q22">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T22">
         <v>2.75</v>
@@ -2591,7 +2597,7 @@
         <v>1.975</v>
       </c>
       <c r="W22">
-        <v>0.5329999999999999</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2600,16 +2606,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="AA22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2617,7 +2623,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7202435</v>
+        <v>7202436</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2629,46 +2635,46 @@
         <v>45182.5</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M23">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T23">
         <v>2.75</v>
@@ -2680,7 +2686,7 @@
         <v>1.975</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2689,16 +2695,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8</v>
+        <v>0.35</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2721,7 +2727,7 @@
         <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H24">
         <v>6</v>
@@ -2730,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K24">
         <v>1.4</v>
@@ -2819,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K25">
         <v>1.8</v>
@@ -2908,7 +2914,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K26">
         <v>2.4</v>
@@ -2988,7 +2994,7 @@
         <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2997,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K27">
         <v>2.75</v>
@@ -3077,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3086,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K28">
         <v>1.909</v>
@@ -3163,7 +3169,7 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
         <v>74</v>
@@ -3175,7 +3181,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K29">
         <v>2.1</v>
@@ -3264,7 +3270,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K30">
         <v>1.727</v>
@@ -3353,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K31">
         <v>1.6</v>
@@ -3433,7 +3439,7 @@
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3442,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K32">
         <v>1.333</v>
@@ -3507,7 +3513,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7291472</v>
+        <v>7291473</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3519,58 +3525,58 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K33">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M33">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N33">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P33">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3579,13 +3585,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3596,7 +3602,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7291473</v>
+        <v>7291472</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3608,58 +3614,58 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K34">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L34">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N34">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="O34">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P34">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q34">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W34">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3668,13 +3674,13 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3685,7 +3691,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7305882</v>
+        <v>7305881</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3697,76 +3703,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I35">
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K35">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M35">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="N35">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O35">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P35">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="Q35">
+        <v>-1.25</v>
+      </c>
+      <c r="R35">
+        <v>1.75</v>
+      </c>
+      <c r="S35">
+        <v>1.95</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
+        <v>1.8</v>
+      </c>
+      <c r="W35">
+        <v>0.363</v>
+      </c>
+      <c r="X35">
+        <v>-1</v>
+      </c>
+      <c r="Y35">
+        <v>-1</v>
+      </c>
+      <c r="Z35">
         <v>0.75</v>
       </c>
-      <c r="R35">
-        <v>1.825</v>
-      </c>
-      <c r="S35">
-        <v>1.975</v>
-      </c>
-      <c r="T35">
-        <v>2.75</v>
-      </c>
-      <c r="U35">
-        <v>1.8</v>
-      </c>
-      <c r="V35">
-        <v>2</v>
-      </c>
-      <c r="W35">
-        <v>-1</v>
-      </c>
-      <c r="X35">
-        <v>-1</v>
-      </c>
-      <c r="Y35">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z35">
-        <v>-1</v>
-      </c>
       <c r="AA35">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3774,7 +3780,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7305881</v>
+        <v>7305882</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3786,76 +3792,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>92</v>
+      </c>
+      <c r="K36">
+        <v>3.6</v>
+      </c>
+      <c r="L36">
         <v>4</v>
       </c>
-      <c r="I36">
-        <v>2</v>
-      </c>
-      <c r="J36" t="s">
-        <v>89</v>
-      </c>
-      <c r="K36">
-        <v>1.363</v>
-      </c>
-      <c r="L36">
-        <v>4.75</v>
-      </c>
       <c r="M36">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="N36">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O36">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P36">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q36">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R36">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V36">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z36">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
         <v>1</v>
-      </c>
-      <c r="AC36">
-        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3878,7 +3884,7 @@
         <v>47</v>
       </c>
       <c r="G37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3887,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K37">
         <v>1.3</v>
@@ -3964,10 +3970,10 @@
         <v>45207.46875</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3976,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K38">
         <v>1.95</v>
@@ -4065,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K39">
         <v>2.75</v>
@@ -4145,7 +4151,7 @@
         <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4154,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K40">
         <v>1.4</v>
@@ -4219,7 +4225,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7337008</v>
+        <v>7337010</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4231,76 +4237,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
         <v>0</v>
       </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
       <c r="J41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K41">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L41">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N41">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O41">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P41">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q41">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
+        <v>1.75</v>
+      </c>
+      <c r="V41">
         <v>1.95</v>
       </c>
-      <c r="V41">
-        <v>1.85</v>
-      </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4308,7 +4314,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7337010</v>
+        <v>7337008</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4320,76 +4326,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K42">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N42">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O42">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P42">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
         <v>3</v>
       </c>
       <c r="U42">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB42">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4421,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K43">
         <v>1.85</v>
@@ -4498,7 +4504,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
         <v>61</v>
@@ -4510,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K44">
         <v>2.15</v>
@@ -4599,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -4679,7 +4685,7 @@
         <v>50</v>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4688,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K46">
         <v>1.8</v>
@@ -4777,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K47">
         <v>1.25</v>
@@ -4857,7 +4863,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4866,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K48">
         <v>2.5</v>
@@ -4946,7 +4952,7 @@
         <v>45</v>
       </c>
       <c r="G49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -4955,7 +4961,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K49">
         <v>1.571</v>
@@ -5020,7 +5026,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7382546</v>
+        <v>7382547</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5032,76 +5038,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>91</v>
       </c>
       <c r="K50">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L50">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N50">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O50">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="Q50">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X50">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC50">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5109,7 +5115,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7382547</v>
+        <v>7382546</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5121,76 +5127,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" t="s">
         <v>41</v>
       </c>
-      <c r="G51" t="s">
-        <v>40</v>
-      </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>93</v>
+      </c>
+      <c r="K51">
+        <v>1.363</v>
+      </c>
+      <c r="L51">
+        <v>4.333</v>
+      </c>
+      <c r="M51">
+        <v>6.5</v>
+      </c>
+      <c r="N51">
+        <v>1.25</v>
+      </c>
+      <c r="O51">
         <v>5</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>89</v>
-      </c>
-      <c r="K51">
-        <v>2.3</v>
-      </c>
-      <c r="L51">
-        <v>3.4</v>
-      </c>
-      <c r="M51">
-        <v>2.625</v>
-      </c>
-      <c r="N51">
-        <v>2.3</v>
-      </c>
-      <c r="O51">
-        <v>3.4</v>
-      </c>
       <c r="P51">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5222,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K52">
         <v>1.4</v>
@@ -5299,7 +5305,7 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
@@ -5311,7 +5317,7 @@
         <v>4</v>
       </c>
       <c r="J53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K53">
         <v>1.615</v>
@@ -5388,10 +5394,10 @@
         <v>45228.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5400,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K54">
         <v>1.5</v>
@@ -5477,10 +5483,10 @@
         <v>45232.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5489,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K55">
         <v>3.5</v>
@@ -5578,7 +5584,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K56">
         <v>1.909</v>
@@ -5667,7 +5673,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -5756,7 +5762,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K58">
         <v>5.75</v>
@@ -5833,7 +5839,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
         <v>79</v>
@@ -5845,7 +5851,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K59">
         <v>4</v>
@@ -5934,7 +5940,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K60">
         <v>3.2</v>
@@ -6023,7 +6029,7 @@
         <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K61">
         <v>2.4</v>
@@ -6103,7 +6109,7 @@
         <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6112,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K62">
         <v>1.5</v>
@@ -6201,7 +6207,7 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6290,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6355,7 +6361,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7493775</v>
+        <v>7493772</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6367,58 +6373,58 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K65">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L65">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M65">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N65">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O65">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P65">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q65">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R65">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S65">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U65">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6427,16 +6433,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB65">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6444,7 +6450,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7493773</v>
+        <v>7493774</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6456,61 +6462,61 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F66" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K66">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L66">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M66">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N66">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="O66">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P66">
-        <v>9</v>
+        <v>5.75</v>
       </c>
       <c r="Q66">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R66">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S66">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T66">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V66">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6519,13 +6525,13 @@
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB66">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6533,7 +6539,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7493772</v>
+        <v>7493773</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6545,76 +6551,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G67" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K67">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="L67">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M67">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="N67">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O67">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P67">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Q67">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R67">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T67">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U67">
+        <v>1.95</v>
+      </c>
+      <c r="V67">
         <v>1.85</v>
       </c>
-      <c r="V67">
-        <v>1.95</v>
-      </c>
       <c r="W67">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
+        <v>-1</v>
+      </c>
+      <c r="AA67">
+        <v>0.95</v>
+      </c>
+      <c r="AB67">
+        <v>0.475</v>
+      </c>
+      <c r="AC67">
         <v>-0.5</v>
-      </c>
-      <c r="AA67">
-        <v>0.45</v>
-      </c>
-      <c r="AB67">
-        <v>0</v>
-      </c>
-      <c r="AC67">
-        <v>-0</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6622,7 +6628,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7493774</v>
+        <v>7493775</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6634,13 +6640,13 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F68" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G68" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -6649,61 +6655,61 @@
         <v>91</v>
       </c>
       <c r="K68">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L68">
         <v>3.75</v>
       </c>
       <c r="M68">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N68">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O68">
         <v>3.8</v>
       </c>
       <c r="P68">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q68">
         <v>-1</v>
       </c>
       <c r="R68">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S68">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
+        <v>1.875</v>
+      </c>
+      <c r="V68">
         <v>1.925</v>
       </c>
-      <c r="V68">
-        <v>1.875</v>
-      </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X68">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA68">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC68">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6711,7 +6717,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7493771</v>
+        <v>7493776</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6723,58 +6729,58 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K69">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L69">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
         <v>1.975</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6783,16 +6789,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6800,7 +6806,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7493776</v>
+        <v>7493771</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6812,58 +6818,58 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N70">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P70">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S70">
         <v>1.975</v>
       </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W70">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6872,16 +6878,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6904,7 +6910,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6913,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K71">
         <v>2.45</v>
@@ -7002,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K72">
         <v>2.05</v>
@@ -7091,7 +7097,7 @@
         <v>6</v>
       </c>
       <c r="J73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K73">
         <v>1.4</v>
@@ -7180,7 +7186,7 @@
         <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K74">
         <v>2.8</v>
@@ -7257,7 +7263,7 @@
         <v>45255.40277777778</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
         <v>48</v>
@@ -7269,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K75">
         <v>3.2</v>
@@ -7334,7 +7340,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7519480</v>
+        <v>7519482</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7346,76 +7352,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>91</v>
       </c>
       <c r="K76">
+        <v>1.909</v>
+      </c>
+      <c r="L76">
+        <v>3.4</v>
+      </c>
+      <c r="M76">
+        <v>3.4</v>
+      </c>
+      <c r="N76">
+        <v>1.727</v>
+      </c>
+      <c r="O76">
+        <v>3.6</v>
+      </c>
+      <c r="P76">
+        <v>4.333</v>
+      </c>
+      <c r="Q76">
+        <v>-0.75</v>
+      </c>
+      <c r="R76">
+        <v>1.95</v>
+      </c>
+      <c r="S76">
+        <v>1.85</v>
+      </c>
+      <c r="T76">
         <v>2.5</v>
       </c>
-      <c r="L76">
-        <v>3.5</v>
-      </c>
-      <c r="M76">
-        <v>2.375</v>
-      </c>
-      <c r="N76">
-        <v>2.5</v>
-      </c>
-      <c r="O76">
-        <v>3.5</v>
-      </c>
-      <c r="P76">
-        <v>2.375</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>1.975</v>
-      </c>
-      <c r="S76">
-        <v>1.825</v>
-      </c>
-      <c r="T76">
-        <v>3</v>
-      </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X76">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC76">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7423,7 +7429,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7519482</v>
+        <v>7519480</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7435,76 +7441,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F77" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K77">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N77">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P77">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T77">
+        <v>3</v>
+      </c>
+      <c r="U77">
+        <v>1.9</v>
+      </c>
+      <c r="V77">
+        <v>1.9</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
         <v>2.5</v>
       </c>
-      <c r="U77">
-        <v>1.85</v>
-      </c>
-      <c r="V77">
-        <v>1.95</v>
-      </c>
-      <c r="W77">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7512,7 +7518,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7519478</v>
+        <v>7519479</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7527,52 +7533,52 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>1</v>
       </c>
-      <c r="I78">
-        <v>2</v>
-      </c>
       <c r="J78" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q78">
         <v>0.25</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7581,19 +7587,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
+        <v>1.2</v>
+      </c>
+      <c r="Z78">
+        <v>-1</v>
+      </c>
+      <c r="AA78">
         <v>1</v>
       </c>
-      <c r="Z78">
-        <v>-1</v>
-      </c>
-      <c r="AA78">
-        <v>0.8</v>
-      </c>
       <c r="AB78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7601,7 +7607,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7519479</v>
+        <v>7519478</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7613,55 +7619,55 @@
         <v>45256.40625</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K79">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N79">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q79">
         <v>0.25</v>
       </c>
       <c r="R79">
+        <v>2</v>
+      </c>
+      <c r="S79">
         <v>1.8</v>
       </c>
-      <c r="S79">
-        <v>2</v>
-      </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7670,19 +7676,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7714,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K80">
         <v>1.5</v>
@@ -7794,7 +7800,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H81">
         <v>7</v>
@@ -7803,7 +7809,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K81">
         <v>1.571</v>
@@ -7880,7 +7886,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G82" t="s">
         <v>46</v>
@@ -7892,7 +7898,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K82">
         <v>3.4</v>
@@ -7972,7 +7978,7 @@
         <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7981,7 +7987,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K83">
         <v>1.333</v>
@@ -8070,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K84">
         <v>1.571</v>
@@ -8159,7 +8165,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K85">
         <v>1.6</v>
@@ -8248,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K86">
         <v>1.727</v>
@@ -8337,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K87">
         <v>1.333</v>
@@ -8417,7 +8423,7 @@
         <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8426,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K88">
         <v>1.6</v>
@@ -8515,7 +8521,7 @@
         <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K89">
         <v>2.75</v>
@@ -8604,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K90">
         <v>1.4</v>
@@ -8693,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K91">
         <v>2.75</v>
@@ -8770,7 +8776,7 @@
         <v>45361.48958333334</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
         <v>38</v>
@@ -8782,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K92">
         <v>3.4</v>
@@ -8847,7 +8853,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7964849</v>
+        <v>7964850</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8859,46 +8865,46 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F93" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K93">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="L93">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="N93">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O93">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q93">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T93">
         <v>3</v>
@@ -8910,19 +8916,19 @@
         <v>1.85</v>
       </c>
       <c r="W93">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB93">
         <v>-1</v>
@@ -8936,7 +8942,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7964850</v>
+        <v>7964849</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8948,13 +8954,13 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F94" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G94" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -8963,31 +8969,31 @@
         <v>91</v>
       </c>
       <c r="K94">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M94">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="N94">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P94">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R94">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T94">
         <v>3</v>
@@ -8999,19 +9005,19 @@
         <v>1.85</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X94">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
         <v>-1</v>
@@ -9049,7 +9055,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K95">
         <v>1.909</v>
@@ -9138,7 +9144,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K96">
         <v>1.5</v>
@@ -9227,7 +9233,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K97">
         <v>1.333</v>
@@ -9316,7 +9322,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K98">
         <v>2.1</v>
@@ -9396,7 +9402,7 @@
         <v>44</v>
       </c>
       <c r="G99" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9405,7 +9411,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K99">
         <v>2.4</v>
@@ -9485,7 +9491,7 @@
         <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9494,7 +9500,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K100">
         <v>2.4</v>
@@ -9559,7 +9565,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>8001390</v>
+        <v>8001389</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9571,19 +9577,19 @@
         <v>45375.5</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K101">
         <v>5.5</v>
@@ -9595,52 +9601,52 @@
         <v>1.4</v>
       </c>
       <c r="N101">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O101">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P101">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S101">
+        <v>1.95</v>
+      </c>
+      <c r="T101">
+        <v>2.75</v>
+      </c>
+      <c r="U101">
         <v>1.925</v>
       </c>
-      <c r="T101">
-        <v>2.5</v>
-      </c>
-      <c r="U101">
-        <v>1.95</v>
-      </c>
       <c r="V101">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z101">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA101">
+        <v>0.475</v>
+      </c>
+      <c r="AB101">
+        <v>0.4625</v>
+      </c>
+      <c r="AC101">
         <v>-0.5</v>
-      </c>
-      <c r="AB101">
-        <v>-1</v>
-      </c>
-      <c r="AC101">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9648,7 +9654,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>8001389</v>
+        <v>8001390</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9663,16 +9669,16 @@
         <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K102">
         <v>5.5</v>
@@ -9684,52 +9690,52 @@
         <v>1.4</v>
       </c>
       <c r="N102">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O102">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P102">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q102">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
+        <v>1.925</v>
+      </c>
+      <c r="T102">
+        <v>2.5</v>
+      </c>
+      <c r="U102">
         <v>1.95</v>
       </c>
-      <c r="T102">
-        <v>2.75</v>
-      </c>
-      <c r="U102">
-        <v>1.925</v>
-      </c>
       <c r="V102">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y102">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
+        <v>0.4375</v>
+      </c>
+      <c r="AA102">
         <v>-0.5</v>
       </c>
-      <c r="AA102">
-        <v>0.475</v>
-      </c>
       <c r="AB102">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9761,7 +9767,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K103">
         <v>1.3</v>
@@ -9819,6 +9825,184 @@
       </c>
       <c r="AC103">
         <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>8030419</v>
+      </c>
+      <c r="C104" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45381.47916666666</v>
+      </c>
+      <c r="F104" t="s">
+        <v>51</v>
+      </c>
+      <c r="G104" t="s">
+        <v>89</v>
+      </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104" t="s">
+        <v>91</v>
+      </c>
+      <c r="K104">
+        <v>1.25</v>
+      </c>
+      <c r="L104">
+        <v>5.5</v>
+      </c>
+      <c r="M104">
+        <v>7.5</v>
+      </c>
+      <c r="N104">
+        <v>1.2</v>
+      </c>
+      <c r="O104">
+        <v>6</v>
+      </c>
+      <c r="P104">
+        <v>8.5</v>
+      </c>
+      <c r="Q104">
+        <v>-1.75</v>
+      </c>
+      <c r="R104">
+        <v>1.8</v>
+      </c>
+      <c r="S104">
+        <v>2</v>
+      </c>
+      <c r="T104">
+        <v>2.75</v>
+      </c>
+      <c r="U104">
+        <v>1.775</v>
+      </c>
+      <c r="V104">
+        <v>2.025</v>
+      </c>
+      <c r="W104">
+        <v>0.2</v>
+      </c>
+      <c r="X104">
+        <v>-1</v>
+      </c>
+      <c r="Y104">
+        <v>-1</v>
+      </c>
+      <c r="Z104">
+        <v>0.4</v>
+      </c>
+      <c r="AA104">
+        <v>-0.5</v>
+      </c>
+      <c r="AB104">
+        <v>-1</v>
+      </c>
+      <c r="AC104">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>8027364</v>
+      </c>
+      <c r="C105" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45381.5</v>
+      </c>
+      <c r="F105" t="s">
+        <v>30</v>
+      </c>
+      <c r="G105" t="s">
+        <v>90</v>
+      </c>
+      <c r="H105">
+        <v>3</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105" t="s">
+        <v>91</v>
+      </c>
+      <c r="K105">
+        <v>1.909</v>
+      </c>
+      <c r="L105">
+        <v>3.4</v>
+      </c>
+      <c r="M105">
+        <v>3.4</v>
+      </c>
+      <c r="N105">
+        <v>1.7</v>
+      </c>
+      <c r="O105">
+        <v>3.6</v>
+      </c>
+      <c r="P105">
+        <v>4.2</v>
+      </c>
+      <c r="Q105">
+        <v>-0.75</v>
+      </c>
+      <c r="R105">
+        <v>1.95</v>
+      </c>
+      <c r="S105">
+        <v>1.85</v>
+      </c>
+      <c r="T105">
+        <v>2.75</v>
+      </c>
+      <c r="U105">
+        <v>2</v>
+      </c>
+      <c r="V105">
+        <v>1.8</v>
+      </c>
+      <c r="W105">
+        <v>0.7</v>
+      </c>
+      <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
+        <v>-1</v>
+      </c>
+      <c r="Z105">
+        <v>0.95</v>
+      </c>
+      <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
+        <v>0.5</v>
+      </c>
+      <c r="AC105">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -118,13 +118,13 @@
     <t>NK Vuteks Sloga</t>
   </si>
   <si>
-    <t>NK Bistra</t>
+    <t>NK Tomislav</t>
   </si>
   <si>
     <t>Sava Strmec</t>
   </si>
   <si>
-    <t>NK Tomislav</t>
+    <t>NK Bistra</t>
   </si>
   <si>
     <t>Lucko</t>
@@ -136,10 +136,10 @@
     <t>Zmaj Makarska</t>
   </si>
   <si>
-    <t>RNK Split</t>
+    <t>NK Vodice</t>
   </si>
   <si>
-    <t>NK Vodice</t>
+    <t>RNK Split</t>
   </si>
   <si>
     <t>NK Udarnik Kurilovec</t>
@@ -211,19 +211,19 @@
     <t>Valpovka</t>
   </si>
   <si>
+    <t>NK Oriolik Oriovac</t>
+  </si>
+  <si>
     <t>NK Vrapce</t>
   </si>
   <si>
     <t>Slavija Pleternica</t>
   </si>
   <si>
-    <t>NK Oriolik Oriovac</t>
+    <t>NK Uskok</t>
   </si>
   <si>
     <t>NK Kamen Ivanbegovina</t>
-  </si>
-  <si>
-    <t>NK Uskok</t>
   </si>
   <si>
     <t>NK Nask Nasice</t>
@@ -1199,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7126857</v>
+        <v>7126860</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1217,70 +1217,70 @@
         <v>65</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7">
+        <v>2.5</v>
+      </c>
+      <c r="L7">
+        <v>3.4</v>
+      </c>
+      <c r="M7">
+        <v>2.4</v>
+      </c>
+      <c r="N7">
+        <v>2.625</v>
+      </c>
+      <c r="O7">
+        <v>3.4</v>
+      </c>
+      <c r="P7">
+        <v>2.3</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1.975</v>
+      </c>
+      <c r="S7">
+        <v>1.725</v>
+      </c>
+      <c r="T7">
         <v>3</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7">
-        <v>2.875</v>
-      </c>
-      <c r="L7">
-        <v>3.5</v>
-      </c>
-      <c r="M7">
-        <v>2.1</v>
-      </c>
-      <c r="N7">
-        <v>2.9</v>
-      </c>
-      <c r="O7">
-        <v>3.5</v>
-      </c>
-      <c r="P7">
-        <v>2.1</v>
-      </c>
-      <c r="Q7">
-        <v>0.25</v>
-      </c>
-      <c r="R7">
-        <v>1.925</v>
-      </c>
-      <c r="S7">
-        <v>1.875</v>
-      </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
       <c r="U7">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1377,7 +1377,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7126859</v>
+        <v>7126857</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1389,76 +1389,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
         <v>66</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K9">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="N9">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X9">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1466,7 +1466,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7126860</v>
+        <v>7126859</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1478,7 +1478,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
         <v>67</v>
@@ -1493,61 +1493,61 @@
         <v>93</v>
       </c>
       <c r="K10">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N10">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>3</v>
       </c>
       <c r="U10">
+        <v>1.85</v>
+      </c>
+      <c r="V10">
         <v>1.95</v>
       </c>
-      <c r="V10">
-        <v>1.85</v>
-      </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1748,7 +1748,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1911,7 +1911,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7183190</v>
+        <v>7183189</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1929,70 +1929,70 @@
         <v>68</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K15">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O15">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P15">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2000,7 +2000,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7183189</v>
+        <v>7183190</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2018,70 +2018,70 @@
         <v>69</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K16">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M16">
+        <v>3.75</v>
+      </c>
+      <c r="N16">
+        <v>1.727</v>
+      </c>
+      <c r="O16">
+        <v>3.75</v>
+      </c>
+      <c r="P16">
+        <v>3.75</v>
+      </c>
+      <c r="Q16">
+        <v>-0.75</v>
+      </c>
+      <c r="R16">
+        <v>1.975</v>
+      </c>
+      <c r="S16">
+        <v>1.825</v>
+      </c>
+      <c r="T16">
         <v>3</v>
       </c>
-      <c r="N16">
-        <v>2.1</v>
-      </c>
-      <c r="O16">
-        <v>3.3</v>
-      </c>
-      <c r="P16">
-        <v>3</v>
-      </c>
-      <c r="Q16">
-        <v>-0.25</v>
-      </c>
-      <c r="R16">
-        <v>1.9</v>
-      </c>
-      <c r="S16">
-        <v>1.9</v>
-      </c>
-      <c r="T16">
+      <c r="U16">
+        <v>1.95</v>
+      </c>
+      <c r="V16">
+        <v>1.85</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
         <v>2.75</v>
       </c>
-      <c r="U16">
-        <v>1.925</v>
-      </c>
-      <c r="V16">
-        <v>1.775</v>
-      </c>
-      <c r="W16">
-        <v>-1</v>
-      </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
       <c r="Y16">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC16">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2178,7 +2178,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7188987</v>
+        <v>7188989</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2190,56 +2190,56 @@
         <v>45179.5</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>92</v>
       </c>
       <c r="K18">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="L18">
         <v>3.4</v>
       </c>
       <c r="M18">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="N18">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O18">
         <v>3.4</v>
       </c>
       <c r="P18">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R18">
+        <v>1.95</v>
+      </c>
+      <c r="S18">
         <v>1.85</v>
-      </c>
-      <c r="S18">
-        <v>1.95</v>
       </c>
       <c r="T18">
         <v>3</v>
       </c>
       <c r="U18">
+        <v>1.975</v>
+      </c>
+      <c r="V18">
         <v>1.825</v>
       </c>
-      <c r="V18">
-        <v>1.975</v>
-      </c>
       <c r="W18">
         <v>-1</v>
       </c>
@@ -2247,19 +2247,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.909</v>
+        <v>1.4</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2267,7 +2267,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7188988</v>
+        <v>7188987</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2279,49 +2279,49 @@
         <v>45179.5</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>92</v>
       </c>
       <c r="K19">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L19">
         <v>3.4</v>
       </c>
       <c r="M19">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="N19">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O19">
         <v>3.4</v>
       </c>
       <c r="P19">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U19">
         <v>1.825</v>
@@ -2336,19 +2336,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>2.4</v>
+        <v>0.909</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2356,7 +2356,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7188989</v>
+        <v>7188990</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2368,13 +2368,13 @@
         <v>45179.5</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -2383,41 +2383,41 @@
         <v>92</v>
       </c>
       <c r="K20">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M20">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O20">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P20">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
+        <v>1.825</v>
+      </c>
+      <c r="V20">
         <v>1.975</v>
       </c>
-      <c r="V20">
-        <v>1.825</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
@@ -2425,19 +2425,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2445,7 +2445,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7188990</v>
+        <v>7188988</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2457,46 +2457,46 @@
         <v>45179.5</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
         <v>92</v>
       </c>
       <c r="K21">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N21">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P21">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
         <v>2.75</v>
@@ -2514,19 +2514,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2813,7 +2813,7 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
         <v>47</v>
@@ -2994,7 +2994,7 @@
         <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3169,7 +3169,7 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
         <v>74</v>
@@ -3439,7 +3439,7 @@
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3513,7 +3513,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7291473</v>
+        <v>7291472</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3525,13 +3525,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3540,43 +3540,43 @@
         <v>91</v>
       </c>
       <c r="K33">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L33">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N33">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="O33">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P33">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q33">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V33">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3585,13 +3585,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3602,7 +3602,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7291472</v>
+        <v>7291473</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3614,13 +3614,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3629,43 +3629,43 @@
         <v>91</v>
       </c>
       <c r="K34">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L34">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M34">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N34">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P34">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3674,13 +3674,13 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3884,7 +3884,7 @@
         <v>47</v>
       </c>
       <c r="G37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3973,7 +3973,7 @@
         <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -4059,7 +4059,7 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
         <v>52</v>
@@ -4504,7 +4504,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
         <v>61</v>
@@ -4581,7 +4581,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7366817</v>
+        <v>7366818</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4593,76 +4593,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>91</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L45">
+        <v>3.75</v>
+      </c>
+      <c r="M45">
         <v>3.4</v>
       </c>
-      <c r="M45">
-        <v>3.1</v>
-      </c>
       <c r="N45">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O45">
+        <v>3.75</v>
+      </c>
+      <c r="P45">
         <v>3.4</v>
       </c>
-      <c r="P45">
-        <v>3.1</v>
-      </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W45">
+        <v>0.8</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
+        <v>-1</v>
+      </c>
+      <c r="Z45">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA45">
+        <v>-1</v>
+      </c>
+      <c r="AB45">
+        <v>-1</v>
+      </c>
+      <c r="AC45">
         <v>1</v>
-      </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>-1</v>
-      </c>
-      <c r="Z45">
-        <v>0.8</v>
-      </c>
-      <c r="AA45">
-        <v>-1</v>
-      </c>
-      <c r="AB45">
-        <v>0.925</v>
-      </c>
-      <c r="AC45">
-        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4670,7 +4670,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7366818</v>
+        <v>7366817</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4682,76 +4682,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
         <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
       </c>
       <c r="J46" t="s">
         <v>91</v>
       </c>
       <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>3.4</v>
+      </c>
+      <c r="M46">
+        <v>3.1</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>3.4</v>
+      </c>
+      <c r="P46">
+        <v>3.1</v>
+      </c>
+      <c r="Q46">
+        <v>-0.25</v>
+      </c>
+      <c r="R46">
         <v>1.8</v>
       </c>
-      <c r="L46">
-        <v>3.75</v>
-      </c>
-      <c r="M46">
-        <v>3.4</v>
-      </c>
-      <c r="N46">
-        <v>1.8</v>
-      </c>
-      <c r="O46">
-        <v>3.75</v>
-      </c>
-      <c r="P46">
-        <v>3.4</v>
-      </c>
-      <c r="Q46">
-        <v>-0.5</v>
-      </c>
-      <c r="R46">
-        <v>1.85</v>
-      </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>-1</v>
+      </c>
+      <c r="Y46">
+        <v>-1</v>
+      </c>
+      <c r="Z46">
         <v>0.8</v>
       </c>
-      <c r="X46">
-        <v>-1</v>
-      </c>
-      <c r="Y46">
-        <v>-1</v>
-      </c>
-      <c r="Z46">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5041,7 +5041,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H50">
         <v>5</v>
@@ -5130,7 +5130,7 @@
         <v>52</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5216,7 +5216,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
         <v>78</v>
@@ -5305,7 +5305,7 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
@@ -5394,7 +5394,7 @@
         <v>45228.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
         <v>72</v>
@@ -5486,7 +5486,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
         <v>55</v>
@@ -5839,7 +5839,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
         <v>79</v>
@@ -6361,7 +6361,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7493772</v>
+        <v>7493775</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6373,13 +6373,13 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G65" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -6388,43 +6388,43 @@
         <v>91</v>
       </c>
       <c r="K65">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M65">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N65">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O65">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P65">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q65">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V65">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6433,16 +6433,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA65">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC65">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6450,7 +6450,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7493774</v>
+        <v>7493772</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6462,76 +6462,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K66">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L66">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M66">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N66">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O66">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P66">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q66">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R66">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S66">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X66">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6554,7 +6554,7 @@
         <v>55</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6628,7 +6628,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7493775</v>
+        <v>7493774</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6640,76 +6640,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F68" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K68">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="L68">
         <v>3.75</v>
       </c>
       <c r="M68">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N68">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O68">
         <v>3.8</v>
       </c>
       <c r="P68">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q68">
         <v>-1</v>
       </c>
       <c r="R68">
+        <v>1.825</v>
+      </c>
+      <c r="S68">
+        <v>1.975</v>
+      </c>
+      <c r="T68">
+        <v>2.75</v>
+      </c>
+      <c r="U68">
         <v>1.925</v>
       </c>
-      <c r="S68">
+      <c r="V68">
         <v>1.875</v>
       </c>
-      <c r="T68">
-        <v>2.5</v>
-      </c>
-      <c r="U68">
-        <v>1.875</v>
-      </c>
-      <c r="V68">
-        <v>1.925</v>
-      </c>
       <c r="W68">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB68">
+        <v>-1</v>
+      </c>
+      <c r="AC68">
         <v>0.875</v>
-      </c>
-      <c r="AC68">
-        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6717,7 +6717,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7493776</v>
+        <v>7493771</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6729,13 +6729,13 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -6744,43 +6744,43 @@
         <v>91</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L69">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O69">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S69">
         <v>1.975</v>
       </c>
       <c r="T69">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6789,16 +6789,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6806,7 +6806,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7493771</v>
+        <v>7493776</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6818,13 +6818,13 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6833,43 +6833,43 @@
         <v>91</v>
       </c>
       <c r="K70">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L70">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O70">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
         <v>1.975</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6878,16 +6878,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6910,7 +6910,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6984,7 +6984,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7517623</v>
+        <v>7520493</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6996,43 +6996,43 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G72" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="H72">
         <v>2</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K72">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="L72">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="N72">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O72">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="P72">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S72">
         <v>1.95</v>
@@ -7041,31 +7041,31 @@
         <v>3</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC72">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7073,7 +7073,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7517624</v>
+        <v>7517623</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7085,40 +7085,40 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G73" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K73">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L73">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="M73">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O73">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q73">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
         <v>1.85</v>
@@ -7127,34 +7127,34 @@
         <v>1.95</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7162,7 +7162,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7520493</v>
+        <v>7517624</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7174,55 +7174,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F74" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G74" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J74" t="s">
         <v>92</v>
       </c>
       <c r="K74">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="L74">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="M74">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N74">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O74">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="P74">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="Q74">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R74">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
         <v>1.95</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -7231,7 +7231,7 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.95</v>
+        <v>4.25</v>
       </c>
       <c r="Z74">
         <v>-1</v>
@@ -7240,7 +7240,7 @@
         <v>0.95</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7263,7 +7263,7 @@
         <v>45255.40277777778</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
         <v>48</v>
@@ -7619,7 +7619,7 @@
         <v>45256.40625</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
         <v>37</v>
@@ -7886,7 +7886,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G82" t="s">
         <v>46</v>
@@ -8423,7 +8423,7 @@
         <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8497,7 +8497,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7939610</v>
+        <v>7939609</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8509,46 +8509,46 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G89" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
         <v>0</v>
       </c>
-      <c r="I89">
-        <v>4</v>
-      </c>
       <c r="J89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K89">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="M89">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="N89">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O89">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P89">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
         <v>2.75</v>
@@ -8560,25 +8560,25 @@
         <v>2</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
+        <v>-1</v>
+      </c>
+      <c r="Z89">
+        <v>-0.5</v>
+      </c>
+      <c r="AA89">
+        <v>0.4625</v>
+      </c>
+      <c r="AB89">
+        <v>-1</v>
+      </c>
+      <c r="AC89">
         <v>1</v>
-      </c>
-      <c r="Z89">
-        <v>-1</v>
-      </c>
-      <c r="AA89">
-        <v>0.8</v>
-      </c>
-      <c r="AB89">
-        <v>0.8</v>
-      </c>
-      <c r="AC89">
-        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8586,7 +8586,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7939609</v>
+        <v>7939610</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8598,46 +8598,46 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G90" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K90">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L90">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="M90">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N90">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O90">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T90">
         <v>2.75</v>
@@ -8649,25 +8649,25 @@
         <v>2</v>
       </c>
       <c r="W90">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC90">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8957,7 +8957,7 @@
         <v>58</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -9402,7 +9402,7 @@
         <v>44</v>
       </c>
       <c r="G99" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9491,7 +9491,7 @@
         <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9565,7 +9565,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>8001389</v>
+        <v>8001390</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9577,19 +9577,19 @@
         <v>45375.5</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K101">
         <v>5.5</v>
@@ -9601,52 +9601,52 @@
         <v>1.4</v>
       </c>
       <c r="N101">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O101">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P101">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q101">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
+        <v>1.925</v>
+      </c>
+      <c r="T101">
+        <v>2.5</v>
+      </c>
+      <c r="U101">
         <v>1.95</v>
       </c>
-      <c r="T101">
-        <v>2.75</v>
-      </c>
-      <c r="U101">
-        <v>1.925</v>
-      </c>
       <c r="V101">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y101">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
+        <v>0.4375</v>
+      </c>
+      <c r="AA101">
         <v>-0.5</v>
       </c>
-      <c r="AA101">
-        <v>0.475</v>
-      </c>
       <c r="AB101">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9654,7 +9654,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>8001390</v>
+        <v>8001389</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9666,19 +9666,19 @@
         <v>45375.5</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K102">
         <v>5.5</v>
@@ -9690,52 +9690,52 @@
         <v>1.4</v>
       </c>
       <c r="N102">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O102">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P102">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S102">
+        <v>1.95</v>
+      </c>
+      <c r="T102">
+        <v>2.75</v>
+      </c>
+      <c r="U102">
         <v>1.925</v>
       </c>
-      <c r="T102">
-        <v>2.5</v>
-      </c>
-      <c r="U102">
-        <v>1.95</v>
-      </c>
       <c r="V102">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z102">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA102">
+        <v>0.475</v>
+      </c>
+      <c r="AB102">
+        <v>0.4625</v>
+      </c>
+      <c r="AC102">
         <v>-0.5</v>
-      </c>
-      <c r="AB102">
-        <v>-1</v>
-      </c>
-      <c r="AC102">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -118,13 +118,13 @@
     <t>NK Vuteks Sloga</t>
   </si>
   <si>
-    <t>NK Tomislav</t>
+    <t>NK Bistra</t>
   </si>
   <si>
     <t>Sava Strmec</t>
   </si>
   <si>
-    <t>NK Bistra</t>
+    <t>NK Tomislav</t>
   </si>
   <si>
     <t>Lucko</t>
@@ -187,10 +187,10 @@
     <t>NK Tresnjevka</t>
   </si>
   <si>
-    <t>NK Gosk Kastel Gomilica</t>
+    <t>NK Croatia Dakovo</t>
   </si>
   <si>
-    <t>NK Croatia Dakovo</t>
+    <t>NK Gosk Kastel Gomilica</t>
   </si>
   <si>
     <t>NK Neretvanac Opuzen</t>
@@ -211,10 +211,10 @@
     <t>Valpovka</t>
   </si>
   <si>
-    <t>NK Oriolik Oriovac</t>
+    <t>NK Vrapce</t>
   </si>
   <si>
-    <t>NK Vrapce</t>
+    <t>NK Oriolik Oriovac</t>
   </si>
   <si>
     <t>Slavija Pleternica</t>
@@ -229,19 +229,19 @@
     <t>NK Nask Nasice</t>
   </si>
   <si>
-    <t>NK Zagorec Krapina</t>
+    <t>NK Tondach</t>
   </si>
   <si>
-    <t>NK Tondach</t>
+    <t>NK Zagorec Krapina</t>
   </si>
   <si>
     <t>NK Mladost Petrinja</t>
   </si>
   <si>
-    <t>Sloga Nova Gradiska</t>
+    <t>NK Svacic</t>
   </si>
   <si>
-    <t>NK Svacic</t>
+    <t>Sloga Nova Gradiska</t>
   </si>
   <si>
     <t>NK Neretva</t>
@@ -1199,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7126860</v>
+        <v>7126857</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1217,70 +1217,70 @@
         <v>65</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K7">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="N7">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="O7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
+        <v>1.925</v>
+      </c>
+      <c r="S7">
+        <v>1.875</v>
+      </c>
+      <c r="T7">
+        <v>2.75</v>
+      </c>
+      <c r="U7">
+        <v>1.825</v>
+      </c>
+      <c r="V7">
         <v>1.975</v>
       </c>
-      <c r="S7">
-        <v>1.725</v>
-      </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
-      <c r="U7">
-        <v>1.95</v>
-      </c>
-      <c r="V7">
-        <v>1.85</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X7">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA7">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1377,7 +1377,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7126857</v>
+        <v>7126860</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1395,70 +1395,70 @@
         <v>66</v>
       </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9">
+        <v>2.5</v>
+      </c>
+      <c r="L9">
+        <v>3.4</v>
+      </c>
+      <c r="M9">
+        <v>2.4</v>
+      </c>
+      <c r="N9">
+        <v>2.625</v>
+      </c>
+      <c r="O9">
+        <v>3.4</v>
+      </c>
+      <c r="P9">
+        <v>2.3</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1.975</v>
+      </c>
+      <c r="S9">
+        <v>1.725</v>
+      </c>
+      <c r="T9">
         <v>3</v>
       </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9">
-        <v>2.875</v>
-      </c>
-      <c r="L9">
-        <v>3.5</v>
-      </c>
-      <c r="M9">
-        <v>2.1</v>
-      </c>
-      <c r="N9">
-        <v>2.9</v>
-      </c>
-      <c r="O9">
-        <v>3.5</v>
-      </c>
-      <c r="P9">
-        <v>2.1</v>
-      </c>
-      <c r="Q9">
-        <v>0.25</v>
-      </c>
-      <c r="R9">
-        <v>1.925</v>
-      </c>
-      <c r="S9">
-        <v>1.875</v>
-      </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1748,7 +1748,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -2193,7 +2193,7 @@
         <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2267,7 +2267,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7188987</v>
+        <v>7188988</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2279,49 +2279,49 @@
         <v>45179.5</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
         <v>71</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
         <v>92</v>
       </c>
       <c r="K19">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="L19">
         <v>3.4</v>
       </c>
       <c r="M19">
+        <v>3.4</v>
+      </c>
+      <c r="N19">
         <v>1.909</v>
-      </c>
-      <c r="N19">
-        <v>3.5</v>
       </c>
       <c r="O19">
         <v>3.4</v>
       </c>
       <c r="P19">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
         <v>1.825</v>
@@ -2336,19 +2336,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.909</v>
+        <v>2.4</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2445,7 +2445,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7188988</v>
+        <v>7188987</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2457,49 +2457,49 @@
         <v>45179.5</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
         <v>72</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>92</v>
       </c>
       <c r="K21">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L21">
         <v>3.4</v>
       </c>
       <c r="M21">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O21">
         <v>3.4</v>
       </c>
       <c r="P21">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U21">
         <v>1.825</v>
@@ -2514,19 +2514,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>2.4</v>
+        <v>0.909</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2638,7 +2638,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2994,7 +2994,7 @@
         <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3157,7 +3157,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7250138</v>
+        <v>7250137</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3169,76 +3169,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>74</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K29">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L29">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M29">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N29">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P29">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3246,7 +3246,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7250137</v>
+        <v>7250138</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3258,76 +3258,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
         <v>75</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K30">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L30">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N30">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O30">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P30">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S30">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y30">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3691,7 +3691,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7305881</v>
+        <v>7305882</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3703,76 +3703,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>92</v>
+      </c>
+      <c r="K35">
+        <v>3.6</v>
+      </c>
+      <c r="L35">
         <v>4</v>
       </c>
-      <c r="I35">
-        <v>2</v>
-      </c>
-      <c r="J35" t="s">
-        <v>91</v>
-      </c>
-      <c r="K35">
-        <v>1.363</v>
-      </c>
-      <c r="L35">
-        <v>4.75</v>
-      </c>
       <c r="M35">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="N35">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O35">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P35">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q35">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R35">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V35">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W35">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z35">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB35">
+        <v>-1</v>
+      </c>
+      <c r="AC35">
         <v>1</v>
-      </c>
-      <c r="AC35">
-        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3780,7 +3780,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7305882</v>
+        <v>7305881</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3792,76 +3792,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I36">
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K36">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M36">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="N36">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O36">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P36">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="Q36">
+        <v>-1.25</v>
+      </c>
+      <c r="R36">
+        <v>1.75</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
+        <v>1.8</v>
+      </c>
+      <c r="W36">
+        <v>0.363</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
+        <v>-1</v>
+      </c>
+      <c r="Z36">
         <v>0.75</v>
       </c>
-      <c r="R36">
-        <v>1.825</v>
-      </c>
-      <c r="S36">
-        <v>1.975</v>
-      </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
-      <c r="U36">
-        <v>1.8</v>
-      </c>
-      <c r="V36">
-        <v>2</v>
-      </c>
-      <c r="W36">
-        <v>-1</v>
-      </c>
-      <c r="X36">
-        <v>-1</v>
-      </c>
-      <c r="Y36">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z36">
-        <v>-1</v>
-      </c>
       <c r="AA36">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC36">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3973,7 +3973,7 @@
         <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -4047,7 +4047,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7337013</v>
+        <v>7337011</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4059,76 +4059,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K39">
+        <v>1.4</v>
+      </c>
+      <c r="L39">
+        <v>4.75</v>
+      </c>
+      <c r="M39">
+        <v>5.25</v>
+      </c>
+      <c r="N39">
+        <v>1.4</v>
+      </c>
+      <c r="O39">
+        <v>4.75</v>
+      </c>
+      <c r="P39">
+        <v>5.25</v>
+      </c>
+      <c r="Q39">
+        <v>-1.25</v>
+      </c>
+      <c r="R39">
+        <v>1.9</v>
+      </c>
+      <c r="S39">
+        <v>1.9</v>
+      </c>
+      <c r="T39">
         <v>2.75</v>
       </c>
-      <c r="L39">
-        <v>3.4</v>
-      </c>
-      <c r="M39">
-        <v>2.2</v>
-      </c>
-      <c r="N39">
-        <v>2.75</v>
-      </c>
-      <c r="O39">
-        <v>3.4</v>
-      </c>
-      <c r="P39">
-        <v>2.2</v>
-      </c>
-      <c r="Q39">
-        <v>0.25</v>
-      </c>
-      <c r="R39">
-        <v>1.8</v>
-      </c>
-      <c r="S39">
-        <v>2</v>
-      </c>
-      <c r="T39">
-        <v>3</v>
-      </c>
       <c r="U39">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X39">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4136,7 +4136,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7337011</v>
+        <v>7337013</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4148,76 +4148,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K40">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L40">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N40">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O40">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q40">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W40">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4225,7 +4225,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7337010</v>
+        <v>7337008</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4237,76 +4237,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K41">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M41">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N41">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O41">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P41">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R41">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S41">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB41">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4314,7 +4314,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7337008</v>
+        <v>7337010</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4326,76 +4326,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
       <c r="J42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L42">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N42">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O42">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P42">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q42">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R42">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
         <v>3</v>
       </c>
       <c r="U42">
+        <v>1.75</v>
+      </c>
+      <c r="V42">
         <v>1.95</v>
       </c>
-      <c r="V42">
-        <v>1.85</v>
-      </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4504,7 +4504,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
         <v>61</v>
@@ -4581,7 +4581,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7366818</v>
+        <v>7366817</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4593,76 +4593,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
         <v>1</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>91</v>
       </c>
       <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>3.4</v>
+      </c>
+      <c r="M45">
+        <v>3.1</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>3.4</v>
+      </c>
+      <c r="P45">
+        <v>3.1</v>
+      </c>
+      <c r="Q45">
+        <v>-0.25</v>
+      </c>
+      <c r="R45">
         <v>1.8</v>
       </c>
-      <c r="L45">
-        <v>3.75</v>
-      </c>
-      <c r="M45">
-        <v>3.4</v>
-      </c>
-      <c r="N45">
-        <v>1.8</v>
-      </c>
-      <c r="O45">
-        <v>3.75</v>
-      </c>
-      <c r="P45">
-        <v>3.4</v>
-      </c>
-      <c r="Q45">
-        <v>-0.5</v>
-      </c>
-      <c r="R45">
-        <v>1.85</v>
-      </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
+        <v>-1</v>
+      </c>
+      <c r="Z45">
         <v>0.8</v>
       </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>-1</v>
-      </c>
-      <c r="Z45">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4670,7 +4670,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7366817</v>
+        <v>7366818</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4682,76 +4682,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
         <v>91</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L46">
+        <v>3.75</v>
+      </c>
+      <c r="M46">
         <v>3.4</v>
       </c>
-      <c r="M46">
-        <v>3.1</v>
-      </c>
       <c r="N46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O46">
+        <v>3.75</v>
+      </c>
+      <c r="P46">
         <v>3.4</v>
       </c>
-      <c r="P46">
-        <v>3.1</v>
-      </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W46">
+        <v>0.8</v>
+      </c>
+      <c r="X46">
+        <v>-1</v>
+      </c>
+      <c r="Y46">
+        <v>-1</v>
+      </c>
+      <c r="Z46">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>-1</v>
+      </c>
+      <c r="AB46">
+        <v>-1</v>
+      </c>
+      <c r="AC46">
         <v>1</v>
-      </c>
-      <c r="X46">
-        <v>-1</v>
-      </c>
-      <c r="Y46">
-        <v>-1</v>
-      </c>
-      <c r="Z46">
-        <v>0.8</v>
-      </c>
-      <c r="AA46">
-        <v>-1</v>
-      </c>
-      <c r="AB46">
-        <v>0.925</v>
-      </c>
-      <c r="AC46">
-        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4863,7 +4863,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4952,7 +4952,7 @@
         <v>45</v>
       </c>
       <c r="G49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -5026,7 +5026,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7382547</v>
+        <v>7382546</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5038,76 +5038,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>93</v>
+      </c>
+      <c r="K50">
+        <v>1.363</v>
+      </c>
+      <c r="L50">
+        <v>4.333</v>
+      </c>
+      <c r="M50">
+        <v>6.5</v>
+      </c>
+      <c r="N50">
+        <v>1.25</v>
+      </c>
+      <c r="O50">
         <v>5</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50" t="s">
-        <v>91</v>
-      </c>
-      <c r="K50">
-        <v>2.3</v>
-      </c>
-      <c r="L50">
-        <v>3.4</v>
-      </c>
-      <c r="M50">
-        <v>2.625</v>
-      </c>
-      <c r="N50">
-        <v>2.3</v>
-      </c>
-      <c r="O50">
-        <v>3.4</v>
-      </c>
       <c r="P50">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R50">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB50">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5115,7 +5115,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7382546</v>
+        <v>7382547</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5127,76 +5127,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K51">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L51">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N51">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X51">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5305,7 +5305,7 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
@@ -5394,10 +5394,10 @@
         <v>45228.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5575,7 +5575,7 @@
         <v>46</v>
       </c>
       <c r="G56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -6109,7 +6109,7 @@
         <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6361,7 +6361,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7493775</v>
+        <v>7493774</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6373,76 +6373,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G65" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K65">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="L65">
         <v>3.75</v>
       </c>
       <c r="M65">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N65">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O65">
         <v>3.8</v>
       </c>
       <c r="P65">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q65">
         <v>-1</v>
       </c>
       <c r="R65">
+        <v>1.825</v>
+      </c>
+      <c r="S65">
+        <v>1.975</v>
+      </c>
+      <c r="T65">
+        <v>2.75</v>
+      </c>
+      <c r="U65">
         <v>1.925</v>
       </c>
-      <c r="S65">
+      <c r="V65">
         <v>1.875</v>
       </c>
-      <c r="T65">
-        <v>2.5</v>
-      </c>
-      <c r="U65">
-        <v>1.875</v>
-      </c>
-      <c r="V65">
-        <v>1.925</v>
-      </c>
       <c r="W65">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB65">
+        <v>-1</v>
+      </c>
+      <c r="AC65">
         <v>0.875</v>
-      </c>
-      <c r="AC65">
-        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6450,7 +6450,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7493772</v>
+        <v>7493775</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6462,13 +6462,13 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G66" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -6477,43 +6477,43 @@
         <v>91</v>
       </c>
       <c r="K66">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M66">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N66">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O66">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P66">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q66">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T66">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V66">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W66">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6522,16 +6522,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA66">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6628,7 +6628,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7493774</v>
+        <v>7493772</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6640,76 +6640,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F68" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K68">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L68">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M68">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N68">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O68">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P68">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R68">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X68">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA68">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6821,7 +6821,7 @@
         <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6910,7 +6910,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6984,7 +6984,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7520493</v>
+        <v>7517624</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6996,55 +6996,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G72" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J72" t="s">
         <v>92</v>
       </c>
       <c r="K72">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="L72">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="M72">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N72">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O72">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="P72">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="Q72">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R72">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
         <v>1.95</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U72">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
         <v>-1</v>
@@ -7053,7 +7053,7 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.95</v>
+        <v>4.25</v>
       </c>
       <c r="Z72">
         <v>-1</v>
@@ -7062,7 +7062,7 @@
         <v>0.95</v>
       </c>
       <c r="AB72">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -7073,7 +7073,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7517623</v>
+        <v>7520493</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7085,43 +7085,43 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F73" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G73" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="H73">
         <v>2</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K73">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="L73">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="N73">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="P73">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S73">
         <v>1.95</v>
@@ -7130,31 +7130,31 @@
         <v>3</v>
       </c>
       <c r="U73">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7162,7 +7162,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7517624</v>
+        <v>7517623</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7177,37 +7177,37 @@
         <v>58</v>
       </c>
       <c r="G74" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K74">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L74">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="M74">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O74">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
         <v>1.85</v>
@@ -7216,34 +7216,34 @@
         <v>1.95</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7619,7 +7619,7 @@
         <v>45256.40625</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
         <v>37</v>
@@ -7800,7 +7800,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H81">
         <v>7</v>
@@ -8497,7 +8497,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7939609</v>
+        <v>7939610</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8509,46 +8509,46 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G89" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K89">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L89">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N89">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O89">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S89">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T89">
         <v>2.75</v>
@@ -8560,25 +8560,25 @@
         <v>2</v>
       </c>
       <c r="W89">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC89">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8586,7 +8586,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7939610</v>
+        <v>7939609</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8598,46 +8598,46 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G90" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
         <v>0</v>
       </c>
-      <c r="I90">
-        <v>4</v>
-      </c>
       <c r="J90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="M90">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="N90">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
         <v>2.75</v>
@@ -8649,25 +8649,25 @@
         <v>2</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
+        <v>-1</v>
+      </c>
+      <c r="Z90">
+        <v>-0.5</v>
+      </c>
+      <c r="AA90">
+        <v>0.4625</v>
+      </c>
+      <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>1</v>
-      </c>
-      <c r="Z90">
-        <v>-1</v>
-      </c>
-      <c r="AA90">
-        <v>0.8</v>
-      </c>
-      <c r="AB90">
-        <v>0.8</v>
-      </c>
-      <c r="AC90">
-        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8954,10 +8954,10 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F94" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -9402,7 +9402,7 @@
         <v>44</v>
       </c>
       <c r="G99" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9491,7 +9491,7 @@
         <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9666,7 +9666,7 @@
         <v>45375.5</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
         <v>88</v>

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -6984,7 +6984,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7517624</v>
+        <v>7520493</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6996,55 +6996,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G72" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J72" t="s">
         <v>92</v>
       </c>
       <c r="K72">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="L72">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="M72">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N72">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O72">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="P72">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S72">
         <v>1.95</v>
       </c>
       <c r="T72">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
         <v>-1</v>
@@ -7053,7 +7053,7 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>4.25</v>
+        <v>0.95</v>
       </c>
       <c r="Z72">
         <v>-1</v>
@@ -7062,7 +7062,7 @@
         <v>0.95</v>
       </c>
       <c r="AB72">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -7073,7 +7073,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7520493</v>
+        <v>7517624</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7085,55 +7085,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F73" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G73" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J73" t="s">
         <v>92</v>
       </c>
       <c r="K73">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="L73">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="M73">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N73">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O73">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="P73">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="Q73">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R73">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
         <v>1.95</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
         <v>-1</v>
@@ -7142,7 +7142,7 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.95</v>
+        <v>4.25</v>
       </c>
       <c r="Z73">
         <v>-1</v>
@@ -7151,7 +7151,7 @@
         <v>0.95</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -9565,7 +9565,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>8001390</v>
+        <v>8001389</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9577,19 +9577,19 @@
         <v>45375.5</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K101">
         <v>5.5</v>
@@ -9601,52 +9601,52 @@
         <v>1.4</v>
       </c>
       <c r="N101">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O101">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P101">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S101">
+        <v>1.95</v>
+      </c>
+      <c r="T101">
+        <v>2.75</v>
+      </c>
+      <c r="U101">
         <v>1.925</v>
       </c>
-      <c r="T101">
-        <v>2.5</v>
-      </c>
-      <c r="U101">
-        <v>1.95</v>
-      </c>
       <c r="V101">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z101">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA101">
+        <v>0.475</v>
+      </c>
+      <c r="AB101">
+        <v>0.4625</v>
+      </c>
+      <c r="AC101">
         <v>-0.5</v>
-      </c>
-      <c r="AB101">
-        <v>-1</v>
-      </c>
-      <c r="AC101">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9654,7 +9654,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>8001389</v>
+        <v>8001390</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9666,19 +9666,19 @@
         <v>45375.5</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K102">
         <v>5.5</v>
@@ -9690,52 +9690,52 @@
         <v>1.4</v>
       </c>
       <c r="N102">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O102">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P102">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q102">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
+        <v>1.925</v>
+      </c>
+      <c r="T102">
+        <v>2.5</v>
+      </c>
+      <c r="U102">
         <v>1.95</v>
       </c>
-      <c r="T102">
-        <v>2.75</v>
-      </c>
-      <c r="U102">
-        <v>1.925</v>
-      </c>
       <c r="V102">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y102">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
+        <v>0.4375</v>
+      </c>
+      <c r="AA102">
         <v>-0.5</v>
       </c>
-      <c r="AA102">
-        <v>0.475</v>
-      </c>
       <c r="AB102">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -6984,7 +6984,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7520493</v>
+        <v>7517624</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6996,55 +6996,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G72" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J72" t="s">
         <v>92</v>
       </c>
       <c r="K72">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="L72">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="M72">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N72">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O72">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="P72">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="Q72">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R72">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
         <v>1.95</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U72">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
         <v>-1</v>
@@ -7053,7 +7053,7 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.95</v>
+        <v>4.25</v>
       </c>
       <c r="Z72">
         <v>-1</v>
@@ -7062,7 +7062,7 @@
         <v>0.95</v>
       </c>
       <c r="AB72">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -7073,7 +7073,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7517624</v>
+        <v>7520493</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7085,55 +7085,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F73" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G73" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
         <v>92</v>
       </c>
       <c r="K73">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="L73">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="M73">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N73">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O73">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="P73">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q73">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S73">
         <v>1.95</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
         <v>-1</v>
@@ -7142,7 +7142,7 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>4.25</v>
+        <v>0.95</v>
       </c>
       <c r="Z73">
         <v>-1</v>
@@ -7151,7 +7151,7 @@
         <v>0.95</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -9565,7 +9565,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>8001389</v>
+        <v>8001390</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9577,19 +9577,19 @@
         <v>45375.5</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K101">
         <v>5.5</v>
@@ -9601,52 +9601,52 @@
         <v>1.4</v>
       </c>
       <c r="N101">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O101">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P101">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q101">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
+        <v>1.925</v>
+      </c>
+      <c r="T101">
+        <v>2.5</v>
+      </c>
+      <c r="U101">
         <v>1.95</v>
       </c>
-      <c r="T101">
-        <v>2.75</v>
-      </c>
-      <c r="U101">
-        <v>1.925</v>
-      </c>
       <c r="V101">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y101">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
+        <v>0.4375</v>
+      </c>
+      <c r="AA101">
         <v>-0.5</v>
       </c>
-      <c r="AA101">
-        <v>0.475</v>
-      </c>
       <c r="AB101">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9654,7 +9654,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>8001390</v>
+        <v>8001389</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9666,19 +9666,19 @@
         <v>45375.5</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K102">
         <v>5.5</v>
@@ -9690,52 +9690,52 @@
         <v>1.4</v>
       </c>
       <c r="N102">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O102">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P102">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S102">
+        <v>1.95</v>
+      </c>
+      <c r="T102">
+        <v>2.75</v>
+      </c>
+      <c r="U102">
         <v>1.925</v>
       </c>
-      <c r="T102">
-        <v>2.5</v>
-      </c>
-      <c r="U102">
-        <v>1.95</v>
-      </c>
       <c r="V102">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z102">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA102">
+        <v>0.475</v>
+      </c>
+      <c r="AB102">
+        <v>0.4625</v>
+      </c>
+      <c r="AC102">
         <v>-0.5</v>
-      </c>
-      <c r="AB102">
-        <v>-1</v>
-      </c>
-      <c r="AC102">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -121,10 +121,10 @@
     <t>NK Bistra</t>
   </si>
   <si>
-    <t>Sava Strmec</t>
+    <t>NK Tomislav</t>
   </si>
   <si>
-    <t>NK Tomislav</t>
+    <t>Sava Strmec</t>
   </si>
   <si>
     <t>Lucko</t>
@@ -133,10 +133,10 @@
     <t>Gaj Mace</t>
   </si>
   <si>
-    <t>Zmaj Makarska</t>
+    <t>NK Vodice</t>
   </si>
   <si>
-    <t>NK Vodice</t>
+    <t>Zmaj Makarska</t>
   </si>
   <si>
     <t>RNK Split</t>
@@ -187,10 +187,10 @@
     <t>NK Tresnjevka</t>
   </si>
   <si>
-    <t>NK Croatia Dakovo</t>
+    <t>NK Gosk Kastel Gomilica</t>
   </si>
   <si>
-    <t>NK Gosk Kastel Gomilica</t>
+    <t>NK Croatia Dakovo</t>
   </si>
   <si>
     <t>NK Neretvanac Opuzen</t>
@@ -229,19 +229,19 @@
     <t>NK Nask Nasice</t>
   </si>
   <si>
-    <t>NK Tondach</t>
+    <t>NK Zagorec Krapina</t>
   </si>
   <si>
-    <t>NK Zagorec Krapina</t>
+    <t>NK Tondach</t>
   </si>
   <si>
     <t>NK Mladost Petrinja</t>
   </si>
   <si>
-    <t>NK Svacic</t>
+    <t>Sloga Nova Gradiska</t>
   </si>
   <si>
-    <t>Sloga Nova Gradiska</t>
+    <t>NK Svacic</t>
   </si>
   <si>
     <t>NK Neretva</t>
@@ -1288,7 +1288,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7126858</v>
+        <v>7126860</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1303,73 +1303,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L8">
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N8">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R8">
+        <v>1.975</v>
+      </c>
+      <c r="S8">
+        <v>1.725</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
         <v>1.95</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>1.85</v>
       </c>
-      <c r="T8">
-        <v>2.75</v>
-      </c>
-      <c r="U8">
-        <v>1.9</v>
-      </c>
-      <c r="V8">
-        <v>1.9</v>
-      </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA8">
+        <v>-0</v>
+      </c>
+      <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB8">
-        <v>-1</v>
-      </c>
-      <c r="AC8">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1377,7 +1377,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7126860</v>
+        <v>7126859</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1389,10 +1389,10 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1404,61 +1404,61 @@
         <v>93</v>
       </c>
       <c r="K9">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P9">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>3</v>
       </c>
       <c r="U9">
+        <v>1.85</v>
+      </c>
+      <c r="V9">
         <v>1.95</v>
       </c>
-      <c r="V9">
-        <v>1.85</v>
-      </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1466,7 +1466,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7126859</v>
+        <v>7126858</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1478,76 +1478,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K10">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N10">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1659,7 +1659,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1748,7 +1748,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1822,7 +1822,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7183191</v>
+        <v>7183189</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1837,52 +1837,52 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>1</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>92</v>
       </c>
       <c r="K14">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L14">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P14">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q14">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1891,19 +1891,19 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB14">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1911,7 +1911,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7183189</v>
+        <v>7183191</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1926,52 +1926,52 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>92</v>
       </c>
       <c r="K15">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N15">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O15">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1980,19 +1980,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC15">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2178,7 +2178,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7188989</v>
+        <v>7188987</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2190,56 +2190,56 @@
         <v>45179.5</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>1</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>92</v>
       </c>
       <c r="K18">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L18">
         <v>3.4</v>
       </c>
       <c r="M18">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="N18">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O18">
         <v>3.4</v>
       </c>
       <c r="P18">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
+        <v>1.85</v>
+      </c>
+      <c r="S18">
         <v>1.95</v>
-      </c>
-      <c r="S18">
-        <v>1.85</v>
       </c>
       <c r="T18">
         <v>3</v>
       </c>
       <c r="U18">
+        <v>1.825</v>
+      </c>
+      <c r="V18">
         <v>1.975</v>
       </c>
-      <c r="V18">
-        <v>1.825</v>
-      </c>
       <c r="W18">
         <v>-1</v>
       </c>
@@ -2247,19 +2247,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.4</v>
+        <v>0.909</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2282,7 +2282,7 @@
         <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2356,7 +2356,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7188990</v>
+        <v>7188989</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2368,13 +2368,13 @@
         <v>45179.5</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -2383,41 +2383,41 @@
         <v>92</v>
       </c>
       <c r="K20">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L20">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
+        <v>2.4</v>
+      </c>
+      <c r="N20">
+        <v>2.5</v>
+      </c>
+      <c r="O20">
+        <v>3.4</v>
+      </c>
+      <c r="P20">
+        <v>2.4</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1.95</v>
+      </c>
+      <c r="S20">
+        <v>1.85</v>
+      </c>
+      <c r="T20">
         <v>3</v>
       </c>
-      <c r="N20">
-        <v>2.1</v>
-      </c>
-      <c r="O20">
-        <v>3.5</v>
-      </c>
-      <c r="P20">
-        <v>3</v>
-      </c>
-      <c r="Q20">
-        <v>-0.25</v>
-      </c>
-      <c r="R20">
-        <v>1.875</v>
-      </c>
-      <c r="S20">
-        <v>1.925</v>
-      </c>
-      <c r="T20">
-        <v>2.75</v>
-      </c>
       <c r="U20">
+        <v>1.975</v>
+      </c>
+      <c r="V20">
         <v>1.825</v>
       </c>
-      <c r="V20">
-        <v>1.975</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
@@ -2425,19 +2425,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2445,7 +2445,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7188987</v>
+        <v>7188990</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2457,49 +2457,49 @@
         <v>45179.5</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
         <v>92</v>
       </c>
       <c r="K21">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N21">
+        <v>2.1</v>
+      </c>
+      <c r="O21">
         <v>3.5</v>
       </c>
-      <c r="O21">
-        <v>3.4</v>
-      </c>
       <c r="P21">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
         <v>1.825</v>
@@ -2514,13 +2514,13 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB21">
         <v>-1</v>
@@ -2623,7 +2623,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7202436</v>
+        <v>7202437</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2635,58 +2635,58 @@
         <v>45182.5</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>91</v>
       </c>
       <c r="K23">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L23">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M23">
+        <v>6</v>
+      </c>
+      <c r="N23">
+        <v>1.4</v>
+      </c>
+      <c r="O23">
         <v>4.333</v>
       </c>
-      <c r="N23">
-        <v>1.533</v>
-      </c>
-      <c r="O23">
-        <v>4</v>
-      </c>
       <c r="P23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R23">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U23">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V23">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W23">
-        <v>0.5329999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2695,16 +2695,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.35</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AC23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2712,7 +2712,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7202437</v>
+        <v>7202436</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2724,58 +2724,58 @@
         <v>45182.5</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>91</v>
       </c>
       <c r="K24">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L24">
+        <v>3.75</v>
+      </c>
+      <c r="M24">
         <v>4.333</v>
       </c>
-      <c r="M24">
-        <v>6</v>
-      </c>
       <c r="N24">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="O24">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q24">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
-        <v>0.3999999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2784,16 +2784,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB24">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3157,7 +3157,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7250137</v>
+        <v>7250138</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3169,76 +3169,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
         <v>74</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K29">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N29">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O29">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S29">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y29">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA29">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3246,7 +3246,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7250138</v>
+        <v>7250137</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3258,76 +3258,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
         <v>75</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K30">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M30">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N30">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P30">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3528,7 +3528,7 @@
         <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3691,7 +3691,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7305882</v>
+        <v>7305881</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3703,76 +3703,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I35">
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K35">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M35">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="N35">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O35">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P35">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="Q35">
+        <v>-1.25</v>
+      </c>
+      <c r="R35">
+        <v>1.75</v>
+      </c>
+      <c r="S35">
+        <v>1.95</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
+        <v>1.8</v>
+      </c>
+      <c r="W35">
+        <v>0.363</v>
+      </c>
+      <c r="X35">
+        <v>-1</v>
+      </c>
+      <c r="Y35">
+        <v>-1</v>
+      </c>
+      <c r="Z35">
         <v>0.75</v>
       </c>
-      <c r="R35">
-        <v>1.825</v>
-      </c>
-      <c r="S35">
-        <v>1.975</v>
-      </c>
-      <c r="T35">
-        <v>2.75</v>
-      </c>
-      <c r="U35">
-        <v>1.8</v>
-      </c>
-      <c r="V35">
-        <v>2</v>
-      </c>
-      <c r="W35">
-        <v>-1</v>
-      </c>
-      <c r="X35">
-        <v>-1</v>
-      </c>
-      <c r="Y35">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z35">
-        <v>-1</v>
-      </c>
       <c r="AA35">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3780,7 +3780,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7305881</v>
+        <v>7305882</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3792,76 +3792,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>92</v>
+      </c>
+      <c r="K36">
+        <v>3.6</v>
+      </c>
+      <c r="L36">
         <v>4</v>
       </c>
-      <c r="I36">
-        <v>2</v>
-      </c>
-      <c r="J36" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36">
-        <v>1.363</v>
-      </c>
-      <c r="L36">
-        <v>4.75</v>
-      </c>
       <c r="M36">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="N36">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O36">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P36">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q36">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R36">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V36">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z36">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
         <v>1</v>
-      </c>
-      <c r="AC36">
-        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3970,7 +3970,7 @@
         <v>45207.46875</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
         <v>34</v>
@@ -4062,7 +4062,7 @@
         <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4225,7 +4225,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7337008</v>
+        <v>7337010</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4237,76 +4237,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
         <v>0</v>
       </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
       <c r="J41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K41">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L41">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N41">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O41">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P41">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q41">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
+        <v>1.75</v>
+      </c>
+      <c r="V41">
         <v>1.95</v>
       </c>
-      <c r="V41">
-        <v>1.85</v>
-      </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4314,7 +4314,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7337010</v>
+        <v>7337008</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4326,76 +4326,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K42">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N42">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O42">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P42">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
         <v>3</v>
       </c>
       <c r="U42">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB42">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4403,7 +4403,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7343496</v>
+        <v>7343497</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4415,10 +4415,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4430,43 +4430,43 @@
         <v>91</v>
       </c>
       <c r="K43">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M43">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N43">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O43">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P43">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S43">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T43">
         <v>3</v>
       </c>
       <c r="U43">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V43">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W43">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4475,7 +4475,7 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA43">
         <v>-1</v>
@@ -4492,7 +4492,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7343497</v>
+        <v>7343496</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4504,10 +4504,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4519,43 +4519,43 @@
         <v>91</v>
       </c>
       <c r="K44">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L44">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O44">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T44">
         <v>3</v>
       </c>
       <c r="U44">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4564,7 +4564,7 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4596,7 +4596,7 @@
         <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4863,7 +4863,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4952,7 +4952,7 @@
         <v>45</v>
       </c>
       <c r="G49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -5041,7 +5041,7 @@
         <v>52</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5127,7 +5127,7 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
         <v>41</v>
@@ -5305,7 +5305,7 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
@@ -5397,7 +5397,7 @@
         <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5483,7 +5483,7 @@
         <v>45232.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
         <v>68</v>
@@ -5575,7 +5575,7 @@
         <v>46</v>
       </c>
       <c r="G56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5839,7 +5839,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
         <v>79</v>
@@ -6109,7 +6109,7 @@
         <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6361,7 +6361,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7493774</v>
+        <v>7493775</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6373,76 +6373,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G65" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K65">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L65">
         <v>3.75</v>
       </c>
       <c r="M65">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N65">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O65">
         <v>3.8</v>
       </c>
       <c r="P65">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q65">
         <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S65">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
+        <v>1.875</v>
+      </c>
+      <c r="V65">
         <v>1.925</v>
       </c>
-      <c r="V65">
-        <v>1.875</v>
-      </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X65">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA65">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC65">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6450,7 +6450,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7493775</v>
+        <v>7493772</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6462,13 +6462,13 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F66" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -6477,43 +6477,43 @@
         <v>91</v>
       </c>
       <c r="K66">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L66">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M66">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N66">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O66">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P66">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q66">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R66">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S66">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U66">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V66">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W66">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6522,16 +6522,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB66">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6554,7 +6554,7 @@
         <v>55</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6628,7 +6628,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7493772</v>
+        <v>7493774</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6640,76 +6640,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G68" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K68">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N68">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O68">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P68">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q68">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6717,7 +6717,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7493771</v>
+        <v>7493776</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6729,13 +6729,13 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -6744,43 +6744,43 @@
         <v>91</v>
       </c>
       <c r="K69">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L69">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
         <v>1.975</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6789,16 +6789,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6806,7 +6806,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7493776</v>
+        <v>7493771</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6818,13 +6818,13 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6833,43 +6833,43 @@
         <v>91</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N70">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P70">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S70">
         <v>1.975</v>
       </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W70">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6878,16 +6878,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6910,7 +6910,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6984,7 +6984,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7517624</v>
+        <v>7517623</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6999,37 +6999,37 @@
         <v>57</v>
       </c>
       <c r="G72" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K72">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L72">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="M72">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O72">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="P72">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
         <v>1.85</v>
@@ -7038,34 +7038,34 @@
         <v>1.95</v>
       </c>
       <c r="T72">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7162,7 +7162,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7517623</v>
+        <v>7517624</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7177,37 +7177,37 @@
         <v>58</v>
       </c>
       <c r="G74" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K74">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L74">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="M74">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N74">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R74">
         <v>1.85</v>
@@ -7216,34 +7216,34 @@
         <v>1.95</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z74">
+        <v>-1</v>
+      </c>
+      <c r="AA74">
+        <v>0.95</v>
+      </c>
+      <c r="AB74">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA74">
-        <v>-1</v>
-      </c>
-      <c r="AB74">
-        <v>-1</v>
-      </c>
       <c r="AC74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7263,7 +7263,7 @@
         <v>45255.40277777778</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
         <v>48</v>
@@ -7355,7 +7355,7 @@
         <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H76">
         <v>4</v>
@@ -7518,7 +7518,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7519479</v>
+        <v>7519478</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7530,55 +7530,55 @@
         <v>45256.40625</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>92</v>
       </c>
       <c r="K78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q78">
         <v>0.25</v>
       </c>
       <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
         <v>1.8</v>
       </c>
-      <c r="S78">
-        <v>2</v>
-      </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7587,19 +7587,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7607,7 +7607,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7519478</v>
+        <v>7519479</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7619,55 +7619,55 @@
         <v>45256.40625</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
         <v>1</v>
-      </c>
-      <c r="I79">
-        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>92</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O79">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q79">
         <v>0.25</v>
       </c>
       <c r="R79">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S79">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7676,19 +7676,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
+        <v>1.2</v>
+      </c>
+      <c r="Z79">
+        <v>-1</v>
+      </c>
+      <c r="AA79">
         <v>1</v>
       </c>
-      <c r="Z79">
-        <v>-1</v>
-      </c>
-      <c r="AA79">
-        <v>0.8</v>
-      </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7800,7 +7800,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H81">
         <v>7</v>
@@ -7886,7 +7886,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
         <v>46</v>
@@ -7978,7 +7978,7 @@
         <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8497,7 +8497,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7939610</v>
+        <v>7939609</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8509,46 +8509,46 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G89" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
         <v>0</v>
       </c>
-      <c r="I89">
-        <v>4</v>
-      </c>
       <c r="J89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K89">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="M89">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="N89">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O89">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P89">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
         <v>2.75</v>
@@ -8560,25 +8560,25 @@
         <v>2</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
+        <v>-1</v>
+      </c>
+      <c r="Z89">
+        <v>-0.5</v>
+      </c>
+      <c r="AA89">
+        <v>0.4625</v>
+      </c>
+      <c r="AB89">
+        <v>-1</v>
+      </c>
+      <c r="AC89">
         <v>1</v>
-      </c>
-      <c r="Z89">
-        <v>-1</v>
-      </c>
-      <c r="AA89">
-        <v>0.8</v>
-      </c>
-      <c r="AB89">
-        <v>0.8</v>
-      </c>
-      <c r="AC89">
-        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8586,7 +8586,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7939609</v>
+        <v>7939610</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8598,46 +8598,46 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G90" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K90">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L90">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="M90">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N90">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O90">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T90">
         <v>2.75</v>
@@ -8649,25 +8649,25 @@
         <v>2</v>
       </c>
       <c r="W90">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC90">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8776,7 +8776,7 @@
         <v>45361.48958333334</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>38</v>
@@ -8853,7 +8853,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7964850</v>
+        <v>7964849</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8865,46 +8865,46 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F93" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G93" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K93">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M93">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="N93">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P93">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R93">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
         <v>3</v>
@@ -8916,19 +8916,19 @@
         <v>1.85</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X93">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
         <v>-1</v>
@@ -8942,7 +8942,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7964849</v>
+        <v>7964850</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8954,46 +8954,46 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F94" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K94">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="L94">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M94">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="N94">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O94">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q94">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S94">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T94">
         <v>3</v>
@@ -9005,19 +9005,19 @@
         <v>1.85</v>
       </c>
       <c r="W94">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
         <v>-1</v>
@@ -9577,7 +9577,7 @@
         <v>45375.5</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
         <v>43</v>

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -118,13 +118,13 @@
     <t>NK Vuteks Sloga</t>
   </si>
   <si>
+    <t>Sava Strmec</t>
+  </si>
+  <si>
     <t>NK Bistra</t>
   </si>
   <si>
     <t>NK Tomislav</t>
-  </si>
-  <si>
-    <t>Sava Strmec</t>
   </si>
   <si>
     <t>Lucko</t>
@@ -229,10 +229,10 @@
     <t>NK Nask Nasice</t>
   </si>
   <si>
-    <t>NK Zagorec Krapina</t>
+    <t>NK Tondach</t>
   </si>
   <si>
-    <t>NK Tondach</t>
+    <t>NK Zagorec Krapina</t>
   </si>
   <si>
     <t>NK Mladost Petrinja</t>
@@ -1199,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7126857</v>
+        <v>7126858</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1214,73 +1214,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K7">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N7">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1288,7 +1288,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7126860</v>
+        <v>7126857</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1303,73 +1303,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K8">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="N8">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
+        <v>1.925</v>
+      </c>
+      <c r="S8">
+        <v>1.875</v>
+      </c>
+      <c r="T8">
+        <v>2.75</v>
+      </c>
+      <c r="U8">
+        <v>1.825</v>
+      </c>
+      <c r="V8">
         <v>1.975</v>
       </c>
-      <c r="S8">
-        <v>1.725</v>
-      </c>
-      <c r="T8">
-        <v>3</v>
-      </c>
-      <c r="U8">
-        <v>1.95</v>
-      </c>
-      <c r="V8">
-        <v>1.85</v>
-      </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X8">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1377,7 +1377,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7126859</v>
+        <v>7126860</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1389,10 +1389,10 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1404,61 +1404,61 @@
         <v>93</v>
       </c>
       <c r="K9">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N9">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T9">
         <v>3</v>
       </c>
       <c r="U9">
+        <v>1.95</v>
+      </c>
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="V9">
-        <v>1.95</v>
-      </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1466,7 +1466,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7126858</v>
+        <v>7126859</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1478,76 +1478,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K10">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="N10">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>-1</v>
+      </c>
+      <c r="R10">
         <v>1.8</v>
       </c>
-      <c r="Q10">
-        <v>0.5</v>
-      </c>
-      <c r="R10">
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>1.85</v>
+      </c>
+      <c r="V10">
         <v>1.95</v>
       </c>
-      <c r="S10">
-        <v>1.85</v>
-      </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.9</v>
-      </c>
-      <c r="V10">
-        <v>1.9</v>
-      </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y10">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1659,7 +1659,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1748,7 +1748,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -2178,7 +2178,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7188987</v>
+        <v>7188988</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2190,49 +2190,49 @@
         <v>45179.5</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
         <v>71</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
         <v>92</v>
       </c>
       <c r="K18">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="L18">
         <v>3.4</v>
       </c>
       <c r="M18">
+        <v>3.4</v>
+      </c>
+      <c r="N18">
         <v>1.909</v>
-      </c>
-      <c r="N18">
-        <v>3.5</v>
       </c>
       <c r="O18">
         <v>3.4</v>
       </c>
       <c r="P18">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S18">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
         <v>1.825</v>
@@ -2247,19 +2247,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.909</v>
+        <v>2.4</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2267,7 +2267,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7188988</v>
+        <v>7188987</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2279,49 +2279,49 @@
         <v>45179.5</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
         <v>72</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>92</v>
       </c>
       <c r="K19">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L19">
         <v>3.4</v>
       </c>
       <c r="M19">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="N19">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O19">
         <v>3.4</v>
       </c>
       <c r="P19">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U19">
         <v>1.825</v>
@@ -2336,19 +2336,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>2.4</v>
+        <v>0.909</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2368,7 +2368,7 @@
         <v>45179.5</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
         <v>65</v>
@@ -2638,7 +2638,7 @@
         <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H23">
         <v>6</v>
@@ -2727,7 +2727,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3169,7 +3169,7 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
         <v>74</v>
@@ -3528,7 +3528,7 @@
         <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3970,10 +3970,10 @@
         <v>45207.46875</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -4415,7 +4415,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
         <v>61</v>
@@ -4863,7 +4863,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4952,7 +4952,7 @@
         <v>45</v>
       </c>
       <c r="G49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -5305,7 +5305,7 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
@@ -5394,10 +5394,10 @@
         <v>45228.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -6109,7 +6109,7 @@
         <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6450,7 +6450,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7493772</v>
+        <v>7493774</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6462,76 +6462,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G66" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K66">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M66">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N66">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O66">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P66">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q66">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T66">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V66">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W66">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6628,7 +6628,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7493774</v>
+        <v>7493772</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6640,76 +6640,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F68" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K68">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L68">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M68">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N68">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O68">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P68">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R68">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X68">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA68">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6732,7 +6732,7 @@
         <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6910,7 +6910,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7340,7 +7340,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7519482</v>
+        <v>7519480</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7352,76 +7352,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F76" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K76">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L76">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N76">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P76">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S76">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T76">
+        <v>3</v>
+      </c>
+      <c r="U76">
+        <v>1.9</v>
+      </c>
+      <c r="V76">
+        <v>1.9</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
         <v>2.5</v>
       </c>
-      <c r="U76">
-        <v>1.85</v>
-      </c>
-      <c r="V76">
-        <v>1.95</v>
-      </c>
-      <c r="W76">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7429,7 +7429,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7519480</v>
+        <v>7519482</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7441,76 +7441,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K77">
+        <v>1.909</v>
+      </c>
+      <c r="L77">
+        <v>3.4</v>
+      </c>
+      <c r="M77">
+        <v>3.4</v>
+      </c>
+      <c r="N77">
+        <v>1.727</v>
+      </c>
+      <c r="O77">
+        <v>3.6</v>
+      </c>
+      <c r="P77">
+        <v>4.333</v>
+      </c>
+      <c r="Q77">
+        <v>-0.75</v>
+      </c>
+      <c r="R77">
+        <v>1.95</v>
+      </c>
+      <c r="S77">
+        <v>1.85</v>
+      </c>
+      <c r="T77">
         <v>2.5</v>
       </c>
-      <c r="L77">
-        <v>3.5</v>
-      </c>
-      <c r="M77">
-        <v>2.375</v>
-      </c>
-      <c r="N77">
-        <v>2.5</v>
-      </c>
-      <c r="O77">
-        <v>3.5</v>
-      </c>
-      <c r="P77">
-        <v>2.375</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>1.975</v>
-      </c>
-      <c r="S77">
-        <v>1.825</v>
-      </c>
-      <c r="T77">
-        <v>3</v>
-      </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X77">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC77">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7530,7 +7530,7 @@
         <v>45256.40625</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7619,7 +7619,7 @@
         <v>45256.40625</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
         <v>84</v>
@@ -7800,7 +7800,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H81">
         <v>7</v>
@@ -7978,7 +7978,7 @@
         <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8776,7 +8776,7 @@
         <v>45361.48958333334</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
         <v>38</v>
@@ -8868,7 +8868,7 @@
         <v>58</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -9577,7 +9577,7 @@
         <v>45375.5</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
         <v>43</v>
@@ -9666,7 +9666,7 @@
         <v>45375.5</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
         <v>88</v>

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="94">
   <si>
     <t>id</t>
   </si>
@@ -118,13 +118,13 @@
     <t>NK Vuteks Sloga</t>
   </si>
   <si>
-    <t>Sava Strmec</t>
-  </si>
-  <si>
     <t>NK Bistra</t>
   </si>
   <si>
     <t>NK Tomislav</t>
+  </si>
+  <si>
+    <t>Sava Strmec</t>
   </si>
   <si>
     <t>Lucko</t>
@@ -211,13 +211,13 @@
     <t>Valpovka</t>
   </si>
   <si>
+    <t>Slavija Pleternica</t>
+  </si>
+  <si>
     <t>NK Vrapce</t>
   </si>
   <si>
     <t>NK Oriolik Oriovac</t>
-  </si>
-  <si>
-    <t>Slavija Pleternica</t>
   </si>
   <si>
     <t>NK Uskok</t>
@@ -229,19 +229,19 @@
     <t>NK Nask Nasice</t>
   </si>
   <si>
-    <t>NK Tondach</t>
+    <t>NK Zagorec Krapina</t>
   </si>
   <si>
-    <t>NK Zagorec Krapina</t>
+    <t>NK Tondach</t>
   </si>
   <si>
     <t>NK Mladost Petrinja</t>
   </si>
   <si>
-    <t>Sloga Nova Gradiska</t>
+    <t>NK Svacic</t>
   </si>
   <si>
-    <t>NK Svacic</t>
+    <t>Sloga Nova Gradiska</t>
   </si>
   <si>
     <t>NK Neretva</t>
@@ -657,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC105"/>
+  <dimension ref="A1:AC110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1199,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7126858</v>
+        <v>7126859</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1211,76 +1211,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>-1</v>
+      </c>
+      <c r="R7">
         <v>1.8</v>
       </c>
-      <c r="Q7">
-        <v>0.5</v>
-      </c>
-      <c r="R7">
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>1.85</v>
+      </c>
+      <c r="V7">
         <v>1.95</v>
       </c>
-      <c r="S7">
-        <v>1.85</v>
-      </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
-      <c r="U7">
-        <v>1.9</v>
-      </c>
-      <c r="V7">
-        <v>1.9</v>
-      </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1300,10 +1300,10 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1389,10 +1389,10 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1466,7 +1466,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7126859</v>
+        <v>7126858</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1478,76 +1478,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K10">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N10">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1659,7 +1659,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1748,7 +1748,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -2178,7 +2178,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7188988</v>
+        <v>7188989</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2190,56 +2190,56 @@
         <v>45179.5</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>92</v>
       </c>
       <c r="K18">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L18">
         <v>3.4</v>
       </c>
       <c r="M18">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N18">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O18">
         <v>3.4</v>
       </c>
       <c r="P18">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R18">
+        <v>1.95</v>
+      </c>
+      <c r="S18">
+        <v>1.85</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
         <v>1.975</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>1.825</v>
       </c>
-      <c r="T18">
-        <v>2.75</v>
-      </c>
-      <c r="U18">
-        <v>1.825</v>
-      </c>
-      <c r="V18">
-        <v>1.975</v>
-      </c>
       <c r="W18">
         <v>-1</v>
       </c>
@@ -2247,19 +2247,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB18">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2279,10 +2279,10 @@
         <v>45179.5</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7188989</v>
+        <v>7188990</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2368,13 +2368,13 @@
         <v>45179.5</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -2383,41 +2383,41 @@
         <v>92</v>
       </c>
       <c r="K20">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M20">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O20">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P20">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
+        <v>1.825</v>
+      </c>
+      <c r="V20">
         <v>1.975</v>
       </c>
-      <c r="V20">
-        <v>1.825</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
@@ -2425,19 +2425,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2445,7 +2445,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7188990</v>
+        <v>7188988</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2457,46 +2457,46 @@
         <v>45179.5</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
         <v>92</v>
       </c>
       <c r="K21">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N21">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P21">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
         <v>2.75</v>
@@ -2514,19 +2514,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2623,7 +2623,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7202437</v>
+        <v>7202436</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2635,58 +2635,58 @@
         <v>45182.5</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>91</v>
       </c>
       <c r="K23">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L23">
+        <v>3.75</v>
+      </c>
+      <c r="M23">
         <v>4.333</v>
       </c>
-      <c r="M23">
-        <v>6</v>
-      </c>
       <c r="N23">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="O23">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q23">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
-        <v>0.3999999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2695,16 +2695,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2712,7 +2712,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7202436</v>
+        <v>7202437</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2724,58 +2724,58 @@
         <v>45182.5</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>91</v>
       </c>
       <c r="K24">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L24">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <v>1.4</v>
+      </c>
+      <c r="O24">
         <v>4.333</v>
       </c>
-      <c r="N24">
-        <v>1.533</v>
-      </c>
-      <c r="O24">
-        <v>4</v>
-      </c>
       <c r="P24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R24">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S24">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U24">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>0.5329999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2784,16 +2784,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.35</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2994,7 +2994,7 @@
         <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3157,7 +3157,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7250138</v>
+        <v>7250137</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3169,76 +3169,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>74</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K29">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L29">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M29">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N29">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P29">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3246,7 +3246,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7250137</v>
+        <v>7250138</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3258,76 +3258,76 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
         <v>75</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K30">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L30">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N30">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O30">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P30">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S30">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y30">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3439,7 +3439,7 @@
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3513,7 +3513,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7291472</v>
+        <v>7291473</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3525,13 +3525,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3540,43 +3540,43 @@
         <v>91</v>
       </c>
       <c r="K33">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M33">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N33">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P33">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3585,13 +3585,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3602,7 +3602,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7291473</v>
+        <v>7291472</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3614,13 +3614,13 @@
         <v>45203.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3629,43 +3629,43 @@
         <v>91</v>
       </c>
       <c r="K34">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L34">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N34">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="O34">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P34">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q34">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W34">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3674,13 +3674,13 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3970,10 +3970,10 @@
         <v>45207.46875</v>
       </c>
       <c r="F38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" t="s">
         <v>34</v>
-      </c>
-      <c r="G38" t="s">
-        <v>35</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -4415,7 +4415,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>61</v>
@@ -4596,7 +4596,7 @@
         <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4863,7 +4863,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4952,7 +4952,7 @@
         <v>45</v>
       </c>
       <c r="G49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -5026,7 +5026,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7382546</v>
+        <v>7382547</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5038,76 +5038,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K50">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L50">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N50">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O50">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="Q50">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X50">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC50">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5115,7 +5115,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7382547</v>
+        <v>7382546</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5127,76 +5127,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>93</v>
+      </c>
+      <c r="K51">
+        <v>1.363</v>
+      </c>
+      <c r="L51">
+        <v>4.333</v>
+      </c>
+      <c r="M51">
+        <v>6.5</v>
+      </c>
+      <c r="N51">
+        <v>1.25</v>
+      </c>
+      <c r="O51">
         <v>5</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>91</v>
-      </c>
-      <c r="K51">
-        <v>2.3</v>
-      </c>
-      <c r="L51">
-        <v>3.4</v>
-      </c>
-      <c r="M51">
-        <v>2.625</v>
-      </c>
-      <c r="N51">
-        <v>2.3</v>
-      </c>
-      <c r="O51">
-        <v>3.4</v>
-      </c>
       <c r="P51">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5305,7 +5305,7 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
@@ -5394,10 +5394,10 @@
         <v>45228.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -6109,7 +6109,7 @@
         <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6361,7 +6361,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7493775</v>
+        <v>7493772</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6373,13 +6373,13 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -6388,43 +6388,43 @@
         <v>91</v>
       </c>
       <c r="K65">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L65">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M65">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N65">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O65">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P65">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q65">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R65">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S65">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U65">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6433,16 +6433,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB65">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6450,7 +6450,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7493774</v>
+        <v>7493773</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6462,61 +6462,61 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G66" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
         <v>93</v>
       </c>
       <c r="K66">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L66">
+        <v>6</v>
+      </c>
+      <c r="M66">
+        <v>9</v>
+      </c>
+      <c r="N66">
+        <v>1.2</v>
+      </c>
+      <c r="O66">
+        <v>6</v>
+      </c>
+      <c r="P66">
+        <v>9</v>
+      </c>
+      <c r="Q66">
+        <v>-2</v>
+      </c>
+      <c r="R66">
+        <v>1.85</v>
+      </c>
+      <c r="S66">
+        <v>1.95</v>
+      </c>
+      <c r="T66">
         <v>3.75</v>
       </c>
-      <c r="M66">
-        <v>4</v>
-      </c>
-      <c r="N66">
-        <v>1.45</v>
-      </c>
-      <c r="O66">
-        <v>3.8</v>
-      </c>
-      <c r="P66">
-        <v>5.75</v>
-      </c>
-      <c r="Q66">
-        <v>-1</v>
-      </c>
-      <c r="R66">
-        <v>1.825</v>
-      </c>
-      <c r="S66">
-        <v>1.975</v>
-      </c>
-      <c r="T66">
-        <v>2.75</v>
-      </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6525,13 +6525,13 @@
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC66">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6539,7 +6539,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7493773</v>
+        <v>7493775</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6551,76 +6551,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F67" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K67">
-        <v>1.2</v>
+        <v>1.727</v>
       </c>
       <c r="L67">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M67">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="N67">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="O67">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P67">
-        <v>9</v>
+        <v>5.25</v>
       </c>
       <c r="Q67">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T67">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V67">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X67">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AC67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6628,7 +6628,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7493772</v>
+        <v>7493774</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6640,76 +6640,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G68" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K68">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N68">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O68">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P68">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q68">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6717,7 +6717,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7493776</v>
+        <v>7493771</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6729,13 +6729,13 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -6744,43 +6744,43 @@
         <v>91</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L69">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O69">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S69">
         <v>1.975</v>
       </c>
       <c r="T69">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6789,16 +6789,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6806,7 +6806,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7493771</v>
+        <v>7493776</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6818,13 +6818,13 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6833,43 +6833,43 @@
         <v>91</v>
       </c>
       <c r="K70">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L70">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O70">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
         <v>1.975</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6878,16 +6878,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6910,7 +6910,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7073,7 +7073,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7520493</v>
+        <v>7517624</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7085,55 +7085,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F73" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G73" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J73" t="s">
         <v>92</v>
       </c>
       <c r="K73">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="L73">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="M73">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N73">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O73">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="P73">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="Q73">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R73">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
         <v>1.95</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
         <v>-1</v>
@@ -7142,7 +7142,7 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.95</v>
+        <v>4.25</v>
       </c>
       <c r="Z73">
         <v>-1</v>
@@ -7151,7 +7151,7 @@
         <v>0.95</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7162,7 +7162,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7517624</v>
+        <v>7520493</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7174,55 +7174,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F74" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G74" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J74" t="s">
         <v>92</v>
       </c>
       <c r="K74">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="L74">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="M74">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N74">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O74">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="P74">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S74">
         <v>1.95</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -7231,7 +7231,7 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>4.25</v>
+        <v>0.95</v>
       </c>
       <c r="Z74">
         <v>-1</v>
@@ -7240,7 +7240,7 @@
         <v>0.95</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7518,7 +7518,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7519478</v>
+        <v>7519479</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7530,55 +7530,55 @@
         <v>45256.40625</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>1</v>
-      </c>
-      <c r="I78">
-        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>92</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q78">
         <v>0.25</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7587,19 +7587,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
+        <v>1.2</v>
+      </c>
+      <c r="Z78">
+        <v>-1</v>
+      </c>
+      <c r="AA78">
         <v>1</v>
       </c>
-      <c r="Z78">
-        <v>-1</v>
-      </c>
-      <c r="AA78">
-        <v>0.8</v>
-      </c>
       <c r="AB78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7607,7 +7607,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7519479</v>
+        <v>7519478</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7622,52 +7622,52 @@
         <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>92</v>
       </c>
       <c r="K79">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N79">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q79">
         <v>0.25</v>
       </c>
       <c r="R79">
+        <v>2</v>
+      </c>
+      <c r="S79">
         <v>1.8</v>
       </c>
-      <c r="S79">
-        <v>2</v>
-      </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7676,19 +7676,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7800,7 +7800,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H81">
         <v>7</v>
@@ -7963,7 +7963,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7902469</v>
+        <v>7902467</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7975,34 +7975,34 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K83">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L83">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M83">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N83">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="O83">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P83">
         <v>4.333</v>
@@ -8011,40 +8011,40 @@
         <v>-1</v>
       </c>
       <c r="R83">
+        <v>1.925</v>
+      </c>
+      <c r="S83">
         <v>1.875</v>
       </c>
-      <c r="S83">
+      <c r="T83">
+        <v>3.25</v>
+      </c>
+      <c r="U83">
+        <v>1.775</v>
+      </c>
+      <c r="V83">
         <v>1.925</v>
       </c>
-      <c r="T83">
-        <v>2.5</v>
-      </c>
-      <c r="U83">
-        <v>1.9</v>
-      </c>
-      <c r="V83">
-        <v>1.9</v>
-      </c>
       <c r="W83">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8052,7 +8052,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7902467</v>
+        <v>7902469</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8064,34 +8064,34 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K84">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M84">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N84">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P84">
         <v>4.333</v>
@@ -8100,40 +8100,40 @@
         <v>-1</v>
       </c>
       <c r="R84">
+        <v>1.875</v>
+      </c>
+      <c r="S84">
         <v>1.925</v>
       </c>
-      <c r="S84">
-        <v>1.875</v>
-      </c>
       <c r="T84">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X84">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC84">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8423,7 +8423,7 @@
         <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8497,7 +8497,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7939609</v>
+        <v>7939610</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8509,46 +8509,46 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G89" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K89">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L89">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N89">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O89">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S89">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T89">
         <v>2.75</v>
@@ -8560,25 +8560,25 @@
         <v>2</v>
       </c>
       <c r="W89">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC89">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8586,7 +8586,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7939610</v>
+        <v>7939609</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8598,46 +8598,46 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G90" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="M90">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="N90">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
         <v>2.75</v>
@@ -8649,25 +8649,25 @@
         <v>2</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
+        <v>-1</v>
+      </c>
+      <c r="Z90">
+        <v>-0.5</v>
+      </c>
+      <c r="AA90">
+        <v>0.4625</v>
+      </c>
+      <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>1</v>
-      </c>
-      <c r="Z90">
-        <v>-1</v>
-      </c>
-      <c r="AA90">
-        <v>0.8</v>
-      </c>
-      <c r="AB90">
-        <v>0.8</v>
-      </c>
-      <c r="AC90">
-        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8776,7 +8776,7 @@
         <v>45361.48958333334</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>38</v>
@@ -8853,7 +8853,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7964849</v>
+        <v>7964850</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8865,46 +8865,46 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F93" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K93">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="L93">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="N93">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O93">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q93">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T93">
         <v>3</v>
@@ -8916,19 +8916,19 @@
         <v>1.85</v>
       </c>
       <c r="W93">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB93">
         <v>-1</v>
@@ -8942,7 +8942,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7964850</v>
+        <v>7964849</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8954,46 +8954,46 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F94" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G94" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K94">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M94">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="N94">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P94">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R94">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T94">
         <v>3</v>
@@ -9005,19 +9005,19 @@
         <v>1.85</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X94">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
         <v>-1</v>
@@ -9402,7 +9402,7 @@
         <v>44</v>
       </c>
       <c r="G99" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9491,7 +9491,7 @@
         <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9577,7 +9577,7 @@
         <v>45375.5</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
         <v>43</v>
@@ -9666,7 +9666,7 @@
         <v>45375.5</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
         <v>88</v>
@@ -10003,6 +10003,451 @@
       </c>
       <c r="AC105">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>8056438</v>
+      </c>
+      <c r="C106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45388.47916666666</v>
+      </c>
+      <c r="F106" t="s">
+        <v>46</v>
+      </c>
+      <c r="G106" t="s">
+        <v>78</v>
+      </c>
+      <c r="H106">
+        <v>3</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>91</v>
+      </c>
+      <c r="K106">
+        <v>1.181</v>
+      </c>
+      <c r="L106">
+        <v>6.5</v>
+      </c>
+      <c r="M106">
+        <v>9</v>
+      </c>
+      <c r="N106">
+        <v>1.181</v>
+      </c>
+      <c r="O106">
+        <v>6.5</v>
+      </c>
+      <c r="P106">
+        <v>10</v>
+      </c>
+      <c r="Q106">
+        <v>-2</v>
+      </c>
+      <c r="R106">
+        <v>1.825</v>
+      </c>
+      <c r="S106">
+        <v>1.975</v>
+      </c>
+      <c r="T106">
+        <v>3.25</v>
+      </c>
+      <c r="U106">
+        <v>2</v>
+      </c>
+      <c r="V106">
+        <v>1.8</v>
+      </c>
+      <c r="W106">
+        <v>0.181</v>
+      </c>
+      <c r="X106">
+        <v>-1</v>
+      </c>
+      <c r="Y106">
+        <v>-1</v>
+      </c>
+      <c r="Z106">
+        <v>0.825</v>
+      </c>
+      <c r="AA106">
+        <v>-1</v>
+      </c>
+      <c r="AB106">
+        <v>-0.5</v>
+      </c>
+      <c r="AC106">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>8061518</v>
+      </c>
+      <c r="C107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45389.47916666666</v>
+      </c>
+      <c r="F107" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" t="s">
+        <v>58</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>91</v>
+      </c>
+      <c r="K107">
+        <v>2.5</v>
+      </c>
+      <c r="L107">
+        <v>3.4</v>
+      </c>
+      <c r="M107">
+        <v>2.375</v>
+      </c>
+      <c r="N107">
+        <v>2.375</v>
+      </c>
+      <c r="O107">
+        <v>3.4</v>
+      </c>
+      <c r="P107">
+        <v>2.5</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>1.825</v>
+      </c>
+      <c r="S107">
+        <v>1.975</v>
+      </c>
+      <c r="T107">
+        <v>2.75</v>
+      </c>
+      <c r="U107">
+        <v>1.95</v>
+      </c>
+      <c r="V107">
+        <v>1.85</v>
+      </c>
+      <c r="W107">
+        <v>1.375</v>
+      </c>
+      <c r="X107">
+        <v>-1</v>
+      </c>
+      <c r="Y107">
+        <v>-1</v>
+      </c>
+      <c r="Z107">
+        <v>0.825</v>
+      </c>
+      <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
+        <v>-1</v>
+      </c>
+      <c r="AC107">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>8061387</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45389.47916666666</v>
+      </c>
+      <c r="F108" t="s">
+        <v>59</v>
+      </c>
+      <c r="G108" t="s">
+        <v>41</v>
+      </c>
+      <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>91</v>
+      </c>
+      <c r="K108">
+        <v>1.533</v>
+      </c>
+      <c r="L108">
+        <v>4</v>
+      </c>
+      <c r="M108">
+        <v>4.75</v>
+      </c>
+      <c r="N108">
+        <v>1.4</v>
+      </c>
+      <c r="O108">
+        <v>4.333</v>
+      </c>
+      <c r="P108">
+        <v>5.75</v>
+      </c>
+      <c r="Q108">
+        <v>-1.25</v>
+      </c>
+      <c r="R108">
+        <v>1.95</v>
+      </c>
+      <c r="S108">
+        <v>1.85</v>
+      </c>
+      <c r="T108">
+        <v>3</v>
+      </c>
+      <c r="U108">
+        <v>1.8</v>
+      </c>
+      <c r="V108">
+        <v>2</v>
+      </c>
+      <c r="W108">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X108">
+        <v>-1</v>
+      </c>
+      <c r="Y108">
+        <v>-1</v>
+      </c>
+      <c r="Z108">
+        <v>0.95</v>
+      </c>
+      <c r="AA108">
+        <v>-1</v>
+      </c>
+      <c r="AB108">
+        <v>-1</v>
+      </c>
+      <c r="AC108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>8061520</v>
+      </c>
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45389.5</v>
+      </c>
+      <c r="F109" t="s">
+        <v>36</v>
+      </c>
+      <c r="G109" t="s">
+        <v>88</v>
+      </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109">
+        <v>6</v>
+      </c>
+      <c r="J109" t="s">
+        <v>92</v>
+      </c>
+      <c r="K109">
+        <v>5</v>
+      </c>
+      <c r="L109">
+        <v>4</v>
+      </c>
+      <c r="M109">
+        <v>1.5</v>
+      </c>
+      <c r="N109">
+        <v>6.5</v>
+      </c>
+      <c r="O109">
+        <v>4.2</v>
+      </c>
+      <c r="P109">
+        <v>1.4</v>
+      </c>
+      <c r="Q109">
+        <v>1.25</v>
+      </c>
+      <c r="R109">
+        <v>1.825</v>
+      </c>
+      <c r="S109">
+        <v>1.975</v>
+      </c>
+      <c r="T109">
+        <v>2.5</v>
+      </c>
+      <c r="U109">
+        <v>1.8</v>
+      </c>
+      <c r="V109">
+        <v>2</v>
+      </c>
+      <c r="W109">
+        <v>-1</v>
+      </c>
+      <c r="X109">
+        <v>-1</v>
+      </c>
+      <c r="Y109">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="Z109">
+        <v>-1</v>
+      </c>
+      <c r="AA109">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB109">
+        <v>0.8</v>
+      </c>
+      <c r="AC109">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>8061519</v>
+      </c>
+      <c r="C110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45389.5</v>
+      </c>
+      <c r="F110" t="s">
+        <v>34</v>
+      </c>
+      <c r="G110" t="s">
+        <v>45</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>92</v>
+      </c>
+      <c r="K110">
+        <v>2.5</v>
+      </c>
+      <c r="L110">
+        <v>3.4</v>
+      </c>
+      <c r="M110">
+        <v>2.375</v>
+      </c>
+      <c r="N110">
+        <v>2.5</v>
+      </c>
+      <c r="O110">
+        <v>3.4</v>
+      </c>
+      <c r="P110">
+        <v>2.375</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>1.975</v>
+      </c>
+      <c r="S110">
+        <v>1.825</v>
+      </c>
+      <c r="T110">
+        <v>2.75</v>
+      </c>
+      <c r="U110">
+        <v>1.825</v>
+      </c>
+      <c r="V110">
+        <v>1.975</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
+        <v>1.375</v>
+      </c>
+      <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
+        <v>0.825</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
+        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Croatia 3NL/Croatia 3NL.xlsx
+++ b/Croatia 3NL/Croatia 3NL.xlsx
@@ -121,10 +121,10 @@
     <t>NK Bistra</t>
   </si>
   <si>
-    <t>NK Tomislav</t>
+    <t>Sava Strmec</t>
   </si>
   <si>
-    <t>Sava Strmec</t>
+    <t>NK Tomislav</t>
   </si>
   <si>
     <t>Lucko</t>
@@ -133,13 +133,13 @@
     <t>Gaj Mace</t>
   </si>
   <si>
+    <t>RNK Split</t>
+  </si>
+  <si>
     <t>NK Vodice</t>
   </si>
   <si>
     <t>Zmaj Makarska</t>
-  </si>
-  <si>
-    <t>RNK Split</t>
   </si>
   <si>
     <t>NK Udarnik Kurilovec</t>
@@ -211,19 +211,19 @@
     <t>Valpovka</t>
   </si>
   <si>
-    <t>Slavija Pleternica</t>
+    <t>NK Vrapce</t>
   </si>
   <si>
-    <t>NK Vrapce</t>
+    <t>Slavija Pleternica</t>
   </si>
   <si>
     <t>NK Oriolik Oriovac</t>
   </si>
   <si>
-    <t>NK Uskok</t>
+    <t>NK Kamen Ivanbegovina</t>
   </si>
   <si>
-    <t>NK Kamen Ivanbegovina</t>
+    <t>NK Uskok</t>
   </si>
   <si>
     <t>NK Nask Nasice</t>
@@ -1199,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7126859</v>
+        <v>7126857</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1211,76 +1211,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
         <v>65</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K7">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="N7">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1288,7 +1288,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7126857</v>
+        <v>7126859</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1300,76 +1300,76 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
         <v>66</v>
       </c>
       <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8">
+        <v>1.5</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>1.5</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>-1</v>
+      </c>
+      <c r="R8">
+        <v>1.8</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
         <v>3</v>
       </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>91</v>
-      </c>
-      <c r="K8">
-        <v>2.875</v>
-      </c>
-      <c r="L8">
-        <v>3.5</v>
-      </c>
-      <c r="M8">
-        <v>2.1</v>
-      </c>
-      <c r="N8">
-        <v>2.9</v>
-      </c>
-      <c r="O8">
-        <v>3.5</v>
-      </c>
-      <c r="P8">
-        <v>2.1</v>
-      </c>
-      <c r="Q8">
-        <v>0.25</v>
-      </c>
-      <c r="R8">
-        <v>1.925</v>
-      </c>
-      <c r="S8">
-        <v>1.875</v>
-      </c>
-      <c r="T8">
-        <v>2.75</v>
-      </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1377,7 +1377,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7126860</v>
+        <v>7126858</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1392,73 +1392,73 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K9">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L9">
         <v>3.4</v>
       </c>
       <c r="M9">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N9">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1466,7 +1466,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7126858</v>
+        <v>7126860</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1481,73 +1481,73 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K10">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L10">
         <v>3.4</v>
       </c>
       <c r="M10">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N10">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R10">
+        <v>1.975</v>
+      </c>
+      <c r="S10">
+        <v>1.725</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
         <v>1.95</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>1.85</v>
       </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.9</v>
-      </c>
-      <c r="V10">
-        <v>1.9</v>
-      </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y10">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
+        <v>-0</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB10">
-        <v>-1</v>
-      </c>
-      <c r="AC10">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1659,7 +1659,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1748,7 +1748,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1822,7 +1822,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7183189</v>
+        <v>7183190</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1840,70 +1840,70 @@
         <v>68</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K14">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
+        <v>3.75</v>
+      </c>
+      <c r="N14">
+        <v>1.727</v>
+      </c>
+      <c r="O14">
+        <v>3.75</v>
+      </c>
+      <c r="P14">
+        <v>3.75</v>
+      </c>
+      <c r="Q14">
+        <v>-0.75</v>
+      </c>
+      <c r="R14">
+        <v>1.975</v>
+      </c>
+      <c r="S14">
+        <v>1.825</v>
+      </c>
+      <c r="T14">
         <v>3</v>
       </c>
-      <c r="N14">
-        <v>2.1</v>
-      </c>
-      <c r="O14">
-        <v>3.3</v>
-      </c>
-      <c r="P14">
-        <v>3</v>
-      </c>
-      <c r="Q14">
-        <v>-0.25</v>
-      </c>
-      <c r="R14">
-        <v>1.9</v>
-      </c>
-      <c r="S14">
-        <v>1.9</v>
-      </c>
-      <c r="T14">
+      <c r="U14">
+        <v>1.95</v>
+      </c>
+      <c r="V14">
+        <v>1.85</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
         <v>2.75</v>
       </c>
-      <c r="U14">
-        <v>1.925</v>
-      </c>
-      <c r="V14">
-        <v>1.775</v>
-      </c>
-      <c r="W14">
-        <v>-1</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
       <c r="Y14">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC14">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1911,7 +1911,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7183191</v>
+        <v>7183189</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1926,52 +1926,52 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>1</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>92</v>
       </c>
       <c r="K15">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P15">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1980,19 +1980,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB15">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2000,7 +2000,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7183190</v>
+        <v>7183191</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2015,73 +2015,73 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K16">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L16">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N16">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2178,7 +2178,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7188989</v>
+        <v>7188987</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2190,56 +2190,56 @@
         <v>45179.5</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>1</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>92</v>
       </c>
       <c r="K18">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L18">
         <v>3.4</v>
       </c>
       <c r="M18">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="N18">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O18">
         <v>3.4</v>
       </c>
       <c r="P18">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
+        <v>1.85</v>
+      </c>
+      <c r="S18">
         <v>1.95</v>
-      </c>
-      <c r="S18">
-        <v>1.85</v>
       </c>
       <c r="T18">
         <v>3</v>
       </c>
       <c r="U18">
+        <v>1.825</v>
+      </c>
+      <c r="V18">
         <v>1.975</v>
       </c>
-      <c r="V18">
-        <v>1.825</v>
-      </c>
       <c r="W18">
         <v>-1</v>
       </c>
@@ -2247,19 +2247,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.4</v>
+        <v>0.909</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2267,7 +2267,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7188987</v>
+        <v>7188988</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2279,49 +2279,49 @@
         <v>45179.5</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
         <v>92</v>
       </c>
       <c r="K19">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="L19">
         <v>3.4</v>
       </c>
       <c r="M19">
+        <v>3.4</v>
+      </c>
+      <c r="N19">
         <v>1.909</v>
-      </c>
-      <c r="N19">
-        <v>3.5</v>
       </c>
       <c r="O19">
         <v>3.4</v>
       </c>
       <c r="P19">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
         <v>1.825</v>
@@ -2336,19 +2336,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.909</v>
+        <v>2.4</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2445,7 +2445,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7188988</v>
+        <v>7188989</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2457,56 +2457,56 @@
         <v>45179.5</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
         <v>92</v>
       </c>
       <c r="K21">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L21">
         <v>3.4</v>
       </c>
       <c r="M21">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O21">
         <v>3.4</v>
       </c>
       <c r="P21">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
+        <v>1.85</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21">
         <v>1.975</v>
       </c>
-      <c r="S21">
+      <c r="V21">
         <v>1.825</v>
       </c>
-      <c r="T21">
-        <v>2.75</v>
-      </c>
-      <c r="U21">
-        <v>1.825</v>
-      </c>
-      <c r="V21">
-        <v>1.975</v>
-      </c>
       <c r="W21">
         <v>-1</v>
       </c>
@@ -2514,19 +2514,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB21">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2534,7 +2534,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7202435</v>
+        <v>7202437</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2546,10 +2546,10 @@
         <v>45182.5</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>6</v>
@@ -2561,43 +2561,43 @@
         <v>91</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M22">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O22">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P22">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R22">
+        <v>1.85</v>
+      </c>
+      <c r="S22">
+        <v>1.95</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+      <c r="U22">
         <v>1.8</v>
       </c>
-      <c r="S22">
-        <v>2</v>
-      </c>
-      <c r="T22">
-        <v>2.75</v>
-      </c>
-      <c r="U22">
-        <v>1.825</v>
-      </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2606,13 +2606,13 @@
         <v>-1</v>
       </c>
       <c r="Z22">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
         <v>0.8</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>0.825</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2712,7 +2712,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7202437</v>
+        <v>7202435</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2724,10 +2724,10 @@
         <v>45182.5</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="H24">
         <v>6</v>
@@ -2739,43 +2739,43 @@
         <v>91</v>
       </c>
       <c r="K24">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N24">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
-        <v>0.3999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2784,13 +2784,13 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2813,7 +2813,7 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
         <v>47</v>
@@ -3258,7 +3258,7 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
         <v>75</v>
@@ -3439,7 +3439,7 @@
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3617,7 +3617,7 @@
         <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3691,7 +3691,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7305881</v>
+        <v>7305882</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3703,76 +3703,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>92</v>
+      </c>
+      <c r="K35">
+        <v>3.6</v>
+      </c>
+      <c r="L35">
         <v>4</v>
       </c>
-      <c r="I35">
-        <v>2</v>
-      </c>
-      <c r="J35" t="s">
-        <v>91</v>
-      </c>
-      <c r="K35">
-        <v>1.363</v>
-      </c>
-      <c r="L35">
-        <v>4.75</v>
-      </c>
       <c r="M35">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="N35">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O35">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P35">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q35">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R35">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V35">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W35">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z35">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB35">
+        <v>-1</v>
+      </c>
+      <c r="AC35">
         <v>1</v>
-      </c>
-      <c r="AC35">
-        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3780,7 +3780,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7305882</v>
+        <v>7305881</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3792,76 +3792,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I36">
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K36">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M36">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="N36">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O36">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P36">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="Q36">
+        <v>-1.25</v>
+      </c>
+      <c r="R36">
+        <v>1.75</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
+        <v>1.8</v>
+      </c>
+      <c r="W36">
+        <v>0.363</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
+        <v>-1</v>
+